--- a/PL Predictions Blank.xlsx
+++ b/PL Predictions Blank.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\consu\Desktop\Local Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{564FEF45-CE02-4983-BE4C-5D9CDC8017A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E9B91EC-4184-4546-9DCF-98ADF19F8F71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{47412CFC-7E53-4F06-9F46-2618A72633B9}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1308" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1422" uniqueCount="113">
   <si>
     <t>Callum</t>
   </si>
@@ -726,7 +726,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="2">
       <alignment horizontal="center" vertical="center"/>
@@ -803,14 +803,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="2" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="5" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="2">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="2" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="3" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Calculation" xfId="4" builtinId="22"/>
@@ -1161,7 +1167,7 @@
   <dimension ref="B3:U61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R25" sqref="R25"/>
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3079,7 +3085,7 @@
         <v>98</v>
       </c>
       <c r="C42" s="20">
-        <f t="shared" ref="C42:I42" ca="1" si="0">SUM(C4:C41)</f>
+        <f t="shared" ref="C42:H42" ca="1" si="0">SUM(C4:C41)</f>
         <v>0</v>
       </c>
       <c r="D42" s="20">
@@ -3173,89 +3179,89 @@
       </c>
     </row>
     <row r="49" spans="20:21" x14ac:dyDescent="0.25">
-      <c r="T49" s="36"/>
-      <c r="U49" s="36"/>
+      <c r="T49" s="34"/>
+      <c r="U49" s="34"/>
     </row>
     <row r="50" spans="20:21" x14ac:dyDescent="0.25">
-      <c r="T50" s="36" cm="1">
+      <c r="T50" s="34" cm="1">
         <f t="array" aca="1" ref="T50:T60" ca="1">TRANSPOSE(C42:M42)</f>
         <v>0</v>
       </c>
-      <c r="U50" s="36"/>
+      <c r="U50" s="34"/>
     </row>
     <row r="51" spans="20:21" x14ac:dyDescent="0.25">
-      <c r="T51" s="36">
+      <c r="T51" s="34">
         <f ca="1"/>
         <v>0</v>
       </c>
-      <c r="U51" s="36"/>
+      <c r="U51" s="34"/>
     </row>
     <row r="52" spans="20:21" x14ac:dyDescent="0.25">
-      <c r="T52" s="36">
+      <c r="T52" s="34">
         <f ca="1"/>
         <v>0</v>
       </c>
-      <c r="U52" s="36"/>
+      <c r="U52" s="34"/>
     </row>
     <row r="53" spans="20:21" x14ac:dyDescent="0.25">
-      <c r="T53" s="36">
+      <c r="T53" s="34">
         <f ca="1"/>
         <v>0</v>
       </c>
-      <c r="U53" s="36"/>
+      <c r="U53" s="34"/>
     </row>
     <row r="54" spans="20:21" x14ac:dyDescent="0.25">
-      <c r="T54" s="36">
+      <c r="T54" s="34">
         <f ca="1"/>
         <v>0</v>
       </c>
-      <c r="U54" s="36"/>
+      <c r="U54" s="34"/>
     </row>
     <row r="55" spans="20:21" x14ac:dyDescent="0.25">
-      <c r="T55" s="36">
+      <c r="T55" s="34">
         <f ca="1"/>
         <v>0</v>
       </c>
-      <c r="U55" s="36"/>
+      <c r="U55" s="34"/>
     </row>
     <row r="56" spans="20:21" x14ac:dyDescent="0.25">
-      <c r="T56" s="36">
+      <c r="T56" s="34">
         <f ca="1"/>
         <v>0</v>
       </c>
-      <c r="U56" s="36"/>
+      <c r="U56" s="34"/>
     </row>
     <row r="57" spans="20:21" x14ac:dyDescent="0.25">
-      <c r="T57" s="36">
+      <c r="T57" s="34">
         <f ca="1"/>
         <v>0</v>
       </c>
-      <c r="U57" s="36"/>
+      <c r="U57" s="34"/>
     </row>
     <row r="58" spans="20:21" x14ac:dyDescent="0.25">
-      <c r="T58" s="36">
+      <c r="T58" s="34">
         <f ca="1"/>
         <v>0</v>
       </c>
-      <c r="U58" s="36"/>
+      <c r="U58" s="34"/>
     </row>
     <row r="59" spans="20:21" x14ac:dyDescent="0.25">
-      <c r="T59" s="36">
+      <c r="T59" s="34">
         <f ca="1"/>
         <v>0</v>
       </c>
-      <c r="U59" s="36"/>
+      <c r="U59" s="34"/>
     </row>
     <row r="60" spans="20:21" x14ac:dyDescent="0.25">
-      <c r="T60" s="36">
+      <c r="T60" s="34">
         <f ca="1"/>
         <v>0</v>
       </c>
-      <c r="U60" s="36"/>
+      <c r="U60" s="34"/>
     </row>
     <row r="61" spans="20:21" x14ac:dyDescent="0.25">
-      <c r="T61" s="36"/>
-      <c r="U61" s="36"/>
+      <c r="T61" s="34"/>
+      <c r="U61" s="34"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C2:D8">
@@ -3268,10 +3274,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F31CCA1-9181-4415-8A17-EAD3268B00A4}">
-  <dimension ref="B1:Y301"/>
+  <dimension ref="B1:AC301"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O184" sqref="O184"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3285,9 +3291,10 @@
     <col min="17" max="17" width="9.7109375" customWidth="1"/>
     <col min="18" max="18" width="20.140625" customWidth="1"/>
     <col min="19" max="25" width="9.7109375" customWidth="1"/>
+    <col min="26" max="26" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C1" s="1" t="s">
         <v>44</v>
       </c>
@@ -3295,7 +3302,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C2" s="1" t="s">
         <v>45</v>
       </c>
@@ -3303,7 +3310,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>52</v>
       </c>
@@ -3364,8 +3371,19 @@
       <c r="Y4" s="23" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="5" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Z4" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA4" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB4" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC4" s="23"/>
+    </row>
+    <row r="5" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="16"/>
       <c r="C5" s="1"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -3378,6 +3396,7 @@
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
+      <c r="Q5" s="16"/>
       <c r="R5" s="23"/>
       <c r="S5" s="3"/>
       <c r="T5" s="3"/>
@@ -3386,8 +3405,13 @@
       <c r="W5" s="3"/>
       <c r="X5" s="3"/>
       <c r="Y5" s="3"/>
-    </row>
-    <row r="6" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Z5" s="3"/>
+      <c r="AA5" s="3"/>
+      <c r="AB5" s="3"/>
+      <c r="AC5" s="3"/>
+    </row>
+    <row r="6" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="16"/>
       <c r="C6" s="1"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
@@ -3400,6 +3424,7 @@
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
+      <c r="Q6" s="16"/>
       <c r="R6" s="23"/>
       <c r="S6" s="3"/>
       <c r="T6" s="3"/>
@@ -3408,8 +3433,13 @@
       <c r="W6" s="3"/>
       <c r="X6" s="3"/>
       <c r="Y6" s="3"/>
-    </row>
-    <row r="7" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Z6" s="3"/>
+      <c r="AA6" s="3"/>
+      <c r="AB6" s="3"/>
+      <c r="AC6" s="3"/>
+    </row>
+    <row r="7" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="16"/>
       <c r="C7" s="1"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -3422,6 +3452,7 @@
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
+      <c r="Q7" s="16"/>
       <c r="R7" s="23"/>
       <c r="S7" s="3"/>
       <c r="T7" s="3"/>
@@ -3430,8 +3461,13 @@
       <c r="W7" s="3"/>
       <c r="X7" s="3"/>
       <c r="Y7" s="3"/>
-    </row>
-    <row r="8" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Z7" s="3"/>
+      <c r="AA7" s="3"/>
+      <c r="AB7" s="3"/>
+      <c r="AC7" s="3"/>
+    </row>
+    <row r="8" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B8" s="16"/>
       <c r="C8" s="1"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -3444,6 +3480,7 @@
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
+      <c r="Q8" s="16"/>
       <c r="R8" s="23"/>
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
@@ -3452,8 +3489,12 @@
       <c r="W8" s="3"/>
       <c r="X8" s="3"/>
       <c r="Y8" s="3"/>
-    </row>
-    <row r="9" spans="2:25" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z8" s="3"/>
+      <c r="AA8" s="3"/>
+      <c r="AB8" s="3"/>
+      <c r="AC8" s="3"/>
+    </row>
+    <row r="9" spans="2:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C9" s="22" t="s">
         <v>43</v>
       </c>
@@ -3478,8 +3519,12 @@
       <c r="W9" s="23"/>
       <c r="X9" s="23"/>
       <c r="Y9" s="23"/>
-    </row>
-    <row r="10" spans="2:25" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z9" s="23"/>
+      <c r="AA9" s="23"/>
+      <c r="AB9" s="23"/>
+      <c r="AC9" s="23"/>
+    </row>
+    <row r="10" spans="2:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C10" s="21" t="s">
         <v>55</v>
       </c>
@@ -3504,8 +3549,12 @@
       <c r="W10" s="25"/>
       <c r="X10" s="25"/>
       <c r="Y10" s="25"/>
-    </row>
-    <row r="11" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Z10" s="25"/>
+      <c r="AA10" s="25"/>
+      <c r="AB10" s="25"/>
+      <c r="AC10" s="25"/>
+    </row>
+    <row r="11" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>6</v>
       </c>
@@ -3566,8 +3615,19 @@
       <c r="Y11" s="23" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="12" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Z11" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA11" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB11" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC11" s="23"/>
+    </row>
+    <row r="12" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B12" s="16"/>
       <c r="C12" s="1"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
@@ -3580,6 +3640,7 @@
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
+      <c r="Q12" s="16"/>
       <c r="R12" s="23"/>
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
@@ -3588,8 +3649,13 @@
       <c r="W12" s="3"/>
       <c r="X12" s="3"/>
       <c r="Y12" s="3"/>
-    </row>
-    <row r="13" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Z12" s="3"/>
+      <c r="AA12" s="3"/>
+      <c r="AB12" s="3"/>
+      <c r="AC12" s="3"/>
+    </row>
+    <row r="13" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B13" s="16"/>
       <c r="C13" s="1"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
@@ -3602,6 +3668,7 @@
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
+      <c r="Q13" s="16"/>
       <c r="R13" s="23"/>
       <c r="S13" s="3"/>
       <c r="T13" s="3"/>
@@ -3610,8 +3677,13 @@
       <c r="W13" s="3"/>
       <c r="X13" s="3"/>
       <c r="Y13" s="3"/>
-    </row>
-    <row r="14" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Z13" s="3"/>
+      <c r="AA13" s="3"/>
+      <c r="AB13" s="3"/>
+      <c r="AC13" s="3"/>
+    </row>
+    <row r="14" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B14" s="16"/>
       <c r="C14" s="1"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
@@ -3624,6 +3696,7 @@
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
+      <c r="Q14" s="16"/>
       <c r="R14" s="23"/>
       <c r="S14" s="3"/>
       <c r="T14" s="3"/>
@@ -3632,8 +3705,13 @@
       <c r="W14" s="3"/>
       <c r="X14" s="3"/>
       <c r="Y14" s="3"/>
-    </row>
-    <row r="15" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Z14" s="3"/>
+      <c r="AA14" s="3"/>
+      <c r="AB14" s="3"/>
+      <c r="AC14" s="3"/>
+    </row>
+    <row r="15" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B15" s="16"/>
       <c r="C15" s="1"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
@@ -3646,6 +3724,7 @@
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
+      <c r="Q15" s="16"/>
       <c r="R15" s="23"/>
       <c r="S15" s="3"/>
       <c r="T15" s="3"/>
@@ -3654,8 +3733,12 @@
       <c r="W15" s="3"/>
       <c r="X15" s="3"/>
       <c r="Y15" s="3"/>
-    </row>
-    <row r="16" spans="2:25" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z15" s="3"/>
+      <c r="AA15" s="3"/>
+      <c r="AB15" s="3"/>
+      <c r="AC15" s="3"/>
+    </row>
+    <row r="16" spans="2:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C16" s="22" t="s">
         <v>43</v>
       </c>
@@ -3680,8 +3763,12 @@
       <c r="W16" s="23"/>
       <c r="X16" s="23"/>
       <c r="Y16" s="23"/>
-    </row>
-    <row r="17" spans="2:25" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z16" s="23"/>
+      <c r="AA16" s="23"/>
+      <c r="AB16" s="23"/>
+      <c r="AC16" s="23"/>
+    </row>
+    <row r="17" spans="2:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C17" s="21" t="s">
         <v>55</v>
       </c>
@@ -3706,8 +3793,12 @@
       <c r="W17" s="25"/>
       <c r="X17" s="25"/>
       <c r="Y17" s="25"/>
-    </row>
-    <row r="18" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Z17" s="25"/>
+      <c r="AA17" s="25"/>
+      <c r="AB17" s="25"/>
+      <c r="AC17" s="25"/>
+    </row>
+    <row r="18" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>7</v>
       </c>
@@ -3768,8 +3859,19 @@
       <c r="Y18" s="23" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="19" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Z18" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA18" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB18" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC18" s="23"/>
+    </row>
+    <row r="19" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B19" s="16"/>
       <c r="C19" s="1"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
@@ -3782,6 +3884,7 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
+      <c r="Q19" s="16"/>
       <c r="R19" s="23"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
@@ -3790,8 +3893,13 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B20" s="16"/>
       <c r="C20" s="1"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
@@ -3804,6 +3912,7 @@
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
+      <c r="Q20" s="16"/>
       <c r="R20" s="23"/>
       <c r="S20" s="3"/>
       <c r="T20" s="3"/>
@@ -3812,8 +3921,13 @@
       <c r="W20" s="3"/>
       <c r="X20" s="3"/>
       <c r="Y20" s="3"/>
-    </row>
-    <row r="21" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Z20" s="3"/>
+      <c r="AA20" s="3"/>
+      <c r="AB20" s="3"/>
+      <c r="AC20" s="3"/>
+    </row>
+    <row r="21" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B21" s="16"/>
       <c r="C21" s="1"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
@@ -3826,6 +3940,7 @@
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
+      <c r="Q21" s="16"/>
       <c r="R21" s="23"/>
       <c r="S21" s="3"/>
       <c r="T21" s="3"/>
@@ -3834,8 +3949,13 @@
       <c r="W21" s="3"/>
       <c r="X21" s="3"/>
       <c r="Y21" s="3"/>
-    </row>
-    <row r="22" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Z21" s="3"/>
+      <c r="AA21" s="3"/>
+      <c r="AB21" s="3"/>
+      <c r="AC21" s="3"/>
+    </row>
+    <row r="22" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B22" s="16"/>
       <c r="C22" s="1"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
@@ -3848,6 +3968,7 @@
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
+      <c r="Q22" s="16"/>
       <c r="R22" s="23"/>
       <c r="S22" s="3"/>
       <c r="T22" s="3"/>
@@ -3856,8 +3977,12 @@
       <c r="W22" s="3"/>
       <c r="X22" s="3"/>
       <c r="Y22" s="3"/>
-    </row>
-    <row r="23" spans="2:25" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z22" s="3"/>
+      <c r="AA22" s="3"/>
+      <c r="AB22" s="3"/>
+      <c r="AC22" s="3"/>
+    </row>
+    <row r="23" spans="2:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C23" s="22" t="s">
         <v>43</v>
       </c>
@@ -3882,8 +4007,12 @@
       <c r="W23" s="23"/>
       <c r="X23" s="23"/>
       <c r="Y23" s="23"/>
-    </row>
-    <row r="24" spans="2:25" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z23" s="23"/>
+      <c r="AA23" s="23"/>
+      <c r="AB23" s="23"/>
+      <c r="AC23" s="23"/>
+    </row>
+    <row r="24" spans="2:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C24" s="21" t="s">
         <v>55</v>
       </c>
@@ -3908,8 +4037,12 @@
       <c r="W24" s="25"/>
       <c r="X24" s="25"/>
       <c r="Y24" s="25"/>
-    </row>
-    <row r="25" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Z24" s="25"/>
+      <c r="AA24" s="25"/>
+      <c r="AB24" s="25"/>
+      <c r="AC24" s="25"/>
+    </row>
+    <row r="25" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>8</v>
       </c>
@@ -3970,8 +4103,19 @@
       <c r="Y25" s="23" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="26" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Z25" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA25" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB25" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC25" s="23"/>
+    </row>
+    <row r="26" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B26" s="16"/>
       <c r="C26" s="1"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
@@ -3984,6 +4128,7 @@
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
+      <c r="Q26" s="16"/>
       <c r="R26" s="23"/>
       <c r="S26" s="3"/>
       <c r="T26" s="3"/>
@@ -3992,8 +4137,13 @@
       <c r="W26" s="3"/>
       <c r="X26" s="3"/>
       <c r="Y26" s="3"/>
-    </row>
-    <row r="27" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Z26" s="3"/>
+      <c r="AA26" s="3"/>
+      <c r="AB26" s="3"/>
+      <c r="AC26" s="3"/>
+    </row>
+    <row r="27" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B27" s="16"/>
       <c r="C27" s="1"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
@@ -4006,6 +4156,7 @@
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
+      <c r="Q27" s="16"/>
       <c r="R27" s="23"/>
       <c r="S27" s="3"/>
       <c r="T27" s="3"/>
@@ -4014,8 +4165,13 @@
       <c r="W27" s="3"/>
       <c r="X27" s="3"/>
       <c r="Y27" s="3"/>
-    </row>
-    <row r="28" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Z27" s="3"/>
+      <c r="AA27" s="3"/>
+      <c r="AB27" s="3"/>
+      <c r="AC27" s="3"/>
+    </row>
+    <row r="28" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B28" s="16"/>
       <c r="C28" s="1"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
@@ -4028,6 +4184,7 @@
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
+      <c r="Q28" s="16"/>
       <c r="R28" s="23"/>
       <c r="S28" s="3"/>
       <c r="T28" s="3"/>
@@ -4036,8 +4193,13 @@
       <c r="W28" s="3"/>
       <c r="X28" s="3"/>
       <c r="Y28" s="3"/>
-    </row>
-    <row r="29" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Z28" s="3"/>
+      <c r="AA28" s="3"/>
+      <c r="AB28" s="3"/>
+      <c r="AC28" s="3"/>
+    </row>
+    <row r="29" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B29" s="16"/>
       <c r="C29" s="1"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
@@ -4050,6 +4212,7 @@
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
+      <c r="Q29" s="16"/>
       <c r="R29" s="23"/>
       <c r="S29" s="3"/>
       <c r="T29" s="3"/>
@@ -4058,8 +4221,12 @@
       <c r="W29" s="3"/>
       <c r="X29" s="3"/>
       <c r="Y29" s="3"/>
-    </row>
-    <row r="30" spans="2:25" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z29" s="3"/>
+      <c r="AA29" s="3"/>
+      <c r="AB29" s="3"/>
+      <c r="AC29" s="3"/>
+    </row>
+    <row r="30" spans="2:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C30" s="22" t="s">
         <v>43</v>
       </c>
@@ -4084,8 +4251,12 @@
       <c r="W30" s="23"/>
       <c r="X30" s="23"/>
       <c r="Y30" s="23"/>
-    </row>
-    <row r="31" spans="2:25" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z30" s="23"/>
+      <c r="AA30" s="23"/>
+      <c r="AB30" s="23"/>
+      <c r="AC30" s="23"/>
+    </row>
+    <row r="31" spans="2:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C31" s="21" t="s">
         <v>55</v>
       </c>
@@ -4110,8 +4281,12 @@
       <c r="W31" s="25"/>
       <c r="X31" s="25"/>
       <c r="Y31" s="25"/>
-    </row>
-    <row r="32" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Z31" s="25"/>
+      <c r="AA31" s="25"/>
+      <c r="AB31" s="25"/>
+      <c r="AC31" s="25"/>
+    </row>
+    <row r="32" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>9</v>
       </c>
@@ -4172,8 +4347,19 @@
       <c r="Y32" s="23" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="33" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Z32" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA32" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB32" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC32" s="23"/>
+    </row>
+    <row r="33" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B33" s="16"/>
       <c r="C33" s="1"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
@@ -4186,6 +4372,7 @@
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
       <c r="N33" s="3"/>
+      <c r="Q33" s="16"/>
       <c r="R33" s="23"/>
       <c r="S33" s="3"/>
       <c r="T33" s="3"/>
@@ -4194,8 +4381,13 @@
       <c r="W33" s="3"/>
       <c r="X33" s="3"/>
       <c r="Y33" s="3"/>
-    </row>
-    <row r="34" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Z33" s="3"/>
+      <c r="AA33" s="3"/>
+      <c r="AB33" s="3"/>
+      <c r="AC33" s="3"/>
+    </row>
+    <row r="34" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B34" s="16"/>
       <c r="C34" s="1"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
@@ -4208,6 +4400,7 @@
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
       <c r="N34" s="3"/>
+      <c r="Q34" s="16"/>
       <c r="R34" s="23"/>
       <c r="S34" s="3"/>
       <c r="T34" s="3"/>
@@ -4216,8 +4409,13 @@
       <c r="W34" s="3"/>
       <c r="X34" s="3"/>
       <c r="Y34" s="3"/>
-    </row>
-    <row r="35" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Z34" s="3"/>
+      <c r="AA34" s="3"/>
+      <c r="AB34" s="3"/>
+      <c r="AC34" s="3"/>
+    </row>
+    <row r="35" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B35" s="16"/>
       <c r="C35" s="1"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
@@ -4230,6 +4428,7 @@
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
       <c r="N35" s="3"/>
+      <c r="Q35" s="16"/>
       <c r="R35" s="23"/>
       <c r="S35" s="3"/>
       <c r="T35" s="3"/>
@@ -4238,8 +4437,13 @@
       <c r="W35" s="3"/>
       <c r="X35" s="3"/>
       <c r="Y35" s="3"/>
-    </row>
-    <row r="36" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Z35" s="3"/>
+      <c r="AA35" s="3"/>
+      <c r="AB35" s="3"/>
+      <c r="AC35" s="3"/>
+    </row>
+    <row r="36" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B36" s="16"/>
       <c r="C36" s="1"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
@@ -4252,6 +4456,7 @@
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
       <c r="N36" s="3"/>
+      <c r="Q36" s="16"/>
       <c r="R36" s="23"/>
       <c r="S36" s="3"/>
       <c r="T36" s="3"/>
@@ -4260,8 +4465,12 @@
       <c r="W36" s="3"/>
       <c r="X36" s="3"/>
       <c r="Y36" s="3"/>
-    </row>
-    <row r="37" spans="2:25" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z36" s="3"/>
+      <c r="AA36" s="3"/>
+      <c r="AB36" s="3"/>
+      <c r="AC36" s="3"/>
+    </row>
+    <row r="37" spans="2:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C37" s="22" t="s">
         <v>43</v>
       </c>
@@ -4286,8 +4495,12 @@
       <c r="W37" s="23"/>
       <c r="X37" s="23"/>
       <c r="Y37" s="23"/>
-    </row>
-    <row r="38" spans="2:25" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z37" s="23"/>
+      <c r="AA37" s="23"/>
+      <c r="AB37" s="23"/>
+      <c r="AC37" s="23"/>
+    </row>
+    <row r="38" spans="2:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C38" s="21" t="s">
         <v>55</v>
       </c>
@@ -4312,8 +4525,12 @@
       <c r="W38" s="25"/>
       <c r="X38" s="25"/>
       <c r="Y38" s="25"/>
-    </row>
-    <row r="39" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Z38" s="25"/>
+      <c r="AA38" s="25"/>
+      <c r="AB38" s="25"/>
+      <c r="AC38" s="25"/>
+    </row>
+    <row r="39" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
         <v>10</v>
       </c>
@@ -4374,8 +4591,19 @@
       <c r="Y39" s="23" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="40" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Z39" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA39" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB39" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC39" s="23"/>
+    </row>
+    <row r="40" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B40" s="16"/>
       <c r="C40" s="1"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
@@ -4388,6 +4616,7 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
+      <c r="Q40" s="16"/>
       <c r="R40" s="23"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
@@ -4396,8 +4625,13 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+      <c r="AB40" s="3"/>
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B41" s="16"/>
       <c r="C41" s="1"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
@@ -4410,6 +4644,7 @@
       <c r="L41" s="3"/>
       <c r="M41" s="3"/>
       <c r="N41" s="3"/>
+      <c r="Q41" s="16"/>
       <c r="R41" s="23"/>
       <c r="S41" s="3"/>
       <c r="T41" s="3"/>
@@ -4418,8 +4653,13 @@
       <c r="W41" s="3"/>
       <c r="X41" s="3"/>
       <c r="Y41" s="3"/>
-    </row>
-    <row r="42" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Z41" s="3"/>
+      <c r="AA41" s="3"/>
+      <c r="AB41" s="3"/>
+      <c r="AC41" s="3"/>
+    </row>
+    <row r="42" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B42" s="16"/>
       <c r="C42" s="1"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
@@ -4432,6 +4672,7 @@
       <c r="L42" s="3"/>
       <c r="M42" s="3"/>
       <c r="N42" s="3"/>
+      <c r="Q42" s="16"/>
       <c r="R42" s="23"/>
       <c r="S42" s="3"/>
       <c r="T42" s="3"/>
@@ -4440,8 +4681,13 @@
       <c r="W42" s="3"/>
       <c r="X42" s="3"/>
       <c r="Y42" s="3"/>
-    </row>
-    <row r="43" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Z42" s="3"/>
+      <c r="AA42" s="3"/>
+      <c r="AB42" s="3"/>
+      <c r="AC42" s="3"/>
+    </row>
+    <row r="43" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B43" s="16"/>
       <c r="C43" s="1"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
@@ -4454,6 +4700,7 @@
       <c r="L43" s="3"/>
       <c r="M43" s="3"/>
       <c r="N43" s="3"/>
+      <c r="Q43" s="16"/>
       <c r="R43" s="23"/>
       <c r="S43" s="3"/>
       <c r="T43" s="3"/>
@@ -4462,8 +4709,12 @@
       <c r="W43" s="3"/>
       <c r="X43" s="3"/>
       <c r="Y43" s="3"/>
-    </row>
-    <row r="44" spans="2:25" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z43" s="3"/>
+      <c r="AA43" s="3"/>
+      <c r="AB43" s="3"/>
+      <c r="AC43" s="3"/>
+    </row>
+    <row r="44" spans="2:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C44" s="22" t="s">
         <v>43</v>
       </c>
@@ -4488,8 +4739,12 @@
       <c r="W44" s="23"/>
       <c r="X44" s="23"/>
       <c r="Y44" s="23"/>
-    </row>
-    <row r="45" spans="2:25" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z44" s="23"/>
+      <c r="AA44" s="23"/>
+      <c r="AB44" s="23"/>
+      <c r="AC44" s="23"/>
+    </row>
+    <row r="45" spans="2:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C45" s="21" t="s">
         <v>55</v>
       </c>
@@ -4514,8 +4769,12 @@
       <c r="W45" s="25"/>
       <c r="X45" s="25"/>
       <c r="Y45" s="25"/>
-    </row>
-    <row r="46" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Z45" s="25"/>
+      <c r="AA45" s="25"/>
+      <c r="AB45" s="25"/>
+      <c r="AC45" s="25"/>
+    </row>
+    <row r="46" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B46" s="1" t="s">
         <v>11</v>
       </c>
@@ -4576,8 +4835,19 @@
       <c r="Y46" s="23" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="47" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Z46" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA46" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB46" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC46" s="23"/>
+    </row>
+    <row r="47" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B47" s="16"/>
       <c r="C47" s="1"/>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
@@ -4590,6 +4860,7 @@
       <c r="L47" s="3"/>
       <c r="M47" s="3"/>
       <c r="N47" s="3"/>
+      <c r="Q47" s="16"/>
       <c r="R47" s="23"/>
       <c r="S47" s="3"/>
       <c r="T47" s="3"/>
@@ -4598,8 +4869,13 @@
       <c r="W47" s="3"/>
       <c r="X47" s="3"/>
       <c r="Y47" s="3"/>
-    </row>
-    <row r="48" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Z47" s="3"/>
+      <c r="AA47" s="3"/>
+      <c r="AB47" s="3"/>
+      <c r="AC47" s="3"/>
+    </row>
+    <row r="48" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B48" s="16"/>
       <c r="C48" s="1"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
@@ -4612,6 +4888,7 @@
       <c r="L48" s="3"/>
       <c r="M48" s="3"/>
       <c r="N48" s="3"/>
+      <c r="Q48" s="16"/>
       <c r="R48" s="23"/>
       <c r="S48" s="3"/>
       <c r="T48" s="3"/>
@@ -4620,8 +4897,13 @@
       <c r="W48" s="3"/>
       <c r="X48" s="3"/>
       <c r="Y48" s="3"/>
-    </row>
-    <row r="49" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Z48" s="3"/>
+      <c r="AA48" s="3"/>
+      <c r="AB48" s="3"/>
+      <c r="AC48" s="3"/>
+    </row>
+    <row r="49" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B49" s="16"/>
       <c r="C49" s="1"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
@@ -4634,6 +4916,7 @@
       <c r="L49" s="3"/>
       <c r="M49" s="3"/>
       <c r="N49" s="3"/>
+      <c r="Q49" s="16"/>
       <c r="R49" s="23"/>
       <c r="S49" s="3"/>
       <c r="T49" s="3"/>
@@ -4642,8 +4925,13 @@
       <c r="W49" s="3"/>
       <c r="X49" s="3"/>
       <c r="Y49" s="3"/>
-    </row>
-    <row r="50" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Z49" s="3"/>
+      <c r="AA49" s="3"/>
+      <c r="AB49" s="3"/>
+      <c r="AC49" s="3"/>
+    </row>
+    <row r="50" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B50" s="16"/>
       <c r="C50" s="1"/>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
@@ -4656,6 +4944,7 @@
       <c r="L50" s="3"/>
       <c r="M50" s="3"/>
       <c r="N50" s="3"/>
+      <c r="Q50" s="16"/>
       <c r="R50" s="23"/>
       <c r="S50" s="3"/>
       <c r="T50" s="3"/>
@@ -4664,8 +4953,12 @@
       <c r="W50" s="3"/>
       <c r="X50" s="3"/>
       <c r="Y50" s="3"/>
-    </row>
-    <row r="51" spans="2:25" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z50" s="3"/>
+      <c r="AA50" s="3"/>
+      <c r="AB50" s="3"/>
+      <c r="AC50" s="3"/>
+    </row>
+    <row r="51" spans="2:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C51" s="22" t="s">
         <v>43</v>
       </c>
@@ -4690,8 +4983,12 @@
       <c r="W51" s="23"/>
       <c r="X51" s="23"/>
       <c r="Y51" s="23"/>
-    </row>
-    <row r="52" spans="2:25" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z51" s="23"/>
+      <c r="AA51" s="23"/>
+      <c r="AB51" s="23"/>
+      <c r="AC51" s="23"/>
+    </row>
+    <row r="52" spans="2:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C52" s="21" t="s">
         <v>55</v>
       </c>
@@ -4716,8 +5013,12 @@
       <c r="W52" s="25"/>
       <c r="X52" s="25"/>
       <c r="Y52" s="25"/>
-    </row>
-    <row r="53" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Z52" s="25"/>
+      <c r="AA52" s="25"/>
+      <c r="AB52" s="25"/>
+      <c r="AC52" s="25"/>
+    </row>
+    <row r="53" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B53" s="1" t="s">
         <v>12</v>
       </c>
@@ -4778,8 +5079,19 @@
       <c r="Y53" s="23" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="54" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Z53" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA53" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB53" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC53" s="23"/>
+    </row>
+    <row r="54" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B54" s="16"/>
       <c r="C54" s="1"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
@@ -4792,6 +5104,7 @@
       <c r="L54" s="3"/>
       <c r="M54" s="3"/>
       <c r="N54" s="3"/>
+      <c r="Q54" s="16"/>
       <c r="R54" s="23"/>
       <c r="S54" s="3"/>
       <c r="T54" s="3"/>
@@ -4800,8 +5113,13 @@
       <c r="W54" s="3"/>
       <c r="X54" s="3"/>
       <c r="Y54" s="3"/>
-    </row>
-    <row r="55" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Z54" s="3"/>
+      <c r="AA54" s="3"/>
+      <c r="AB54" s="3"/>
+      <c r="AC54" s="3"/>
+    </row>
+    <row r="55" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B55" s="16"/>
       <c r="C55" s="1"/>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
@@ -4814,6 +5132,7 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
+      <c r="Q55" s="16"/>
       <c r="R55" s="23"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
@@ -4822,8 +5141,13 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Z55" s="3"/>
+      <c r="AA55" s="3"/>
+      <c r="AB55" s="3"/>
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B56" s="16"/>
       <c r="C56" s="1"/>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
@@ -4836,6 +5160,7 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
+      <c r="Q56" s="16"/>
       <c r="R56" s="23"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
@@ -4844,8 +5169,13 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Z56" s="3"/>
+      <c r="AA56" s="3"/>
+      <c r="AB56" s="3"/>
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B57" s="16"/>
       <c r="C57" s="1"/>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
@@ -4858,6 +5188,7 @@
       <c r="L57" s="3"/>
       <c r="M57" s="3"/>
       <c r="N57" s="3"/>
+      <c r="Q57" s="16"/>
       <c r="R57" s="23"/>
       <c r="S57" s="3"/>
       <c r="T57" s="3"/>
@@ -4866,8 +5197,12 @@
       <c r="W57" s="3"/>
       <c r="X57" s="3"/>
       <c r="Y57" s="3"/>
-    </row>
-    <row r="58" spans="2:25" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z57" s="3"/>
+      <c r="AA57" s="3"/>
+      <c r="AB57" s="3"/>
+      <c r="AC57" s="3"/>
+    </row>
+    <row r="58" spans="2:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C58" s="22" t="s">
         <v>43</v>
       </c>
@@ -4892,8 +5227,12 @@
       <c r="W58" s="23"/>
       <c r="X58" s="23"/>
       <c r="Y58" s="23"/>
-    </row>
-    <row r="59" spans="2:25" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z58" s="23"/>
+      <c r="AA58" s="23"/>
+      <c r="AB58" s="23"/>
+      <c r="AC58" s="23"/>
+    </row>
+    <row r="59" spans="2:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C59" s="21" t="s">
         <v>55</v>
       </c>
@@ -4918,8 +5257,12 @@
       <c r="W59" s="25"/>
       <c r="X59" s="25"/>
       <c r="Y59" s="25"/>
-    </row>
-    <row r="60" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Z59" s="25"/>
+      <c r="AA59" s="25"/>
+      <c r="AB59" s="25"/>
+      <c r="AC59" s="25"/>
+    </row>
+    <row r="60" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B60" s="1" t="s">
         <v>13</v>
       </c>
@@ -4980,8 +5323,19 @@
       <c r="Y60" s="23" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="61" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Z60" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA60" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB60" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC60" s="23"/>
+    </row>
+    <row r="61" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B61" s="16"/>
       <c r="C61" s="1"/>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
@@ -4994,6 +5348,7 @@
       <c r="L61" s="3"/>
       <c r="M61" s="3"/>
       <c r="N61" s="3"/>
+      <c r="Q61" s="16"/>
       <c r="R61" s="23"/>
       <c r="S61" s="3"/>
       <c r="T61" s="3"/>
@@ -5002,8 +5357,13 @@
       <c r="W61" s="3"/>
       <c r="X61" s="3"/>
       <c r="Y61" s="3"/>
-    </row>
-    <row r="62" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Z61" s="3"/>
+      <c r="AA61" s="3"/>
+      <c r="AB61" s="3"/>
+      <c r="AC61" s="3"/>
+    </row>
+    <row r="62" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B62" s="16"/>
       <c r="C62" s="1"/>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
@@ -5016,6 +5376,7 @@
       <c r="L62" s="3"/>
       <c r="M62" s="3"/>
       <c r="N62" s="3"/>
+      <c r="Q62" s="16"/>
       <c r="R62" s="23"/>
       <c r="S62" s="3"/>
       <c r="T62" s="3"/>
@@ -5024,8 +5385,13 @@
       <c r="W62" s="3"/>
       <c r="X62" s="3"/>
       <c r="Y62" s="3"/>
-    </row>
-    <row r="63" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Z62" s="3"/>
+      <c r="AA62" s="3"/>
+      <c r="AB62" s="3"/>
+      <c r="AC62" s="3"/>
+    </row>
+    <row r="63" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B63" s="16"/>
       <c r="C63" s="1"/>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
@@ -5038,6 +5404,7 @@
       <c r="L63" s="3"/>
       <c r="M63" s="3"/>
       <c r="N63" s="3"/>
+      <c r="Q63" s="16"/>
       <c r="R63" s="23"/>
       <c r="S63" s="3"/>
       <c r="T63" s="3"/>
@@ -5046,8 +5413,13 @@
       <c r="W63" s="3"/>
       <c r="X63" s="3"/>
       <c r="Y63" s="3"/>
-    </row>
-    <row r="64" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Z63" s="3"/>
+      <c r="AA63" s="3"/>
+      <c r="AB63" s="3"/>
+      <c r="AC63" s="3"/>
+    </row>
+    <row r="64" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B64" s="16"/>
       <c r="C64" s="1"/>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
@@ -5060,6 +5432,7 @@
       <c r="L64" s="3"/>
       <c r="M64" s="3"/>
       <c r="N64" s="3"/>
+      <c r="Q64" s="16"/>
       <c r="R64" s="23"/>
       <c r="S64" s="3"/>
       <c r="T64" s="3"/>
@@ -5068,8 +5441,12 @@
       <c r="W64" s="3"/>
       <c r="X64" s="3"/>
       <c r="Y64" s="3"/>
-    </row>
-    <row r="65" spans="2:25" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z64" s="3"/>
+      <c r="AA64" s="3"/>
+      <c r="AB64" s="3"/>
+      <c r="AC64" s="3"/>
+    </row>
+    <row r="65" spans="2:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C65" s="22" t="s">
         <v>43</v>
       </c>
@@ -5094,8 +5471,12 @@
       <c r="W65" s="23"/>
       <c r="X65" s="23"/>
       <c r="Y65" s="23"/>
-    </row>
-    <row r="66" spans="2:25" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z65" s="23"/>
+      <c r="AA65" s="23"/>
+      <c r="AB65" s="23"/>
+      <c r="AC65" s="23"/>
+    </row>
+    <row r="66" spans="2:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C66" s="21" t="s">
         <v>55</v>
       </c>
@@ -5120,8 +5501,12 @@
       <c r="W66" s="25"/>
       <c r="X66" s="25"/>
       <c r="Y66" s="25"/>
-    </row>
-    <row r="67" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Z66" s="25"/>
+      <c r="AA66" s="25"/>
+      <c r="AB66" s="25"/>
+      <c r="AC66" s="25"/>
+    </row>
+    <row r="67" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B67" s="1" t="s">
         <v>14</v>
       </c>
@@ -5182,8 +5567,19 @@
       <c r="Y67" s="23" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="68" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Z67" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA67" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB67" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC67" s="23"/>
+    </row>
+    <row r="68" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B68" s="16"/>
       <c r="C68" s="1"/>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
@@ -5196,6 +5592,7 @@
       <c r="L68" s="3"/>
       <c r="M68" s="3"/>
       <c r="N68" s="3"/>
+      <c r="Q68" s="16"/>
       <c r="R68" s="23"/>
       <c r="S68" s="3"/>
       <c r="T68" s="3"/>
@@ -5204,8 +5601,13 @@
       <c r="W68" s="3"/>
       <c r="X68" s="3"/>
       <c r="Y68" s="3"/>
-    </row>
-    <row r="69" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Z68" s="3"/>
+      <c r="AA68" s="3"/>
+      <c r="AB68" s="3"/>
+      <c r="AC68" s="3"/>
+    </row>
+    <row r="69" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B69" s="16"/>
       <c r="C69" s="1"/>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
@@ -5218,6 +5620,7 @@
       <c r="L69" s="3"/>
       <c r="M69" s="3"/>
       <c r="N69" s="3"/>
+      <c r="Q69" s="16"/>
       <c r="R69" s="23"/>
       <c r="S69" s="3"/>
       <c r="T69" s="3"/>
@@ -5226,8 +5629,13 @@
       <c r="W69" s="3"/>
       <c r="X69" s="3"/>
       <c r="Y69" s="3"/>
-    </row>
-    <row r="70" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Z69" s="3"/>
+      <c r="AA69" s="3"/>
+      <c r="AB69" s="3"/>
+      <c r="AC69" s="3"/>
+    </row>
+    <row r="70" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B70" s="16"/>
       <c r="C70" s="1"/>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
@@ -5240,6 +5648,7 @@
       <c r="L70" s="3"/>
       <c r="M70" s="3"/>
       <c r="N70" s="3"/>
+      <c r="Q70" s="16"/>
       <c r="R70" s="23"/>
       <c r="S70" s="3"/>
       <c r="T70" s="3"/>
@@ -5248,8 +5657,13 @@
       <c r="W70" s="3"/>
       <c r="X70" s="3"/>
       <c r="Y70" s="3"/>
-    </row>
-    <row r="71" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Z70" s="3"/>
+      <c r="AA70" s="3"/>
+      <c r="AB70" s="3"/>
+      <c r="AC70" s="3"/>
+    </row>
+    <row r="71" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B71" s="16"/>
       <c r="C71" s="1"/>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
@@ -5262,6 +5676,7 @@
       <c r="L71" s="3"/>
       <c r="M71" s="3"/>
       <c r="N71" s="3"/>
+      <c r="Q71" s="16"/>
       <c r="R71" s="23"/>
       <c r="S71" s="3"/>
       <c r="T71" s="3"/>
@@ -5270,8 +5685,12 @@
       <c r="W71" s="3"/>
       <c r="X71" s="3"/>
       <c r="Y71" s="3"/>
-    </row>
-    <row r="72" spans="2:25" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z71" s="3"/>
+      <c r="AA71" s="3"/>
+      <c r="AB71" s="3"/>
+      <c r="AC71" s="3"/>
+    </row>
+    <row r="72" spans="2:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C72" s="22" t="s">
         <v>43</v>
       </c>
@@ -5296,8 +5715,12 @@
       <c r="W72" s="23"/>
       <c r="X72" s="23"/>
       <c r="Y72" s="23"/>
-    </row>
-    <row r="73" spans="2:25" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z72" s="23"/>
+      <c r="AA72" s="23"/>
+      <c r="AB72" s="23"/>
+      <c r="AC72" s="23"/>
+    </row>
+    <row r="73" spans="2:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C73" s="21" t="s">
         <v>55</v>
       </c>
@@ -5322,8 +5745,12 @@
       <c r="W73" s="25"/>
       <c r="X73" s="25"/>
       <c r="Y73" s="25"/>
-    </row>
-    <row r="74" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Z73" s="25"/>
+      <c r="AA73" s="25"/>
+      <c r="AB73" s="25"/>
+      <c r="AC73" s="25"/>
+    </row>
+    <row r="74" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B74" s="1" t="s">
         <v>15</v>
       </c>
@@ -5384,8 +5811,19 @@
       <c r="Y74" s="23" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Z74" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA74" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB74" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC74" s="23"/>
+    </row>
+    <row r="75" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B75" s="16"/>
       <c r="C75" s="1"/>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
@@ -5398,6 +5836,7 @@
       <c r="L75" s="3"/>
       <c r="M75" s="3"/>
       <c r="N75" s="3"/>
+      <c r="Q75" s="16"/>
       <c r="R75" s="23"/>
       <c r="S75" s="3"/>
       <c r="T75" s="3"/>
@@ -5406,8 +5845,13 @@
       <c r="W75" s="3"/>
       <c r="X75" s="3"/>
       <c r="Y75" s="3"/>
-    </row>
-    <row r="76" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Z75" s="3"/>
+      <c r="AA75" s="3"/>
+      <c r="AB75" s="3"/>
+      <c r="AC75" s="3"/>
+    </row>
+    <row r="76" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B76" s="16"/>
       <c r="C76" s="1"/>
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
@@ -5420,6 +5864,7 @@
       <c r="L76" s="3"/>
       <c r="M76" s="3"/>
       <c r="N76" s="3"/>
+      <c r="Q76" s="16"/>
       <c r="R76" s="23"/>
       <c r="S76" s="3"/>
       <c r="T76" s="3"/>
@@ -5428,8 +5873,13 @@
       <c r="W76" s="3"/>
       <c r="X76" s="3"/>
       <c r="Y76" s="3"/>
-    </row>
-    <row r="77" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Z76" s="3"/>
+      <c r="AA76" s="3"/>
+      <c r="AB76" s="3"/>
+      <c r="AC76" s="3"/>
+    </row>
+    <row r="77" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B77" s="16"/>
       <c r="C77" s="1"/>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
@@ -5442,6 +5892,7 @@
       <c r="L77" s="3"/>
       <c r="M77" s="3"/>
       <c r="N77" s="3"/>
+      <c r="Q77" s="16"/>
       <c r="R77" s="23"/>
       <c r="S77" s="3"/>
       <c r="T77" s="3"/>
@@ -5450,8 +5901,13 @@
       <c r="W77" s="3"/>
       <c r="X77" s="3"/>
       <c r="Y77" s="3"/>
-    </row>
-    <row r="78" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Z77" s="3"/>
+      <c r="AA77" s="3"/>
+      <c r="AB77" s="3"/>
+      <c r="AC77" s="3"/>
+    </row>
+    <row r="78" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B78" s="16"/>
       <c r="C78" s="1"/>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
@@ -5464,6 +5920,7 @@
       <c r="L78" s="3"/>
       <c r="M78" s="3"/>
       <c r="N78" s="3"/>
+      <c r="Q78" s="16"/>
       <c r="R78" s="23"/>
       <c r="S78" s="3"/>
       <c r="T78" s="3"/>
@@ -5472,8 +5929,12 @@
       <c r="W78" s="3"/>
       <c r="X78" s="3"/>
       <c r="Y78" s="3"/>
-    </row>
-    <row r="79" spans="2:25" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z78" s="3"/>
+      <c r="AA78" s="3"/>
+      <c r="AB78" s="3"/>
+      <c r="AC78" s="3"/>
+    </row>
+    <row r="79" spans="2:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C79" s="22" t="s">
         <v>43</v>
       </c>
@@ -5498,8 +5959,12 @@
       <c r="W79" s="23"/>
       <c r="X79" s="23"/>
       <c r="Y79" s="23"/>
-    </row>
-    <row r="80" spans="2:25" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z79" s="23"/>
+      <c r="AA79" s="23"/>
+      <c r="AB79" s="23"/>
+      <c r="AC79" s="23"/>
+    </row>
+    <row r="80" spans="2:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C80" s="21" t="s">
         <v>55</v>
       </c>
@@ -5524,8 +5989,12 @@
       <c r="W80" s="25"/>
       <c r="X80" s="25"/>
       <c r="Y80" s="25"/>
-    </row>
-    <row r="81" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Z80" s="25"/>
+      <c r="AA80" s="25"/>
+      <c r="AB80" s="25"/>
+      <c r="AC80" s="25"/>
+    </row>
+    <row r="81" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B81" s="1" t="s">
         <v>16</v>
       </c>
@@ -5586,8 +6055,19 @@
       <c r="Y81" s="23" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="82" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Z81" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA81" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB81" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC81" s="23"/>
+    </row>
+    <row r="82" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B82" s="16"/>
       <c r="C82" s="1"/>
       <c r="D82" s="3"/>
       <c r="E82" s="3"/>
@@ -5600,6 +6080,7 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
+      <c r="Q82" s="16"/>
       <c r="R82" s="23"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
@@ -5608,8 +6089,13 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Z82" s="3"/>
+      <c r="AA82" s="3"/>
+      <c r="AB82" s="3"/>
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B83" s="16"/>
       <c r="C83" s="1"/>
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
@@ -5622,6 +6108,7 @@
       <c r="L83" s="3"/>
       <c r="M83" s="3"/>
       <c r="N83" s="3"/>
+      <c r="Q83" s="16"/>
       <c r="R83" s="23"/>
       <c r="S83" s="3"/>
       <c r="T83" s="3"/>
@@ -5630,8 +6117,13 @@
       <c r="W83" s="3"/>
       <c r="X83" s="3"/>
       <c r="Y83" s="3"/>
-    </row>
-    <row r="84" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Z83" s="3"/>
+      <c r="AA83" s="3"/>
+      <c r="AB83" s="3"/>
+      <c r="AC83" s="3"/>
+    </row>
+    <row r="84" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B84" s="16"/>
       <c r="C84" s="1"/>
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
@@ -5644,6 +6136,7 @@
       <c r="L84" s="3"/>
       <c r="M84" s="3"/>
       <c r="N84" s="3"/>
+      <c r="Q84" s="16"/>
       <c r="R84" s="23"/>
       <c r="S84" s="3"/>
       <c r="T84" s="3"/>
@@ -5652,8 +6145,13 @@
       <c r="W84" s="3"/>
       <c r="X84" s="3"/>
       <c r="Y84" s="3"/>
-    </row>
-    <row r="85" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Z84" s="3"/>
+      <c r="AA84" s="3"/>
+      <c r="AB84" s="3"/>
+      <c r="AC84" s="3"/>
+    </row>
+    <row r="85" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B85" s="16"/>
       <c r="C85" s="1"/>
       <c r="D85" s="3"/>
       <c r="E85" s="3"/>
@@ -5666,6 +6164,7 @@
       <c r="L85" s="3"/>
       <c r="M85" s="3"/>
       <c r="N85" s="3"/>
+      <c r="Q85" s="16"/>
       <c r="R85" s="23"/>
       <c r="S85" s="3"/>
       <c r="T85" s="3"/>
@@ -5674,8 +6173,12 @@
       <c r="W85" s="3"/>
       <c r="X85" s="3"/>
       <c r="Y85" s="3"/>
-    </row>
-    <row r="86" spans="2:25" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z85" s="3"/>
+      <c r="AA85" s="3"/>
+      <c r="AB85" s="3"/>
+      <c r="AC85" s="3"/>
+    </row>
+    <row r="86" spans="2:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C86" s="22" t="s">
         <v>43</v>
       </c>
@@ -5700,8 +6203,12 @@
       <c r="W86" s="23"/>
       <c r="X86" s="23"/>
       <c r="Y86" s="23"/>
-    </row>
-    <row r="87" spans="2:25" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z86" s="23"/>
+      <c r="AA86" s="23"/>
+      <c r="AB86" s="23"/>
+      <c r="AC86" s="23"/>
+    </row>
+    <row r="87" spans="2:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C87" s="21" t="s">
         <v>55</v>
       </c>
@@ -5726,8 +6233,12 @@
       <c r="W87" s="25"/>
       <c r="X87" s="25"/>
       <c r="Y87" s="25"/>
-    </row>
-    <row r="88" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Z87" s="25"/>
+      <c r="AA87" s="25"/>
+      <c r="AB87" s="25"/>
+      <c r="AC87" s="25"/>
+    </row>
+    <row r="88" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B88" s="1" t="s">
         <v>17</v>
       </c>
@@ -5788,8 +6299,19 @@
       <c r="Y88" s="23" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="89" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Z88" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA88" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB88" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC88" s="23"/>
+    </row>
+    <row r="89" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B89" s="16"/>
       <c r="C89" s="1"/>
       <c r="D89" s="3"/>
       <c r="E89" s="3"/>
@@ -5802,6 +6324,7 @@
       <c r="L89" s="3"/>
       <c r="M89" s="3"/>
       <c r="N89" s="3"/>
+      <c r="Q89" s="16"/>
       <c r="R89" s="23"/>
       <c r="S89" s="3"/>
       <c r="T89" s="3"/>
@@ -5810,8 +6333,13 @@
       <c r="W89" s="3"/>
       <c r="X89" s="3"/>
       <c r="Y89" s="3"/>
-    </row>
-    <row r="90" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Z89" s="3"/>
+      <c r="AA89" s="3"/>
+      <c r="AB89" s="3"/>
+      <c r="AC89" s="3"/>
+    </row>
+    <row r="90" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B90" s="16"/>
       <c r="C90" s="1"/>
       <c r="D90" s="3"/>
       <c r="E90" s="3"/>
@@ -5824,6 +6352,7 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
+      <c r="Q90" s="16"/>
       <c r="R90" s="23"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
@@ -5832,8 +6361,13 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Z90" s="3"/>
+      <c r="AA90" s="3"/>
+      <c r="AB90" s="3"/>
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B91" s="16"/>
       <c r="C91" s="1"/>
       <c r="D91" s="3"/>
       <c r="E91" s="3"/>
@@ -5846,6 +6380,7 @@
       <c r="L91" s="3"/>
       <c r="M91" s="3"/>
       <c r="N91" s="3"/>
+      <c r="Q91" s="16"/>
       <c r="R91" s="23"/>
       <c r="S91" s="3"/>
       <c r="T91" s="3"/>
@@ -5854,8 +6389,13 @@
       <c r="W91" s="3"/>
       <c r="X91" s="3"/>
       <c r="Y91" s="3"/>
-    </row>
-    <row r="92" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Z91" s="3"/>
+      <c r="AA91" s="3"/>
+      <c r="AB91" s="3"/>
+      <c r="AC91" s="3"/>
+    </row>
+    <row r="92" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B92" s="16"/>
       <c r="C92" s="1"/>
       <c r="D92" s="3"/>
       <c r="E92" s="3"/>
@@ -5868,6 +6408,7 @@
       <c r="L92" s="3"/>
       <c r="M92" s="3"/>
       <c r="N92" s="3"/>
+      <c r="Q92" s="16"/>
       <c r="R92" s="23"/>
       <c r="S92" s="3"/>
       <c r="T92" s="3"/>
@@ -5876,8 +6417,12 @@
       <c r="W92" s="3"/>
       <c r="X92" s="3"/>
       <c r="Y92" s="3"/>
-    </row>
-    <row r="93" spans="2:25" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z92" s="3"/>
+      <c r="AA92" s="3"/>
+      <c r="AB92" s="3"/>
+      <c r="AC92" s="3"/>
+    </row>
+    <row r="93" spans="2:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C93" s="22" t="s">
         <v>43</v>
       </c>
@@ -5902,8 +6447,12 @@
       <c r="W93" s="23"/>
       <c r="X93" s="23"/>
       <c r="Y93" s="23"/>
-    </row>
-    <row r="94" spans="2:25" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z93" s="23"/>
+      <c r="AA93" s="23"/>
+      <c r="AB93" s="23"/>
+      <c r="AC93" s="23"/>
+    </row>
+    <row r="94" spans="2:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C94" s="21" t="s">
         <v>55</v>
       </c>
@@ -5928,8 +6477,12 @@
       <c r="W94" s="25"/>
       <c r="X94" s="25"/>
       <c r="Y94" s="25"/>
-    </row>
-    <row r="95" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Z94" s="25"/>
+      <c r="AA94" s="25"/>
+      <c r="AB94" s="25"/>
+      <c r="AC94" s="25"/>
+    </row>
+    <row r="95" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B95" s="1" t="s">
         <v>18</v>
       </c>
@@ -5990,8 +6543,19 @@
       <c r="Y95" s="23" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="96" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Z95" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA95" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB95" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC95" s="23"/>
+    </row>
+    <row r="96" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B96" s="16"/>
       <c r="C96" s="1"/>
       <c r="D96" s="3"/>
       <c r="E96" s="3"/>
@@ -6004,6 +6568,7 @@
       <c r="L96" s="3"/>
       <c r="M96" s="3"/>
       <c r="N96" s="3"/>
+      <c r="Q96" s="16"/>
       <c r="R96" s="23"/>
       <c r="S96" s="3"/>
       <c r="T96" s="3"/>
@@ -6012,8 +6577,13 @@
       <c r="W96" s="3"/>
       <c r="X96" s="3"/>
       <c r="Y96" s="3"/>
-    </row>
-    <row r="97" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Z96" s="3"/>
+      <c r="AA96" s="3"/>
+      <c r="AB96" s="3"/>
+      <c r="AC96" s="3"/>
+    </row>
+    <row r="97" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B97" s="16"/>
       <c r="C97" s="1"/>
       <c r="D97" s="3"/>
       <c r="E97" s="3"/>
@@ -6026,6 +6596,7 @@
       <c r="L97" s="3"/>
       <c r="M97" s="3"/>
       <c r="N97" s="3"/>
+      <c r="Q97" s="16"/>
       <c r="R97" s="23"/>
       <c r="S97" s="3"/>
       <c r="T97" s="3"/>
@@ -6034,8 +6605,13 @@
       <c r="W97" s="3"/>
       <c r="X97" s="3"/>
       <c r="Y97" s="3"/>
-    </row>
-    <row r="98" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Z97" s="3"/>
+      <c r="AA97" s="3"/>
+      <c r="AB97" s="3"/>
+      <c r="AC97" s="3"/>
+    </row>
+    <row r="98" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B98" s="16"/>
       <c r="C98" s="1"/>
       <c r="D98" s="3"/>
       <c r="E98" s="3"/>
@@ -6048,6 +6624,7 @@
       <c r="L98" s="3"/>
       <c r="M98" s="3"/>
       <c r="N98" s="3"/>
+      <c r="Q98" s="16"/>
       <c r="R98" s="23"/>
       <c r="S98" s="3"/>
       <c r="T98" s="3"/>
@@ -6056,8 +6633,13 @@
       <c r="W98" s="3"/>
       <c r="X98" s="3"/>
       <c r="Y98" s="3"/>
-    </row>
-    <row r="99" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Z98" s="3"/>
+      <c r="AA98" s="3"/>
+      <c r="AB98" s="3"/>
+      <c r="AC98" s="3"/>
+    </row>
+    <row r="99" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B99" s="16"/>
       <c r="C99" s="1"/>
       <c r="D99" s="3"/>
       <c r="E99" s="3"/>
@@ -6070,6 +6652,7 @@
       <c r="L99" s="3"/>
       <c r="M99" s="3"/>
       <c r="N99" s="3"/>
+      <c r="Q99" s="16"/>
       <c r="R99" s="23"/>
       <c r="S99" s="3"/>
       <c r="T99" s="3"/>
@@ -6078,8 +6661,12 @@
       <c r="W99" s="3"/>
       <c r="X99" s="3"/>
       <c r="Y99" s="3"/>
-    </row>
-    <row r="100" spans="2:25" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z99" s="3"/>
+      <c r="AA99" s="3"/>
+      <c r="AB99" s="3"/>
+      <c r="AC99" s="3"/>
+    </row>
+    <row r="100" spans="2:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C100" s="22" t="s">
         <v>43</v>
       </c>
@@ -6104,8 +6691,12 @@
       <c r="W100" s="23"/>
       <c r="X100" s="23"/>
       <c r="Y100" s="23"/>
-    </row>
-    <row r="101" spans="2:25" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z100" s="23"/>
+      <c r="AA100" s="23"/>
+      <c r="AB100" s="23"/>
+      <c r="AC100" s="23"/>
+    </row>
+    <row r="101" spans="2:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C101" s="21" t="s">
         <v>55</v>
       </c>
@@ -6130,8 +6721,12 @@
       <c r="W101" s="25"/>
       <c r="X101" s="25"/>
       <c r="Y101" s="25"/>
-    </row>
-    <row r="102" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Z101" s="25"/>
+      <c r="AA101" s="25"/>
+      <c r="AB101" s="25"/>
+      <c r="AC101" s="25"/>
+    </row>
+    <row r="102" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B102" s="1" t="s">
         <v>19</v>
       </c>
@@ -6192,8 +6787,19 @@
       <c r="Y102" s="23" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="103" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Z102" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA102" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB102" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC102" s="23"/>
+    </row>
+    <row r="103" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B103" s="16"/>
       <c r="C103" s="1"/>
       <c r="D103" s="3"/>
       <c r="E103" s="3"/>
@@ -6206,6 +6812,7 @@
       <c r="L103" s="3"/>
       <c r="M103" s="3"/>
       <c r="N103" s="3"/>
+      <c r="Q103" s="16"/>
       <c r="R103" s="23"/>
       <c r="S103" s="3"/>
       <c r="T103" s="3"/>
@@ -6214,8 +6821,13 @@
       <c r="W103" s="3"/>
       <c r="X103" s="3"/>
       <c r="Y103" s="3"/>
-    </row>
-    <row r="104" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Z103" s="3"/>
+      <c r="AA103" s="3"/>
+      <c r="AB103" s="3"/>
+      <c r="AC103" s="3"/>
+    </row>
+    <row r="104" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B104" s="16"/>
       <c r="C104" s="1"/>
       <c r="D104" s="3"/>
       <c r="E104" s="3"/>
@@ -6228,6 +6840,7 @@
       <c r="L104" s="3"/>
       <c r="M104" s="3"/>
       <c r="N104" s="3"/>
+      <c r="Q104" s="16"/>
       <c r="R104" s="23"/>
       <c r="S104" s="3"/>
       <c r="T104" s="3"/>
@@ -6236,8 +6849,13 @@
       <c r="W104" s="3"/>
       <c r="X104" s="3"/>
       <c r="Y104" s="3"/>
-    </row>
-    <row r="105" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Z104" s="3"/>
+      <c r="AA104" s="3"/>
+      <c r="AB104" s="3"/>
+      <c r="AC104" s="3"/>
+    </row>
+    <row r="105" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B105" s="16"/>
       <c r="C105" s="1"/>
       <c r="D105" s="3"/>
       <c r="E105" s="3"/>
@@ -6250,6 +6868,7 @@
       <c r="L105" s="3"/>
       <c r="M105" s="3"/>
       <c r="N105" s="3"/>
+      <c r="Q105" s="16"/>
       <c r="R105" s="23"/>
       <c r="S105" s="3"/>
       <c r="T105" s="3"/>
@@ -6258,8 +6877,13 @@
       <c r="W105" s="3"/>
       <c r="X105" s="3"/>
       <c r="Y105" s="3"/>
-    </row>
-    <row r="106" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Z105" s="3"/>
+      <c r="AA105" s="3"/>
+      <c r="AB105" s="3"/>
+      <c r="AC105" s="3"/>
+    </row>
+    <row r="106" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B106" s="16"/>
       <c r="C106" s="1"/>
       <c r="D106" s="3"/>
       <c r="E106" s="3"/>
@@ -6272,6 +6896,7 @@
       <c r="L106" s="3"/>
       <c r="M106" s="3"/>
       <c r="N106" s="3"/>
+      <c r="Q106" s="16"/>
       <c r="R106" s="23"/>
       <c r="S106" s="3"/>
       <c r="T106" s="3"/>
@@ -6280,8 +6905,12 @@
       <c r="W106" s="3"/>
       <c r="X106" s="3"/>
       <c r="Y106" s="3"/>
-    </row>
-    <row r="107" spans="2:25" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z106" s="3"/>
+      <c r="AA106" s="3"/>
+      <c r="AB106" s="3"/>
+      <c r="AC106" s="3"/>
+    </row>
+    <row r="107" spans="2:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C107" s="22" t="s">
         <v>43</v>
       </c>
@@ -6306,8 +6935,12 @@
       <c r="W107" s="23"/>
       <c r="X107" s="23"/>
       <c r="Y107" s="23"/>
-    </row>
-    <row r="108" spans="2:25" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z107" s="23"/>
+      <c r="AA107" s="23"/>
+      <c r="AB107" s="23"/>
+      <c r="AC107" s="23"/>
+    </row>
+    <row r="108" spans="2:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C108" s="21" t="s">
         <v>55</v>
       </c>
@@ -6332,8 +6965,12 @@
       <c r="W108" s="25"/>
       <c r="X108" s="25"/>
       <c r="Y108" s="25"/>
-    </row>
-    <row r="109" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Z108" s="25"/>
+      <c r="AA108" s="25"/>
+      <c r="AB108" s="25"/>
+      <c r="AC108" s="25"/>
+    </row>
+    <row r="109" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B109" s="1" t="s">
         <v>20</v>
       </c>
@@ -6394,8 +7031,19 @@
       <c r="Y109" s="23" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="110" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Z109" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA109" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB109" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC109" s="23"/>
+    </row>
+    <row r="110" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B110" s="16"/>
       <c r="C110" s="1"/>
       <c r="D110" s="3"/>
       <c r="E110" s="3"/>
@@ -6408,6 +7056,7 @@
       <c r="L110" s="3"/>
       <c r="M110" s="3"/>
       <c r="N110" s="3"/>
+      <c r="Q110" s="16"/>
       <c r="R110" s="23"/>
       <c r="S110" s="3"/>
       <c r="T110" s="3"/>
@@ -6416,8 +7065,13 @@
       <c r="W110" s="3"/>
       <c r="X110" s="3"/>
       <c r="Y110" s="3"/>
-    </row>
-    <row r="111" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Z110" s="3"/>
+      <c r="AA110" s="3"/>
+      <c r="AB110" s="3"/>
+      <c r="AC110" s="3"/>
+    </row>
+    <row r="111" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B111" s="16"/>
       <c r="C111" s="1"/>
       <c r="D111" s="3"/>
       <c r="E111" s="3"/>
@@ -6430,6 +7084,7 @@
       <c r="L111" s="3"/>
       <c r="M111" s="3"/>
       <c r="N111" s="3"/>
+      <c r="Q111" s="16"/>
       <c r="R111" s="23"/>
       <c r="S111" s="3"/>
       <c r="T111" s="3"/>
@@ -6438,8 +7093,13 @@
       <c r="W111" s="3"/>
       <c r="X111" s="3"/>
       <c r="Y111" s="3"/>
-    </row>
-    <row r="112" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Z111" s="3"/>
+      <c r="AA111" s="3"/>
+      <c r="AB111" s="3"/>
+      <c r="AC111" s="3"/>
+    </row>
+    <row r="112" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B112" s="16"/>
       <c r="C112" s="1"/>
       <c r="D112" s="3"/>
       <c r="E112" s="3"/>
@@ -6452,6 +7112,7 @@
       <c r="L112" s="3"/>
       <c r="M112" s="3"/>
       <c r="N112" s="3"/>
+      <c r="Q112" s="16"/>
       <c r="R112" s="23"/>
       <c r="S112" s="3"/>
       <c r="T112" s="3"/>
@@ -6460,8 +7121,13 @@
       <c r="W112" s="3"/>
       <c r="X112" s="3"/>
       <c r="Y112" s="3"/>
-    </row>
-    <row r="113" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Z112" s="3"/>
+      <c r="AA112" s="3"/>
+      <c r="AB112" s="3"/>
+      <c r="AC112" s="3"/>
+    </row>
+    <row r="113" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B113" s="16"/>
       <c r="C113" s="1"/>
       <c r="D113" s="3"/>
       <c r="E113" s="3"/>
@@ -6474,6 +7140,7 @@
       <c r="L113" s="3"/>
       <c r="M113" s="3"/>
       <c r="N113" s="3"/>
+      <c r="Q113" s="16"/>
       <c r="R113" s="23"/>
       <c r="S113" s="3"/>
       <c r="T113" s="3"/>
@@ -6482,8 +7149,12 @@
       <c r="W113" s="3"/>
       <c r="X113" s="3"/>
       <c r="Y113" s="3"/>
-    </row>
-    <row r="114" spans="2:25" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z113" s="3"/>
+      <c r="AA113" s="3"/>
+      <c r="AB113" s="3"/>
+      <c r="AC113" s="3"/>
+    </row>
+    <row r="114" spans="2:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C114" s="22" t="s">
         <v>43</v>
       </c>
@@ -6508,8 +7179,12 @@
       <c r="W114" s="23"/>
       <c r="X114" s="23"/>
       <c r="Y114" s="23"/>
-    </row>
-    <row r="115" spans="2:25" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z114" s="23"/>
+      <c r="AA114" s="23"/>
+      <c r="AB114" s="23"/>
+      <c r="AC114" s="23"/>
+    </row>
+    <row r="115" spans="2:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C115" s="21" t="s">
         <v>55</v>
       </c>
@@ -6534,8 +7209,12 @@
       <c r="W115" s="25"/>
       <c r="X115" s="25"/>
       <c r="Y115" s="25"/>
-    </row>
-    <row r="116" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Z115" s="25"/>
+      <c r="AA115" s="25"/>
+      <c r="AB115" s="25"/>
+      <c r="AC115" s="25"/>
+    </row>
+    <row r="116" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B116" s="1" t="s">
         <v>21</v>
       </c>
@@ -6596,8 +7275,19 @@
       <c r="Y116" s="23" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="117" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Z116" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA116" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB116" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC116" s="23"/>
+    </row>
+    <row r="117" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B117" s="16"/>
       <c r="C117" s="1"/>
       <c r="D117" s="3"/>
       <c r="E117" s="3"/>
@@ -6610,6 +7300,7 @@
       <c r="L117" s="3"/>
       <c r="M117" s="3"/>
       <c r="N117" s="3"/>
+      <c r="Q117" s="16"/>
       <c r="R117" s="23"/>
       <c r="S117" s="3"/>
       <c r="T117" s="3"/>
@@ -6618,8 +7309,13 @@
       <c r="W117" s="3"/>
       <c r="X117" s="3"/>
       <c r="Y117" s="3"/>
-    </row>
-    <row r="118" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Z117" s="3"/>
+      <c r="AA117" s="3"/>
+      <c r="AB117" s="3"/>
+      <c r="AC117" s="3"/>
+    </row>
+    <row r="118" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B118" s="16"/>
       <c r="C118" s="1"/>
       <c r="D118" s="3"/>
       <c r="E118" s="3"/>
@@ -6632,6 +7328,7 @@
       <c r="L118" s="3"/>
       <c r="M118" s="3"/>
       <c r="N118" s="3"/>
+      <c r="Q118" s="16"/>
       <c r="R118" s="23"/>
       <c r="S118" s="3"/>
       <c r="T118" s="3"/>
@@ -6640,8 +7337,13 @@
       <c r="W118" s="3"/>
       <c r="X118" s="3"/>
       <c r="Y118" s="3"/>
-    </row>
-    <row r="119" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Z118" s="3"/>
+      <c r="AA118" s="3"/>
+      <c r="AB118" s="3"/>
+      <c r="AC118" s="3"/>
+    </row>
+    <row r="119" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B119" s="16"/>
       <c r="C119" s="1"/>
       <c r="D119" s="3"/>
       <c r="E119" s="3"/>
@@ -6654,6 +7356,7 @@
       <c r="L119" s="3"/>
       <c r="M119" s="3"/>
       <c r="N119" s="3"/>
+      <c r="Q119" s="16"/>
       <c r="R119" s="23"/>
       <c r="S119" s="3"/>
       <c r="T119" s="3"/>
@@ -6662,8 +7365,13 @@
       <c r="W119" s="3"/>
       <c r="X119" s="3"/>
       <c r="Y119" s="3"/>
-    </row>
-    <row r="120" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Z119" s="3"/>
+      <c r="AA119" s="3"/>
+      <c r="AB119" s="3"/>
+      <c r="AC119" s="3"/>
+    </row>
+    <row r="120" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B120" s="16"/>
       <c r="C120" s="1"/>
       <c r="D120" s="3"/>
       <c r="E120" s="3"/>
@@ -6676,6 +7384,7 @@
       <c r="L120" s="3"/>
       <c r="M120" s="3"/>
       <c r="N120" s="3"/>
+      <c r="Q120" s="16"/>
       <c r="R120" s="23"/>
       <c r="S120" s="3"/>
       <c r="T120" s="3"/>
@@ -6684,8 +7393,12 @@
       <c r="W120" s="3"/>
       <c r="X120" s="3"/>
       <c r="Y120" s="3"/>
-    </row>
-    <row r="121" spans="2:25" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z120" s="3"/>
+      <c r="AA120" s="3"/>
+      <c r="AB120" s="3"/>
+      <c r="AC120" s="3"/>
+    </row>
+    <row r="121" spans="2:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C121" s="22" t="s">
         <v>43</v>
       </c>
@@ -6710,8 +7423,12 @@
       <c r="W121" s="23"/>
       <c r="X121" s="23"/>
       <c r="Y121" s="23"/>
-    </row>
-    <row r="122" spans="2:25" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z121" s="23"/>
+      <c r="AA121" s="23"/>
+      <c r="AB121" s="23"/>
+      <c r="AC121" s="23"/>
+    </row>
+    <row r="122" spans="2:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C122" s="21" t="s">
         <v>55</v>
       </c>
@@ -6736,8 +7453,12 @@
       <c r="W122" s="25"/>
       <c r="X122" s="25"/>
       <c r="Y122" s="25"/>
-    </row>
-    <row r="123" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Z122" s="25"/>
+      <c r="AA122" s="25"/>
+      <c r="AB122" s="25"/>
+      <c r="AC122" s="25"/>
+    </row>
+    <row r="123" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B123" s="1" t="s">
         <v>22</v>
       </c>
@@ -6798,8 +7519,19 @@
       <c r="Y123" s="23" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="124" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Z123" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA123" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB123" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC123" s="23"/>
+    </row>
+    <row r="124" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B124" s="16"/>
       <c r="C124" s="1"/>
       <c r="D124" s="3"/>
       <c r="E124" s="3"/>
@@ -6812,6 +7544,7 @@
       <c r="L124" s="3"/>
       <c r="M124" s="3"/>
       <c r="N124" s="3"/>
+      <c r="Q124" s="16"/>
       <c r="R124" s="23"/>
       <c r="S124" s="3"/>
       <c r="T124" s="3"/>
@@ -6820,8 +7553,13 @@
       <c r="W124" s="3"/>
       <c r="X124" s="3"/>
       <c r="Y124" s="3"/>
-    </row>
-    <row r="125" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Z124" s="3"/>
+      <c r="AA124" s="3"/>
+      <c r="AB124" s="3"/>
+      <c r="AC124" s="3"/>
+    </row>
+    <row r="125" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B125" s="16"/>
       <c r="C125" s="1"/>
       <c r="D125" s="3"/>
       <c r="E125" s="3"/>
@@ -6834,6 +7572,7 @@
       <c r="L125" s="3"/>
       <c r="M125" s="3"/>
       <c r="N125" s="3"/>
+      <c r="Q125" s="16"/>
       <c r="R125" s="23"/>
       <c r="S125" s="3"/>
       <c r="T125" s="3"/>
@@ -6842,8 +7581,13 @@
       <c r="W125" s="3"/>
       <c r="X125" s="3"/>
       <c r="Y125" s="3"/>
-    </row>
-    <row r="126" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Z125" s="3"/>
+      <c r="AA125" s="3"/>
+      <c r="AB125" s="3"/>
+      <c r="AC125" s="3"/>
+    </row>
+    <row r="126" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B126" s="16"/>
       <c r="C126" s="1"/>
       <c r="D126" s="3"/>
       <c r="E126" s="3"/>
@@ -6856,6 +7600,7 @@
       <c r="L126" s="3"/>
       <c r="M126" s="3"/>
       <c r="N126" s="3"/>
+      <c r="Q126" s="16"/>
       <c r="R126" s="23"/>
       <c r="S126" s="3"/>
       <c r="T126" s="3"/>
@@ -6864,8 +7609,13 @@
       <c r="W126" s="3"/>
       <c r="X126" s="3"/>
       <c r="Y126" s="3"/>
-    </row>
-    <row r="127" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Z126" s="3"/>
+      <c r="AA126" s="3"/>
+      <c r="AB126" s="3"/>
+      <c r="AC126" s="3"/>
+    </row>
+    <row r="127" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B127" s="16"/>
       <c r="C127" s="1"/>
       <c r="D127" s="3"/>
       <c r="E127" s="3"/>
@@ -6878,6 +7628,7 @@
       <c r="L127" s="3"/>
       <c r="M127" s="3"/>
       <c r="N127" s="3"/>
+      <c r="Q127" s="16"/>
       <c r="R127" s="23"/>
       <c r="S127" s="3"/>
       <c r="T127" s="3"/>
@@ -6886,8 +7637,12 @@
       <c r="W127" s="3"/>
       <c r="X127" s="3"/>
       <c r="Y127" s="3"/>
-    </row>
-    <row r="128" spans="2:25" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z127" s="3"/>
+      <c r="AA127" s="3"/>
+      <c r="AB127" s="3"/>
+      <c r="AC127" s="3"/>
+    </row>
+    <row r="128" spans="2:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C128" s="22" t="s">
         <v>43</v>
       </c>
@@ -6912,8 +7667,12 @@
       <c r="W128" s="23"/>
       <c r="X128" s="23"/>
       <c r="Y128" s="23"/>
-    </row>
-    <row r="129" spans="2:25" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z128" s="23"/>
+      <c r="AA128" s="23"/>
+      <c r="AB128" s="23"/>
+      <c r="AC128" s="23"/>
+    </row>
+    <row r="129" spans="2:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C129" s="21" t="s">
         <v>55</v>
       </c>
@@ -6938,8 +7697,12 @@
       <c r="W129" s="25"/>
       <c r="X129" s="25"/>
       <c r="Y129" s="25"/>
-    </row>
-    <row r="130" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Z129" s="25"/>
+      <c r="AA129" s="25"/>
+      <c r="AB129" s="25"/>
+      <c r="AC129" s="25"/>
+    </row>
+    <row r="130" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B130" s="1" t="s">
         <v>23</v>
       </c>
@@ -7000,8 +7763,19 @@
       <c r="Y130" s="23" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="131" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Z130" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA130" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB130" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC130" s="23"/>
+    </row>
+    <row r="131" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B131" s="16"/>
       <c r="C131" s="1"/>
       <c r="D131" s="3"/>
       <c r="E131" s="3"/>
@@ -7014,6 +7788,7 @@
       <c r="L131" s="3"/>
       <c r="M131" s="3"/>
       <c r="N131" s="3"/>
+      <c r="Q131" s="16"/>
       <c r="R131" s="23"/>
       <c r="S131" s="3"/>
       <c r="T131" s="3"/>
@@ -7022,8 +7797,13 @@
       <c r="W131" s="3"/>
       <c r="X131" s="3"/>
       <c r="Y131" s="3"/>
-    </row>
-    <row r="132" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Z131" s="3"/>
+      <c r="AA131" s="3"/>
+      <c r="AB131" s="3"/>
+      <c r="AC131" s="3"/>
+    </row>
+    <row r="132" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B132" s="16"/>
       <c r="C132" s="1"/>
       <c r="D132" s="3"/>
       <c r="E132" s="3"/>
@@ -7036,6 +7816,7 @@
       <c r="L132" s="3"/>
       <c r="M132" s="3"/>
       <c r="N132" s="3"/>
+      <c r="Q132" s="16"/>
       <c r="R132" s="23"/>
       <c r="S132" s="3"/>
       <c r="T132" s="3"/>
@@ -7044,8 +7825,13 @@
       <c r="W132" s="3"/>
       <c r="X132" s="3"/>
       <c r="Y132" s="3"/>
-    </row>
-    <row r="133" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Z132" s="3"/>
+      <c r="AA132" s="3"/>
+      <c r="AB132" s="3"/>
+      <c r="AC132" s="3"/>
+    </row>
+    <row r="133" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B133" s="16"/>
       <c r="C133" s="1"/>
       <c r="D133" s="3"/>
       <c r="E133" s="3"/>
@@ -7058,6 +7844,7 @@
       <c r="L133" s="3"/>
       <c r="M133" s="3"/>
       <c r="N133" s="3"/>
+      <c r="Q133" s="16"/>
       <c r="R133" s="23"/>
       <c r="S133" s="3"/>
       <c r="T133" s="3"/>
@@ -7066,8 +7853,13 @@
       <c r="W133" s="3"/>
       <c r="X133" s="3"/>
       <c r="Y133" s="3"/>
-    </row>
-    <row r="134" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Z133" s="3"/>
+      <c r="AA133" s="3"/>
+      <c r="AB133" s="3"/>
+      <c r="AC133" s="3"/>
+    </row>
+    <row r="134" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B134" s="16"/>
       <c r="C134" s="1"/>
       <c r="D134" s="3"/>
       <c r="E134" s="3"/>
@@ -7080,6 +7872,7 @@
       <c r="L134" s="3"/>
       <c r="M134" s="3"/>
       <c r="N134" s="3"/>
+      <c r="Q134" s="16"/>
       <c r="R134" s="23"/>
       <c r="S134" s="3"/>
       <c r="T134" s="3"/>
@@ -7088,8 +7881,12 @@
       <c r="W134" s="3"/>
       <c r="X134" s="3"/>
       <c r="Y134" s="3"/>
-    </row>
-    <row r="135" spans="2:25" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z134" s="3"/>
+      <c r="AA134" s="3"/>
+      <c r="AB134" s="3"/>
+      <c r="AC134" s="3"/>
+    </row>
+    <row r="135" spans="2:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C135" s="22" t="s">
         <v>43</v>
       </c>
@@ -7114,8 +7911,12 @@
       <c r="W135" s="23"/>
       <c r="X135" s="23"/>
       <c r="Y135" s="23"/>
-    </row>
-    <row r="136" spans="2:25" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z135" s="23"/>
+      <c r="AA135" s="23"/>
+      <c r="AB135" s="23"/>
+      <c r="AC135" s="23"/>
+    </row>
+    <row r="136" spans="2:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C136" s="21" t="s">
         <v>55</v>
       </c>
@@ -7140,8 +7941,12 @@
       <c r="W136" s="25"/>
       <c r="X136" s="25"/>
       <c r="Y136" s="25"/>
-    </row>
-    <row r="137" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Z136" s="25"/>
+      <c r="AA136" s="25"/>
+      <c r="AB136" s="25"/>
+      <c r="AC136" s="25"/>
+    </row>
+    <row r="137" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B137" s="1" t="s">
         <v>24</v>
       </c>
@@ -7202,8 +8007,19 @@
       <c r="Y137" s="23" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="138" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Z137" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA137" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB137" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC137" s="23"/>
+    </row>
+    <row r="138" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B138" s="16"/>
       <c r="C138" s="1"/>
       <c r="D138" s="3"/>
       <c r="E138" s="3"/>
@@ -7224,8 +8040,13 @@
       <c r="W138" s="3"/>
       <c r="X138" s="3"/>
       <c r="Y138" s="3"/>
-    </row>
-    <row r="139" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Z138" s="3"/>
+      <c r="AA138" s="3"/>
+      <c r="AB138" s="3"/>
+      <c r="AC138" s="3"/>
+    </row>
+    <row r="139" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B139" s="16"/>
       <c r="C139" s="1"/>
       <c r="D139" s="3"/>
       <c r="E139" s="3"/>
@@ -7246,8 +8067,13 @@
       <c r="W139" s="3"/>
       <c r="X139" s="3"/>
       <c r="Y139" s="3"/>
-    </row>
-    <row r="140" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Z139" s="3"/>
+      <c r="AA139" s="3"/>
+      <c r="AB139" s="3"/>
+      <c r="AC139" s="3"/>
+    </row>
+    <row r="140" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B140" s="16"/>
       <c r="C140" s="1"/>
       <c r="D140" s="3"/>
       <c r="E140" s="3"/>
@@ -7268,8 +8094,13 @@
       <c r="W140" s="3"/>
       <c r="X140" s="3"/>
       <c r="Y140" s="3"/>
-    </row>
-    <row r="141" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Z140" s="3"/>
+      <c r="AA140" s="3"/>
+      <c r="AB140" s="3"/>
+      <c r="AC140" s="3"/>
+    </row>
+    <row r="141" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B141" s="16"/>
       <c r="C141" s="1"/>
       <c r="D141" s="3"/>
       <c r="E141" s="3"/>
@@ -7290,8 +8121,12 @@
       <c r="W141" s="3"/>
       <c r="X141" s="3"/>
       <c r="Y141" s="3"/>
-    </row>
-    <row r="142" spans="2:25" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z141" s="3"/>
+      <c r="AA141" s="3"/>
+      <c r="AB141" s="3"/>
+      <c r="AC141" s="3"/>
+    </row>
+    <row r="142" spans="2:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C142" s="22" t="s">
         <v>43</v>
       </c>
@@ -7316,8 +8151,12 @@
       <c r="W142" s="23"/>
       <c r="X142" s="23"/>
       <c r="Y142" s="23"/>
-    </row>
-    <row r="143" spans="2:25" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z142" s="23"/>
+      <c r="AA142" s="23"/>
+      <c r="AB142" s="23"/>
+      <c r="AC142" s="23"/>
+    </row>
+    <row r="143" spans="2:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C143" s="21" t="s">
         <v>55</v>
       </c>
@@ -7342,8 +8181,12 @@
       <c r="W143" s="25"/>
       <c r="X143" s="25"/>
       <c r="Y143" s="25"/>
-    </row>
-    <row r="144" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Z143" s="25"/>
+      <c r="AA143" s="25"/>
+      <c r="AB143" s="25"/>
+      <c r="AC143" s="25"/>
+    </row>
+    <row r="144" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B144" s="1" t="s">
         <v>25</v>
       </c>
@@ -7404,8 +8247,19 @@
       <c r="Y144" s="23" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="145" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Z144" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA144" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB144" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC144" s="23"/>
+    </row>
+    <row r="145" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B145" s="16"/>
       <c r="C145" s="1"/>
       <c r="D145" s="3"/>
       <c r="E145" s="3"/>
@@ -7418,6 +8272,7 @@
       <c r="L145" s="3"/>
       <c r="M145" s="3"/>
       <c r="N145" s="3"/>
+      <c r="Q145" s="16"/>
       <c r="R145" s="23"/>
       <c r="S145" s="3"/>
       <c r="T145" s="3"/>
@@ -7426,8 +8281,13 @@
       <c r="W145" s="3"/>
       <c r="X145" s="3"/>
       <c r="Y145" s="3"/>
-    </row>
-    <row r="146" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Z145" s="3"/>
+      <c r="AA145" s="3"/>
+      <c r="AB145" s="3"/>
+      <c r="AC145" s="3"/>
+    </row>
+    <row r="146" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B146" s="16"/>
       <c r="C146" s="1"/>
       <c r="D146" s="3"/>
       <c r="E146" s="3"/>
@@ -7440,6 +8300,7 @@
       <c r="L146" s="3"/>
       <c r="M146" s="3"/>
       <c r="N146" s="3"/>
+      <c r="Q146" s="16"/>
       <c r="R146" s="23"/>
       <c r="S146" s="3"/>
       <c r="T146" s="3"/>
@@ -7448,8 +8309,13 @@
       <c r="W146" s="3"/>
       <c r="X146" s="3"/>
       <c r="Y146" s="3"/>
-    </row>
-    <row r="147" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Z146" s="3"/>
+      <c r="AA146" s="3"/>
+      <c r="AB146" s="3"/>
+      <c r="AC146" s="3"/>
+    </row>
+    <row r="147" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B147" s="16"/>
       <c r="C147" s="1"/>
       <c r="D147" s="3"/>
       <c r="E147" s="3"/>
@@ -7462,6 +8328,7 @@
       <c r="L147" s="3"/>
       <c r="M147" s="3"/>
       <c r="N147" s="3"/>
+      <c r="Q147" s="16"/>
       <c r="R147" s="23"/>
       <c r="S147" s="3"/>
       <c r="T147" s="3"/>
@@ -7470,8 +8337,13 @@
       <c r="W147" s="3"/>
       <c r="X147" s="3"/>
       <c r="Y147" s="3"/>
-    </row>
-    <row r="148" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Z147" s="3"/>
+      <c r="AA147" s="3"/>
+      <c r="AB147" s="3"/>
+      <c r="AC147" s="3"/>
+    </row>
+    <row r="148" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B148" s="16"/>
       <c r="C148" s="1"/>
       <c r="D148" s="3"/>
       <c r="E148" s="3"/>
@@ -7484,6 +8356,7 @@
       <c r="L148" s="3"/>
       <c r="M148" s="3"/>
       <c r="N148" s="3"/>
+      <c r="Q148" s="16"/>
       <c r="R148" s="23"/>
       <c r="S148" s="3"/>
       <c r="T148" s="3"/>
@@ -7492,8 +8365,12 @@
       <c r="W148" s="3"/>
       <c r="X148" s="3"/>
       <c r="Y148" s="3"/>
-    </row>
-    <row r="149" spans="2:25" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z148" s="3"/>
+      <c r="AA148" s="3"/>
+      <c r="AB148" s="3"/>
+      <c r="AC148" s="3"/>
+    </row>
+    <row r="149" spans="2:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C149" s="22" t="s">
         <v>43</v>
       </c>
@@ -7518,8 +8395,12 @@
       <c r="W149" s="23"/>
       <c r="X149" s="23"/>
       <c r="Y149" s="23"/>
-    </row>
-    <row r="150" spans="2:25" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z149" s="23"/>
+      <c r="AA149" s="23"/>
+      <c r="AB149" s="23"/>
+      <c r="AC149" s="23"/>
+    </row>
+    <row r="150" spans="2:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C150" s="21" t="s">
         <v>55</v>
       </c>
@@ -7544,8 +8425,12 @@
       <c r="W150" s="25"/>
       <c r="X150" s="25"/>
       <c r="Y150" s="25"/>
-    </row>
-    <row r="151" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Z150" s="25"/>
+      <c r="AA150" s="25"/>
+      <c r="AB150" s="25"/>
+      <c r="AC150" s="25"/>
+    </row>
+    <row r="151" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B151" s="1" t="s">
         <v>26</v>
       </c>
@@ -7606,8 +8491,19 @@
       <c r="Y151" s="23" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="152" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Z151" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA151" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB151" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC151" s="23"/>
+    </row>
+    <row r="152" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B152" s="16"/>
       <c r="C152" s="1"/>
       <c r="D152" s="3"/>
       <c r="E152" s="3"/>
@@ -7620,6 +8516,7 @@
       <c r="L152" s="3"/>
       <c r="M152" s="3"/>
       <c r="N152" s="3"/>
+      <c r="Q152" s="16"/>
       <c r="R152" s="23"/>
       <c r="S152" s="3"/>
       <c r="T152" s="3"/>
@@ -7628,8 +8525,13 @@
       <c r="W152" s="3"/>
       <c r="X152" s="3"/>
       <c r="Y152" s="3"/>
-    </row>
-    <row r="153" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Z152" s="3"/>
+      <c r="AA152" s="3"/>
+      <c r="AB152" s="3"/>
+      <c r="AC152" s="3"/>
+    </row>
+    <row r="153" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B153" s="16"/>
       <c r="C153" s="1"/>
       <c r="D153" s="3"/>
       <c r="E153" s="3"/>
@@ -7642,6 +8544,7 @@
       <c r="L153" s="3"/>
       <c r="M153" s="3"/>
       <c r="N153" s="3"/>
+      <c r="Q153" s="16"/>
       <c r="R153" s="23"/>
       <c r="S153" s="3"/>
       <c r="T153" s="3"/>
@@ -7650,8 +8553,13 @@
       <c r="W153" s="3"/>
       <c r="X153" s="3"/>
       <c r="Y153" s="3"/>
-    </row>
-    <row r="154" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Z153" s="3"/>
+      <c r="AA153" s="3"/>
+      <c r="AB153" s="3"/>
+      <c r="AC153" s="3"/>
+    </row>
+    <row r="154" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B154" s="16"/>
       <c r="C154" s="1"/>
       <c r="D154" s="3"/>
       <c r="E154" s="3"/>
@@ -7664,6 +8572,7 @@
       <c r="L154" s="3"/>
       <c r="M154" s="3"/>
       <c r="N154" s="3"/>
+      <c r="Q154" s="16"/>
       <c r="R154" s="23"/>
       <c r="S154" s="3"/>
       <c r="T154" s="3"/>
@@ -7672,8 +8581,13 @@
       <c r="W154" s="3"/>
       <c r="X154" s="3"/>
       <c r="Y154" s="3"/>
-    </row>
-    <row r="155" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Z154" s="3"/>
+      <c r="AA154" s="3"/>
+      <c r="AB154" s="3"/>
+      <c r="AC154" s="3"/>
+    </row>
+    <row r="155" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B155" s="16"/>
       <c r="C155" s="1"/>
       <c r="D155" s="3"/>
       <c r="E155" s="3"/>
@@ -7686,6 +8600,7 @@
       <c r="L155" s="3"/>
       <c r="M155" s="3"/>
       <c r="N155" s="3"/>
+      <c r="Q155" s="16"/>
       <c r="R155" s="23"/>
       <c r="S155" s="3"/>
       <c r="T155" s="3"/>
@@ -7694,8 +8609,12 @@
       <c r="W155" s="3"/>
       <c r="X155" s="3"/>
       <c r="Y155" s="3"/>
-    </row>
-    <row r="156" spans="2:25" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z155" s="3"/>
+      <c r="AA155" s="3"/>
+      <c r="AB155" s="3"/>
+      <c r="AC155" s="3"/>
+    </row>
+    <row r="156" spans="2:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C156" s="22" t="s">
         <v>43</v>
       </c>
@@ -7720,8 +8639,12 @@
       <c r="W156" s="23"/>
       <c r="X156" s="23"/>
       <c r="Y156" s="23"/>
-    </row>
-    <row r="157" spans="2:25" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z156" s="23"/>
+      <c r="AA156" s="23"/>
+      <c r="AB156" s="23"/>
+      <c r="AC156" s="23"/>
+    </row>
+    <row r="157" spans="2:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C157" s="21" t="s">
         <v>55</v>
       </c>
@@ -7746,8 +8669,12 @@
       <c r="W157" s="25"/>
       <c r="X157" s="25"/>
       <c r="Y157" s="25"/>
-    </row>
-    <row r="158" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Z157" s="25"/>
+      <c r="AA157" s="25"/>
+      <c r="AB157" s="25"/>
+      <c r="AC157" s="25"/>
+    </row>
+    <row r="158" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B158" s="1" t="s">
         <v>27</v>
       </c>
@@ -7808,8 +8735,19 @@
       <c r="Y158" s="23" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="159" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Z158" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA158" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB158" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC158" s="23"/>
+    </row>
+    <row r="159" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B159" s="16"/>
       <c r="C159" s="1"/>
       <c r="D159" s="3"/>
       <c r="E159" s="3"/>
@@ -7822,6 +8760,7 @@
       <c r="L159" s="3"/>
       <c r="M159" s="3"/>
       <c r="N159" s="3"/>
+      <c r="Q159" s="16"/>
       <c r="R159" s="23"/>
       <c r="S159" s="3"/>
       <c r="T159" s="3"/>
@@ -7830,8 +8769,13 @@
       <c r="W159" s="3"/>
       <c r="X159" s="3"/>
       <c r="Y159" s="3"/>
-    </row>
-    <row r="160" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Z159" s="3"/>
+      <c r="AA159" s="3"/>
+      <c r="AB159" s="3"/>
+      <c r="AC159" s="3"/>
+    </row>
+    <row r="160" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B160" s="16"/>
       <c r="C160" s="1"/>
       <c r="D160" s="3"/>
       <c r="E160" s="3"/>
@@ -7844,6 +8788,7 @@
       <c r="L160" s="3"/>
       <c r="M160" s="3"/>
       <c r="N160" s="3"/>
+      <c r="Q160" s="16"/>
       <c r="R160" s="23"/>
       <c r="S160" s="3"/>
       <c r="T160" s="3"/>
@@ -7852,8 +8797,13 @@
       <c r="W160" s="3"/>
       <c r="X160" s="3"/>
       <c r="Y160" s="3"/>
-    </row>
-    <row r="161" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Z160" s="3"/>
+      <c r="AA160" s="3"/>
+      <c r="AB160" s="3"/>
+      <c r="AC160" s="3"/>
+    </row>
+    <row r="161" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B161" s="16"/>
       <c r="C161" s="1"/>
       <c r="D161" s="3"/>
       <c r="E161" s="3"/>
@@ -7866,6 +8816,7 @@
       <c r="L161" s="3"/>
       <c r="M161" s="3"/>
       <c r="N161" s="3"/>
+      <c r="Q161" s="16"/>
       <c r="R161" s="23"/>
       <c r="S161" s="3"/>
       <c r="T161" s="3"/>
@@ -7874,8 +8825,13 @@
       <c r="W161" s="3"/>
       <c r="X161" s="3"/>
       <c r="Y161" s="3"/>
-    </row>
-    <row r="162" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Z161" s="3"/>
+      <c r="AA161" s="3"/>
+      <c r="AB161" s="3"/>
+      <c r="AC161" s="3"/>
+    </row>
+    <row r="162" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B162" s="16"/>
       <c r="C162" s="1"/>
       <c r="D162" s="3"/>
       <c r="E162" s="3"/>
@@ -7888,6 +8844,7 @@
       <c r="L162" s="3"/>
       <c r="M162" s="3"/>
       <c r="N162" s="3"/>
+      <c r="Q162" s="16"/>
       <c r="R162" s="23"/>
       <c r="S162" s="3"/>
       <c r="T162" s="3"/>
@@ -7896,8 +8853,12 @@
       <c r="W162" s="3"/>
       <c r="X162" s="3"/>
       <c r="Y162" s="3"/>
-    </row>
-    <row r="163" spans="2:25" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z162" s="3"/>
+      <c r="AA162" s="3"/>
+      <c r="AB162" s="3"/>
+      <c r="AC162" s="3"/>
+    </row>
+    <row r="163" spans="2:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C163" s="22" t="s">
         <v>43</v>
       </c>
@@ -7922,8 +8883,12 @@
       <c r="W163" s="23"/>
       <c r="X163" s="23"/>
       <c r="Y163" s="23"/>
-    </row>
-    <row r="164" spans="2:25" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z163" s="23"/>
+      <c r="AA163" s="23"/>
+      <c r="AB163" s="23"/>
+      <c r="AC163" s="23"/>
+    </row>
+    <row r="164" spans="2:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C164" s="21" t="s">
         <v>55</v>
       </c>
@@ -7948,8 +8913,12 @@
       <c r="W164" s="25"/>
       <c r="X164" s="25"/>
       <c r="Y164" s="25"/>
-    </row>
-    <row r="165" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Z164" s="25"/>
+      <c r="AA164" s="25"/>
+      <c r="AB164" s="25"/>
+      <c r="AC164" s="25"/>
+    </row>
+    <row r="165" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B165" s="1" t="s">
         <v>28</v>
       </c>
@@ -8010,8 +8979,19 @@
       <c r="Y165" s="23" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="166" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Z165" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA165" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB165" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC165" s="23"/>
+    </row>
+    <row r="166" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B166" s="16"/>
       <c r="C166" s="1"/>
       <c r="D166" s="3"/>
       <c r="E166" s="3"/>
@@ -8024,6 +9004,7 @@
       <c r="L166" s="3"/>
       <c r="M166" s="3"/>
       <c r="N166" s="3"/>
+      <c r="Q166" s="16"/>
       <c r="R166" s="23"/>
       <c r="S166" s="3"/>
       <c r="T166" s="3"/>
@@ -8032,8 +9013,13 @@
       <c r="W166" s="3"/>
       <c r="X166" s="3"/>
       <c r="Y166" s="3"/>
-    </row>
-    <row r="167" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Z166" s="3"/>
+      <c r="AA166" s="3"/>
+      <c r="AB166" s="3"/>
+      <c r="AC166" s="3"/>
+    </row>
+    <row r="167" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B167" s="16"/>
       <c r="C167" s="1"/>
       <c r="D167" s="3"/>
       <c r="E167" s="3"/>
@@ -8046,6 +9032,7 @@
       <c r="L167" s="3"/>
       <c r="M167" s="3"/>
       <c r="N167" s="3"/>
+      <c r="Q167" s="16"/>
       <c r="R167" s="23"/>
       <c r="S167" s="3"/>
       <c r="T167" s="3"/>
@@ -8054,8 +9041,13 @@
       <c r="W167" s="3"/>
       <c r="X167" s="3"/>
       <c r="Y167" s="3"/>
-    </row>
-    <row r="168" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Z167" s="3"/>
+      <c r="AA167" s="3"/>
+      <c r="AB167" s="3"/>
+      <c r="AC167" s="3"/>
+    </row>
+    <row r="168" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B168" s="16"/>
       <c r="C168" s="1"/>
       <c r="D168" s="3"/>
       <c r="E168" s="3"/>
@@ -8068,6 +9060,7 @@
       <c r="L168" s="3"/>
       <c r="M168" s="3"/>
       <c r="N168" s="3"/>
+      <c r="Q168" s="16"/>
       <c r="R168" s="23"/>
       <c r="S168" s="3"/>
       <c r="T168" s="3"/>
@@ -8076,8 +9069,13 @@
       <c r="W168" s="3"/>
       <c r="X168" s="3"/>
       <c r="Y168" s="3"/>
-    </row>
-    <row r="169" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Z168" s="3"/>
+      <c r="AA168" s="3"/>
+      <c r="AB168" s="3"/>
+      <c r="AC168" s="3"/>
+    </row>
+    <row r="169" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B169" s="16"/>
       <c r="C169" s="1"/>
       <c r="D169" s="3"/>
       <c r="E169" s="3"/>
@@ -8090,6 +9088,7 @@
       <c r="L169" s="3"/>
       <c r="M169" s="3"/>
       <c r="N169" s="3"/>
+      <c r="Q169" s="16"/>
       <c r="R169" s="23"/>
       <c r="S169" s="3"/>
       <c r="T169" s="3"/>
@@ -8098,8 +9097,12 @@
       <c r="W169" s="3"/>
       <c r="X169" s="3"/>
       <c r="Y169" s="3"/>
-    </row>
-    <row r="170" spans="2:25" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z169" s="3"/>
+      <c r="AA169" s="3"/>
+      <c r="AB169" s="3"/>
+      <c r="AC169" s="3"/>
+    </row>
+    <row r="170" spans="2:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C170" s="22" t="s">
         <v>43</v>
       </c>
@@ -8124,8 +9127,12 @@
       <c r="W170" s="23"/>
       <c r="X170" s="23"/>
       <c r="Y170" s="23"/>
-    </row>
-    <row r="171" spans="2:25" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z170" s="23"/>
+      <c r="AA170" s="23"/>
+      <c r="AB170" s="23"/>
+      <c r="AC170" s="23"/>
+    </row>
+    <row r="171" spans="2:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C171" s="21" t="s">
         <v>55</v>
       </c>
@@ -8150,8 +9157,12 @@
       <c r="W171" s="25"/>
       <c r="X171" s="25"/>
       <c r="Y171" s="25"/>
-    </row>
-    <row r="172" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Z171" s="25"/>
+      <c r="AA171" s="25"/>
+      <c r="AB171" s="25"/>
+      <c r="AC171" s="25"/>
+    </row>
+    <row r="172" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B172" s="1" t="s">
         <v>29</v>
       </c>
@@ -8212,8 +9223,19 @@
       <c r="Y172" s="23" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="173" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Z172" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA172" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB172" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC172" s="23"/>
+    </row>
+    <row r="173" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B173" s="16"/>
       <c r="C173" s="1"/>
       <c r="D173" s="3"/>
       <c r="E173" s="3"/>
@@ -8226,6 +9248,7 @@
       <c r="L173" s="3"/>
       <c r="M173" s="3"/>
       <c r="N173" s="3"/>
+      <c r="Q173" s="16"/>
       <c r="R173" s="23"/>
       <c r="S173" s="3"/>
       <c r="T173" s="3"/>
@@ -8234,8 +9257,13 @@
       <c r="W173" s="3"/>
       <c r="X173" s="3"/>
       <c r="Y173" s="3"/>
-    </row>
-    <row r="174" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Z173" s="3"/>
+      <c r="AA173" s="3"/>
+      <c r="AB173" s="3"/>
+      <c r="AC173" s="3"/>
+    </row>
+    <row r="174" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B174" s="16"/>
       <c r="C174" s="1"/>
       <c r="D174" s="3"/>
       <c r="E174" s="3"/>
@@ -8248,6 +9276,7 @@
       <c r="L174" s="3"/>
       <c r="M174" s="3"/>
       <c r="N174" s="3"/>
+      <c r="Q174" s="16"/>
       <c r="R174" s="23"/>
       <c r="S174" s="3"/>
       <c r="T174" s="3"/>
@@ -8256,8 +9285,13 @@
       <c r="W174" s="3"/>
       <c r="X174" s="3"/>
       <c r="Y174" s="3"/>
-    </row>
-    <row r="175" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Z174" s="3"/>
+      <c r="AA174" s="3"/>
+      <c r="AB174" s="3"/>
+      <c r="AC174" s="3"/>
+    </row>
+    <row r="175" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B175" s="16"/>
       <c r="C175" s="1"/>
       <c r="D175" s="3"/>
       <c r="E175" s="3"/>
@@ -8270,6 +9304,7 @@
       <c r="L175" s="3"/>
       <c r="M175" s="3"/>
       <c r="N175" s="3"/>
+      <c r="Q175" s="16"/>
       <c r="R175" s="23"/>
       <c r="S175" s="3"/>
       <c r="T175" s="3"/>
@@ -8278,8 +9313,13 @@
       <c r="W175" s="3"/>
       <c r="X175" s="3"/>
       <c r="Y175" s="3"/>
-    </row>
-    <row r="176" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Z175" s="3"/>
+      <c r="AA175" s="3"/>
+      <c r="AB175" s="3"/>
+      <c r="AC175" s="3"/>
+    </row>
+    <row r="176" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B176" s="16"/>
       <c r="C176" s="1"/>
       <c r="D176" s="3"/>
       <c r="E176" s="3"/>
@@ -8292,6 +9332,7 @@
       <c r="L176" s="3"/>
       <c r="M176" s="3"/>
       <c r="N176" s="3"/>
+      <c r="Q176" s="16"/>
       <c r="R176" s="23"/>
       <c r="S176" s="3"/>
       <c r="T176" s="3"/>
@@ -8300,8 +9341,12 @@
       <c r="W176" s="3"/>
       <c r="X176" s="3"/>
       <c r="Y176" s="3"/>
-    </row>
-    <row r="177" spans="2:25" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z176" s="3"/>
+      <c r="AA176" s="3"/>
+      <c r="AB176" s="3"/>
+      <c r="AC176" s="3"/>
+    </row>
+    <row r="177" spans="2:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C177" s="22" t="s">
         <v>43</v>
       </c>
@@ -8326,8 +9371,12 @@
       <c r="W177" s="23"/>
       <c r="X177" s="23"/>
       <c r="Y177" s="23"/>
-    </row>
-    <row r="178" spans="2:25" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z177" s="23"/>
+      <c r="AA177" s="23"/>
+      <c r="AB177" s="23"/>
+      <c r="AC177" s="23"/>
+    </row>
+    <row r="178" spans="2:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C178" s="21" t="s">
         <v>55</v>
       </c>
@@ -8352,8 +9401,12 @@
       <c r="W178" s="25"/>
       <c r="X178" s="25"/>
       <c r="Y178" s="25"/>
-    </row>
-    <row r="179" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Z178" s="25"/>
+      <c r="AA178" s="25"/>
+      <c r="AB178" s="25"/>
+      <c r="AC178" s="25"/>
+    </row>
+    <row r="179" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B179" s="1" t="s">
         <v>30</v>
       </c>
@@ -8414,8 +9467,19 @@
       <c r="Y179" s="23" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="180" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Z179" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA179" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB179" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC179" s="23"/>
+    </row>
+    <row r="180" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B180" s="16"/>
       <c r="C180" s="1"/>
       <c r="D180" s="3"/>
       <c r="E180" s="3"/>
@@ -8428,6 +9492,7 @@
       <c r="L180" s="3"/>
       <c r="M180" s="3"/>
       <c r="N180" s="3"/>
+      <c r="Q180" s="16"/>
       <c r="R180" s="23"/>
       <c r="S180" s="3"/>
       <c r="T180" s="3"/>
@@ -8436,8 +9501,13 @@
       <c r="W180" s="3"/>
       <c r="X180" s="3"/>
       <c r="Y180" s="3"/>
-    </row>
-    <row r="181" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Z180" s="3"/>
+      <c r="AA180" s="3"/>
+      <c r="AB180" s="3"/>
+      <c r="AC180" s="3"/>
+    </row>
+    <row r="181" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B181" s="16"/>
       <c r="C181" s="1"/>
       <c r="D181" s="3"/>
       <c r="E181" s="3"/>
@@ -8450,6 +9520,7 @@
       <c r="L181" s="3"/>
       <c r="M181" s="3"/>
       <c r="N181" s="3"/>
+      <c r="Q181" s="16"/>
       <c r="R181" s="23"/>
       <c r="S181" s="3"/>
       <c r="T181" s="3"/>
@@ -8458,8 +9529,13 @@
       <c r="W181" s="3"/>
       <c r="X181" s="3"/>
       <c r="Y181" s="3"/>
-    </row>
-    <row r="182" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Z181" s="3"/>
+      <c r="AA181" s="3"/>
+      <c r="AB181" s="3"/>
+      <c r="AC181" s="3"/>
+    </row>
+    <row r="182" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B182" s="16"/>
       <c r="C182" s="1"/>
       <c r="D182" s="3"/>
       <c r="E182" s="3"/>
@@ -8472,6 +9548,7 @@
       <c r="L182" s="3"/>
       <c r="M182" s="3"/>
       <c r="N182" s="3"/>
+      <c r="Q182" s="16"/>
       <c r="R182" s="23"/>
       <c r="S182" s="3"/>
       <c r="T182" s="3"/>
@@ -8480,8 +9557,13 @@
       <c r="W182" s="3"/>
       <c r="X182" s="3"/>
       <c r="Y182" s="3"/>
-    </row>
-    <row r="183" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Z182" s="3"/>
+      <c r="AA182" s="3"/>
+      <c r="AB182" s="3"/>
+      <c r="AC182" s="3"/>
+    </row>
+    <row r="183" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B183" s="16"/>
       <c r="C183" s="1"/>
       <c r="D183" s="3"/>
       <c r="E183" s="3"/>
@@ -8494,6 +9576,7 @@
       <c r="L183" s="3"/>
       <c r="M183" s="3"/>
       <c r="N183" s="3"/>
+      <c r="Q183" s="16"/>
       <c r="R183" s="23"/>
       <c r="S183" s="3"/>
       <c r="T183" s="3"/>
@@ -8502,8 +9585,12 @@
       <c r="W183" s="3"/>
       <c r="X183" s="3"/>
       <c r="Y183" s="3"/>
-    </row>
-    <row r="184" spans="2:25" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z183" s="3"/>
+      <c r="AA183" s="3"/>
+      <c r="AB183" s="3"/>
+      <c r="AC183" s="3"/>
+    </row>
+    <row r="184" spans="2:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C184" s="22" t="s">
         <v>43</v>
       </c>
@@ -8528,8 +9615,12 @@
       <c r="W184" s="23"/>
       <c r="X184" s="23"/>
       <c r="Y184" s="23"/>
-    </row>
-    <row r="185" spans="2:25" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z184" s="23"/>
+      <c r="AA184" s="23"/>
+      <c r="AB184" s="23"/>
+      <c r="AC184" s="23"/>
+    </row>
+    <row r="185" spans="2:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C185" s="21" t="s">
         <v>55</v>
       </c>
@@ -8554,8 +9645,12 @@
       <c r="W185" s="25"/>
       <c r="X185" s="25"/>
       <c r="Y185" s="25"/>
-    </row>
-    <row r="186" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Z185" s="25"/>
+      <c r="AA185" s="25"/>
+      <c r="AB185" s="25"/>
+      <c r="AC185" s="25"/>
+    </row>
+    <row r="186" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B186" s="1" t="s">
         <v>31</v>
       </c>
@@ -8616,8 +9711,19 @@
       <c r="Y186" s="23" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="187" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Z186" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA186" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB186" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC186" s="23"/>
+    </row>
+    <row r="187" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B187" s="16"/>
       <c r="C187" s="1"/>
       <c r="D187" s="3"/>
       <c r="E187" s="3"/>
@@ -8630,6 +9736,7 @@
       <c r="L187" s="3"/>
       <c r="M187" s="3"/>
       <c r="N187" s="3"/>
+      <c r="Q187" s="16"/>
       <c r="R187" s="23"/>
       <c r="S187" s="3"/>
       <c r="T187" s="3"/>
@@ -8638,8 +9745,13 @@
       <c r="W187" s="3"/>
       <c r="X187" s="3"/>
       <c r="Y187" s="3"/>
-    </row>
-    <row r="188" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Z187" s="3"/>
+      <c r="AA187" s="3"/>
+      <c r="AB187" s="3"/>
+      <c r="AC187" s="3"/>
+    </row>
+    <row r="188" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B188" s="16"/>
       <c r="C188" s="1"/>
       <c r="D188" s="3"/>
       <c r="E188" s="3"/>
@@ -8652,6 +9764,7 @@
       <c r="L188" s="3"/>
       <c r="M188" s="3"/>
       <c r="N188" s="3"/>
+      <c r="Q188" s="16"/>
       <c r="R188" s="23"/>
       <c r="S188" s="3"/>
       <c r="T188" s="3"/>
@@ -8660,8 +9773,13 @@
       <c r="W188" s="3"/>
       <c r="X188" s="3"/>
       <c r="Y188" s="3"/>
-    </row>
-    <row r="189" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Z188" s="3"/>
+      <c r="AA188" s="3"/>
+      <c r="AB188" s="3"/>
+      <c r="AC188" s="3"/>
+    </row>
+    <row r="189" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B189" s="16"/>
       <c r="C189" s="1"/>
       <c r="D189" s="3"/>
       <c r="E189" s="3"/>
@@ -8674,6 +9792,7 @@
       <c r="L189" s="3"/>
       <c r="M189" s="3"/>
       <c r="N189" s="3"/>
+      <c r="Q189" s="16"/>
       <c r="R189" s="23"/>
       <c r="S189" s="3"/>
       <c r="T189" s="3"/>
@@ -8682,8 +9801,13 @@
       <c r="W189" s="3"/>
       <c r="X189" s="3"/>
       <c r="Y189" s="3"/>
-    </row>
-    <row r="190" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Z189" s="3"/>
+      <c r="AA189" s="3"/>
+      <c r="AB189" s="3"/>
+      <c r="AC189" s="3"/>
+    </row>
+    <row r="190" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B190" s="16"/>
       <c r="C190" s="1"/>
       <c r="D190" s="3"/>
       <c r="E190" s="3"/>
@@ -8696,6 +9820,7 @@
       <c r="L190" s="3"/>
       <c r="M190" s="3"/>
       <c r="N190" s="3"/>
+      <c r="Q190" s="16"/>
       <c r="R190" s="23"/>
       <c r="S190" s="3"/>
       <c r="T190" s="3"/>
@@ -8704,8 +9829,12 @@
       <c r="W190" s="3"/>
       <c r="X190" s="3"/>
       <c r="Y190" s="3"/>
-    </row>
-    <row r="191" spans="2:25" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z190" s="3"/>
+      <c r="AA190" s="3"/>
+      <c r="AB190" s="3"/>
+      <c r="AC190" s="3"/>
+    </row>
+    <row r="191" spans="2:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C191" s="22" t="s">
         <v>43</v>
       </c>
@@ -8730,8 +9859,12 @@
       <c r="W191" s="23"/>
       <c r="X191" s="23"/>
       <c r="Y191" s="23"/>
-    </row>
-    <row r="192" spans="2:25" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z191" s="23"/>
+      <c r="AA191" s="23"/>
+      <c r="AB191" s="23"/>
+      <c r="AC191" s="23"/>
+    </row>
+    <row r="192" spans="2:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C192" s="21" t="s">
         <v>55</v>
       </c>
@@ -8756,8 +9889,12 @@
       <c r="W192" s="25"/>
       <c r="X192" s="25"/>
       <c r="Y192" s="25"/>
-    </row>
-    <row r="193" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Z192" s="25"/>
+      <c r="AA192" s="25"/>
+      <c r="AB192" s="25"/>
+      <c r="AC192" s="25"/>
+    </row>
+    <row r="193" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B193" s="1" t="s">
         <v>32</v>
       </c>
@@ -8818,8 +9955,19 @@
       <c r="Y193" s="23" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="194" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Z193" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA193" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB193" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC193" s="23"/>
+    </row>
+    <row r="194" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B194" s="16"/>
       <c r="C194" s="1"/>
       <c r="D194" s="3"/>
       <c r="E194" s="3"/>
@@ -8832,6 +9980,7 @@
       <c r="L194" s="3"/>
       <c r="M194" s="3"/>
       <c r="N194" s="3"/>
+      <c r="Q194" s="16"/>
       <c r="R194" s="23"/>
       <c r="S194" s="3"/>
       <c r="T194" s="3"/>
@@ -8840,8 +9989,13 @@
       <c r="W194" s="3"/>
       <c r="X194" s="3"/>
       <c r="Y194" s="3"/>
-    </row>
-    <row r="195" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Z194" s="3"/>
+      <c r="AA194" s="3"/>
+      <c r="AB194" s="3"/>
+      <c r="AC194" s="3"/>
+    </row>
+    <row r="195" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B195" s="16"/>
       <c r="C195" s="1"/>
       <c r="D195" s="3"/>
       <c r="E195" s="3"/>
@@ -8854,6 +10008,7 @@
       <c r="L195" s="3"/>
       <c r="M195" s="3"/>
       <c r="N195" s="3"/>
+      <c r="Q195" s="16"/>
       <c r="R195" s="23"/>
       <c r="S195" s="3"/>
       <c r="T195" s="3"/>
@@ -8862,8 +10017,13 @@
       <c r="W195" s="3"/>
       <c r="X195" s="3"/>
       <c r="Y195" s="3"/>
-    </row>
-    <row r="196" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Z195" s="3"/>
+      <c r="AA195" s="3"/>
+      <c r="AB195" s="3"/>
+      <c r="AC195" s="3"/>
+    </row>
+    <row r="196" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B196" s="16"/>
       <c r="C196" s="1"/>
       <c r="D196" s="3"/>
       <c r="E196" s="3"/>
@@ -8876,6 +10036,7 @@
       <c r="L196" s="3"/>
       <c r="M196" s="3"/>
       <c r="N196" s="3"/>
+      <c r="Q196" s="16"/>
       <c r="R196" s="23"/>
       <c r="S196" s="3"/>
       <c r="T196" s="3"/>
@@ -8884,8 +10045,13 @@
       <c r="W196" s="3"/>
       <c r="X196" s="3"/>
       <c r="Y196" s="3"/>
-    </row>
-    <row r="197" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Z196" s="3"/>
+      <c r="AA196" s="3"/>
+      <c r="AB196" s="3"/>
+      <c r="AC196" s="3"/>
+    </row>
+    <row r="197" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B197" s="16"/>
       <c r="C197" s="1"/>
       <c r="D197" s="3"/>
       <c r="E197" s="3"/>
@@ -8898,6 +10064,7 @@
       <c r="L197" s="3"/>
       <c r="M197" s="3"/>
       <c r="N197" s="3"/>
+      <c r="Q197" s="16"/>
       <c r="R197" s="23"/>
       <c r="S197" s="3"/>
       <c r="T197" s="3"/>
@@ -8906,8 +10073,12 @@
       <c r="W197" s="3"/>
       <c r="X197" s="3"/>
       <c r="Y197" s="3"/>
-    </row>
-    <row r="198" spans="2:25" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z197" s="3"/>
+      <c r="AA197" s="3"/>
+      <c r="AB197" s="3"/>
+      <c r="AC197" s="3"/>
+    </row>
+    <row r="198" spans="2:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C198" s="22" t="s">
         <v>43</v>
       </c>
@@ -8932,8 +10103,12 @@
       <c r="W198" s="23"/>
       <c r="X198" s="23"/>
       <c r="Y198" s="23"/>
-    </row>
-    <row r="199" spans="2:25" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z198" s="23"/>
+      <c r="AA198" s="23"/>
+      <c r="AB198" s="23"/>
+      <c r="AC198" s="23"/>
+    </row>
+    <row r="199" spans="2:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C199" s="21" t="s">
         <v>55</v>
       </c>
@@ -8958,8 +10133,12 @@
       <c r="W199" s="25"/>
       <c r="X199" s="25"/>
       <c r="Y199" s="25"/>
-    </row>
-    <row r="200" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Z199" s="25"/>
+      <c r="AA199" s="25"/>
+      <c r="AB199" s="25"/>
+      <c r="AC199" s="25"/>
+    </row>
+    <row r="200" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B200" s="1" t="s">
         <v>33</v>
       </c>
@@ -9020,8 +10199,19 @@
       <c r="Y200" s="23" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="201" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Z200" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA200" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB200" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC200" s="23"/>
+    </row>
+    <row r="201" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B201" s="16"/>
       <c r="C201" s="1"/>
       <c r="D201" s="3"/>
       <c r="E201" s="3"/>
@@ -9034,6 +10224,7 @@
       <c r="L201" s="3"/>
       <c r="M201" s="3"/>
       <c r="N201" s="3"/>
+      <c r="Q201" s="16"/>
       <c r="R201" s="23"/>
       <c r="S201" s="3"/>
       <c r="T201" s="3"/>
@@ -9042,8 +10233,13 @@
       <c r="W201" s="3"/>
       <c r="X201" s="3"/>
       <c r="Y201" s="3"/>
-    </row>
-    <row r="202" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Z201" s="3"/>
+      <c r="AA201" s="3"/>
+      <c r="AB201" s="3"/>
+      <c r="AC201" s="3"/>
+    </row>
+    <row r="202" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B202" s="16"/>
       <c r="C202" s="1"/>
       <c r="D202" s="3"/>
       <c r="E202" s="3"/>
@@ -9056,6 +10252,7 @@
       <c r="L202" s="3"/>
       <c r="M202" s="3"/>
       <c r="N202" s="3"/>
+      <c r="Q202" s="16"/>
       <c r="R202" s="23"/>
       <c r="S202" s="3"/>
       <c r="T202" s="3"/>
@@ -9064,8 +10261,13 @@
       <c r="W202" s="3"/>
       <c r="X202" s="3"/>
       <c r="Y202" s="3"/>
-    </row>
-    <row r="203" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Z202" s="3"/>
+      <c r="AA202" s="3"/>
+      <c r="AB202" s="3"/>
+      <c r="AC202" s="3"/>
+    </row>
+    <row r="203" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B203" s="16"/>
       <c r="C203" s="1"/>
       <c r="D203" s="3"/>
       <c r="E203" s="3"/>
@@ -9078,6 +10280,7 @@
       <c r="L203" s="3"/>
       <c r="M203" s="3"/>
       <c r="N203" s="3"/>
+      <c r="Q203" s="16"/>
       <c r="R203" s="23"/>
       <c r="S203" s="3"/>
       <c r="T203" s="3"/>
@@ -9086,8 +10289,13 @@
       <c r="W203" s="3"/>
       <c r="X203" s="3"/>
       <c r="Y203" s="3"/>
-    </row>
-    <row r="204" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Z203" s="3"/>
+      <c r="AA203" s="3"/>
+      <c r="AB203" s="3"/>
+      <c r="AC203" s="3"/>
+    </row>
+    <row r="204" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B204" s="16"/>
       <c r="C204" s="1"/>
       <c r="D204" s="3"/>
       <c r="E204" s="3"/>
@@ -9100,6 +10308,7 @@
       <c r="L204" s="3"/>
       <c r="M204" s="3"/>
       <c r="N204" s="3"/>
+      <c r="Q204" s="16"/>
       <c r="R204" s="23"/>
       <c r="S204" s="3"/>
       <c r="T204" s="3"/>
@@ -9108,8 +10317,12 @@
       <c r="W204" s="3"/>
       <c r="X204" s="3"/>
       <c r="Y204" s="3"/>
-    </row>
-    <row r="205" spans="2:25" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z204" s="3"/>
+      <c r="AA204" s="3"/>
+      <c r="AB204" s="3"/>
+      <c r="AC204" s="3"/>
+    </row>
+    <row r="205" spans="2:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C205" s="22" t="s">
         <v>43</v>
       </c>
@@ -9134,8 +10347,12 @@
       <c r="W205" s="23"/>
       <c r="X205" s="23"/>
       <c r="Y205" s="23"/>
-    </row>
-    <row r="206" spans="2:25" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z205" s="23"/>
+      <c r="AA205" s="23"/>
+      <c r="AB205" s="23"/>
+      <c r="AC205" s="23"/>
+    </row>
+    <row r="206" spans="2:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C206" s="21" t="s">
         <v>55</v>
       </c>
@@ -9160,8 +10377,12 @@
       <c r="W206" s="25"/>
       <c r="X206" s="25"/>
       <c r="Y206" s="25"/>
-    </row>
-    <row r="207" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Z206" s="25"/>
+      <c r="AA206" s="25"/>
+      <c r="AB206" s="25"/>
+      <c r="AC206" s="25"/>
+    </row>
+    <row r="207" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B207" s="1" t="s">
         <v>34</v>
       </c>
@@ -9222,8 +10443,19 @@
       <c r="Y207" s="23" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="208" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Z207" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA207" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB207" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC207" s="23"/>
+    </row>
+    <row r="208" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B208" s="16"/>
       <c r="C208" s="1"/>
       <c r="D208" s="3"/>
       <c r="E208" s="3"/>
@@ -9236,6 +10468,7 @@
       <c r="L208" s="3"/>
       <c r="M208" s="3"/>
       <c r="N208" s="3"/>
+      <c r="Q208" s="16"/>
       <c r="R208" s="23"/>
       <c r="S208" s="3"/>
       <c r="T208" s="3"/>
@@ -9244,8 +10477,13 @@
       <c r="W208" s="3"/>
       <c r="X208" s="3"/>
       <c r="Y208" s="3"/>
-    </row>
-    <row r="209" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Z208" s="3"/>
+      <c r="AA208" s="3"/>
+      <c r="AB208" s="3"/>
+      <c r="AC208" s="3"/>
+    </row>
+    <row r="209" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B209" s="16"/>
       <c r="C209" s="1"/>
       <c r="D209" s="3"/>
       <c r="E209" s="3"/>
@@ -9258,6 +10496,7 @@
       <c r="L209" s="3"/>
       <c r="M209" s="3"/>
       <c r="N209" s="3"/>
+      <c r="Q209" s="16"/>
       <c r="R209" s="23"/>
       <c r="S209" s="3"/>
       <c r="T209" s="3"/>
@@ -9266,8 +10505,13 @@
       <c r="W209" s="3"/>
       <c r="X209" s="3"/>
       <c r="Y209" s="3"/>
-    </row>
-    <row r="210" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Z209" s="3"/>
+      <c r="AA209" s="3"/>
+      <c r="AB209" s="3"/>
+      <c r="AC209" s="3"/>
+    </row>
+    <row r="210" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B210" s="16"/>
       <c r="C210" s="1"/>
       <c r="D210" s="3"/>
       <c r="E210" s="3"/>
@@ -9280,6 +10524,7 @@
       <c r="L210" s="3"/>
       <c r="M210" s="3"/>
       <c r="N210" s="3"/>
+      <c r="Q210" s="16"/>
       <c r="R210" s="23"/>
       <c r="S210" s="3"/>
       <c r="T210" s="3"/>
@@ -9288,8 +10533,13 @@
       <c r="W210" s="3"/>
       <c r="X210" s="3"/>
       <c r="Y210" s="3"/>
-    </row>
-    <row r="211" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Z210" s="3"/>
+      <c r="AA210" s="3"/>
+      <c r="AB210" s="3"/>
+      <c r="AC210" s="3"/>
+    </row>
+    <row r="211" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B211" s="16"/>
       <c r="C211" s="1"/>
       <c r="D211" s="3"/>
       <c r="E211" s="3"/>
@@ -9302,6 +10552,7 @@
       <c r="L211" s="3"/>
       <c r="M211" s="3"/>
       <c r="N211" s="3"/>
+      <c r="Q211" s="16"/>
       <c r="R211" s="23"/>
       <c r="S211" s="3"/>
       <c r="T211" s="3"/>
@@ -9310,8 +10561,12 @@
       <c r="W211" s="3"/>
       <c r="X211" s="3"/>
       <c r="Y211" s="3"/>
-    </row>
-    <row r="212" spans="2:25" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z211" s="3"/>
+      <c r="AA211" s="3"/>
+      <c r="AB211" s="3"/>
+      <c r="AC211" s="3"/>
+    </row>
+    <row r="212" spans="2:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C212" s="22" t="s">
         <v>43</v>
       </c>
@@ -9336,8 +10591,12 @@
       <c r="W212" s="23"/>
       <c r="X212" s="23"/>
       <c r="Y212" s="23"/>
-    </row>
-    <row r="213" spans="2:25" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z212" s="23"/>
+      <c r="AA212" s="23"/>
+      <c r="AB212" s="23"/>
+      <c r="AC212" s="23"/>
+    </row>
+    <row r="213" spans="2:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C213" s="21" t="s">
         <v>55</v>
       </c>
@@ -9362,8 +10621,12 @@
       <c r="W213" s="25"/>
       <c r="X213" s="25"/>
       <c r="Y213" s="25"/>
-    </row>
-    <row r="214" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Z213" s="25"/>
+      <c r="AA213" s="25"/>
+      <c r="AB213" s="25"/>
+      <c r="AC213" s="25"/>
+    </row>
+    <row r="214" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B214" s="1" t="s">
         <v>35</v>
       </c>
@@ -9424,8 +10687,19 @@
       <c r="Y214" s="23" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="215" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Z214" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA214" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB214" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC214" s="23"/>
+    </row>
+    <row r="215" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B215" s="16"/>
       <c r="C215" s="1"/>
       <c r="D215" s="3"/>
       <c r="E215" s="3"/>
@@ -9438,6 +10712,7 @@
       <c r="L215" s="3"/>
       <c r="M215" s="3"/>
       <c r="N215" s="3"/>
+      <c r="Q215" s="16"/>
       <c r="R215" s="23"/>
       <c r="S215" s="3"/>
       <c r="T215" s="3"/>
@@ -9446,8 +10721,13 @@
       <c r="W215" s="3"/>
       <c r="X215" s="3"/>
       <c r="Y215" s="3"/>
-    </row>
-    <row r="216" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Z215" s="3"/>
+      <c r="AA215" s="3"/>
+      <c r="AB215" s="3"/>
+      <c r="AC215" s="3"/>
+    </row>
+    <row r="216" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B216" s="16"/>
       <c r="C216" s="1"/>
       <c r="D216" s="3"/>
       <c r="E216" s="3"/>
@@ -9460,6 +10740,7 @@
       <c r="L216" s="3"/>
       <c r="M216" s="3"/>
       <c r="N216" s="3"/>
+      <c r="Q216" s="16"/>
       <c r="R216" s="23"/>
       <c r="S216" s="3"/>
       <c r="T216" s="3"/>
@@ -9468,8 +10749,13 @@
       <c r="W216" s="3"/>
       <c r="X216" s="3"/>
       <c r="Y216" s="3"/>
-    </row>
-    <row r="217" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Z216" s="3"/>
+      <c r="AA216" s="3"/>
+      <c r="AB216" s="3"/>
+      <c r="AC216" s="3"/>
+    </row>
+    <row r="217" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B217" s="16"/>
       <c r="C217" s="1"/>
       <c r="D217" s="3"/>
       <c r="E217" s="3"/>
@@ -9482,6 +10768,7 @@
       <c r="L217" s="3"/>
       <c r="M217" s="3"/>
       <c r="N217" s="3"/>
+      <c r="Q217" s="16"/>
       <c r="R217" s="23"/>
       <c r="S217" s="3"/>
       <c r="T217" s="3"/>
@@ -9490,8 +10777,13 @@
       <c r="W217" s="3"/>
       <c r="X217" s="3"/>
       <c r="Y217" s="3"/>
-    </row>
-    <row r="218" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Z217" s="3"/>
+      <c r="AA217" s="3"/>
+      <c r="AB217" s="3"/>
+      <c r="AC217" s="3"/>
+    </row>
+    <row r="218" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B218" s="16"/>
       <c r="C218" s="1"/>
       <c r="D218" s="3"/>
       <c r="E218" s="3"/>
@@ -9504,6 +10796,7 @@
       <c r="L218" s="3"/>
       <c r="M218" s="3"/>
       <c r="N218" s="3"/>
+      <c r="Q218" s="16"/>
       <c r="R218" s="23"/>
       <c r="S218" s="3"/>
       <c r="T218" s="3"/>
@@ -9512,8 +10805,12 @@
       <c r="W218" s="3"/>
       <c r="X218" s="3"/>
       <c r="Y218" s="3"/>
-    </row>
-    <row r="219" spans="2:25" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z218" s="3"/>
+      <c r="AA218" s="3"/>
+      <c r="AB218" s="3"/>
+      <c r="AC218" s="3"/>
+    </row>
+    <row r="219" spans="2:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C219" s="22" t="s">
         <v>43</v>
       </c>
@@ -9538,8 +10835,12 @@
       <c r="W219" s="23"/>
       <c r="X219" s="23"/>
       <c r="Y219" s="23"/>
-    </row>
-    <row r="220" spans="2:25" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z219" s="23"/>
+      <c r="AA219" s="23"/>
+      <c r="AB219" s="23"/>
+      <c r="AC219" s="23"/>
+    </row>
+    <row r="220" spans="2:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C220" s="21" t="s">
         <v>55</v>
       </c>
@@ -9564,8 +10865,12 @@
       <c r="W220" s="25"/>
       <c r="X220" s="25"/>
       <c r="Y220" s="25"/>
-    </row>
-    <row r="221" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Z220" s="25"/>
+      <c r="AA220" s="25"/>
+      <c r="AB220" s="25"/>
+      <c r="AC220" s="25"/>
+    </row>
+    <row r="221" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B221" s="1" t="s">
         <v>36</v>
       </c>
@@ -9626,8 +10931,19 @@
       <c r="Y221" s="23" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="222" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Z221" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA221" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB221" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC221" s="23"/>
+    </row>
+    <row r="222" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B222" s="16"/>
       <c r="C222" s="1"/>
       <c r="D222" s="3"/>
       <c r="E222" s="3"/>
@@ -9640,6 +10956,7 @@
       <c r="L222" s="3"/>
       <c r="M222" s="3"/>
       <c r="N222" s="3"/>
+      <c r="Q222" s="16"/>
       <c r="R222" s="23"/>
       <c r="S222" s="3"/>
       <c r="T222" s="3"/>
@@ -9648,8 +10965,13 @@
       <c r="W222" s="3"/>
       <c r="X222" s="3"/>
       <c r="Y222" s="3"/>
-    </row>
-    <row r="223" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Z222" s="3"/>
+      <c r="AA222" s="3"/>
+      <c r="AB222" s="3"/>
+      <c r="AC222" s="3"/>
+    </row>
+    <row r="223" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B223" s="16"/>
       <c r="C223" s="1"/>
       <c r="D223" s="3"/>
       <c r="E223" s="3"/>
@@ -9662,6 +10984,7 @@
       <c r="L223" s="3"/>
       <c r="M223" s="3"/>
       <c r="N223" s="3"/>
+      <c r="Q223" s="16"/>
       <c r="R223" s="23"/>
       <c r="S223" s="3"/>
       <c r="T223" s="3"/>
@@ -9670,8 +10993,13 @@
       <c r="W223" s="3"/>
       <c r="X223" s="3"/>
       <c r="Y223" s="3"/>
-    </row>
-    <row r="224" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Z223" s="3"/>
+      <c r="AA223" s="3"/>
+      <c r="AB223" s="3"/>
+      <c r="AC223" s="3"/>
+    </row>
+    <row r="224" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B224" s="16"/>
       <c r="C224" s="1"/>
       <c r="D224" s="3"/>
       <c r="E224" s="3"/>
@@ -9684,6 +11012,7 @@
       <c r="L224" s="3"/>
       <c r="M224" s="3"/>
       <c r="N224" s="3"/>
+      <c r="Q224" s="16"/>
       <c r="R224" s="23"/>
       <c r="S224" s="3"/>
       <c r="T224" s="3"/>
@@ -9692,8 +11021,13 @@
       <c r="W224" s="3"/>
       <c r="X224" s="3"/>
       <c r="Y224" s="3"/>
-    </row>
-    <row r="225" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Z224" s="3"/>
+      <c r="AA224" s="3"/>
+      <c r="AB224" s="3"/>
+      <c r="AC224" s="3"/>
+    </row>
+    <row r="225" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B225" s="16"/>
       <c r="C225" s="1"/>
       <c r="D225" s="3"/>
       <c r="E225" s="3"/>
@@ -9706,6 +11040,7 @@
       <c r="L225" s="3"/>
       <c r="M225" s="3"/>
       <c r="N225" s="3"/>
+      <c r="Q225" s="16"/>
       <c r="R225" s="23"/>
       <c r="S225" s="3"/>
       <c r="T225" s="3"/>
@@ -9714,8 +11049,12 @@
       <c r="W225" s="3"/>
       <c r="X225" s="3"/>
       <c r="Y225" s="3"/>
-    </row>
-    <row r="226" spans="2:25" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z225" s="3"/>
+      <c r="AA225" s="3"/>
+      <c r="AB225" s="3"/>
+      <c r="AC225" s="3"/>
+    </row>
+    <row r="226" spans="2:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C226" s="22" t="s">
         <v>43</v>
       </c>
@@ -9740,8 +11079,12 @@
       <c r="W226" s="23"/>
       <c r="X226" s="23"/>
       <c r="Y226" s="23"/>
-    </row>
-    <row r="227" spans="2:25" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z226" s="23"/>
+      <c r="AA226" s="23"/>
+      <c r="AB226" s="23"/>
+      <c r="AC226" s="23"/>
+    </row>
+    <row r="227" spans="2:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C227" s="21" t="s">
         <v>55</v>
       </c>
@@ -9766,8 +11109,12 @@
       <c r="W227" s="25"/>
       <c r="X227" s="25"/>
       <c r="Y227" s="25"/>
-    </row>
-    <row r="228" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Z227" s="25"/>
+      <c r="AA227" s="25"/>
+      <c r="AB227" s="25"/>
+      <c r="AC227" s="25"/>
+    </row>
+    <row r="228" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B228" s="1" t="s">
         <v>37</v>
       </c>
@@ -9828,8 +11175,19 @@
       <c r="Y228" s="23" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="229" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Z228" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA228" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB228" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC228" s="23"/>
+    </row>
+    <row r="229" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B229" s="16"/>
       <c r="C229" s="1"/>
       <c r="D229" s="3"/>
       <c r="E229" s="3"/>
@@ -9842,6 +11200,7 @@
       <c r="L229" s="3"/>
       <c r="M229" s="3"/>
       <c r="N229" s="3"/>
+      <c r="Q229" s="16"/>
       <c r="R229" s="23"/>
       <c r="S229" s="3"/>
       <c r="T229" s="3"/>
@@ -9850,8 +11209,13 @@
       <c r="W229" s="3"/>
       <c r="X229" s="3"/>
       <c r="Y229" s="3"/>
-    </row>
-    <row r="230" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Z229" s="3"/>
+      <c r="AA229" s="3"/>
+      <c r="AB229" s="3"/>
+      <c r="AC229" s="3"/>
+    </row>
+    <row r="230" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B230" s="16"/>
       <c r="C230" s="1"/>
       <c r="D230" s="3"/>
       <c r="E230" s="3"/>
@@ -9864,6 +11228,7 @@
       <c r="L230" s="3"/>
       <c r="M230" s="3"/>
       <c r="N230" s="3"/>
+      <c r="Q230" s="16"/>
       <c r="R230" s="23"/>
       <c r="S230" s="3"/>
       <c r="T230" s="3"/>
@@ -9872,8 +11237,13 @@
       <c r="W230" s="3"/>
       <c r="X230" s="3"/>
       <c r="Y230" s="3"/>
-    </row>
-    <row r="231" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Z230" s="3"/>
+      <c r="AA230" s="3"/>
+      <c r="AB230" s="3"/>
+      <c r="AC230" s="3"/>
+    </row>
+    <row r="231" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B231" s="16"/>
       <c r="C231" s="1"/>
       <c r="D231" s="3"/>
       <c r="E231" s="3"/>
@@ -9886,6 +11256,7 @@
       <c r="L231" s="3"/>
       <c r="M231" s="3"/>
       <c r="N231" s="3"/>
+      <c r="Q231" s="16"/>
       <c r="R231" s="23"/>
       <c r="S231" s="3"/>
       <c r="T231" s="3"/>
@@ -9894,8 +11265,13 @@
       <c r="W231" s="3"/>
       <c r="X231" s="3"/>
       <c r="Y231" s="3"/>
-    </row>
-    <row r="232" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Z231" s="3"/>
+      <c r="AA231" s="3"/>
+      <c r="AB231" s="3"/>
+      <c r="AC231" s="3"/>
+    </row>
+    <row r="232" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B232" s="16"/>
       <c r="C232" s="1"/>
       <c r="D232" s="3"/>
       <c r="E232" s="3"/>
@@ -9908,6 +11284,7 @@
       <c r="L232" s="3"/>
       <c r="M232" s="3"/>
       <c r="N232" s="3"/>
+      <c r="Q232" s="16"/>
       <c r="R232" s="23"/>
       <c r="S232" s="3"/>
       <c r="T232" s="3"/>
@@ -9916,8 +11293,12 @@
       <c r="W232" s="3"/>
       <c r="X232" s="3"/>
       <c r="Y232" s="3"/>
-    </row>
-    <row r="233" spans="2:25" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z232" s="3"/>
+      <c r="AA232" s="3"/>
+      <c r="AB232" s="3"/>
+      <c r="AC232" s="3"/>
+    </row>
+    <row r="233" spans="2:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C233" s="22" t="s">
         <v>43</v>
       </c>
@@ -9942,8 +11323,12 @@
       <c r="W233" s="23"/>
       <c r="X233" s="23"/>
       <c r="Y233" s="23"/>
-    </row>
-    <row r="234" spans="2:25" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z233" s="23"/>
+      <c r="AA233" s="23"/>
+      <c r="AB233" s="23"/>
+      <c r="AC233" s="23"/>
+    </row>
+    <row r="234" spans="2:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C234" s="21" t="s">
         <v>55</v>
       </c>
@@ -9968,8 +11353,12 @@
       <c r="W234" s="25"/>
       <c r="X234" s="25"/>
       <c r="Y234" s="25"/>
-    </row>
-    <row r="235" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Z234" s="25"/>
+      <c r="AA234" s="25"/>
+      <c r="AB234" s="25"/>
+      <c r="AC234" s="25"/>
+    </row>
+    <row r="235" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B235" s="1" t="s">
         <v>38</v>
       </c>
@@ -10030,8 +11419,19 @@
       <c r="Y235" s="23" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="236" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Z235" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA235" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB235" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC235" s="23"/>
+    </row>
+    <row r="236" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B236" s="16"/>
       <c r="C236" s="1"/>
       <c r="D236" s="3"/>
       <c r="E236" s="3"/>
@@ -10044,6 +11444,7 @@
       <c r="L236" s="3"/>
       <c r="M236" s="3"/>
       <c r="N236" s="3"/>
+      <c r="Q236" s="16"/>
       <c r="R236" s="23"/>
       <c r="S236" s="3"/>
       <c r="T236" s="3"/>
@@ -10052,8 +11453,13 @@
       <c r="W236" s="3"/>
       <c r="X236" s="3"/>
       <c r="Y236" s="3"/>
-    </row>
-    <row r="237" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Z236" s="3"/>
+      <c r="AA236" s="3"/>
+      <c r="AB236" s="3"/>
+      <c r="AC236" s="3"/>
+    </row>
+    <row r="237" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B237" s="16"/>
       <c r="C237" s="1"/>
       <c r="D237" s="3"/>
       <c r="E237" s="3"/>
@@ -10066,6 +11472,7 @@
       <c r="L237" s="3"/>
       <c r="M237" s="3"/>
       <c r="N237" s="3"/>
+      <c r="Q237" s="16"/>
       <c r="R237" s="23"/>
       <c r="S237" s="3"/>
       <c r="T237" s="3"/>
@@ -10074,8 +11481,13 @@
       <c r="W237" s="3"/>
       <c r="X237" s="3"/>
       <c r="Y237" s="3"/>
-    </row>
-    <row r="238" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Z237" s="3"/>
+      <c r="AA237" s="3"/>
+      <c r="AB237" s="3"/>
+      <c r="AC237" s="3"/>
+    </row>
+    <row r="238" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B238" s="16"/>
       <c r="C238" s="1"/>
       <c r="D238" s="3"/>
       <c r="E238" s="3"/>
@@ -10088,6 +11500,7 @@
       <c r="L238" s="3"/>
       <c r="M238" s="3"/>
       <c r="N238" s="3"/>
+      <c r="Q238" s="16"/>
       <c r="R238" s="23"/>
       <c r="S238" s="3"/>
       <c r="T238" s="3"/>
@@ -10096,8 +11509,13 @@
       <c r="W238" s="3"/>
       <c r="X238" s="3"/>
       <c r="Y238" s="3"/>
-    </row>
-    <row r="239" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Z238" s="3"/>
+      <c r="AA238" s="3"/>
+      <c r="AB238" s="3"/>
+      <c r="AC238" s="3"/>
+    </row>
+    <row r="239" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B239" s="16"/>
       <c r="C239" s="1"/>
       <c r="D239" s="3"/>
       <c r="E239" s="3"/>
@@ -10110,6 +11528,7 @@
       <c r="L239" s="3"/>
       <c r="M239" s="3"/>
       <c r="N239" s="3"/>
+      <c r="Q239" s="16"/>
       <c r="R239" s="23"/>
       <c r="S239" s="3"/>
       <c r="T239" s="3"/>
@@ -10118,8 +11537,12 @@
       <c r="W239" s="3"/>
       <c r="X239" s="3"/>
       <c r="Y239" s="3"/>
-    </row>
-    <row r="240" spans="2:25" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z239" s="3"/>
+      <c r="AA239" s="3"/>
+      <c r="AB239" s="3"/>
+      <c r="AC239" s="3"/>
+    </row>
+    <row r="240" spans="2:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C240" s="22" t="s">
         <v>43</v>
       </c>
@@ -10144,8 +11567,12 @@
       <c r="W240" s="23"/>
       <c r="X240" s="23"/>
       <c r="Y240" s="23"/>
-    </row>
-    <row r="241" spans="2:25" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z240" s="23"/>
+      <c r="AA240" s="23"/>
+      <c r="AB240" s="23"/>
+      <c r="AC240" s="23"/>
+    </row>
+    <row r="241" spans="2:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C241" s="21" t="s">
         <v>55</v>
       </c>
@@ -10170,8 +11597,12 @@
       <c r="W241" s="25"/>
       <c r="X241" s="25"/>
       <c r="Y241" s="25"/>
-    </row>
-    <row r="242" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Z241" s="25"/>
+      <c r="AA241" s="25"/>
+      <c r="AB241" s="25"/>
+      <c r="AC241" s="25"/>
+    </row>
+    <row r="242" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B242" s="1" t="s">
         <v>39</v>
       </c>
@@ -10232,8 +11663,19 @@
       <c r="Y242" s="23" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="243" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Z242" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA242" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB242" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC242" s="23"/>
+    </row>
+    <row r="243" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B243" s="16"/>
       <c r="C243" s="1"/>
       <c r="D243" s="3"/>
       <c r="E243" s="3"/>
@@ -10246,6 +11688,7 @@
       <c r="L243" s="3"/>
       <c r="M243" s="3"/>
       <c r="N243" s="3"/>
+      <c r="Q243" s="16"/>
       <c r="R243" s="23"/>
       <c r="S243" s="3"/>
       <c r="T243" s="3"/>
@@ -10254,8 +11697,13 @@
       <c r="W243" s="3"/>
       <c r="X243" s="3"/>
       <c r="Y243" s="3"/>
-    </row>
-    <row r="244" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Z243" s="3"/>
+      <c r="AA243" s="3"/>
+      <c r="AB243" s="3"/>
+      <c r="AC243" s="3"/>
+    </row>
+    <row r="244" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B244" s="16"/>
       <c r="C244" s="1"/>
       <c r="D244" s="3"/>
       <c r="E244" s="3"/>
@@ -10268,6 +11716,7 @@
       <c r="L244" s="3"/>
       <c r="M244" s="3"/>
       <c r="N244" s="3"/>
+      <c r="Q244" s="16"/>
       <c r="R244" s="23"/>
       <c r="S244" s="3"/>
       <c r="T244" s="3"/>
@@ -10276,8 +11725,13 @@
       <c r="W244" s="3"/>
       <c r="X244" s="3"/>
       <c r="Y244" s="3"/>
-    </row>
-    <row r="245" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Z244" s="3"/>
+      <c r="AA244" s="3"/>
+      <c r="AB244" s="3"/>
+      <c r="AC244" s="3"/>
+    </row>
+    <row r="245" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B245" s="16"/>
       <c r="C245" s="1"/>
       <c r="D245" s="3"/>
       <c r="E245" s="3"/>
@@ -10290,6 +11744,7 @@
       <c r="L245" s="3"/>
       <c r="M245" s="3"/>
       <c r="N245" s="3"/>
+      <c r="Q245" s="16"/>
       <c r="R245" s="23"/>
       <c r="S245" s="3"/>
       <c r="T245" s="3"/>
@@ -10298,8 +11753,13 @@
       <c r="W245" s="3"/>
       <c r="X245" s="3"/>
       <c r="Y245" s="3"/>
-    </row>
-    <row r="246" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Z245" s="3"/>
+      <c r="AA245" s="3"/>
+      <c r="AB245" s="3"/>
+      <c r="AC245" s="3"/>
+    </row>
+    <row r="246" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B246" s="16"/>
       <c r="C246" s="1"/>
       <c r="D246" s="3"/>
       <c r="E246" s="3"/>
@@ -10312,6 +11772,7 @@
       <c r="L246" s="3"/>
       <c r="M246" s="3"/>
       <c r="N246" s="3"/>
+      <c r="Q246" s="16"/>
       <c r="R246" s="23"/>
       <c r="S246" s="3"/>
       <c r="T246" s="3"/>
@@ -10320,8 +11781,12 @@
       <c r="W246" s="3"/>
       <c r="X246" s="3"/>
       <c r="Y246" s="3"/>
-    </row>
-    <row r="247" spans="2:25" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z246" s="3"/>
+      <c r="AA246" s="3"/>
+      <c r="AB246" s="3"/>
+      <c r="AC246" s="3"/>
+    </row>
+    <row r="247" spans="2:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C247" s="22" t="s">
         <v>43</v>
       </c>
@@ -10346,8 +11811,12 @@
       <c r="W247" s="23"/>
       <c r="X247" s="23"/>
       <c r="Y247" s="23"/>
-    </row>
-    <row r="248" spans="2:25" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z247" s="23"/>
+      <c r="AA247" s="23"/>
+      <c r="AB247" s="23"/>
+      <c r="AC247" s="23"/>
+    </row>
+    <row r="248" spans="2:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C248" s="21" t="s">
         <v>55</v>
       </c>
@@ -10372,8 +11841,12 @@
       <c r="W248" s="25"/>
       <c r="X248" s="25"/>
       <c r="Y248" s="25"/>
-    </row>
-    <row r="249" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Z248" s="25"/>
+      <c r="AA248" s="25"/>
+      <c r="AB248" s="25"/>
+      <c r="AC248" s="25"/>
+    </row>
+    <row r="249" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B249" s="1" t="s">
         <v>40</v>
       </c>
@@ -10434,8 +11907,19 @@
       <c r="Y249" s="23" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="250" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Z249" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA249" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB249" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC249" s="23"/>
+    </row>
+    <row r="250" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B250" s="16"/>
       <c r="C250" s="1"/>
       <c r="D250" s="3"/>
       <c r="E250" s="3"/>
@@ -10448,6 +11932,7 @@
       <c r="L250" s="3"/>
       <c r="M250" s="3"/>
       <c r="N250" s="3"/>
+      <c r="Q250" s="16"/>
       <c r="R250" s="23"/>
       <c r="S250" s="3"/>
       <c r="T250" s="3"/>
@@ -10456,8 +11941,13 @@
       <c r="W250" s="3"/>
       <c r="X250" s="3"/>
       <c r="Y250" s="3"/>
-    </row>
-    <row r="251" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Z250" s="3"/>
+      <c r="AA250" s="3"/>
+      <c r="AB250" s="3"/>
+      <c r="AC250" s="3"/>
+    </row>
+    <row r="251" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B251" s="16"/>
       <c r="C251" s="1"/>
       <c r="D251" s="3"/>
       <c r="E251" s="3"/>
@@ -10470,6 +11960,7 @@
       <c r="L251" s="3"/>
       <c r="M251" s="3"/>
       <c r="N251" s="3"/>
+      <c r="Q251" s="16"/>
       <c r="R251" s="23"/>
       <c r="S251" s="3"/>
       <c r="T251" s="3"/>
@@ -10478,8 +11969,13 @@
       <c r="W251" s="3"/>
       <c r="X251" s="3"/>
       <c r="Y251" s="3"/>
-    </row>
-    <row r="252" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Z251" s="3"/>
+      <c r="AA251" s="3"/>
+      <c r="AB251" s="3"/>
+      <c r="AC251" s="3"/>
+    </row>
+    <row r="252" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B252" s="16"/>
       <c r="C252" s="1"/>
       <c r="D252" s="3"/>
       <c r="E252" s="3"/>
@@ -10492,6 +11988,7 @@
       <c r="L252" s="3"/>
       <c r="M252" s="3"/>
       <c r="N252" s="3"/>
+      <c r="Q252" s="16"/>
       <c r="R252" s="23"/>
       <c r="S252" s="3"/>
       <c r="T252" s="3"/>
@@ -10500,8 +11997,13 @@
       <c r="W252" s="3"/>
       <c r="X252" s="3"/>
       <c r="Y252" s="3"/>
-    </row>
-    <row r="253" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Z252" s="3"/>
+      <c r="AA252" s="3"/>
+      <c r="AB252" s="3"/>
+      <c r="AC252" s="3"/>
+    </row>
+    <row r="253" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B253" s="16"/>
       <c r="C253" s="1"/>
       <c r="D253" s="3"/>
       <c r="E253" s="3"/>
@@ -10514,6 +12016,7 @@
       <c r="L253" s="3"/>
       <c r="M253" s="3"/>
       <c r="N253" s="3"/>
+      <c r="Q253" s="16"/>
       <c r="R253" s="23"/>
       <c r="S253" s="3"/>
       <c r="T253" s="3"/>
@@ -10522,8 +12025,12 @@
       <c r="W253" s="3"/>
       <c r="X253" s="3"/>
       <c r="Y253" s="3"/>
-    </row>
-    <row r="254" spans="2:25" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z253" s="3"/>
+      <c r="AA253" s="3"/>
+      <c r="AB253" s="3"/>
+      <c r="AC253" s="3"/>
+    </row>
+    <row r="254" spans="2:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C254" s="22" t="s">
         <v>43</v>
       </c>
@@ -10548,8 +12055,12 @@
       <c r="W254" s="23"/>
       <c r="X254" s="23"/>
       <c r="Y254" s="23"/>
-    </row>
-    <row r="255" spans="2:25" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z254" s="23"/>
+      <c r="AA254" s="23"/>
+      <c r="AB254" s="23"/>
+      <c r="AC254" s="23"/>
+    </row>
+    <row r="255" spans="2:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C255" s="21" t="s">
         <v>55</v>
       </c>
@@ -10574,8 +12085,12 @@
       <c r="W255" s="25"/>
       <c r="X255" s="25"/>
       <c r="Y255" s="25"/>
-    </row>
-    <row r="256" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Z255" s="25"/>
+      <c r="AA255" s="25"/>
+      <c r="AB255" s="25"/>
+      <c r="AC255" s="25"/>
+    </row>
+    <row r="256" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B256" s="1" t="s">
         <v>41</v>
       </c>
@@ -10636,8 +12151,19 @@
       <c r="Y256" s="23" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="257" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Z256" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA256" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB256" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC256" s="23"/>
+    </row>
+    <row r="257" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B257" s="16"/>
       <c r="C257" s="1"/>
       <c r="D257" s="3"/>
       <c r="E257" s="3"/>
@@ -10650,6 +12176,7 @@
       <c r="L257" s="3"/>
       <c r="M257" s="3"/>
       <c r="N257" s="3"/>
+      <c r="Q257" s="16"/>
       <c r="R257" s="23"/>
       <c r="S257" s="3"/>
       <c r="T257" s="3"/>
@@ -10658,8 +12185,13 @@
       <c r="W257" s="3"/>
       <c r="X257" s="3"/>
       <c r="Y257" s="3"/>
-    </row>
-    <row r="258" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Z257" s="3"/>
+      <c r="AA257" s="3"/>
+      <c r="AB257" s="3"/>
+      <c r="AC257" s="3"/>
+    </row>
+    <row r="258" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B258" s="16"/>
       <c r="C258" s="1"/>
       <c r="D258" s="3"/>
       <c r="E258" s="3"/>
@@ -10672,6 +12204,7 @@
       <c r="L258" s="3"/>
       <c r="M258" s="3"/>
       <c r="N258" s="3"/>
+      <c r="Q258" s="16"/>
       <c r="R258" s="23"/>
       <c r="S258" s="3"/>
       <c r="T258" s="3"/>
@@ -10680,8 +12213,13 @@
       <c r="W258" s="3"/>
       <c r="X258" s="3"/>
       <c r="Y258" s="3"/>
-    </row>
-    <row r="259" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Z258" s="3"/>
+      <c r="AA258" s="3"/>
+      <c r="AB258" s="3"/>
+      <c r="AC258" s="3"/>
+    </row>
+    <row r="259" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B259" s="16"/>
       <c r="C259" s="1"/>
       <c r="D259" s="3"/>
       <c r="E259" s="3"/>
@@ -10694,6 +12232,7 @@
       <c r="L259" s="3"/>
       <c r="M259" s="3"/>
       <c r="N259" s="3"/>
+      <c r="Q259" s="16"/>
       <c r="R259" s="23"/>
       <c r="S259" s="3"/>
       <c r="T259" s="3"/>
@@ -10702,8 +12241,13 @@
       <c r="W259" s="3"/>
       <c r="X259" s="3"/>
       <c r="Y259" s="3"/>
-    </row>
-    <row r="260" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Z259" s="3"/>
+      <c r="AA259" s="3"/>
+      <c r="AB259" s="3"/>
+      <c r="AC259" s="3"/>
+    </row>
+    <row r="260" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B260" s="16"/>
       <c r="C260" s="1"/>
       <c r="D260" s="3"/>
       <c r="E260" s="3"/>
@@ -10716,6 +12260,7 @@
       <c r="L260" s="3"/>
       <c r="M260" s="3"/>
       <c r="N260" s="3"/>
+      <c r="Q260" s="16"/>
       <c r="R260" s="23"/>
       <c r="S260" s="3"/>
       <c r="T260" s="3"/>
@@ -10724,8 +12269,12 @@
       <c r="W260" s="3"/>
       <c r="X260" s="3"/>
       <c r="Y260" s="3"/>
-    </row>
-    <row r="261" spans="2:25" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z260" s="3"/>
+      <c r="AA260" s="3"/>
+      <c r="AB260" s="3"/>
+      <c r="AC260" s="3"/>
+    </row>
+    <row r="261" spans="2:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C261" s="22" t="s">
         <v>43</v>
       </c>
@@ -10750,8 +12299,12 @@
       <c r="W261" s="23"/>
       <c r="X261" s="23"/>
       <c r="Y261" s="23"/>
-    </row>
-    <row r="262" spans="2:25" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z261" s="23"/>
+      <c r="AA261" s="23"/>
+      <c r="AB261" s="23"/>
+      <c r="AC261" s="23"/>
+    </row>
+    <row r="262" spans="2:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C262" s="21" t="s">
         <v>55</v>
       </c>
@@ -10776,8 +12329,12 @@
       <c r="W262" s="25"/>
       <c r="X262" s="25"/>
       <c r="Y262" s="25"/>
-    </row>
-    <row r="263" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Z262" s="25"/>
+      <c r="AA262" s="25"/>
+      <c r="AB262" s="25"/>
+      <c r="AC262" s="25"/>
+    </row>
+    <row r="263" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B263" s="1" t="s">
         <v>42</v>
       </c>
@@ -10838,8 +12395,19 @@
       <c r="Y263" s="23" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="264" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Z263" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA263" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB263" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC263" s="23"/>
+    </row>
+    <row r="264" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B264" s="16"/>
       <c r="C264" s="1"/>
       <c r="D264" s="3"/>
       <c r="E264" s="3"/>
@@ -10852,6 +12420,7 @@
       <c r="L264" s="3"/>
       <c r="M264" s="3"/>
       <c r="N264" s="3"/>
+      <c r="Q264" s="16"/>
       <c r="R264" s="23"/>
       <c r="S264" s="3"/>
       <c r="T264" s="3"/>
@@ -10860,8 +12429,13 @@
       <c r="W264" s="3"/>
       <c r="X264" s="3"/>
       <c r="Y264" s="3"/>
-    </row>
-    <row r="265" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Z264" s="3"/>
+      <c r="AA264" s="3"/>
+      <c r="AB264" s="3"/>
+      <c r="AC264" s="3"/>
+    </row>
+    <row r="265" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B265" s="16"/>
       <c r="C265" s="1"/>
       <c r="D265" s="3"/>
       <c r="E265" s="3"/>
@@ -10874,6 +12448,7 @@
       <c r="L265" s="3"/>
       <c r="M265" s="3"/>
       <c r="N265" s="3"/>
+      <c r="Q265" s="16"/>
       <c r="R265" s="23"/>
       <c r="S265" s="3"/>
       <c r="T265" s="3"/>
@@ -10882,8 +12457,13 @@
       <c r="W265" s="3"/>
       <c r="X265" s="3"/>
       <c r="Y265" s="3"/>
-    </row>
-    <row r="266" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Z265" s="3"/>
+      <c r="AA265" s="3"/>
+      <c r="AB265" s="3"/>
+      <c r="AC265" s="3"/>
+    </row>
+    <row r="266" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B266" s="16"/>
       <c r="C266" s="1"/>
       <c r="D266" s="3"/>
       <c r="E266" s="3"/>
@@ -10896,6 +12476,7 @@
       <c r="L266" s="3"/>
       <c r="M266" s="3"/>
       <c r="N266" s="3"/>
+      <c r="Q266" s="16"/>
       <c r="R266" s="23"/>
       <c r="S266" s="3"/>
       <c r="T266" s="3"/>
@@ -10904,8 +12485,13 @@
       <c r="W266" s="3"/>
       <c r="X266" s="3"/>
       <c r="Y266" s="3"/>
-    </row>
-    <row r="267" spans="2:25" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Z266" s="3"/>
+      <c r="AA266" s="3"/>
+      <c r="AB266" s="3"/>
+      <c r="AC266" s="3"/>
+    </row>
+    <row r="267" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B267" s="16"/>
       <c r="C267" s="1"/>
       <c r="D267" s="3"/>
       <c r="E267" s="3"/>
@@ -10918,6 +12504,7 @@
       <c r="L267" s="3"/>
       <c r="M267" s="3"/>
       <c r="N267" s="3"/>
+      <c r="Q267" s="16"/>
       <c r="R267" s="23"/>
       <c r="S267" s="3"/>
       <c r="T267" s="3"/>
@@ -10926,8 +12513,12 @@
       <c r="W267" s="3"/>
       <c r="X267" s="3"/>
       <c r="Y267" s="3"/>
-    </row>
-    <row r="268" spans="2:25" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z267" s="3"/>
+      <c r="AA267" s="3"/>
+      <c r="AB267" s="3"/>
+      <c r="AC267" s="3"/>
+    </row>
+    <row r="268" spans="2:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C268" s="22" t="s">
         <v>43</v>
       </c>
@@ -10952,8 +12543,12 @@
       <c r="W268" s="23"/>
       <c r="X268" s="23"/>
       <c r="Y268" s="23"/>
-    </row>
-    <row r="269" spans="2:25" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z268" s="23"/>
+      <c r="AA268" s="23"/>
+      <c r="AB268" s="23"/>
+      <c r="AC268" s="23"/>
+    </row>
+    <row r="269" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C269" s="1" t="s">
         <v>55</v>
       </c>
@@ -10964,20 +12559,24 @@
       <c r="H269" s="1"/>
       <c r="I269" s="1"/>
       <c r="J269" s="1"/>
-      <c r="K269" s="21"/>
-      <c r="L269" s="21"/>
-      <c r="M269" s="21"/>
-      <c r="N269" s="21"/>
-      <c r="R269" s="23" t="s">
+      <c r="K269" s="36"/>
+      <c r="L269" s="36"/>
+      <c r="M269" s="36"/>
+      <c r="N269" s="36"/>
+      <c r="R269" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="S269" s="23"/>
-      <c r="T269" s="23"/>
-      <c r="U269" s="23"/>
-      <c r="V269" s="23"/>
-      <c r="W269" s="23"/>
-      <c r="X269" s="23"/>
-      <c r="Y269" s="23"/>
+      <c r="S269" s="37"/>
+      <c r="T269" s="37"/>
+      <c r="U269" s="37"/>
+      <c r="V269" s="37"/>
+      <c r="W269" s="37"/>
+      <c r="X269" s="37"/>
+      <c r="Y269" s="37"/>
+      <c r="Z269" s="37"/>
+      <c r="AA269" s="37"/>
+      <c r="AB269" s="37"/>
+      <c r="AC269" s="37"/>
     </row>
     <row r="283" spans="2:15" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B283" s="1" t="s">
@@ -11018,6 +12617,7 @@
       <c r="O283" s="1"/>
     </row>
     <row r="284" spans="2:15" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B284" s="16"/>
       <c r="C284" s="1"/>
       <c r="D284" s="3"/>
       <c r="E284" s="3"/>
@@ -11033,6 +12633,7 @@
       <c r="O284" s="3"/>
     </row>
     <row r="285" spans="2:15" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B285" s="16"/>
       <c r="C285" s="1"/>
       <c r="D285" s="3"/>
       <c r="E285" s="3"/>
@@ -11048,6 +12649,7 @@
       <c r="O285" s="3"/>
     </row>
     <row r="286" spans="2:15" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B286" s="16"/>
       <c r="C286" s="1"/>
       <c r="D286" s="3"/>
       <c r="E286" s="3"/>
@@ -11063,6 +12665,7 @@
       <c r="O286" s="3"/>
     </row>
     <row r="287" spans="2:15" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B287" s="16"/>
       <c r="C287" s="1"/>
       <c r="D287" s="3"/>
       <c r="E287" s="3"/>
@@ -11078,6 +12681,7 @@
       <c r="O287" s="3"/>
     </row>
     <row r="288" spans="2:15" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B288" s="16"/>
       <c r="C288" s="1"/>
       <c r="D288" s="3"/>
       <c r="E288" s="3"/>
@@ -11092,7 +12696,8 @@
       <c r="N288" s="3"/>
       <c r="O288" s="3"/>
     </row>
-    <row r="289" spans="3:15" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="289" spans="2:15" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B289" s="16"/>
       <c r="C289" s="1"/>
       <c r="D289" s="3"/>
       <c r="E289" s="3"/>
@@ -11107,7 +12712,8 @@
       <c r="N289" s="3"/>
       <c r="O289" s="3"/>
     </row>
-    <row r="290" spans="3:15" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="290" spans="2:15" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B290" s="16"/>
       <c r="C290" s="1"/>
       <c r="D290" s="3"/>
       <c r="E290" s="3"/>
@@ -11122,7 +12728,8 @@
       <c r="N290" s="3"/>
       <c r="O290" s="3"/>
     </row>
-    <row r="291" spans="3:15" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="291" spans="2:15" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B291" s="16"/>
       <c r="C291" s="1"/>
       <c r="D291" s="3"/>
       <c r="E291" s="3"/>
@@ -11137,7 +12744,8 @@
       <c r="N291" s="3"/>
       <c r="O291" s="3"/>
     </row>
-    <row r="292" spans="3:15" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="292" spans="2:15" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B292" s="16"/>
       <c r="C292" s="1"/>
       <c r="D292" s="3"/>
       <c r="E292" s="3"/>
@@ -11152,7 +12760,8 @@
       <c r="N292" s="3"/>
       <c r="O292" s="3"/>
     </row>
-    <row r="293" spans="3:15" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="293" spans="2:15" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B293" s="16"/>
       <c r="C293" s="1"/>
       <c r="D293" s="3"/>
       <c r="E293" s="3"/>
@@ -11167,7 +12776,8 @@
       <c r="N293" s="3"/>
       <c r="O293" s="3"/>
     </row>
-    <row r="294" spans="3:15" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="294" spans="2:15" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B294" s="16"/>
       <c r="C294" s="1"/>
       <c r="D294" s="3"/>
       <c r="E294" s="3"/>
@@ -11182,7 +12792,8 @@
       <c r="N294" s="3"/>
       <c r="O294" s="3"/>
     </row>
-    <row r="295" spans="3:15" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="295" spans="2:15" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B295" s="16"/>
       <c r="C295" s="1"/>
       <c r="D295" s="3"/>
       <c r="E295" s="3"/>
@@ -11197,7 +12808,8 @@
       <c r="N295" s="3"/>
       <c r="O295" s="3"/>
     </row>
-    <row r="296" spans="3:15" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="296" spans="2:15" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B296" s="16"/>
       <c r="C296" s="1"/>
       <c r="D296" s="3"/>
       <c r="E296" s="3"/>
@@ -11212,7 +12824,8 @@
       <c r="N296" s="3"/>
       <c r="O296" s="3"/>
     </row>
-    <row r="297" spans="3:15" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="297" spans="2:15" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B297" s="16"/>
       <c r="C297" s="1"/>
       <c r="D297" s="3"/>
       <c r="E297" s="3"/>
@@ -11227,7 +12840,8 @@
       <c r="N297" s="3"/>
       <c r="O297" s="3"/>
     </row>
-    <row r="298" spans="3:15" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="298" spans="2:15" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B298" s="16"/>
       <c r="C298" s="1"/>
       <c r="D298" s="3"/>
       <c r="E298" s="3"/>
@@ -11242,7 +12856,8 @@
       <c r="N298" s="3"/>
       <c r="O298" s="3"/>
     </row>
-    <row r="299" spans="3:15" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="299" spans="2:15" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B299" s="16"/>
       <c r="C299" s="1"/>
       <c r="D299" s="3"/>
       <c r="E299" s="3"/>
@@ -11257,7 +12872,7 @@
       <c r="N299" s="3"/>
       <c r="O299" s="3"/>
     </row>
-    <row r="300" spans="3:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="2:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C300" s="22" t="s">
         <v>43</v>
       </c>
@@ -11274,7 +12889,7 @@
       <c r="N300" s="1"/>
       <c r="O300" s="1"/>
     </row>
-    <row r="301" spans="3:15" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="301" spans="2:15" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C301" s="1" t="s">
         <v>55</v>
       </c>
@@ -11302,7 +12917,7 @@
   <dimension ref="A1:AY366"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11315,12 +12930,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
@@ -11370,10 +12985,10 @@
       <c r="AY1" s="4"/>
     </row>
     <row r="2" spans="1:51" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
+      <c r="A2" s="39"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
       <c r="E2" s="11"/>
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
@@ -12243,21 +13858,21 @@
     <row r="16" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37" t="e">
+      <c r="C16" s="35"/>
+      <c r="D16" s="35" t="e">
         <f ca="1"/>
         <v>#N/A</v>
       </c>
-      <c r="E16" s="37">
+      <c r="E16" s="35">
         <f ca="1"/>
         <v>0</v>
       </c>
-      <c r="F16" s="37">
+      <c r="F16" s="35">
         <f ca="1"/>
         <v>0</v>
       </c>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
@@ -12305,21 +13920,21 @@
     <row r="17" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37" t="e">
+      <c r="C17" s="35"/>
+      <c r="D17" s="35" t="e">
         <f ca="1"/>
         <v>#N/A</v>
       </c>
-      <c r="E17" s="37">
+      <c r="E17" s="35">
         <f ca="1"/>
         <v>0</v>
       </c>
-      <c r="F17" s="37">
+      <c r="F17" s="35">
         <f ca="1"/>
         <v>0</v>
       </c>
-      <c r="G17" s="37"/>
-      <c r="H17" s="37"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
@@ -12367,21 +13982,21 @@
     <row r="18" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37" t="e">
+      <c r="C18" s="35"/>
+      <c r="D18" s="35" t="e">
         <f ca="1"/>
         <v>#N/A</v>
       </c>
-      <c r="E18" s="37">
+      <c r="E18" s="35">
         <f ca="1"/>
         <v>0</v>
       </c>
-      <c r="F18" s="37">
+      <c r="F18" s="35">
         <f ca="1"/>
         <v>0</v>
       </c>
-      <c r="G18" s="37"/>
-      <c r="H18" s="37"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
@@ -12429,21 +14044,21 @@
     <row r="19" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37" t="e">
+      <c r="C19" s="35"/>
+      <c r="D19" s="35" t="e">
         <f ca="1"/>
         <v>#N/A</v>
       </c>
-      <c r="E19" s="37">
+      <c r="E19" s="35">
         <f ca="1"/>
         <v>0</v>
       </c>
-      <c r="F19" s="37">
+      <c r="F19" s="35">
         <f ca="1"/>
         <v>0</v>
       </c>
-      <c r="G19" s="37"/>
-      <c r="H19" s="37"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
@@ -12491,21 +14106,21 @@
     <row r="20" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="37" t="e">
+      <c r="C20" s="35"/>
+      <c r="D20" s="35" t="e">
         <f ca="1"/>
         <v>#N/A</v>
       </c>
-      <c r="E20" s="37">
+      <c r="E20" s="35">
         <f ca="1"/>
         <v>0</v>
       </c>
-      <c r="F20" s="37">
+      <c r="F20" s="35">
         <f ca="1"/>
         <v>0</v>
       </c>
-      <c r="G20" s="37"/>
-      <c r="H20" s="37"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
@@ -12553,21 +14168,21 @@
     <row r="21" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="37" t="e">
+      <c r="C21" s="35"/>
+      <c r="D21" s="35" t="e">
         <f ca="1"/>
         <v>#N/A</v>
       </c>
-      <c r="E21" s="37">
+      <c r="E21" s="35">
         <f ca="1"/>
         <v>0</v>
       </c>
-      <c r="F21" s="37">
+      <c r="F21" s="35">
         <f ca="1"/>
         <v>0</v>
       </c>
-      <c r="G21" s="37"/>
-      <c r="H21" s="37"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="35"/>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
@@ -12615,21 +14230,21 @@
     <row r="22" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="37" t="e">
+      <c r="C22" s="35"/>
+      <c r="D22" s="35" t="e">
         <f ca="1"/>
         <v>#N/A</v>
       </c>
-      <c r="E22" s="37">
+      <c r="E22" s="35">
         <f ca="1"/>
         <v>0</v>
       </c>
-      <c r="F22" s="37">
+      <c r="F22" s="35">
         <f ca="1"/>
         <v>0</v>
       </c>
-      <c r="G22" s="37"/>
-      <c r="H22" s="37"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
@@ -12677,21 +14292,21 @@
     <row r="23" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="37" t="e">
+      <c r="C23" s="35"/>
+      <c r="D23" s="35" t="e">
         <f ca="1"/>
         <v>#N/A</v>
       </c>
-      <c r="E23" s="37">
+      <c r="E23" s="35">
         <f ca="1"/>
         <v>0</v>
       </c>
-      <c r="F23" s="37">
+      <c r="F23" s="35">
         <f ca="1"/>
         <v>0</v>
       </c>
-      <c r="G23" s="37"/>
-      <c r="H23" s="37"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="35"/>
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
@@ -12739,21 +14354,21 @@
     <row r="24" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="37" t="e">
+      <c r="C24" s="35"/>
+      <c r="D24" s="35" t="e">
         <f ca="1"/>
         <v>#N/A</v>
       </c>
-      <c r="E24" s="37">
+      <c r="E24" s="35">
         <f ca="1"/>
         <v>0</v>
       </c>
-      <c r="F24" s="37">
+      <c r="F24" s="35">
         <f ca="1"/>
         <v>0</v>
       </c>
-      <c r="G24" s="37"/>
-      <c r="H24" s="37"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="35"/>
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
@@ -12801,21 +14416,21 @@
     <row r="25" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="37" t="e">
+      <c r="C25" s="35"/>
+      <c r="D25" s="35" t="e">
         <f ca="1"/>
         <v>#N/A</v>
       </c>
-      <c r="E25" s="37">
+      <c r="E25" s="35">
         <f ca="1"/>
         <v>0</v>
       </c>
-      <c r="F25" s="37">
+      <c r="F25" s="35">
         <f ca="1"/>
         <v>0</v>
       </c>
-      <c r="G25" s="37"/>
-      <c r="H25" s="37"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="35"/>
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
@@ -12863,12 +14478,12 @@
     <row r="26" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
-      <c r="C26" s="37"/>
-      <c r="D26" s="37"/>
-      <c r="E26" s="37"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="37"/>
-      <c r="H26" s="37"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="35"/>
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>
@@ -30949,8 +32564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A197BE47-36F3-4BEB-B95F-A968F1FF956B}">
   <dimension ref="B2:X183"/>
   <sheetViews>
-    <sheetView topLeftCell="A156" workbookViewId="0">
-      <selection activeCell="R179" sqref="R179"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="L196" sqref="L196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35233,7 +36848,7 @@
         <v>0</v>
       </c>
       <c r="K89">
-        <f t="shared" ref="K89:N89" ca="1" si="3">SUM(K51:K88)</f>
+        <f t="shared" ref="K89" ca="1" si="3">SUM(K51:K88)</f>
         <v>0</v>
       </c>
       <c r="L89">
@@ -37449,7 +39064,7 @@
         <v>0</v>
       </c>
       <c r="L143">
-        <f t="shared" ref="L143:O143" ca="1" si="13">L89+L133</f>
+        <f t="shared" ref="L143" ca="1" si="13">L89+L133</f>
         <v>0</v>
       </c>
       <c r="M143">
@@ -38041,6 +39656,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="H174:H183">
+    <sortCondition ref="H174:H183"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/PL Predictions Blank.xlsx
+++ b/PL Predictions Blank.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\consu\Desktop\Local Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FFA8975-C804-420D-9354-B4029BACD866}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13A49E1D-D222-41F4-933D-CA19E2AE74EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{47412CFC-7E53-4F06-9F46-2618A72633B9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{47412CFC-7E53-4F06-9F46-2618A72633B9}"/>
   </bookViews>
   <sheets>
     <sheet name="Score Board" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="6" r:id="rId2"/>
     <sheet name="Leaderboard" sheetId="4" r:id="rId3"/>
-    <sheet name="Extra Results" sheetId="7" state="hidden" r:id="rId4"/>
+    <sheet name="Extra Results" sheetId="7" r:id="rId4"/>
     <sheet name="PredictionsOLD" sheetId="2" state="hidden" r:id="rId5"/>
   </sheets>
   <definedNames>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1515" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1598" uniqueCount="117">
   <si>
     <t>Callum</t>
   </si>
@@ -411,6 +411,12 @@
   <si>
     <t>Sam  A</t>
   </si>
+  <si>
+    <t>George</t>
+  </si>
+  <si>
+    <t>Caius</t>
+  </si>
 </sst>
 </file>
 
@@ -701,7 +707,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="2">
       <alignment horizontal="center" vertical="center"/>
@@ -774,9 +780,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="2" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="5" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1139,7 +1142,7 @@
   <dimension ref="B3:AE61"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U10" sqref="U10"/>
+      <selection activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1168,27 +1171,30 @@
         <v>3</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>110</v>
       </c>
     </row>
@@ -1240,6 +1246,10 @@
         <f t="array" aca="1" ref="M4" ca="1">IF(INDIRECT("Sheet2!N" &amp; 9 + (ROW(M4)-ROW($C$4))*7)=0, "", INDIRECT("Sheet2!N" &amp; 9 + (ROW(M4)-ROW($C$4))*7))</f>
         <v/>
       </c>
+      <c r="N4" s="19" t="str" cm="1">
+        <f t="array" aca="1" ref="N4" ca="1">IF(INDIRECT("Sheet2!O" &amp; 9 + (ROW(O4)-ROW($C$4))*7)=0, "", INDIRECT("Sheet2!O" &amp; 9 + (ROW(O4)-ROW($C$4))*7))</f>
+        <v/>
+      </c>
       <c r="U4" t="s">
         <v>0</v>
       </c>
@@ -1322,6 +1332,10 @@
         <f t="array" aca="1" ref="M5" ca="1">IF(INDIRECT("Sheet2!N" &amp; 9 + (ROW(M5)-ROW($C$4))*7)=0, "", INDIRECT("Sheet2!N" &amp; 9 + (ROW(M5)-ROW($C$4))*7))</f>
         <v/>
       </c>
+      <c r="N5" s="19" t="str" cm="1">
+        <f t="array" aca="1" ref="N5" ca="1">IF(INDIRECT("Sheet2!O" &amp; 9 + (ROW(O5)-ROW($C$4))*7)=0, "", INDIRECT("Sheet2!O" &amp; 9 + (ROW(O5)-ROW($C$4))*7))</f>
+        <v/>
+      </c>
     </row>
     <row r="6" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
@@ -1371,6 +1385,10 @@
         <f t="array" aca="1" ref="M6" ca="1">IF(INDIRECT("Sheet2!N" &amp; 9 + (ROW(M6)-ROW($C$4))*7)=0, "", INDIRECT("Sheet2!N" &amp; 9 + (ROW(M6)-ROW($C$4))*7))</f>
         <v/>
       </c>
+      <c r="N6" s="19" t="str" cm="1">
+        <f t="array" aca="1" ref="N6" ca="1">IF(INDIRECT("Sheet2!O" &amp; 9 + (ROW(O6)-ROW($C$4))*7)=0, "", INDIRECT("Sheet2!O" &amp; 9 + (ROW(O6)-ROW($C$4))*7))</f>
+        <v/>
+      </c>
     </row>
     <row r="7" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
@@ -1420,6 +1438,10 @@
         <f t="array" aca="1" ref="M7" ca="1">IF(INDIRECT("Sheet2!N" &amp; 9 + (ROW(M7)-ROW($C$4))*7)=0, "", INDIRECT("Sheet2!N" &amp; 9 + (ROW(M7)-ROW($C$4))*7))</f>
         <v/>
       </c>
+      <c r="N7" s="19" t="str" cm="1">
+        <f t="array" aca="1" ref="N7" ca="1">IF(INDIRECT("Sheet2!O" &amp; 9 + (ROW(O7)-ROW($C$4))*7)=0, "", INDIRECT("Sheet2!O" &amp; 9 + (ROW(O7)-ROW($C$4))*7))</f>
+        <v/>
+      </c>
     </row>
     <row r="8" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
@@ -1469,6 +1491,10 @@
         <f t="array" aca="1" ref="M8" ca="1">IF(INDIRECT("Sheet2!N" &amp; 9 + (ROW(M8)-ROW($C$4))*7)=0, "", INDIRECT("Sheet2!N" &amp; 9 + (ROW(M8)-ROW($C$4))*7))</f>
         <v/>
       </c>
+      <c r="N8" s="19" t="str" cm="1">
+        <f t="array" aca="1" ref="N8" ca="1">IF(INDIRECT("Sheet2!O" &amp; 9 + (ROW(O8)-ROW($C$4))*7)=0, "", INDIRECT("Sheet2!O" &amp; 9 + (ROW(O8)-ROW($C$4))*7))</f>
+        <v/>
+      </c>
     </row>
     <row r="9" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
@@ -1518,6 +1544,10 @@
         <f t="array" aca="1" ref="M9" ca="1">IF(INDIRECT("Sheet2!N" &amp; 9 + (ROW(M9)-ROW($C$4))*7)=0, "", INDIRECT("Sheet2!N" &amp; 9 + (ROW(M9)-ROW($C$4))*7))</f>
         <v/>
       </c>
+      <c r="N9" s="19" t="str" cm="1">
+        <f t="array" aca="1" ref="N9" ca="1">IF(INDIRECT("Sheet2!O" &amp; 9 + (ROW(O9)-ROW($C$4))*7)=0, "", INDIRECT("Sheet2!O" &amp; 9 + (ROW(O9)-ROW($C$4))*7))</f>
+        <v/>
+      </c>
     </row>
     <row r="10" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
@@ -1567,6 +1597,10 @@
         <f t="array" aca="1" ref="M10" ca="1">IF(INDIRECT("Sheet2!N" &amp; 9 + (ROW(M10)-ROW($C$4))*7)=0, "", INDIRECT("Sheet2!N" &amp; 9 + (ROW(M10)-ROW($C$4))*7))</f>
         <v/>
       </c>
+      <c r="N10" s="19" t="str" cm="1">
+        <f t="array" aca="1" ref="N10" ca="1">IF(INDIRECT("Sheet2!O" &amp; 9 + (ROW(O10)-ROW($C$4))*7)=0, "", INDIRECT("Sheet2!O" &amp; 9 + (ROW(O10)-ROW($C$4))*7))</f>
+        <v/>
+      </c>
     </row>
     <row r="11" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
@@ -1616,6 +1650,10 @@
         <f t="array" aca="1" ref="M11" ca="1">IF(INDIRECT("Sheet2!N" &amp; 9 + (ROW(M11)-ROW($C$4))*7)=0, "", INDIRECT("Sheet2!N" &amp; 9 + (ROW(M11)-ROW($C$4))*7))</f>
         <v/>
       </c>
+      <c r="N11" s="19" t="str" cm="1">
+        <f t="array" aca="1" ref="N11" ca="1">IF(INDIRECT("Sheet2!O" &amp; 9 + (ROW(O11)-ROW($C$4))*7)=0, "", INDIRECT("Sheet2!O" &amp; 9 + (ROW(O11)-ROW($C$4))*7))</f>
+        <v/>
+      </c>
     </row>
     <row r="12" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
@@ -1665,6 +1703,10 @@
         <f t="array" aca="1" ref="M12" ca="1">IF(INDIRECT("Sheet2!N" &amp; 9 + (ROW(M12)-ROW($C$4))*7)=0, "", INDIRECT("Sheet2!N" &amp; 9 + (ROW(M12)-ROW($C$4))*7))</f>
         <v/>
       </c>
+      <c r="N12" s="19" t="str" cm="1">
+        <f t="array" aca="1" ref="N12" ca="1">IF(INDIRECT("Sheet2!O" &amp; 9 + (ROW(O12)-ROW($C$4))*7)=0, "", INDIRECT("Sheet2!O" &amp; 9 + (ROW(O12)-ROW($C$4))*7))</f>
+        <v/>
+      </c>
     </row>
     <row r="13" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
@@ -1714,6 +1756,10 @@
         <f t="array" aca="1" ref="M13" ca="1">IF(INDIRECT("Sheet2!N" &amp; 9 + (ROW(M13)-ROW($C$4))*7)=0, "", INDIRECT("Sheet2!N" &amp; 9 + (ROW(M13)-ROW($C$4))*7))</f>
         <v/>
       </c>
+      <c r="N13" s="19" t="str" cm="1">
+        <f t="array" aca="1" ref="N13" ca="1">IF(INDIRECT("Sheet2!O" &amp; 9 + (ROW(O13)-ROW($C$4))*7)=0, "", INDIRECT("Sheet2!O" &amp; 9 + (ROW(O13)-ROW($C$4))*7))</f>
+        <v/>
+      </c>
     </row>
     <row r="14" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
@@ -1763,6 +1809,10 @@
         <f t="array" aca="1" ref="M14" ca="1">IF(INDIRECT("Sheet2!N" &amp; 9 + (ROW(M14)-ROW($C$4))*7)=0, "", INDIRECT("Sheet2!N" &amp; 9 + (ROW(M14)-ROW($C$4))*7))</f>
         <v/>
       </c>
+      <c r="N14" s="19" t="str" cm="1">
+        <f t="array" aca="1" ref="N14" ca="1">IF(INDIRECT("Sheet2!O" &amp; 9 + (ROW(O14)-ROW($C$4))*7)=0, "", INDIRECT("Sheet2!O" &amp; 9 + (ROW(O14)-ROW($C$4))*7))</f>
+        <v/>
+      </c>
     </row>
     <row r="15" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
@@ -1812,6 +1862,10 @@
         <f t="array" aca="1" ref="M15" ca="1">IF(INDIRECT("Sheet2!N" &amp; 9 + (ROW(M15)-ROW($C$4))*7)=0, "", INDIRECT("Sheet2!N" &amp; 9 + (ROW(M15)-ROW($C$4))*7))</f>
         <v/>
       </c>
+      <c r="N15" s="19" t="str" cm="1">
+        <f t="array" aca="1" ref="N15" ca="1">IF(INDIRECT("Sheet2!O" &amp; 9 + (ROW(O15)-ROW($C$4))*7)=0, "", INDIRECT("Sheet2!O" &amp; 9 + (ROW(O15)-ROW($C$4))*7))</f>
+        <v/>
+      </c>
     </row>
     <row r="16" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
@@ -1861,8 +1915,12 @@
         <f t="array" aca="1" ref="M16" ca="1">IF(INDIRECT("Sheet2!N" &amp; 9 + (ROW(M16)-ROW($C$4))*7)=0, "", INDIRECT("Sheet2!N" &amp; 9 + (ROW(M16)-ROW($C$4))*7))</f>
         <v/>
       </c>
-    </row>
-    <row r="17" spans="2:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="N16" s="19" t="str" cm="1">
+        <f t="array" aca="1" ref="N16" ca="1">IF(INDIRECT("Sheet2!O" &amp; 9 + (ROW(O16)-ROW($C$4))*7)=0, "", INDIRECT("Sheet2!O" &amp; 9 + (ROW(O16)-ROW($C$4))*7))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>18</v>
       </c>
@@ -1910,8 +1968,12 @@
         <f t="array" aca="1" ref="M17" ca="1">IF(INDIRECT("Sheet2!N" &amp; 9 + (ROW(M17)-ROW($C$4))*7)=0, "", INDIRECT("Sheet2!N" &amp; 9 + (ROW(M17)-ROW($C$4))*7))</f>
         <v/>
       </c>
-    </row>
-    <row r="18" spans="2:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="N17" s="19" t="str" cm="1">
+        <f t="array" aca="1" ref="N17" ca="1">IF(INDIRECT("Sheet2!O" &amp; 9 + (ROW(O17)-ROW($C$4))*7)=0, "", INDIRECT("Sheet2!O" &amp; 9 + (ROW(O17)-ROW($C$4))*7))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>19</v>
       </c>
@@ -1959,8 +2021,12 @@
         <f t="array" aca="1" ref="M18" ca="1">IF(INDIRECT("Sheet2!N" &amp; 9 + (ROW(M18)-ROW($C$4))*7)=0, "", INDIRECT("Sheet2!N" &amp; 9 + (ROW(M18)-ROW($C$4))*7))</f>
         <v/>
       </c>
-    </row>
-    <row r="19" spans="2:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="N18" s="19" t="str" cm="1">
+        <f t="array" aca="1" ref="N18" ca="1">IF(INDIRECT("Sheet2!O" &amp; 9 + (ROW(O18)-ROW($C$4))*7)=0, "", INDIRECT("Sheet2!O" &amp; 9 + (ROW(O18)-ROW($C$4))*7))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>20</v>
       </c>
@@ -2008,8 +2074,12 @@
         <f t="array" aca="1" ref="M19" ca="1">IF(INDIRECT("Sheet2!N" &amp; 9 + (ROW(M19)-ROW($C$4))*7)=0, "", INDIRECT("Sheet2!N" &amp; 9 + (ROW(M19)-ROW($C$4))*7))</f>
         <v/>
       </c>
-    </row>
-    <row r="20" spans="2:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="N19" s="19" t="str" cm="1">
+        <f t="array" aca="1" ref="N19" ca="1">IF(INDIRECT("Sheet2!O" &amp; 9 + (ROW(O19)-ROW($C$4))*7)=0, "", INDIRECT("Sheet2!O" &amp; 9 + (ROW(O19)-ROW($C$4))*7))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>21</v>
       </c>
@@ -2057,8 +2127,12 @@
         <f t="array" aca="1" ref="M20" ca="1">IF(INDIRECT("Sheet2!N" &amp; 9 + (ROW(M20)-ROW($C$4))*7)=0, "", INDIRECT("Sheet2!N" &amp; 9 + (ROW(M20)-ROW($C$4))*7))</f>
         <v/>
       </c>
-    </row>
-    <row r="21" spans="2:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="N20" s="19" t="str" cm="1">
+        <f t="array" aca="1" ref="N20" ca="1">IF(INDIRECT("Sheet2!O" &amp; 9 + (ROW(O20)-ROW($C$4))*7)=0, "", INDIRECT("Sheet2!O" &amp; 9 + (ROW(O20)-ROW($C$4))*7))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>22</v>
       </c>
@@ -2106,8 +2180,12 @@
         <f t="array" aca="1" ref="M21" ca="1">IF(INDIRECT("Sheet2!N" &amp; 9 + (ROW(M21)-ROW($C$4))*7)=0, "", INDIRECT("Sheet2!N" &amp; 9 + (ROW(M21)-ROW($C$4))*7))</f>
         <v/>
       </c>
-    </row>
-    <row r="22" spans="2:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="N21" s="19" t="str" cm="1">
+        <f t="array" aca="1" ref="N21" ca="1">IF(INDIRECT("Sheet2!O" &amp; 9 + (ROW(O21)-ROW($C$4))*7)=0, "", INDIRECT("Sheet2!O" &amp; 9 + (ROW(O21)-ROW($C$4))*7))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>23</v>
       </c>
@@ -2155,8 +2233,12 @@
         <f t="array" aca="1" ref="M22" ca="1">IF(INDIRECT("Sheet2!N" &amp; 9 + (ROW(M22)-ROW($C$4))*7)=0, "", INDIRECT("Sheet2!N" &amp; 9 + (ROW(M22)-ROW($C$4))*7))</f>
         <v/>
       </c>
-    </row>
-    <row r="23" spans="2:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="N22" s="19" t="str" cm="1">
+        <f t="array" aca="1" ref="N22" ca="1">IF(INDIRECT("Sheet2!O" &amp; 9 + (ROW(O22)-ROW($C$4))*7)=0, "", INDIRECT("Sheet2!O" &amp; 9 + (ROW(O22)-ROW($C$4))*7))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>24</v>
       </c>
@@ -2204,8 +2286,12 @@
         <f t="array" aca="1" ref="M23" ca="1">IF(INDIRECT("Sheet2!N" &amp; 9 + (ROW(M23)-ROW($C$4))*7)=0, "", INDIRECT("Sheet2!N" &amp; 9 + (ROW(M23)-ROW($C$4))*7))</f>
         <v/>
       </c>
-    </row>
-    <row r="24" spans="2:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="N23" s="19" t="str" cm="1">
+        <f t="array" aca="1" ref="N23" ca="1">IF(INDIRECT("Sheet2!O" &amp; 9 + (ROW(O23)-ROW($C$4))*7)=0, "", INDIRECT("Sheet2!O" &amp; 9 + (ROW(O23)-ROW($C$4))*7))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>25</v>
       </c>
@@ -2253,8 +2339,12 @@
         <f t="array" aca="1" ref="M24" ca="1">IF(INDIRECT("Sheet2!N" &amp; 9 + (ROW(M24)-ROW($C$4))*7)=0, "", INDIRECT("Sheet2!N" &amp; 9 + (ROW(M24)-ROW($C$4))*7))</f>
         <v/>
       </c>
-    </row>
-    <row r="25" spans="2:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="N24" s="19" t="str" cm="1">
+        <f t="array" aca="1" ref="N24" ca="1">IF(INDIRECT("Sheet2!O" &amp; 9 + (ROW(O24)-ROW($C$4))*7)=0, "", INDIRECT("Sheet2!O" &amp; 9 + (ROW(O24)-ROW($C$4))*7))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>26</v>
       </c>
@@ -2302,8 +2392,12 @@
         <f t="array" aca="1" ref="M25" ca="1">IF(INDIRECT("Sheet2!N" &amp; 9 + (ROW(M25)-ROW($C$4))*7)=0, "", INDIRECT("Sheet2!N" &amp; 9 + (ROW(M25)-ROW($C$4))*7))</f>
         <v/>
       </c>
-    </row>
-    <row r="26" spans="2:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="N25" s="19" t="str" cm="1">
+        <f t="array" aca="1" ref="N25" ca="1">IF(INDIRECT("Sheet2!O" &amp; 9 + (ROW(O25)-ROW($C$4))*7)=0, "", INDIRECT("Sheet2!O" &amp; 9 + (ROW(O25)-ROW($C$4))*7))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>27</v>
       </c>
@@ -2351,8 +2445,12 @@
         <f t="array" aca="1" ref="M26" ca="1">IF(INDIRECT("Sheet2!N" &amp; 9 + (ROW(M26)-ROW($C$4))*7)=0, "", INDIRECT("Sheet2!N" &amp; 9 + (ROW(M26)-ROW($C$4))*7))</f>
         <v/>
       </c>
-    </row>
-    <row r="27" spans="2:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="N26" s="19" t="str" cm="1">
+        <f t="array" aca="1" ref="N26" ca="1">IF(INDIRECT("Sheet2!O" &amp; 9 + (ROW(O26)-ROW($C$4))*7)=0, "", INDIRECT("Sheet2!O" &amp; 9 + (ROW(O26)-ROW($C$4))*7))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
         <v>28</v>
       </c>
@@ -2400,8 +2498,12 @@
         <f t="array" aca="1" ref="M27" ca="1">IF(INDIRECT("Sheet2!N" &amp; 9 + (ROW(M27)-ROW($C$4))*7)=0, "", INDIRECT("Sheet2!N" &amp; 9 + (ROW(M27)-ROW($C$4))*7))</f>
         <v/>
       </c>
-    </row>
-    <row r="28" spans="2:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="N27" s="19" t="str" cm="1">
+        <f t="array" aca="1" ref="N27" ca="1">IF(INDIRECT("Sheet2!O" &amp; 9 + (ROW(O27)-ROW($C$4))*7)=0, "", INDIRECT("Sheet2!O" &amp; 9 + (ROW(O27)-ROW($C$4))*7))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>29</v>
       </c>
@@ -2449,8 +2551,12 @@
         <f t="array" aca="1" ref="M28" ca="1">IF(INDIRECT("Sheet2!N" &amp; 9 + (ROW(M28)-ROW($C$4))*7)=0, "", INDIRECT("Sheet2!N" &amp; 9 + (ROW(M28)-ROW($C$4))*7))</f>
         <v/>
       </c>
-    </row>
-    <row r="29" spans="2:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="N28" s="19" t="str" cm="1">
+        <f t="array" aca="1" ref="N28" ca="1">IF(INDIRECT("Sheet2!O" &amp; 9 + (ROW(O28)-ROW($C$4))*7)=0, "", INDIRECT("Sheet2!O" &amp; 9 + (ROW(O28)-ROW($C$4))*7))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>30</v>
       </c>
@@ -2498,8 +2604,12 @@
         <f t="array" aca="1" ref="M29" ca="1">IF(INDIRECT("Sheet2!N" &amp; 9 + (ROW(M29)-ROW($C$4))*7)=0, "", INDIRECT("Sheet2!N" &amp; 9 + (ROW(M29)-ROW($C$4))*7))</f>
         <v/>
       </c>
-    </row>
-    <row r="30" spans="2:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="N29" s="19" t="str" cm="1">
+        <f t="array" aca="1" ref="N29" ca="1">IF(INDIRECT("Sheet2!O" &amp; 9 + (ROW(O29)-ROW($C$4))*7)=0, "", INDIRECT("Sheet2!O" &amp; 9 + (ROW(O29)-ROW($C$4))*7))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
         <v>31</v>
       </c>
@@ -2547,8 +2657,12 @@
         <f t="array" aca="1" ref="M30" ca="1">IF(INDIRECT("Sheet2!N" &amp; 9 + (ROW(M30)-ROW($C$4))*7)=0, "", INDIRECT("Sheet2!N" &amp; 9 + (ROW(M30)-ROW($C$4))*7))</f>
         <v/>
       </c>
-    </row>
-    <row r="31" spans="2:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="N30" s="19" t="str" cm="1">
+        <f t="array" aca="1" ref="N30" ca="1">IF(INDIRECT("Sheet2!O" &amp; 9 + (ROW(O30)-ROW($C$4))*7)=0, "", INDIRECT("Sheet2!O" &amp; 9 + (ROW(O30)-ROW($C$4))*7))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>32</v>
       </c>
@@ -2596,8 +2710,12 @@
         <f t="array" aca="1" ref="M31" ca="1">IF(INDIRECT("Sheet2!N" &amp; 9 + (ROW(M31)-ROW($C$4))*7)=0, "", INDIRECT("Sheet2!N" &amp; 9 + (ROW(M31)-ROW($C$4))*7))</f>
         <v/>
       </c>
-    </row>
-    <row r="32" spans="2:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="N31" s="19" t="str" cm="1">
+        <f t="array" aca="1" ref="N31" ca="1">IF(INDIRECT("Sheet2!O" &amp; 9 + (ROW(O31)-ROW($C$4))*7)=0, "", INDIRECT("Sheet2!O" &amp; 9 + (ROW(O31)-ROW($C$4))*7))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>33</v>
       </c>
@@ -2645,8 +2763,12 @@
         <f t="array" aca="1" ref="M32" ca="1">IF(INDIRECT("Sheet2!N" &amp; 9 + (ROW(M32)-ROW($C$4))*7)=0, "", INDIRECT("Sheet2!N" &amp; 9 + (ROW(M32)-ROW($C$4))*7))</f>
         <v/>
       </c>
-    </row>
-    <row r="33" spans="2:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="N32" s="19" t="str" cm="1">
+        <f t="array" aca="1" ref="N32" ca="1">IF(INDIRECT("Sheet2!O" &amp; 9 + (ROW(O32)-ROW($C$4))*7)=0, "", INDIRECT("Sheet2!O" &amp; 9 + (ROW(O32)-ROW($C$4))*7))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
         <v>34</v>
       </c>
@@ -2694,8 +2816,12 @@
         <f t="array" aca="1" ref="M33" ca="1">IF(INDIRECT("Sheet2!N" &amp; 9 + (ROW(M33)-ROW($C$4))*7)=0, "", INDIRECT("Sheet2!N" &amp; 9 + (ROW(M33)-ROW($C$4))*7))</f>
         <v/>
       </c>
-    </row>
-    <row r="34" spans="2:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="N33" s="19" t="str" cm="1">
+        <f t="array" aca="1" ref="N33" ca="1">IF(INDIRECT("Sheet2!O" &amp; 9 + (ROW(O33)-ROW($C$4))*7)=0, "", INDIRECT("Sheet2!O" &amp; 9 + (ROW(O33)-ROW($C$4))*7))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>35</v>
       </c>
@@ -2743,8 +2869,12 @@
         <f t="array" aca="1" ref="M34" ca="1">IF(INDIRECT("Sheet2!N" &amp; 9 + (ROW(M34)-ROW($C$4))*7)=0, "", INDIRECT("Sheet2!N" &amp; 9 + (ROW(M34)-ROW($C$4))*7))</f>
         <v/>
       </c>
-    </row>
-    <row r="35" spans="2:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="N34" s="19" t="str" cm="1">
+        <f t="array" aca="1" ref="N34" ca="1">IF(INDIRECT("Sheet2!O" &amp; 9 + (ROW(O34)-ROW($C$4))*7)=0, "", INDIRECT("Sheet2!O" &amp; 9 + (ROW(O34)-ROW($C$4))*7))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
         <v>36</v>
       </c>
@@ -2792,8 +2922,12 @@
         <f t="array" aca="1" ref="M35" ca="1">IF(INDIRECT("Sheet2!N" &amp; 9 + (ROW(M35)-ROW($C$4))*7)=0, "", INDIRECT("Sheet2!N" &amp; 9 + (ROW(M35)-ROW($C$4))*7))</f>
         <v/>
       </c>
-    </row>
-    <row r="36" spans="2:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="N35" s="19" t="str" cm="1">
+        <f t="array" aca="1" ref="N35" ca="1">IF(INDIRECT("Sheet2!O" &amp; 9 + (ROW(O35)-ROW($C$4))*7)=0, "", INDIRECT("Sheet2!O" &amp; 9 + (ROW(O35)-ROW($C$4))*7))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
         <v>37</v>
       </c>
@@ -2841,8 +2975,12 @@
         <f t="array" aca="1" ref="M36" ca="1">IF(INDIRECT("Sheet2!N" &amp; 9 + (ROW(M36)-ROW($C$4))*7)=0, "", INDIRECT("Sheet2!N" &amp; 9 + (ROW(M36)-ROW($C$4))*7))</f>
         <v/>
       </c>
-    </row>
-    <row r="37" spans="2:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="N36" s="19" t="str" cm="1">
+        <f t="array" aca="1" ref="N36" ca="1">IF(INDIRECT("Sheet2!O" &amp; 9 + (ROW(O36)-ROW($C$4))*7)=0, "", INDIRECT("Sheet2!O" &amp; 9 + (ROW(O36)-ROW($C$4))*7))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
         <v>38</v>
       </c>
@@ -2890,8 +3028,12 @@
         <f t="array" aca="1" ref="M37" ca="1">IF(INDIRECT("Sheet2!N" &amp; 9 + (ROW(M37)-ROW($C$4))*7)=0, "", INDIRECT("Sheet2!N" &amp; 9 + (ROW(M37)-ROW($C$4))*7))</f>
         <v/>
       </c>
-    </row>
-    <row r="38" spans="2:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="N37" s="19" t="str" cm="1">
+        <f t="array" aca="1" ref="N37" ca="1">IF(INDIRECT("Sheet2!O" &amp; 9 + (ROW(O37)-ROW($C$4))*7)=0, "", INDIRECT("Sheet2!O" &amp; 9 + (ROW(O37)-ROW($C$4))*7))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
         <v>39</v>
       </c>
@@ -2939,8 +3081,12 @@
         <f t="array" aca="1" ref="M38" ca="1">IF(INDIRECT("Sheet2!N" &amp; 9 + (ROW(M38)-ROW($C$4))*7)=0, "", INDIRECT("Sheet2!N" &amp; 9 + (ROW(M38)-ROW($C$4))*7))</f>
         <v/>
       </c>
-    </row>
-    <row r="39" spans="2:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="N38" s="19" t="str" cm="1">
+        <f t="array" aca="1" ref="N38" ca="1">IF(INDIRECT("Sheet2!O" &amp; 9 + (ROW(O38)-ROW($C$4))*7)=0, "", INDIRECT("Sheet2!O" &amp; 9 + (ROW(O38)-ROW($C$4))*7))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
         <v>40</v>
       </c>
@@ -2988,8 +3134,12 @@
         <f t="array" aca="1" ref="M39" ca="1">IF(INDIRECT("Sheet2!N" &amp; 9 + (ROW(M39)-ROW($C$4))*7)=0, "", INDIRECT("Sheet2!N" &amp; 9 + (ROW(M39)-ROW($C$4))*7))</f>
         <v/>
       </c>
-    </row>
-    <row r="40" spans="2:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="N39" s="19" t="str" cm="1">
+        <f t="array" aca="1" ref="N39" ca="1">IF(INDIRECT("Sheet2!O" &amp; 9 + (ROW(O39)-ROW($C$4))*7)=0, "", INDIRECT("Sheet2!O" &amp; 9 + (ROW(O39)-ROW($C$4))*7))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
         <v>41</v>
       </c>
@@ -3037,8 +3187,12 @@
         <f t="array" aca="1" ref="M40" ca="1">IF(INDIRECT("Sheet2!N" &amp; 9 + (ROW(M40)-ROW($C$4))*7)=0, "", INDIRECT("Sheet2!N" &amp; 9 + (ROW(M40)-ROW($C$4))*7))</f>
         <v/>
       </c>
-    </row>
-    <row r="41" spans="2:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="N40" s="19" t="str" cm="1">
+        <f t="array" aca="1" ref="N40" ca="1">IF(INDIRECT("Sheet2!O" &amp; 9 + (ROW(O40)-ROW($C$4))*7)=0, "", INDIRECT("Sheet2!O" &amp; 9 + (ROW(O40)-ROW($C$4))*7))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
         <v>42</v>
       </c>
@@ -3086,57 +3240,65 @@
         <f t="array" aca="1" ref="M41" ca="1">IF(INDIRECT("Sheet2!N" &amp; 9 + (ROW(M41)-ROW($C$4))*7)=0, "", INDIRECT("Sheet2!N" &amp; 9 + (ROW(M41)-ROW($C$4))*7))</f>
         <v/>
       </c>
-    </row>
-    <row r="42" spans="2:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="N41" s="19" t="str" cm="1">
+        <f t="array" aca="1" ref="N41" ca="1">IF(INDIRECT("Sheet2!O" &amp; 9 + (ROW(O41)-ROW($C$4))*7)=0, "", INDIRECT("Sheet2!O" &amp; 9 + (ROW(O41)-ROW($C$4))*7))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C42" s="34">
+      <c r="C42" s="33">
         <f t="shared" ref="C42:M42" ca="1" si="0">SUM(C4:C41)</f>
         <v>0</v>
       </c>
-      <c r="D42" s="34">
+      <c r="D42" s="33">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="E42" s="34">
+      <c r="E42" s="33">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="F42" s="34">
+      <c r="F42" s="33">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="G42" s="34">
+      <c r="G42" s="33">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="H42" s="34">
+      <c r="H42" s="33">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="I42" s="34">
+      <c r="I42" s="33">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="J42" s="34">
+      <c r="J42" s="33">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="K42" s="34">
+      <c r="K42" s="33">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="L42" s="34">
+      <c r="L42" s="33">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="M42" s="34">
+      <c r="M42" s="33">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="N42" s="33">
+        <f t="shared" ref="N42" ca="1" si="1">SUM(N4:N41)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
         <v>55</v>
       </c>
@@ -3182,6 +3344,10 @@
       </c>
       <c r="M43" s="1">
         <f ca="1">'Extra Results'!M89</f>
+        <v>0</v>
+      </c>
+      <c r="N43" s="1">
+        <f ca="1">'Extra Results'!N89</f>
         <v>0</v>
       </c>
     </row>
@@ -3281,10 +3447,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F31CCA1-9181-4415-8A17-EAD3268B00A4}">
-  <dimension ref="B1:AC301"/>
+  <dimension ref="B1:AD301"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D300" sqref="D300"/>
+      <selection activeCell="P28" sqref="P28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3298,7 +3464,7 @@
     <col min="11" max="11" width="11.140625" customWidth="1"/>
     <col min="12" max="14" width="9.7109375" customWidth="1"/>
     <col min="15" max="15" width="9.28515625" customWidth="1"/>
-    <col min="16" max="16" width="0.42578125" customWidth="1"/>
+    <col min="16" max="16" width="10.5703125" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" customWidth="1"/>
     <col min="18" max="18" width="20.140625" customWidth="1"/>
     <col min="19" max="19" width="9.7109375" customWidth="1"/>
@@ -3307,7 +3473,7 @@
     <col min="26" max="26" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C1" s="1" t="s">
         <v>44</v>
       </c>
@@ -3315,7 +3481,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C2" s="1" t="s">
         <v>45</v>
       </c>
@@ -3323,12 +3489,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
       <c r="R3" s="22" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="4" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>52</v>
       </c>
@@ -3343,27 +3509,30 @@
         <v>3</v>
       </c>
       <c r="G4" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="N4" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="O4" s="1" t="s">
         <v>110</v>
       </c>
       <c r="Q4" s="22" t="s">
@@ -3380,31 +3549,34 @@
         <v>3</v>
       </c>
       <c r="V4" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="W4" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="W4" s="22" t="s">
+      <c r="X4" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="X4" s="22" t="s">
+      <c r="Y4" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="Y4" s="22" t="s">
+      <c r="Z4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="Z4" s="22" t="s">
+      <c r="AA4" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="AA4" s="22" t="s">
+      <c r="AB4" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="AB4" s="22" t="s">
+      <c r="AC4" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="AC4" s="22" t="s">
+      <c r="AD4" s="22" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="5" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B5" s="16"/>
       <c r="C5" s="1"/>
       <c r="D5" s="3"/>
@@ -3418,6 +3590,7 @@
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
       <c r="Q5" s="16"/>
       <c r="R5" s="22"/>
       <c r="S5" s="3"/>
@@ -3431,8 +3604,9 @@
       <c r="AA5" s="3"/>
       <c r="AB5" s="3"/>
       <c r="AC5" s="3"/>
-    </row>
-    <row r="6" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AD5" s="3"/>
+    </row>
+    <row r="6" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B6" s="16"/>
       <c r="C6" s="1"/>
       <c r="D6" s="3"/>
@@ -3446,6 +3620,7 @@
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
       <c r="Q6" s="16"/>
       <c r="R6" s="22"/>
       <c r="S6" s="3"/>
@@ -3459,8 +3634,9 @@
       <c r="AA6" s="3"/>
       <c r="AB6" s="3"/>
       <c r="AC6" s="3"/>
-    </row>
-    <row r="7" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AD6" s="3"/>
+    </row>
+    <row r="7" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B7" s="16"/>
       <c r="C7" s="1"/>
       <c r="D7" s="3"/>
@@ -3474,6 +3650,7 @@
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
       <c r="Q7" s="16"/>
       <c r="R7" s="22"/>
       <c r="S7" s="3"/>
@@ -3487,8 +3664,9 @@
       <c r="AA7" s="3"/>
       <c r="AB7" s="3"/>
       <c r="AC7" s="3"/>
-    </row>
-    <row r="8" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AD7" s="3"/>
+    </row>
+    <row r="8" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B8" s="16"/>
       <c r="C8" s="1"/>
       <c r="D8" s="3"/>
@@ -3502,6 +3680,7 @@
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
       <c r="Q8" s="16"/>
       <c r="R8" s="22"/>
       <c r="S8" s="3"/>
@@ -3515,8 +3694,9 @@
       <c r="AA8" s="3"/>
       <c r="AB8" s="3"/>
       <c r="AC8" s="3"/>
-    </row>
-    <row r="9" spans="2:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD8" s="3"/>
+    </row>
+    <row r="9" spans="2:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C9" s="21" t="s">
         <v>43</v>
       </c>
@@ -3531,6 +3711,7 @@
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
       <c r="R9" s="23" t="s">
         <v>43</v>
       </c>
@@ -3545,8 +3726,9 @@
       <c r="AA9" s="22"/>
       <c r="AB9" s="22"/>
       <c r="AC9" s="22"/>
-    </row>
-    <row r="10" spans="2:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD9" s="22"/>
+    </row>
+    <row r="10" spans="2:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C10" s="20" t="s">
         <v>55</v>
       </c>
@@ -3561,6 +3743,7 @@
       <c r="L10" s="20"/>
       <c r="M10" s="20"/>
       <c r="N10" s="20"/>
+      <c r="O10" s="20"/>
       <c r="R10" s="24" t="s">
         <v>55</v>
       </c>
@@ -3575,8 +3758,9 @@
       <c r="AA10" s="24"/>
       <c r="AB10" s="24"/>
       <c r="AC10" s="24"/>
-    </row>
-    <row r="11" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AD10" s="24"/>
+    </row>
+    <row r="11" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>6</v>
       </c>
@@ -3591,27 +3775,30 @@
         <v>3</v>
       </c>
       <c r="G11" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="I11" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="J11" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="K11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K11" s="1" t="s">
+      <c r="L11" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="L11" s="1" t="s">
+      <c r="M11" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="M11" s="1" t="s">
+      <c r="N11" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="N11" s="1" t="s">
+      <c r="O11" s="1" t="s">
         <v>110</v>
       </c>
       <c r="Q11" s="22" t="s">
@@ -3628,31 +3815,34 @@
         <v>3</v>
       </c>
       <c r="V11" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="W11" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="W11" s="22" t="s">
+      <c r="X11" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="X11" s="22" t="s">
+      <c r="Y11" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="Y11" s="22" t="s">
+      <c r="Z11" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="Z11" s="22" t="s">
+      <c r="AA11" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="AA11" s="22" t="s">
+      <c r="AB11" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="AB11" s="22" t="s">
+      <c r="AC11" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="AC11" s="22" t="s">
+      <c r="AD11" s="22" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="12" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B12" s="16"/>
       <c r="C12" s="1"/>
       <c r="D12" s="3"/>
@@ -3666,6 +3856,7 @@
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
       <c r="Q12" s="16"/>
       <c r="R12" s="22"/>
       <c r="S12" s="3"/>
@@ -3679,8 +3870,9 @@
       <c r="AA12" s="3"/>
       <c r="AB12" s="3"/>
       <c r="AC12" s="3"/>
-    </row>
-    <row r="13" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AD12" s="3"/>
+    </row>
+    <row r="13" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B13" s="16"/>
       <c r="C13" s="1"/>
       <c r="D13" s="3"/>
@@ -3694,6 +3886,7 @@
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
       <c r="Q13" s="16"/>
       <c r="R13" s="22"/>
       <c r="S13" s="3"/>
@@ -3707,8 +3900,9 @@
       <c r="AA13" s="3"/>
       <c r="AB13" s="3"/>
       <c r="AC13" s="3"/>
-    </row>
-    <row r="14" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AD13" s="3"/>
+    </row>
+    <row r="14" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B14" s="16"/>
       <c r="C14" s="1"/>
       <c r="D14" s="3"/>
@@ -3722,6 +3916,7 @@
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
       <c r="Q14" s="16"/>
       <c r="R14" s="22"/>
       <c r="S14" s="3"/>
@@ -3735,8 +3930,9 @@
       <c r="AA14" s="3"/>
       <c r="AB14" s="3"/>
       <c r="AC14" s="3"/>
-    </row>
-    <row r="15" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AD14" s="3"/>
+    </row>
+    <row r="15" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B15" s="16"/>
       <c r="C15" s="1"/>
       <c r="D15" s="3"/>
@@ -3750,6 +3946,7 @@
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
       <c r="Q15" s="16"/>
       <c r="R15" s="22"/>
       <c r="S15" s="3"/>
@@ -3763,8 +3960,9 @@
       <c r="AA15" s="3"/>
       <c r="AB15" s="3"/>
       <c r="AC15" s="3"/>
-    </row>
-    <row r="16" spans="2:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD15" s="3"/>
+    </row>
+    <row r="16" spans="2:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C16" s="21" t="s">
         <v>43</v>
       </c>
@@ -3779,6 +3977,7 @@
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
       <c r="R16" s="23" t="s">
         <v>43</v>
       </c>
@@ -3793,8 +3992,9 @@
       <c r="AA16" s="22"/>
       <c r="AB16" s="22"/>
       <c r="AC16" s="22"/>
-    </row>
-    <row r="17" spans="2:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD16" s="22"/>
+    </row>
+    <row r="17" spans="2:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C17" s="20" t="s">
         <v>55</v>
       </c>
@@ -3809,6 +4009,7 @@
       <c r="L17" s="20"/>
       <c r="M17" s="20"/>
       <c r="N17" s="20"/>
+      <c r="O17" s="20"/>
       <c r="R17" s="24" t="s">
         <v>55</v>
       </c>
@@ -3823,8 +4024,9 @@
       <c r="AA17" s="24"/>
       <c r="AB17" s="24"/>
       <c r="AC17" s="24"/>
-    </row>
-    <row r="18" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AD17" s="24"/>
+    </row>
+    <row r="18" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>7</v>
       </c>
@@ -3839,27 +4041,30 @@
         <v>3</v>
       </c>
       <c r="G18" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H18" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="I18" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="J18" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J18" s="1" t="s">
+      <c r="K18" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K18" s="1" t="s">
+      <c r="L18" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="L18" s="1" t="s">
+      <c r="M18" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="M18" s="1" t="s">
+      <c r="N18" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="N18" s="1" t="s">
+      <c r="O18" s="1" t="s">
         <v>110</v>
       </c>
       <c r="Q18" s="22" t="s">
@@ -3876,31 +4081,34 @@
         <v>3</v>
       </c>
       <c r="V18" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="W18" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="W18" s="22" t="s">
+      <c r="X18" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="X18" s="22" t="s">
+      <c r="Y18" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="Y18" s="22" t="s">
+      <c r="Z18" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="Z18" s="22" t="s">
+      <c r="AA18" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="AA18" s="22" t="s">
+      <c r="AB18" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="AB18" s="22" t="s">
+      <c r="AC18" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="AC18" s="22" t="s">
+      <c r="AD18" s="22" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="19" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B19" s="16"/>
       <c r="C19" s="1"/>
       <c r="D19" s="3"/>
@@ -3914,6 +4122,7 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
       <c r="Q19" s="16"/>
       <c r="R19" s="22"/>
       <c r="S19" s="3"/>
@@ -3927,8 +4136,9 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B20" s="16"/>
       <c r="C20" s="1"/>
       <c r="D20" s="3"/>
@@ -3942,6 +4152,7 @@
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
       <c r="Q20" s="16"/>
       <c r="R20" s="22"/>
       <c r="S20" s="3"/>
@@ -3955,8 +4166,9 @@
       <c r="AA20" s="3"/>
       <c r="AB20" s="3"/>
       <c r="AC20" s="3"/>
-    </row>
-    <row r="21" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AD20" s="3"/>
+    </row>
+    <row r="21" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B21" s="16"/>
       <c r="C21" s="1"/>
       <c r="D21" s="3"/>
@@ -3970,6 +4182,7 @@
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
       <c r="Q21" s="16"/>
       <c r="R21" s="22"/>
       <c r="S21" s="3"/>
@@ -3983,8 +4196,9 @@
       <c r="AA21" s="3"/>
       <c r="AB21" s="3"/>
       <c r="AC21" s="3"/>
-    </row>
-    <row r="22" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AD21" s="3"/>
+    </row>
+    <row r="22" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B22" s="16"/>
       <c r="C22" s="1"/>
       <c r="D22" s="3"/>
@@ -3998,6 +4212,7 @@
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
       <c r="Q22" s="16"/>
       <c r="R22" s="22"/>
       <c r="S22" s="3"/>
@@ -4011,8 +4226,9 @@
       <c r="AA22" s="3"/>
       <c r="AB22" s="3"/>
       <c r="AC22" s="3"/>
-    </row>
-    <row r="23" spans="2:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD22" s="3"/>
+    </row>
+    <row r="23" spans="2:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C23" s="21" t="s">
         <v>43</v>
       </c>
@@ -4027,6 +4243,7 @@
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
       <c r="R23" s="23" t="s">
         <v>43</v>
       </c>
@@ -4041,8 +4258,9 @@
       <c r="AA23" s="22"/>
       <c r="AB23" s="22"/>
       <c r="AC23" s="22"/>
-    </row>
-    <row r="24" spans="2:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD23" s="22"/>
+    </row>
+    <row r="24" spans="2:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C24" s="20" t="s">
         <v>55</v>
       </c>
@@ -4057,6 +4275,7 @@
       <c r="L24" s="20"/>
       <c r="M24" s="20"/>
       <c r="N24" s="20"/>
+      <c r="O24" s="20"/>
       <c r="R24" s="24" t="s">
         <v>55</v>
       </c>
@@ -4071,8 +4290,9 @@
       <c r="AA24" s="24"/>
       <c r="AB24" s="24"/>
       <c r="AC24" s="24"/>
-    </row>
-    <row r="25" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AD24" s="24"/>
+    </row>
+    <row r="25" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>8</v>
       </c>
@@ -4087,27 +4307,30 @@
         <v>3</v>
       </c>
       <c r="G25" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H25" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H25" s="1" t="s">
+      <c r="I25" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="I25" s="1" t="s">
+      <c r="J25" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J25" s="1" t="s">
+      <c r="K25" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K25" s="1" t="s">
+      <c r="L25" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="L25" s="1" t="s">
+      <c r="M25" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="M25" s="1" t="s">
+      <c r="N25" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="N25" s="1" t="s">
+      <c r="O25" s="1" t="s">
         <v>110</v>
       </c>
       <c r="Q25" s="22" t="s">
@@ -4124,31 +4347,34 @@
         <v>3</v>
       </c>
       <c r="V25" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="W25" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="W25" s="22" t="s">
+      <c r="X25" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="X25" s="22" t="s">
+      <c r="Y25" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="Y25" s="22" t="s">
+      <c r="Z25" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="Z25" s="22" t="s">
+      <c r="AA25" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="AA25" s="22" t="s">
+      <c r="AB25" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="AB25" s="22" t="s">
+      <c r="AC25" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="AC25" s="22" t="s">
+      <c r="AD25" s="22" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="26" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B26" s="16"/>
       <c r="C26" s="1"/>
       <c r="D26" s="3"/>
@@ -4162,6 +4388,7 @@
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
       <c r="Q26" s="16"/>
       <c r="R26" s="22"/>
       <c r="S26" s="3"/>
@@ -4175,8 +4402,9 @@
       <c r="AA26" s="3"/>
       <c r="AB26" s="3"/>
       <c r="AC26" s="3"/>
-    </row>
-    <row r="27" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AD26" s="3"/>
+    </row>
+    <row r="27" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B27" s="16"/>
       <c r="C27" s="1"/>
       <c r="D27" s="3"/>
@@ -4190,6 +4418,7 @@
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
       <c r="Q27" s="16"/>
       <c r="R27" s="22"/>
       <c r="S27" s="3"/>
@@ -4203,8 +4432,9 @@
       <c r="AA27" s="3"/>
       <c r="AB27" s="3"/>
       <c r="AC27" s="3"/>
-    </row>
-    <row r="28" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AD27" s="3"/>
+    </row>
+    <row r="28" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B28" s="16"/>
       <c r="C28" s="1"/>
       <c r="D28" s="3"/>
@@ -4218,6 +4448,7 @@
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
       <c r="Q28" s="16"/>
       <c r="R28" s="22"/>
       <c r="S28" s="3"/>
@@ -4231,8 +4462,9 @@
       <c r="AA28" s="3"/>
       <c r="AB28" s="3"/>
       <c r="AC28" s="3"/>
-    </row>
-    <row r="29" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AD28" s="3"/>
+    </row>
+    <row r="29" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B29" s="16"/>
       <c r="C29" s="1"/>
       <c r="D29" s="3"/>
@@ -4246,6 +4478,7 @@
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
       <c r="Q29" s="16"/>
       <c r="R29" s="22"/>
       <c r="S29" s="3"/>
@@ -4259,8 +4492,9 @@
       <c r="AA29" s="3"/>
       <c r="AB29" s="3"/>
       <c r="AC29" s="3"/>
-    </row>
-    <row r="30" spans="2:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD29" s="3"/>
+    </row>
+    <row r="30" spans="2:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C30" s="21" t="s">
         <v>43</v>
       </c>
@@ -4275,6 +4509,7 @@
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
       <c r="R30" s="23" t="s">
         <v>43</v>
       </c>
@@ -4289,8 +4524,9 @@
       <c r="AA30" s="22"/>
       <c r="AB30" s="22"/>
       <c r="AC30" s="22"/>
-    </row>
-    <row r="31" spans="2:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD30" s="22"/>
+    </row>
+    <row r="31" spans="2:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C31" s="20" t="s">
         <v>55</v>
       </c>
@@ -4305,6 +4541,7 @@
       <c r="L31" s="20"/>
       <c r="M31" s="20"/>
       <c r="N31" s="20"/>
+      <c r="O31" s="20"/>
       <c r="R31" s="24" t="s">
         <v>55</v>
       </c>
@@ -4319,8 +4556,9 @@
       <c r="AA31" s="24"/>
       <c r="AB31" s="24"/>
       <c r="AC31" s="24"/>
-    </row>
-    <row r="32" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AD31" s="24"/>
+    </row>
+    <row r="32" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>9</v>
       </c>
@@ -4335,27 +4573,30 @@
         <v>3</v>
       </c>
       <c r="G32" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H32" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H32" s="1" t="s">
+      <c r="I32" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="I32" s="1" t="s">
+      <c r="J32" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J32" s="1" t="s">
+      <c r="K32" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K32" s="1" t="s">
+      <c r="L32" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="L32" s="1" t="s">
+      <c r="M32" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="M32" s="1" t="s">
+      <c r="N32" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="N32" s="1" t="s">
+      <c r="O32" s="1" t="s">
         <v>110</v>
       </c>
       <c r="Q32" s="22" t="s">
@@ -4372,31 +4613,34 @@
         <v>3</v>
       </c>
       <c r="V32" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="W32" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="W32" s="22" t="s">
+      <c r="X32" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="X32" s="22" t="s">
+      <c r="Y32" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="Y32" s="22" t="s">
+      <c r="Z32" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="Z32" s="22" t="s">
+      <c r="AA32" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="AA32" s="22" t="s">
+      <c r="AB32" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="AB32" s="22" t="s">
+      <c r="AC32" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="AC32" s="22" t="s">
+      <c r="AD32" s="22" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="33" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B33" s="16"/>
       <c r="C33" s="1"/>
       <c r="D33" s="3"/>
@@ -4410,6 +4654,7 @@
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
       <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
       <c r="Q33" s="16"/>
       <c r="R33" s="22"/>
       <c r="S33" s="3"/>
@@ -4423,8 +4668,9 @@
       <c r="AA33" s="3"/>
       <c r="AB33" s="3"/>
       <c r="AC33" s="3"/>
-    </row>
-    <row r="34" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AD33" s="3"/>
+    </row>
+    <row r="34" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B34" s="16"/>
       <c r="C34" s="1"/>
       <c r="D34" s="3"/>
@@ -4438,6 +4684,7 @@
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
       <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
       <c r="Q34" s="16"/>
       <c r="R34" s="22"/>
       <c r="S34" s="3"/>
@@ -4451,8 +4698,9 @@
       <c r="AA34" s="3"/>
       <c r="AB34" s="3"/>
       <c r="AC34" s="3"/>
-    </row>
-    <row r="35" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AD34" s="3"/>
+    </row>
+    <row r="35" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B35" s="16"/>
       <c r="C35" s="1"/>
       <c r="D35" s="3"/>
@@ -4466,6 +4714,7 @@
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
       <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
       <c r="Q35" s="16"/>
       <c r="R35" s="22"/>
       <c r="S35" s="3"/>
@@ -4479,8 +4728,9 @@
       <c r="AA35" s="3"/>
       <c r="AB35" s="3"/>
       <c r="AC35" s="3"/>
-    </row>
-    <row r="36" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AD35" s="3"/>
+    </row>
+    <row r="36" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B36" s="16"/>
       <c r="C36" s="1"/>
       <c r="D36" s="3"/>
@@ -4494,6 +4744,7 @@
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
       <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
       <c r="Q36" s="16"/>
       <c r="R36" s="22"/>
       <c r="S36" s="3"/>
@@ -4507,8 +4758,9 @@
       <c r="AA36" s="3"/>
       <c r="AB36" s="3"/>
       <c r="AC36" s="3"/>
-    </row>
-    <row r="37" spans="2:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD36" s="3"/>
+    </row>
+    <row r="37" spans="2:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C37" s="21" t="s">
         <v>43</v>
       </c>
@@ -4523,6 +4775,7 @@
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
       <c r="R37" s="23" t="s">
         <v>43</v>
       </c>
@@ -4537,8 +4790,9 @@
       <c r="AA37" s="22"/>
       <c r="AB37" s="22"/>
       <c r="AC37" s="22"/>
-    </row>
-    <row r="38" spans="2:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD37" s="22"/>
+    </row>
+    <row r="38" spans="2:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C38" s="20" t="s">
         <v>55</v>
       </c>
@@ -4553,6 +4807,7 @@
       <c r="L38" s="20"/>
       <c r="M38" s="20"/>
       <c r="N38" s="20"/>
+      <c r="O38" s="20"/>
       <c r="R38" s="24" t="s">
         <v>55</v>
       </c>
@@ -4567,8 +4822,9 @@
       <c r="AA38" s="24"/>
       <c r="AB38" s="24"/>
       <c r="AC38" s="24"/>
-    </row>
-    <row r="39" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AD38" s="24"/>
+    </row>
+    <row r="39" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
         <v>10</v>
       </c>
@@ -4583,27 +4839,30 @@
         <v>3</v>
       </c>
       <c r="G39" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H39" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H39" s="1" t="s">
+      <c r="I39" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="I39" s="1" t="s">
+      <c r="J39" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J39" s="1" t="s">
+      <c r="K39" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K39" s="1" t="s">
+      <c r="L39" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="L39" s="1" t="s">
+      <c r="M39" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="M39" s="1" t="s">
+      <c r="N39" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="N39" s="1" t="s">
+      <c r="O39" s="1" t="s">
         <v>110</v>
       </c>
       <c r="Q39" s="22" t="s">
@@ -4620,29 +4879,34 @@
         <v>3</v>
       </c>
       <c r="V39" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="W39" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="W39" s="22" t="s">
+      <c r="X39" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="X39" s="22" t="s">
+      <c r="Y39" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="Y39" s="22" t="s">
+      <c r="Z39" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="Z39" s="22" t="s">
+      <c r="AA39" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="AA39" s="22" t="s">
-        <v>1</v>
-      </c>
       <c r="AB39" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="AC39" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD39" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="AC39" s="22"/>
-    </row>
-    <row r="40" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B40" s="16"/>
       <c r="C40" s="1"/>
       <c r="D40" s="3"/>
@@ -4656,6 +4920,7 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
       <c r="Q40" s="16"/>
       <c r="R40" s="22"/>
       <c r="S40" s="3"/>
@@ -4669,8 +4934,9 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B41" s="16"/>
       <c r="C41" s="1"/>
       <c r="D41" s="3"/>
@@ -4684,6 +4950,7 @@
       <c r="L41" s="3"/>
       <c r="M41" s="3"/>
       <c r="N41" s="3"/>
+      <c r="O41" s="3"/>
       <c r="Q41" s="16"/>
       <c r="R41" s="22"/>
       <c r="S41" s="3"/>
@@ -4697,8 +4964,9 @@
       <c r="AA41" s="3"/>
       <c r="AB41" s="3"/>
       <c r="AC41" s="3"/>
-    </row>
-    <row r="42" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AD41" s="3"/>
+    </row>
+    <row r="42" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B42" s="16"/>
       <c r="C42" s="1"/>
       <c r="D42" s="3"/>
@@ -4712,6 +4980,7 @@
       <c r="L42" s="3"/>
       <c r="M42" s="3"/>
       <c r="N42" s="3"/>
+      <c r="O42" s="3"/>
       <c r="Q42" s="16"/>
       <c r="R42" s="22"/>
       <c r="S42" s="3"/>
@@ -4725,8 +4994,9 @@
       <c r="AA42" s="3"/>
       <c r="AB42" s="3"/>
       <c r="AC42" s="3"/>
-    </row>
-    <row r="43" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AD42" s="3"/>
+    </row>
+    <row r="43" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B43" s="16"/>
       <c r="C43" s="1"/>
       <c r="D43" s="3"/>
@@ -4740,6 +5010,7 @@
       <c r="L43" s="3"/>
       <c r="M43" s="3"/>
       <c r="N43" s="3"/>
+      <c r="O43" s="3"/>
       <c r="Q43" s="16"/>
       <c r="R43" s="22"/>
       <c r="S43" s="3"/>
@@ -4753,8 +5024,9 @@
       <c r="AA43" s="3"/>
       <c r="AB43" s="3"/>
       <c r="AC43" s="3"/>
-    </row>
-    <row r="44" spans="2:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD43" s="3"/>
+    </row>
+    <row r="44" spans="2:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C44" s="21" t="s">
         <v>43</v>
       </c>
@@ -4769,6 +5041,7 @@
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
       <c r="R44" s="23" t="s">
         <v>43</v>
       </c>
@@ -4783,8 +5056,9 @@
       <c r="AA44" s="22"/>
       <c r="AB44" s="22"/>
       <c r="AC44" s="22"/>
-    </row>
-    <row r="45" spans="2:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD44" s="22"/>
+    </row>
+    <row r="45" spans="2:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C45" s="20" t="s">
         <v>55</v>
       </c>
@@ -4799,6 +5073,7 @@
       <c r="L45" s="20"/>
       <c r="M45" s="20"/>
       <c r="N45" s="20"/>
+      <c r="O45" s="20"/>
       <c r="R45" s="24" t="s">
         <v>55</v>
       </c>
@@ -4813,8 +5088,9 @@
       <c r="AA45" s="24"/>
       <c r="AB45" s="24"/>
       <c r="AC45" s="24"/>
-    </row>
-    <row r="46" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AD45" s="24"/>
+    </row>
+    <row r="46" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B46" s="1" t="s">
         <v>11</v>
       </c>
@@ -4829,27 +5105,30 @@
         <v>3</v>
       </c>
       <c r="G46" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H46" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H46" s="1" t="s">
+      <c r="I46" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="I46" s="1" t="s">
+      <c r="J46" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J46" s="1" t="s">
+      <c r="K46" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K46" s="1" t="s">
+      <c r="L46" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="L46" s="1" t="s">
+      <c r="M46" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="M46" s="1" t="s">
+      <c r="N46" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="N46" s="1" t="s">
+      <c r="O46" s="1" t="s">
         <v>110</v>
       </c>
       <c r="Q46" s="22" t="s">
@@ -4866,31 +5145,34 @@
         <v>3</v>
       </c>
       <c r="V46" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="W46" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="W46" s="22" t="s">
+      <c r="X46" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="X46" s="22" t="s">
+      <c r="Y46" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="Y46" s="22" t="s">
+      <c r="Z46" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="Z46" s="22" t="s">
+      <c r="AA46" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="AA46" s="22" t="s">
+      <c r="AB46" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="AB46" s="22" t="s">
+      <c r="AC46" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="AC46" s="22" t="s">
+      <c r="AD46" s="22" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="47" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B47" s="16"/>
       <c r="C47" s="1"/>
       <c r="D47" s="3"/>
@@ -4904,6 +5186,7 @@
       <c r="L47" s="3"/>
       <c r="M47" s="3"/>
       <c r="N47" s="3"/>
+      <c r="O47" s="3"/>
       <c r="Q47" s="16"/>
       <c r="R47" s="22"/>
       <c r="S47" s="3"/>
@@ -4917,8 +5200,9 @@
       <c r="AA47" s="3"/>
       <c r="AB47" s="3"/>
       <c r="AC47" s="3"/>
-    </row>
-    <row r="48" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AD47" s="3"/>
+    </row>
+    <row r="48" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B48" s="16"/>
       <c r="C48" s="1"/>
       <c r="D48" s="3"/>
@@ -4932,6 +5216,7 @@
       <c r="L48" s="3"/>
       <c r="M48" s="3"/>
       <c r="N48" s="3"/>
+      <c r="O48" s="3"/>
       <c r="Q48" s="16"/>
       <c r="R48" s="22"/>
       <c r="S48" s="3"/>
@@ -4945,8 +5230,9 @@
       <c r="AA48" s="3"/>
       <c r="AB48" s="3"/>
       <c r="AC48" s="3"/>
-    </row>
-    <row r="49" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AD48" s="3"/>
+    </row>
+    <row r="49" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B49" s="16"/>
       <c r="C49" s="1"/>
       <c r="D49" s="3"/>
@@ -4960,6 +5246,7 @@
       <c r="L49" s="3"/>
       <c r="M49" s="3"/>
       <c r="N49" s="3"/>
+      <c r="O49" s="3"/>
       <c r="Q49" s="16"/>
       <c r="R49" s="22"/>
       <c r="S49" s="3"/>
@@ -4973,8 +5260,9 @@
       <c r="AA49" s="3"/>
       <c r="AB49" s="3"/>
       <c r="AC49" s="3"/>
-    </row>
-    <row r="50" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AD49" s="3"/>
+    </row>
+    <row r="50" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B50" s="16"/>
       <c r="C50" s="1"/>
       <c r="D50" s="3"/>
@@ -4988,6 +5276,7 @@
       <c r="L50" s="3"/>
       <c r="M50" s="3"/>
       <c r="N50" s="3"/>
+      <c r="O50" s="3"/>
       <c r="Q50" s="16"/>
       <c r="R50" s="22"/>
       <c r="S50" s="3"/>
@@ -5001,8 +5290,9 @@
       <c r="AA50" s="3"/>
       <c r="AB50" s="3"/>
       <c r="AC50" s="3"/>
-    </row>
-    <row r="51" spans="2:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD50" s="3"/>
+    </row>
+    <row r="51" spans="2:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C51" s="21" t="s">
         <v>43</v>
       </c>
@@ -5017,6 +5307,7 @@
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
       <c r="R51" s="23" t="s">
         <v>43</v>
       </c>
@@ -5031,8 +5322,9 @@
       <c r="AA51" s="22"/>
       <c r="AB51" s="22"/>
       <c r="AC51" s="22"/>
-    </row>
-    <row r="52" spans="2:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD51" s="22"/>
+    </row>
+    <row r="52" spans="2:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C52" s="20" t="s">
         <v>55</v>
       </c>
@@ -5047,6 +5339,7 @@
       <c r="L52" s="20"/>
       <c r="M52" s="20"/>
       <c r="N52" s="20"/>
+      <c r="O52" s="20"/>
       <c r="R52" s="24" t="s">
         <v>55</v>
       </c>
@@ -5061,8 +5354,9 @@
       <c r="AA52" s="24"/>
       <c r="AB52" s="24"/>
       <c r="AC52" s="24"/>
-    </row>
-    <row r="53" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AD52" s="24"/>
+    </row>
+    <row r="53" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B53" s="1" t="s">
         <v>12</v>
       </c>
@@ -5077,27 +5371,30 @@
         <v>3</v>
       </c>
       <c r="G53" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H53" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H53" s="1" t="s">
+      <c r="I53" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="I53" s="1" t="s">
+      <c r="J53" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J53" s="1" t="s">
+      <c r="K53" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K53" s="1" t="s">
+      <c r="L53" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="L53" s="1" t="s">
+      <c r="M53" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="M53" s="1" t="s">
+      <c r="N53" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="N53" s="1" t="s">
+      <c r="O53" s="1" t="s">
         <v>110</v>
       </c>
       <c r="Q53" s="22" t="s">
@@ -5114,31 +5411,34 @@
         <v>3</v>
       </c>
       <c r="V53" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="W53" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="W53" s="22" t="s">
+      <c r="X53" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="X53" s="22" t="s">
+      <c r="Y53" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="Y53" s="22" t="s">
+      <c r="Z53" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="Z53" s="22" t="s">
+      <c r="AA53" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="AA53" s="22" t="s">
+      <c r="AB53" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="AB53" s="22" t="s">
+      <c r="AC53" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="AC53" s="22" t="s">
+      <c r="AD53" s="22" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="54" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B54" s="16"/>
       <c r="C54" s="1"/>
       <c r="D54" s="3"/>
@@ -5152,6 +5452,7 @@
       <c r="L54" s="3"/>
       <c r="M54" s="3"/>
       <c r="N54" s="3"/>
+      <c r="O54" s="3"/>
       <c r="Q54" s="16"/>
       <c r="R54" s="22"/>
       <c r="S54" s="3"/>
@@ -5165,8 +5466,9 @@
       <c r="AA54" s="3"/>
       <c r="AB54" s="3"/>
       <c r="AC54" s="3"/>
-    </row>
-    <row r="55" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AD54" s="3"/>
+    </row>
+    <row r="55" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B55" s="16"/>
       <c r="C55" s="1"/>
       <c r="D55" s="3"/>
@@ -5180,6 +5482,7 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
       <c r="Q55" s="16"/>
       <c r="R55" s="22"/>
       <c r="S55" s="3"/>
@@ -5193,8 +5496,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B56" s="16"/>
       <c r="C56" s="1"/>
       <c r="D56" s="3"/>
@@ -5208,6 +5512,7 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
       <c r="Q56" s="16"/>
       <c r="R56" s="22"/>
       <c r="S56" s="3"/>
@@ -5221,8 +5526,9 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B57" s="16"/>
       <c r="C57" s="1"/>
       <c r="D57" s="3"/>
@@ -5236,6 +5542,7 @@
       <c r="L57" s="3"/>
       <c r="M57" s="3"/>
       <c r="N57" s="3"/>
+      <c r="O57" s="3"/>
       <c r="Q57" s="16"/>
       <c r="R57" s="22"/>
       <c r="S57" s="3"/>
@@ -5249,8 +5556,9 @@
       <c r="AA57" s="3"/>
       <c r="AB57" s="3"/>
       <c r="AC57" s="3"/>
-    </row>
-    <row r="58" spans="2:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD57" s="3"/>
+    </row>
+    <row r="58" spans="2:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C58" s="21" t="s">
         <v>43</v>
       </c>
@@ -5265,6 +5573,7 @@
       <c r="L58" s="1"/>
       <c r="M58" s="1"/>
       <c r="N58" s="1"/>
+      <c r="O58" s="1"/>
       <c r="R58" s="23" t="s">
         <v>43</v>
       </c>
@@ -5279,8 +5588,9 @@
       <c r="AA58" s="22"/>
       <c r="AB58" s="22"/>
       <c r="AC58" s="22"/>
-    </row>
-    <row r="59" spans="2:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD58" s="22"/>
+    </row>
+    <row r="59" spans="2:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C59" s="20" t="s">
         <v>55</v>
       </c>
@@ -5295,6 +5605,7 @@
       <c r="L59" s="20"/>
       <c r="M59" s="20"/>
       <c r="N59" s="20"/>
+      <c r="O59" s="20"/>
       <c r="R59" s="24" t="s">
         <v>55</v>
       </c>
@@ -5309,8 +5620,9 @@
       <c r="AA59" s="24"/>
       <c r="AB59" s="24"/>
       <c r="AC59" s="24"/>
-    </row>
-    <row r="60" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AD59" s="24"/>
+    </row>
+    <row r="60" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B60" s="1" t="s">
         <v>13</v>
       </c>
@@ -5325,27 +5637,30 @@
         <v>3</v>
       </c>
       <c r="G60" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H60" s="1" t="s">
+      <c r="I60" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="I60" s="1" t="s">
+      <c r="J60" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J60" s="1" t="s">
+      <c r="K60" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K60" s="1" t="s">
+      <c r="L60" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="L60" s="1" t="s">
+      <c r="M60" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="M60" s="1" t="s">
+      <c r="N60" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="N60" s="1" t="s">
+      <c r="O60" s="1" t="s">
         <v>110</v>
       </c>
       <c r="Q60" s="22" t="s">
@@ -5362,31 +5677,34 @@
         <v>3</v>
       </c>
       <c r="V60" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="W60" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="W60" s="22" t="s">
+      <c r="X60" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="X60" s="22" t="s">
+      <c r="Y60" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="Y60" s="22" t="s">
+      <c r="Z60" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="Z60" s="22" t="s">
+      <c r="AA60" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="AA60" s="22" t="s">
+      <c r="AB60" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="AB60" s="22" t="s">
+      <c r="AC60" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="AC60" s="22" t="s">
+      <c r="AD60" s="22" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="61" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B61" s="16"/>
       <c r="C61" s="1"/>
       <c r="D61" s="3"/>
@@ -5400,6 +5718,7 @@
       <c r="L61" s="3"/>
       <c r="M61" s="3"/>
       <c r="N61" s="3"/>
+      <c r="O61" s="3"/>
       <c r="Q61" s="16"/>
       <c r="R61" s="22"/>
       <c r="S61" s="3"/>
@@ -5413,8 +5732,9 @@
       <c r="AA61" s="3"/>
       <c r="AB61" s="3"/>
       <c r="AC61" s="3"/>
-    </row>
-    <row r="62" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AD61" s="3"/>
+    </row>
+    <row r="62" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B62" s="16"/>
       <c r="C62" s="1"/>
       <c r="D62" s="3"/>
@@ -5428,6 +5748,7 @@
       <c r="L62" s="3"/>
       <c r="M62" s="3"/>
       <c r="N62" s="3"/>
+      <c r="O62" s="3"/>
       <c r="Q62" s="16"/>
       <c r="R62" s="22"/>
       <c r="S62" s="3"/>
@@ -5441,8 +5762,9 @@
       <c r="AA62" s="3"/>
       <c r="AB62" s="3"/>
       <c r="AC62" s="3"/>
-    </row>
-    <row r="63" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AD62" s="3"/>
+    </row>
+    <row r="63" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B63" s="16"/>
       <c r="C63" s="1"/>
       <c r="D63" s="3"/>
@@ -5456,6 +5778,7 @@
       <c r="L63" s="3"/>
       <c r="M63" s="3"/>
       <c r="N63" s="3"/>
+      <c r="O63" s="3"/>
       <c r="Q63" s="16"/>
       <c r="R63" s="22"/>
       <c r="S63" s="3"/>
@@ -5469,8 +5792,9 @@
       <c r="AA63" s="3"/>
       <c r="AB63" s="3"/>
       <c r="AC63" s="3"/>
-    </row>
-    <row r="64" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AD63" s="3"/>
+    </row>
+    <row r="64" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B64" s="16"/>
       <c r="C64" s="1"/>
       <c r="D64" s="3"/>
@@ -5484,6 +5808,7 @@
       <c r="L64" s="3"/>
       <c r="M64" s="3"/>
       <c r="N64" s="3"/>
+      <c r="O64" s="3"/>
       <c r="Q64" s="16"/>
       <c r="R64" s="22"/>
       <c r="S64" s="3"/>
@@ -5497,8 +5822,9 @@
       <c r="AA64" s="3"/>
       <c r="AB64" s="3"/>
       <c r="AC64" s="3"/>
-    </row>
-    <row r="65" spans="2:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD64" s="3"/>
+    </row>
+    <row r="65" spans="2:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C65" s="21" t="s">
         <v>43</v>
       </c>
@@ -5513,6 +5839,7 @@
       <c r="L65" s="1"/>
       <c r="M65" s="1"/>
       <c r="N65" s="1"/>
+      <c r="O65" s="1"/>
       <c r="R65" s="23" t="s">
         <v>43</v>
       </c>
@@ -5527,8 +5854,9 @@
       <c r="AA65" s="22"/>
       <c r="AB65" s="22"/>
       <c r="AC65" s="22"/>
-    </row>
-    <row r="66" spans="2:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD65" s="22"/>
+    </row>
+    <row r="66" spans="2:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C66" s="20" t="s">
         <v>55</v>
       </c>
@@ -5543,6 +5871,7 @@
       <c r="L66" s="20"/>
       <c r="M66" s="20"/>
       <c r="N66" s="20"/>
+      <c r="O66" s="20"/>
       <c r="R66" s="24" t="s">
         <v>55</v>
       </c>
@@ -5557,8 +5886,9 @@
       <c r="AA66" s="24"/>
       <c r="AB66" s="24"/>
       <c r="AC66" s="24"/>
-    </row>
-    <row r="67" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AD66" s="24"/>
+    </row>
+    <row r="67" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B67" s="1" t="s">
         <v>14</v>
       </c>
@@ -5573,27 +5903,30 @@
         <v>3</v>
       </c>
       <c r="G67" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H67" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H67" s="1" t="s">
+      <c r="I67" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="I67" s="1" t="s">
+      <c r="J67" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J67" s="1" t="s">
+      <c r="K67" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K67" s="1" t="s">
+      <c r="L67" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="L67" s="1" t="s">
+      <c r="M67" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="M67" s="1" t="s">
+      <c r="N67" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="N67" s="1" t="s">
+      <c r="O67" s="1" t="s">
         <v>110</v>
       </c>
       <c r="Q67" s="22" t="s">
@@ -5610,31 +5943,34 @@
         <v>3</v>
       </c>
       <c r="V67" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="W67" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="W67" s="22" t="s">
+      <c r="X67" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="X67" s="22" t="s">
+      <c r="Y67" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="Y67" s="22" t="s">
+      <c r="Z67" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="Z67" s="22" t="s">
+      <c r="AA67" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="AA67" s="22" t="s">
+      <c r="AB67" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="AB67" s="22" t="s">
+      <c r="AC67" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="AC67" s="22" t="s">
+      <c r="AD67" s="22" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="68" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B68" s="16"/>
       <c r="C68" s="1"/>
       <c r="D68" s="3"/>
@@ -5648,6 +5984,7 @@
       <c r="L68" s="3"/>
       <c r="M68" s="3"/>
       <c r="N68" s="3"/>
+      <c r="O68" s="3"/>
       <c r="Q68" s="16"/>
       <c r="R68" s="22"/>
       <c r="S68" s="3"/>
@@ -5661,8 +5998,9 @@
       <c r="AA68" s="3"/>
       <c r="AB68" s="3"/>
       <c r="AC68" s="3"/>
-    </row>
-    <row r="69" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AD68" s="3"/>
+    </row>
+    <row r="69" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B69" s="16"/>
       <c r="C69" s="1"/>
       <c r="D69" s="3"/>
@@ -5676,6 +6014,7 @@
       <c r="L69" s="3"/>
       <c r="M69" s="3"/>
       <c r="N69" s="3"/>
+      <c r="O69" s="3"/>
       <c r="Q69" s="16"/>
       <c r="R69" s="22"/>
       <c r="S69" s="3"/>
@@ -5689,8 +6028,9 @@
       <c r="AA69" s="3"/>
       <c r="AB69" s="3"/>
       <c r="AC69" s="3"/>
-    </row>
-    <row r="70" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AD69" s="3"/>
+    </row>
+    <row r="70" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B70" s="16"/>
       <c r="C70" s="1"/>
       <c r="D70" s="3"/>
@@ -5704,6 +6044,7 @@
       <c r="L70" s="3"/>
       <c r="M70" s="3"/>
       <c r="N70" s="3"/>
+      <c r="O70" s="3"/>
       <c r="Q70" s="16"/>
       <c r="R70" s="22"/>
       <c r="S70" s="3"/>
@@ -5717,8 +6058,9 @@
       <c r="AA70" s="3"/>
       <c r="AB70" s="3"/>
       <c r="AC70" s="3"/>
-    </row>
-    <row r="71" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AD70" s="3"/>
+    </row>
+    <row r="71" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B71" s="16"/>
       <c r="C71" s="1"/>
       <c r="D71" s="3"/>
@@ -5732,6 +6074,7 @@
       <c r="L71" s="3"/>
       <c r="M71" s="3"/>
       <c r="N71" s="3"/>
+      <c r="O71" s="3"/>
       <c r="Q71" s="16"/>
       <c r="R71" s="22"/>
       <c r="S71" s="3"/>
@@ -5745,8 +6088,9 @@
       <c r="AA71" s="3"/>
       <c r="AB71" s="3"/>
       <c r="AC71" s="3"/>
-    </row>
-    <row r="72" spans="2:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD71" s="3"/>
+    </row>
+    <row r="72" spans="2:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C72" s="21" t="s">
         <v>43</v>
       </c>
@@ -5761,6 +6105,7 @@
       <c r="L72" s="1"/>
       <c r="M72" s="1"/>
       <c r="N72" s="1"/>
+      <c r="O72" s="1"/>
       <c r="R72" s="23" t="s">
         <v>43</v>
       </c>
@@ -5775,8 +6120,9 @@
       <c r="AA72" s="22"/>
       <c r="AB72" s="22"/>
       <c r="AC72" s="22"/>
-    </row>
-    <row r="73" spans="2:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD72" s="22"/>
+    </row>
+    <row r="73" spans="2:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C73" s="20" t="s">
         <v>55</v>
       </c>
@@ -5791,6 +6137,7 @@
       <c r="L73" s="20"/>
       <c r="M73" s="20"/>
       <c r="N73" s="20"/>
+      <c r="O73" s="20"/>
       <c r="R73" s="24" t="s">
         <v>55</v>
       </c>
@@ -5805,8 +6152,9 @@
       <c r="AA73" s="24"/>
       <c r="AB73" s="24"/>
       <c r="AC73" s="24"/>
-    </row>
-    <row r="74" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AD73" s="24"/>
+    </row>
+    <row r="74" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B74" s="1" t="s">
         <v>15</v>
       </c>
@@ -5821,27 +6169,30 @@
         <v>3</v>
       </c>
       <c r="G74" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H74" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H74" s="1" t="s">
+      <c r="I74" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="I74" s="1" t="s">
+      <c r="J74" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J74" s="1" t="s">
+      <c r="K74" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K74" s="1" t="s">
+      <c r="L74" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="L74" s="1" t="s">
+      <c r="M74" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="M74" s="1" t="s">
+      <c r="N74" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="N74" s="1" t="s">
+      <c r="O74" s="1" t="s">
         <v>110</v>
       </c>
       <c r="Q74" s="22" t="s">
@@ -5858,31 +6209,34 @@
         <v>3</v>
       </c>
       <c r="V74" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="W74" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="W74" s="22" t="s">
+      <c r="X74" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="X74" s="22" t="s">
+      <c r="Y74" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="Y74" s="22" t="s">
+      <c r="Z74" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="Z74" s="22" t="s">
+      <c r="AA74" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="AA74" s="22" t="s">
+      <c r="AB74" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="AB74" s="22" t="s">
+      <c r="AC74" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="AC74" s="22" t="s">
+      <c r="AD74" s="22" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="75" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B75" s="16"/>
       <c r="C75" s="1"/>
       <c r="D75" s="3"/>
@@ -5896,6 +6250,7 @@
       <c r="L75" s="3"/>
       <c r="M75" s="3"/>
       <c r="N75" s="3"/>
+      <c r="O75" s="3"/>
       <c r="Q75" s="16"/>
       <c r="R75" s="22"/>
       <c r="S75" s="3"/>
@@ -5909,8 +6264,9 @@
       <c r="AA75" s="3"/>
       <c r="AB75" s="3"/>
       <c r="AC75" s="3"/>
-    </row>
-    <row r="76" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AD75" s="3"/>
+    </row>
+    <row r="76" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B76" s="16"/>
       <c r="C76" s="1"/>
       <c r="D76" s="3"/>
@@ -5924,6 +6280,7 @@
       <c r="L76" s="3"/>
       <c r="M76" s="3"/>
       <c r="N76" s="3"/>
+      <c r="O76" s="3"/>
       <c r="Q76" s="16"/>
       <c r="R76" s="22"/>
       <c r="S76" s="3"/>
@@ -5937,8 +6294,9 @@
       <c r="AA76" s="3"/>
       <c r="AB76" s="3"/>
       <c r="AC76" s="3"/>
-    </row>
-    <row r="77" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AD76" s="3"/>
+    </row>
+    <row r="77" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B77" s="16"/>
       <c r="C77" s="1"/>
       <c r="D77" s="3"/>
@@ -5952,6 +6310,7 @@
       <c r="L77" s="3"/>
       <c r="M77" s="3"/>
       <c r="N77" s="3"/>
+      <c r="O77" s="3"/>
       <c r="Q77" s="16"/>
       <c r="R77" s="22"/>
       <c r="S77" s="3"/>
@@ -5965,8 +6324,9 @@
       <c r="AA77" s="3"/>
       <c r="AB77" s="3"/>
       <c r="AC77" s="3"/>
-    </row>
-    <row r="78" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AD77" s="3"/>
+    </row>
+    <row r="78" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B78" s="16"/>
       <c r="C78" s="1"/>
       <c r="D78" s="3"/>
@@ -5980,6 +6340,7 @@
       <c r="L78" s="3"/>
       <c r="M78" s="3"/>
       <c r="N78" s="3"/>
+      <c r="O78" s="3"/>
       <c r="Q78" s="16"/>
       <c r="R78" s="22"/>
       <c r="S78" s="3"/>
@@ -5993,8 +6354,9 @@
       <c r="AA78" s="3"/>
       <c r="AB78" s="3"/>
       <c r="AC78" s="3"/>
-    </row>
-    <row r="79" spans="2:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD78" s="3"/>
+    </row>
+    <row r="79" spans="2:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C79" s="21" t="s">
         <v>43</v>
       </c>
@@ -6009,6 +6371,7 @@
       <c r="L79" s="1"/>
       <c r="M79" s="1"/>
       <c r="N79" s="1"/>
+      <c r="O79" s="1"/>
       <c r="R79" s="23" t="s">
         <v>43</v>
       </c>
@@ -6023,8 +6386,9 @@
       <c r="AA79" s="22"/>
       <c r="AB79" s="22"/>
       <c r="AC79" s="22"/>
-    </row>
-    <row r="80" spans="2:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD79" s="22"/>
+    </row>
+    <row r="80" spans="2:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C80" s="20" t="s">
         <v>55</v>
       </c>
@@ -6039,6 +6403,7 @@
       <c r="L80" s="20"/>
       <c r="M80" s="20"/>
       <c r="N80" s="20"/>
+      <c r="O80" s="20"/>
       <c r="R80" s="24" t="s">
         <v>55</v>
       </c>
@@ -6053,8 +6418,9 @@
       <c r="AA80" s="24"/>
       <c r="AB80" s="24"/>
       <c r="AC80" s="24"/>
-    </row>
-    <row r="81" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AD80" s="24"/>
+    </row>
+    <row r="81" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B81" s="1" t="s">
         <v>16</v>
       </c>
@@ -6069,27 +6435,30 @@
         <v>3</v>
       </c>
       <c r="G81" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H81" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H81" s="1" t="s">
+      <c r="I81" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="I81" s="1" t="s">
+      <c r="J81" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J81" s="1" t="s">
+      <c r="K81" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K81" s="1" t="s">
+      <c r="L81" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="L81" s="1" t="s">
+      <c r="M81" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="M81" s="1" t="s">
+      <c r="N81" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="N81" s="1" t="s">
+      <c r="O81" s="1" t="s">
         <v>110</v>
       </c>
       <c r="Q81" s="22" t="s">
@@ -6106,31 +6475,34 @@
         <v>3</v>
       </c>
       <c r="V81" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="W81" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="W81" s="22" t="s">
+      <c r="X81" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="X81" s="22" t="s">
+      <c r="Y81" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="Y81" s="22" t="s">
+      <c r="Z81" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="Z81" s="22" t="s">
+      <c r="AA81" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="AA81" s="22" t="s">
+      <c r="AB81" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="AB81" s="22" t="s">
+      <c r="AC81" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="AC81" s="22" t="s">
+      <c r="AD81" s="22" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="82" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B82" s="16"/>
       <c r="C82" s="1"/>
       <c r="D82" s="3"/>
@@ -6144,6 +6516,7 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
       <c r="Q82" s="16"/>
       <c r="R82" s="22"/>
       <c r="S82" s="3"/>
@@ -6157,8 +6530,9 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B83" s="16"/>
       <c r="C83" s="1"/>
       <c r="D83" s="3"/>
@@ -6172,6 +6546,7 @@
       <c r="L83" s="3"/>
       <c r="M83" s="3"/>
       <c r="N83" s="3"/>
+      <c r="O83" s="3"/>
       <c r="Q83" s="16"/>
       <c r="R83" s="22"/>
       <c r="S83" s="3"/>
@@ -6185,8 +6560,9 @@
       <c r="AA83" s="3"/>
       <c r="AB83" s="3"/>
       <c r="AC83" s="3"/>
-    </row>
-    <row r="84" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AD83" s="3"/>
+    </row>
+    <row r="84" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B84" s="16"/>
       <c r="C84" s="1"/>
       <c r="D84" s="3"/>
@@ -6200,6 +6576,7 @@
       <c r="L84" s="3"/>
       <c r="M84" s="3"/>
       <c r="N84" s="3"/>
+      <c r="O84" s="3"/>
       <c r="Q84" s="16"/>
       <c r="R84" s="22"/>
       <c r="S84" s="3"/>
@@ -6213,8 +6590,9 @@
       <c r="AA84" s="3"/>
       <c r="AB84" s="3"/>
       <c r="AC84" s="3"/>
-    </row>
-    <row r="85" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AD84" s="3"/>
+    </row>
+    <row r="85" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B85" s="16"/>
       <c r="C85" s="1"/>
       <c r="D85" s="3"/>
@@ -6228,6 +6606,7 @@
       <c r="L85" s="3"/>
       <c r="M85" s="3"/>
       <c r="N85" s="3"/>
+      <c r="O85" s="3"/>
       <c r="Q85" s="16"/>
       <c r="R85" s="22"/>
       <c r="S85" s="3"/>
@@ -6241,8 +6620,9 @@
       <c r="AA85" s="3"/>
       <c r="AB85" s="3"/>
       <c r="AC85" s="3"/>
-    </row>
-    <row r="86" spans="2:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD85" s="3"/>
+    </row>
+    <row r="86" spans="2:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C86" s="21" t="s">
         <v>43</v>
       </c>
@@ -6257,6 +6637,7 @@
       <c r="L86" s="1"/>
       <c r="M86" s="1"/>
       <c r="N86" s="1"/>
+      <c r="O86" s="1"/>
       <c r="R86" s="23" t="s">
         <v>43</v>
       </c>
@@ -6271,8 +6652,9 @@
       <c r="AA86" s="22"/>
       <c r="AB86" s="22"/>
       <c r="AC86" s="22"/>
-    </row>
-    <row r="87" spans="2:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD86" s="22"/>
+    </row>
+    <row r="87" spans="2:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C87" s="20" t="s">
         <v>55</v>
       </c>
@@ -6287,6 +6669,7 @@
       <c r="L87" s="20"/>
       <c r="M87" s="20"/>
       <c r="N87" s="20"/>
+      <c r="O87" s="20"/>
       <c r="R87" s="24" t="s">
         <v>55</v>
       </c>
@@ -6301,8 +6684,9 @@
       <c r="AA87" s="24"/>
       <c r="AB87" s="24"/>
       <c r="AC87" s="24"/>
-    </row>
-    <row r="88" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AD87" s="24"/>
+    </row>
+    <row r="88" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B88" s="1" t="s">
         <v>17</v>
       </c>
@@ -6317,27 +6701,30 @@
         <v>3</v>
       </c>
       <c r="G88" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H88" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H88" s="1" t="s">
+      <c r="I88" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="I88" s="1" t="s">
+      <c r="J88" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J88" s="1" t="s">
+      <c r="K88" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K88" s="1" t="s">
+      <c r="L88" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="L88" s="1" t="s">
+      <c r="M88" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="M88" s="1" t="s">
+      <c r="N88" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="N88" s="1" t="s">
+      <c r="O88" s="1" t="s">
         <v>110</v>
       </c>
       <c r="Q88" s="22" t="s">
@@ -6354,31 +6741,34 @@
         <v>3</v>
       </c>
       <c r="V88" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="W88" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="W88" s="22" t="s">
+      <c r="X88" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="X88" s="22" t="s">
+      <c r="Y88" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="Y88" s="22" t="s">
+      <c r="Z88" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="Z88" s="22" t="s">
+      <c r="AA88" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="AA88" s="22" t="s">
+      <c r="AB88" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="AB88" s="22" t="s">
+      <c r="AC88" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="AC88" s="22" t="s">
+      <c r="AD88" s="22" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="89" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B89" s="16"/>
       <c r="C89" s="1"/>
       <c r="D89" s="3"/>
@@ -6392,6 +6782,7 @@
       <c r="L89" s="3"/>
       <c r="M89" s="3"/>
       <c r="N89" s="3"/>
+      <c r="O89" s="3"/>
       <c r="Q89" s="16"/>
       <c r="R89" s="22"/>
       <c r="S89" s="3"/>
@@ -6405,8 +6796,9 @@
       <c r="AA89" s="3"/>
       <c r="AB89" s="3"/>
       <c r="AC89" s="3"/>
-    </row>
-    <row r="90" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AD89" s="3"/>
+    </row>
+    <row r="90" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B90" s="16"/>
       <c r="C90" s="1"/>
       <c r="D90" s="3"/>
@@ -6420,6 +6812,7 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
       <c r="Q90" s="16"/>
       <c r="R90" s="22"/>
       <c r="S90" s="3"/>
@@ -6433,8 +6826,9 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B91" s="16"/>
       <c r="C91" s="1"/>
       <c r="D91" s="3"/>
@@ -6448,6 +6842,7 @@
       <c r="L91" s="3"/>
       <c r="M91" s="3"/>
       <c r="N91" s="3"/>
+      <c r="O91" s="3"/>
       <c r="Q91" s="16"/>
       <c r="R91" s="22"/>
       <c r="S91" s="3"/>
@@ -6461,8 +6856,9 @@
       <c r="AA91" s="3"/>
       <c r="AB91" s="3"/>
       <c r="AC91" s="3"/>
-    </row>
-    <row r="92" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AD91" s="3"/>
+    </row>
+    <row r="92" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B92" s="16"/>
       <c r="C92" s="1"/>
       <c r="D92" s="3"/>
@@ -6476,6 +6872,7 @@
       <c r="L92" s="3"/>
       <c r="M92" s="3"/>
       <c r="N92" s="3"/>
+      <c r="O92" s="3"/>
       <c r="Q92" s="16"/>
       <c r="R92" s="22"/>
       <c r="S92" s="3"/>
@@ -6489,8 +6886,9 @@
       <c r="AA92" s="3"/>
       <c r="AB92" s="3"/>
       <c r="AC92" s="3"/>
-    </row>
-    <row r="93" spans="2:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD92" s="3"/>
+    </row>
+    <row r="93" spans="2:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C93" s="21" t="s">
         <v>43</v>
       </c>
@@ -6505,6 +6903,7 @@
       <c r="L93" s="1"/>
       <c r="M93" s="1"/>
       <c r="N93" s="1"/>
+      <c r="O93" s="1"/>
       <c r="R93" s="23" t="s">
         <v>43</v>
       </c>
@@ -6519,8 +6918,9 @@
       <c r="AA93" s="22"/>
       <c r="AB93" s="22"/>
       <c r="AC93" s="22"/>
-    </row>
-    <row r="94" spans="2:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD93" s="22"/>
+    </row>
+    <row r="94" spans="2:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C94" s="20" t="s">
         <v>55</v>
       </c>
@@ -6535,6 +6935,7 @@
       <c r="L94" s="20"/>
       <c r="M94" s="20"/>
       <c r="N94" s="20"/>
+      <c r="O94" s="20"/>
       <c r="R94" s="24" t="s">
         <v>55</v>
       </c>
@@ -6549,8 +6950,9 @@
       <c r="AA94" s="24"/>
       <c r="AB94" s="24"/>
       <c r="AC94" s="24"/>
-    </row>
-    <row r="95" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AD94" s="24"/>
+    </row>
+    <row r="95" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B95" s="1" t="s">
         <v>18</v>
       </c>
@@ -6565,27 +6967,30 @@
         <v>3</v>
       </c>
       <c r="G95" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H95" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H95" s="1" t="s">
+      <c r="I95" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="I95" s="1" t="s">
+      <c r="J95" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J95" s="1" t="s">
+      <c r="K95" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K95" s="1" t="s">
+      <c r="L95" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="L95" s="1" t="s">
+      <c r="M95" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="M95" s="1" t="s">
+      <c r="N95" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="N95" s="1" t="s">
+      <c r="O95" s="1" t="s">
         <v>110</v>
       </c>
       <c r="Q95" s="22" t="s">
@@ -6602,31 +7007,34 @@
         <v>3</v>
       </c>
       <c r="V95" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="W95" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="W95" s="22" t="s">
+      <c r="X95" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="X95" s="22" t="s">
+      <c r="Y95" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="Y95" s="22" t="s">
+      <c r="Z95" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="Z95" s="22" t="s">
+      <c r="AA95" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="AA95" s="22" t="s">
+      <c r="AB95" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="AB95" s="22" t="s">
+      <c r="AC95" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="AC95" s="22" t="s">
+      <c r="AD95" s="22" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="96" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B96" s="16"/>
       <c r="C96" s="1"/>
       <c r="D96" s="3"/>
@@ -6640,6 +7048,7 @@
       <c r="L96" s="3"/>
       <c r="M96" s="3"/>
       <c r="N96" s="3"/>
+      <c r="O96" s="3"/>
       <c r="Q96" s="16"/>
       <c r="R96" s="22"/>
       <c r="S96" s="3"/>
@@ -6653,8 +7062,9 @@
       <c r="AA96" s="3"/>
       <c r="AB96" s="3"/>
       <c r="AC96" s="3"/>
-    </row>
-    <row r="97" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AD96" s="3"/>
+    </row>
+    <row r="97" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B97" s="16"/>
       <c r="C97" s="1"/>
       <c r="D97" s="3"/>
@@ -6668,6 +7078,7 @@
       <c r="L97" s="3"/>
       <c r="M97" s="3"/>
       <c r="N97" s="3"/>
+      <c r="O97" s="3"/>
       <c r="Q97" s="16"/>
       <c r="R97" s="22"/>
       <c r="S97" s="3"/>
@@ -6681,8 +7092,9 @@
       <c r="AA97" s="3"/>
       <c r="AB97" s="3"/>
       <c r="AC97" s="3"/>
-    </row>
-    <row r="98" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AD97" s="3"/>
+    </row>
+    <row r="98" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B98" s="16"/>
       <c r="C98" s="1"/>
       <c r="D98" s="3"/>
@@ -6696,6 +7108,7 @@
       <c r="L98" s="3"/>
       <c r="M98" s="3"/>
       <c r="N98" s="3"/>
+      <c r="O98" s="3"/>
       <c r="Q98" s="16"/>
       <c r="R98" s="22"/>
       <c r="S98" s="3"/>
@@ -6709,8 +7122,9 @@
       <c r="AA98" s="3"/>
       <c r="AB98" s="3"/>
       <c r="AC98" s="3"/>
-    </row>
-    <row r="99" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AD98" s="3"/>
+    </row>
+    <row r="99" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B99" s="16"/>
       <c r="C99" s="1"/>
       <c r="D99" s="3"/>
@@ -6724,6 +7138,7 @@
       <c r="L99" s="3"/>
       <c r="M99" s="3"/>
       <c r="N99" s="3"/>
+      <c r="O99" s="3"/>
       <c r="Q99" s="16"/>
       <c r="R99" s="22"/>
       <c r="S99" s="3"/>
@@ -6737,8 +7152,9 @@
       <c r="AA99" s="3"/>
       <c r="AB99" s="3"/>
       <c r="AC99" s="3"/>
-    </row>
-    <row r="100" spans="2:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD99" s="3"/>
+    </row>
+    <row r="100" spans="2:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C100" s="21" t="s">
         <v>43</v>
       </c>
@@ -6753,6 +7169,7 @@
       <c r="L100" s="1"/>
       <c r="M100" s="1"/>
       <c r="N100" s="1"/>
+      <c r="O100" s="1"/>
       <c r="R100" s="23" t="s">
         <v>43</v>
       </c>
@@ -6767,8 +7184,9 @@
       <c r="AA100" s="22"/>
       <c r="AB100" s="22"/>
       <c r="AC100" s="22"/>
-    </row>
-    <row r="101" spans="2:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD100" s="22"/>
+    </row>
+    <row r="101" spans="2:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C101" s="20" t="s">
         <v>55</v>
       </c>
@@ -6783,6 +7201,7 @@
       <c r="L101" s="20"/>
       <c r="M101" s="20"/>
       <c r="N101" s="20"/>
+      <c r="O101" s="20"/>
       <c r="R101" s="24" t="s">
         <v>55</v>
       </c>
@@ -6797,8 +7216,9 @@
       <c r="AA101" s="24"/>
       <c r="AB101" s="24"/>
       <c r="AC101" s="24"/>
-    </row>
-    <row r="102" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AD101" s="24"/>
+    </row>
+    <row r="102" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B102" s="1" t="s">
         <v>19</v>
       </c>
@@ -6813,27 +7233,30 @@
         <v>3</v>
       </c>
       <c r="G102" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H102" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H102" s="1" t="s">
+      <c r="I102" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="I102" s="1" t="s">
+      <c r="J102" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J102" s="1" t="s">
+      <c r="K102" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K102" s="1" t="s">
+      <c r="L102" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="L102" s="1" t="s">
+      <c r="M102" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="M102" s="1" t="s">
+      <c r="N102" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="N102" s="1" t="s">
+      <c r="O102" s="1" t="s">
         <v>110</v>
       </c>
       <c r="Q102" s="22" t="s">
@@ -6850,31 +7273,34 @@
         <v>3</v>
       </c>
       <c r="V102" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="W102" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="W102" s="22" t="s">
+      <c r="X102" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="X102" s="22" t="s">
+      <c r="Y102" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="Y102" s="22" t="s">
+      <c r="Z102" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="Z102" s="22" t="s">
+      <c r="AA102" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="AA102" s="22" t="s">
+      <c r="AB102" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="AB102" s="22" t="s">
+      <c r="AC102" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="AC102" s="22" t="s">
+      <c r="AD102" s="22" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="103" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B103" s="16"/>
       <c r="C103" s="1"/>
       <c r="D103" s="3"/>
@@ -6888,6 +7314,7 @@
       <c r="L103" s="3"/>
       <c r="M103" s="3"/>
       <c r="N103" s="3"/>
+      <c r="O103" s="3"/>
       <c r="Q103" s="16"/>
       <c r="R103" s="22"/>
       <c r="S103" s="3"/>
@@ -6901,8 +7328,9 @@
       <c r="AA103" s="3"/>
       <c r="AB103" s="3"/>
       <c r="AC103" s="3"/>
-    </row>
-    <row r="104" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AD103" s="3"/>
+    </row>
+    <row r="104" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B104" s="16"/>
       <c r="C104" s="1"/>
       <c r="D104" s="3"/>
@@ -6916,6 +7344,7 @@
       <c r="L104" s="3"/>
       <c r="M104" s="3"/>
       <c r="N104" s="3"/>
+      <c r="O104" s="3"/>
       <c r="Q104" s="16"/>
       <c r="R104" s="22"/>
       <c r="S104" s="3"/>
@@ -6929,8 +7358,9 @@
       <c r="AA104" s="3"/>
       <c r="AB104" s="3"/>
       <c r="AC104" s="3"/>
-    </row>
-    <row r="105" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AD104" s="3"/>
+    </row>
+    <row r="105" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B105" s="16"/>
       <c r="C105" s="1"/>
       <c r="D105" s="3"/>
@@ -6944,6 +7374,7 @@
       <c r="L105" s="3"/>
       <c r="M105" s="3"/>
       <c r="N105" s="3"/>
+      <c r="O105" s="3"/>
       <c r="Q105" s="16"/>
       <c r="R105" s="22"/>
       <c r="S105" s="3"/>
@@ -6957,8 +7388,9 @@
       <c r="AA105" s="3"/>
       <c r="AB105" s="3"/>
       <c r="AC105" s="3"/>
-    </row>
-    <row r="106" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AD105" s="3"/>
+    </row>
+    <row r="106" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B106" s="16"/>
       <c r="C106" s="1"/>
       <c r="D106" s="3"/>
@@ -6972,6 +7404,7 @@
       <c r="L106" s="3"/>
       <c r="M106" s="3"/>
       <c r="N106" s="3"/>
+      <c r="O106" s="3"/>
       <c r="Q106" s="16"/>
       <c r="R106" s="22"/>
       <c r="S106" s="3"/>
@@ -6985,8 +7418,9 @@
       <c r="AA106" s="3"/>
       <c r="AB106" s="3"/>
       <c r="AC106" s="3"/>
-    </row>
-    <row r="107" spans="2:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD106" s="3"/>
+    </row>
+    <row r="107" spans="2:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C107" s="21" t="s">
         <v>43</v>
       </c>
@@ -7001,6 +7435,7 @@
       <c r="L107" s="1"/>
       <c r="M107" s="1"/>
       <c r="N107" s="1"/>
+      <c r="O107" s="1"/>
       <c r="R107" s="23" t="s">
         <v>43</v>
       </c>
@@ -7015,8 +7450,9 @@
       <c r="AA107" s="22"/>
       <c r="AB107" s="22"/>
       <c r="AC107" s="22"/>
-    </row>
-    <row r="108" spans="2:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD107" s="22"/>
+    </row>
+    <row r="108" spans="2:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C108" s="20" t="s">
         <v>55</v>
       </c>
@@ -7031,6 +7467,7 @@
       <c r="L108" s="20"/>
       <c r="M108" s="20"/>
       <c r="N108" s="20"/>
+      <c r="O108" s="20"/>
       <c r="R108" s="24" t="s">
         <v>55</v>
       </c>
@@ -7045,8 +7482,9 @@
       <c r="AA108" s="24"/>
       <c r="AB108" s="24"/>
       <c r="AC108" s="24"/>
-    </row>
-    <row r="109" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AD108" s="24"/>
+    </row>
+    <row r="109" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B109" s="1" t="s">
         <v>20</v>
       </c>
@@ -7061,27 +7499,30 @@
         <v>3</v>
       </c>
       <c r="G109" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H109" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H109" s="1" t="s">
+      <c r="I109" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="I109" s="1" t="s">
+      <c r="J109" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J109" s="1" t="s">
+      <c r="K109" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K109" s="1" t="s">
+      <c r="L109" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="L109" s="1" t="s">
+      <c r="M109" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="M109" s="1" t="s">
+      <c r="N109" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="N109" s="1" t="s">
+      <c r="O109" s="1" t="s">
         <v>110</v>
       </c>
       <c r="Q109" s="22" t="s">
@@ -7098,31 +7539,34 @@
         <v>3</v>
       </c>
       <c r="V109" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="W109" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="W109" s="22" t="s">
+      <c r="X109" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="X109" s="22" t="s">
+      <c r="Y109" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="Y109" s="22" t="s">
+      <c r="Z109" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="Z109" s="22" t="s">
+      <c r="AA109" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="AA109" s="22" t="s">
+      <c r="AB109" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="AB109" s="22" t="s">
+      <c r="AC109" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="AC109" s="22" t="s">
+      <c r="AD109" s="22" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="110" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B110" s="16"/>
       <c r="C110" s="1"/>
       <c r="D110" s="3"/>
@@ -7136,6 +7580,7 @@
       <c r="L110" s="3"/>
       <c r="M110" s="3"/>
       <c r="N110" s="3"/>
+      <c r="O110" s="3"/>
       <c r="Q110" s="16"/>
       <c r="R110" s="22"/>
       <c r="S110" s="3"/>
@@ -7149,8 +7594,9 @@
       <c r="AA110" s="3"/>
       <c r="AB110" s="3"/>
       <c r="AC110" s="3"/>
-    </row>
-    <row r="111" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AD110" s="3"/>
+    </row>
+    <row r="111" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B111" s="16"/>
       <c r="C111" s="1"/>
       <c r="D111" s="3"/>
@@ -7164,6 +7610,7 @@
       <c r="L111" s="3"/>
       <c r="M111" s="3"/>
       <c r="N111" s="3"/>
+      <c r="O111" s="3"/>
       <c r="Q111" s="16"/>
       <c r="R111" s="22"/>
       <c r="S111" s="3"/>
@@ -7177,8 +7624,9 @@
       <c r="AA111" s="3"/>
       <c r="AB111" s="3"/>
       <c r="AC111" s="3"/>
-    </row>
-    <row r="112" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AD111" s="3"/>
+    </row>
+    <row r="112" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B112" s="16"/>
       <c r="C112" s="1"/>
       <c r="D112" s="3"/>
@@ -7192,6 +7640,7 @@
       <c r="L112" s="3"/>
       <c r="M112" s="3"/>
       <c r="N112" s="3"/>
+      <c r="O112" s="3"/>
       <c r="Q112" s="16"/>
       <c r="R112" s="22"/>
       <c r="S112" s="3"/>
@@ -7205,8 +7654,9 @@
       <c r="AA112" s="3"/>
       <c r="AB112" s="3"/>
       <c r="AC112" s="3"/>
-    </row>
-    <row r="113" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AD112" s="3"/>
+    </row>
+    <row r="113" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B113" s="16"/>
       <c r="C113" s="1"/>
       <c r="D113" s="3"/>
@@ -7220,6 +7670,7 @@
       <c r="L113" s="3"/>
       <c r="M113" s="3"/>
       <c r="N113" s="3"/>
+      <c r="O113" s="3"/>
       <c r="Q113" s="16"/>
       <c r="R113" s="22"/>
       <c r="S113" s="3"/>
@@ -7233,8 +7684,9 @@
       <c r="AA113" s="3"/>
       <c r="AB113" s="3"/>
       <c r="AC113" s="3"/>
-    </row>
-    <row r="114" spans="2:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD113" s="3"/>
+    </row>
+    <row r="114" spans="2:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C114" s="21" t="s">
         <v>43</v>
       </c>
@@ -7249,6 +7701,7 @@
       <c r="L114" s="1"/>
       <c r="M114" s="1"/>
       <c r="N114" s="1"/>
+      <c r="O114" s="1"/>
       <c r="R114" s="23" t="s">
         <v>43</v>
       </c>
@@ -7263,8 +7716,9 @@
       <c r="AA114" s="22"/>
       <c r="AB114" s="22"/>
       <c r="AC114" s="22"/>
-    </row>
-    <row r="115" spans="2:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD114" s="22"/>
+    </row>
+    <row r="115" spans="2:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C115" s="20" t="s">
         <v>55</v>
       </c>
@@ -7279,6 +7733,7 @@
       <c r="L115" s="20"/>
       <c r="M115" s="20"/>
       <c r="N115" s="20"/>
+      <c r="O115" s="20"/>
       <c r="R115" s="24" t="s">
         <v>55</v>
       </c>
@@ -7293,8 +7748,9 @@
       <c r="AA115" s="24"/>
       <c r="AB115" s="24"/>
       <c r="AC115" s="24"/>
-    </row>
-    <row r="116" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AD115" s="24"/>
+    </row>
+    <row r="116" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B116" s="1" t="s">
         <v>21</v>
       </c>
@@ -7309,27 +7765,30 @@
         <v>3</v>
       </c>
       <c r="G116" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H116" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H116" s="1" t="s">
+      <c r="I116" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="I116" s="1" t="s">
+      <c r="J116" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J116" s="1" t="s">
+      <c r="K116" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K116" s="1" t="s">
+      <c r="L116" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="L116" s="1" t="s">
+      <c r="M116" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="M116" s="1" t="s">
+      <c r="N116" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="N116" s="1" t="s">
+      <c r="O116" s="1" t="s">
         <v>110</v>
       </c>
       <c r="Q116" s="22" t="s">
@@ -7346,31 +7805,34 @@
         <v>3</v>
       </c>
       <c r="V116" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="W116" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="W116" s="22" t="s">
+      <c r="X116" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="X116" s="22" t="s">
+      <c r="Y116" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="Y116" s="22" t="s">
+      <c r="Z116" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="Z116" s="22" t="s">
+      <c r="AA116" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="AA116" s="22" t="s">
+      <c r="AB116" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="AB116" s="22" t="s">
+      <c r="AC116" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="AC116" s="22" t="s">
+      <c r="AD116" s="22" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="117" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B117" s="16"/>
       <c r="C117" s="1"/>
       <c r="D117" s="3"/>
@@ -7384,6 +7846,7 @@
       <c r="L117" s="3"/>
       <c r="M117" s="3"/>
       <c r="N117" s="3"/>
+      <c r="O117" s="3"/>
       <c r="Q117" s="16"/>
       <c r="R117" s="22"/>
       <c r="S117" s="3"/>
@@ -7397,8 +7860,9 @@
       <c r="AA117" s="3"/>
       <c r="AB117" s="3"/>
       <c r="AC117" s="3"/>
-    </row>
-    <row r="118" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AD117" s="3"/>
+    </row>
+    <row r="118" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B118" s="16"/>
       <c r="C118" s="1"/>
       <c r="D118" s="3"/>
@@ -7412,6 +7876,7 @@
       <c r="L118" s="3"/>
       <c r="M118" s="3"/>
       <c r="N118" s="3"/>
+      <c r="O118" s="3"/>
       <c r="Q118" s="16"/>
       <c r="R118" s="22"/>
       <c r="S118" s="3"/>
@@ -7425,8 +7890,9 @@
       <c r="AA118" s="3"/>
       <c r="AB118" s="3"/>
       <c r="AC118" s="3"/>
-    </row>
-    <row r="119" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AD118" s="3"/>
+    </row>
+    <row r="119" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B119" s="16"/>
       <c r="C119" s="1"/>
       <c r="D119" s="3"/>
@@ -7440,6 +7906,7 @@
       <c r="L119" s="3"/>
       <c r="M119" s="3"/>
       <c r="N119" s="3"/>
+      <c r="O119" s="3"/>
       <c r="Q119" s="16"/>
       <c r="R119" s="22"/>
       <c r="S119" s="3"/>
@@ -7453,8 +7920,9 @@
       <c r="AA119" s="3"/>
       <c r="AB119" s="3"/>
       <c r="AC119" s="3"/>
-    </row>
-    <row r="120" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AD119" s="3"/>
+    </row>
+    <row r="120" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B120" s="16"/>
       <c r="C120" s="1"/>
       <c r="D120" s="3"/>
@@ -7468,6 +7936,7 @@
       <c r="L120" s="3"/>
       <c r="M120" s="3"/>
       <c r="N120" s="3"/>
+      <c r="O120" s="3"/>
       <c r="Q120" s="16"/>
       <c r="R120" s="22"/>
       <c r="S120" s="3"/>
@@ -7481,8 +7950,9 @@
       <c r="AA120" s="3"/>
       <c r="AB120" s="3"/>
       <c r="AC120" s="3"/>
-    </row>
-    <row r="121" spans="2:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD120" s="3"/>
+    </row>
+    <row r="121" spans="2:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C121" s="21" t="s">
         <v>43</v>
       </c>
@@ -7497,6 +7967,7 @@
       <c r="L121" s="1"/>
       <c r="M121" s="1"/>
       <c r="N121" s="1"/>
+      <c r="O121" s="1"/>
       <c r="R121" s="23" t="s">
         <v>43</v>
       </c>
@@ -7511,8 +7982,9 @@
       <c r="AA121" s="22"/>
       <c r="AB121" s="22"/>
       <c r="AC121" s="22"/>
-    </row>
-    <row r="122" spans="2:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD121" s="22"/>
+    </row>
+    <row r="122" spans="2:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C122" s="20" t="s">
         <v>55</v>
       </c>
@@ -7527,6 +7999,7 @@
       <c r="L122" s="20"/>
       <c r="M122" s="20"/>
       <c r="N122" s="20"/>
+      <c r="O122" s="20"/>
       <c r="R122" s="24" t="s">
         <v>55</v>
       </c>
@@ -7541,8 +8014,9 @@
       <c r="AA122" s="24"/>
       <c r="AB122" s="24"/>
       <c r="AC122" s="24"/>
-    </row>
-    <row r="123" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AD122" s="24"/>
+    </row>
+    <row r="123" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B123" s="1" t="s">
         <v>22</v>
       </c>
@@ -7557,27 +8031,30 @@
         <v>3</v>
       </c>
       <c r="G123" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H123" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H123" s="1" t="s">
+      <c r="I123" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="I123" s="1" t="s">
+      <c r="J123" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J123" s="1" t="s">
+      <c r="K123" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K123" s="1" t="s">
+      <c r="L123" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="L123" s="1" t="s">
+      <c r="M123" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="M123" s="1" t="s">
+      <c r="N123" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="N123" s="1" t="s">
+      <c r="O123" s="1" t="s">
         <v>110</v>
       </c>
       <c r="Q123" s="22" t="s">
@@ -7594,31 +8071,34 @@
         <v>3</v>
       </c>
       <c r="V123" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="W123" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="W123" s="22" t="s">
+      <c r="X123" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="X123" s="22" t="s">
+      <c r="Y123" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="Y123" s="22" t="s">
+      <c r="Z123" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="Z123" s="22" t="s">
+      <c r="AA123" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="AA123" s="22" t="s">
+      <c r="AB123" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="AB123" s="22" t="s">
+      <c r="AC123" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="AC123" s="22" t="s">
+      <c r="AD123" s="22" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="124" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B124" s="16"/>
       <c r="C124" s="1"/>
       <c r="D124" s="3"/>
@@ -7632,6 +8112,7 @@
       <c r="L124" s="3"/>
       <c r="M124" s="3"/>
       <c r="N124" s="3"/>
+      <c r="O124" s="3"/>
       <c r="Q124" s="16"/>
       <c r="R124" s="22"/>
       <c r="S124" s="3"/>
@@ -7645,8 +8126,9 @@
       <c r="AA124" s="3"/>
       <c r="AB124" s="3"/>
       <c r="AC124" s="3"/>
-    </row>
-    <row r="125" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AD124" s="3"/>
+    </row>
+    <row r="125" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B125" s="16"/>
       <c r="C125" s="1"/>
       <c r="D125" s="3"/>
@@ -7660,6 +8142,7 @@
       <c r="L125" s="3"/>
       <c r="M125" s="3"/>
       <c r="N125" s="3"/>
+      <c r="O125" s="3"/>
       <c r="Q125" s="16"/>
       <c r="R125" s="22"/>
       <c r="S125" s="3"/>
@@ -7673,8 +8156,9 @@
       <c r="AA125" s="3"/>
       <c r="AB125" s="3"/>
       <c r="AC125" s="3"/>
-    </row>
-    <row r="126" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AD125" s="3"/>
+    </row>
+    <row r="126" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B126" s="16"/>
       <c r="C126" s="1"/>
       <c r="D126" s="3"/>
@@ -7688,6 +8172,7 @@
       <c r="L126" s="3"/>
       <c r="M126" s="3"/>
       <c r="N126" s="3"/>
+      <c r="O126" s="3"/>
       <c r="Q126" s="16"/>
       <c r="R126" s="22"/>
       <c r="S126" s="3"/>
@@ -7701,8 +8186,9 @@
       <c r="AA126" s="3"/>
       <c r="AB126" s="3"/>
       <c r="AC126" s="3"/>
-    </row>
-    <row r="127" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AD126" s="3"/>
+    </row>
+    <row r="127" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B127" s="16"/>
       <c r="C127" s="1"/>
       <c r="D127" s="3"/>
@@ -7716,6 +8202,7 @@
       <c r="L127" s="3"/>
       <c r="M127" s="3"/>
       <c r="N127" s="3"/>
+      <c r="O127" s="3"/>
       <c r="Q127" s="16"/>
       <c r="R127" s="22"/>
       <c r="S127" s="3"/>
@@ -7729,8 +8216,9 @@
       <c r="AA127" s="3"/>
       <c r="AB127" s="3"/>
       <c r="AC127" s="3"/>
-    </row>
-    <row r="128" spans="2:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD127" s="3"/>
+    </row>
+    <row r="128" spans="2:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C128" s="21" t="s">
         <v>43</v>
       </c>
@@ -7745,6 +8233,7 @@
       <c r="L128" s="1"/>
       <c r="M128" s="1"/>
       <c r="N128" s="1"/>
+      <c r="O128" s="1"/>
       <c r="R128" s="23" t="s">
         <v>43</v>
       </c>
@@ -7759,8 +8248,9 @@
       <c r="AA128" s="22"/>
       <c r="AB128" s="22"/>
       <c r="AC128" s="22"/>
-    </row>
-    <row r="129" spans="2:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD128" s="22"/>
+    </row>
+    <row r="129" spans="2:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C129" s="20" t="s">
         <v>55</v>
       </c>
@@ -7775,6 +8265,7 @@
       <c r="L129" s="20"/>
       <c r="M129" s="20"/>
       <c r="N129" s="20"/>
+      <c r="O129" s="20"/>
       <c r="R129" s="24" t="s">
         <v>55</v>
       </c>
@@ -7789,8 +8280,9 @@
       <c r="AA129" s="24"/>
       <c r="AB129" s="24"/>
       <c r="AC129" s="24"/>
-    </row>
-    <row r="130" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AD129" s="24"/>
+    </row>
+    <row r="130" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B130" s="1" t="s">
         <v>23</v>
       </c>
@@ -7805,27 +8297,30 @@
         <v>3</v>
       </c>
       <c r="G130" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H130" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H130" s="1" t="s">
+      <c r="I130" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="I130" s="1" t="s">
+      <c r="J130" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J130" s="1" t="s">
+      <c r="K130" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K130" s="1" t="s">
+      <c r="L130" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="L130" s="1" t="s">
+      <c r="M130" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="M130" s="1" t="s">
+      <c r="N130" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="N130" s="1" t="s">
+      <c r="O130" s="1" t="s">
         <v>110</v>
       </c>
       <c r="Q130" s="22" t="s">
@@ -7842,31 +8337,34 @@
         <v>3</v>
       </c>
       <c r="V130" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="W130" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="W130" s="22" t="s">
+      <c r="X130" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="X130" s="22" t="s">
+      <c r="Y130" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="Y130" s="22" t="s">
+      <c r="Z130" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="Z130" s="22" t="s">
+      <c r="AA130" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="AA130" s="22" t="s">
+      <c r="AB130" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="AB130" s="22" t="s">
+      <c r="AC130" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="AC130" s="22" t="s">
+      <c r="AD130" s="22" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="131" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B131" s="16"/>
       <c r="C131" s="1"/>
       <c r="D131" s="3"/>
@@ -7880,6 +8378,7 @@
       <c r="L131" s="3"/>
       <c r="M131" s="3"/>
       <c r="N131" s="3"/>
+      <c r="O131" s="3"/>
       <c r="Q131" s="16"/>
       <c r="R131" s="22"/>
       <c r="S131" s="3"/>
@@ -7893,8 +8392,9 @@
       <c r="AA131" s="3"/>
       <c r="AB131" s="3"/>
       <c r="AC131" s="3"/>
-    </row>
-    <row r="132" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AD131" s="3"/>
+    </row>
+    <row r="132" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B132" s="16"/>
       <c r="C132" s="1"/>
       <c r="D132" s="3"/>
@@ -7908,6 +8408,7 @@
       <c r="L132" s="3"/>
       <c r="M132" s="3"/>
       <c r="N132" s="3"/>
+      <c r="O132" s="3"/>
       <c r="Q132" s="16"/>
       <c r="R132" s="22"/>
       <c r="S132" s="3"/>
@@ -7921,8 +8422,9 @@
       <c r="AA132" s="3"/>
       <c r="AB132" s="3"/>
       <c r="AC132" s="3"/>
-    </row>
-    <row r="133" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AD132" s="3"/>
+    </row>
+    <row r="133" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B133" s="16"/>
       <c r="C133" s="1"/>
       <c r="D133" s="3"/>
@@ -7936,6 +8438,7 @@
       <c r="L133" s="3"/>
       <c r="M133" s="3"/>
       <c r="N133" s="3"/>
+      <c r="O133" s="3"/>
       <c r="Q133" s="16"/>
       <c r="R133" s="22"/>
       <c r="S133" s="3"/>
@@ -7949,8 +8452,9 @@
       <c r="AA133" s="3"/>
       <c r="AB133" s="3"/>
       <c r="AC133" s="3"/>
-    </row>
-    <row r="134" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AD133" s="3"/>
+    </row>
+    <row r="134" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B134" s="16"/>
       <c r="C134" s="1"/>
       <c r="D134" s="3"/>
@@ -7964,6 +8468,7 @@
       <c r="L134" s="3"/>
       <c r="M134" s="3"/>
       <c r="N134" s="3"/>
+      <c r="O134" s="3"/>
       <c r="Q134" s="16"/>
       <c r="R134" s="22"/>
       <c r="S134" s="3"/>
@@ -7977,8 +8482,9 @@
       <c r="AA134" s="3"/>
       <c r="AB134" s="3"/>
       <c r="AC134" s="3"/>
-    </row>
-    <row r="135" spans="2:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD134" s="3"/>
+    </row>
+    <row r="135" spans="2:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C135" s="21" t="s">
         <v>43</v>
       </c>
@@ -7993,6 +8499,7 @@
       <c r="L135" s="1"/>
       <c r="M135" s="1"/>
       <c r="N135" s="1"/>
+      <c r="O135" s="1"/>
       <c r="R135" s="23" t="s">
         <v>43</v>
       </c>
@@ -8007,8 +8514,9 @@
       <c r="AA135" s="22"/>
       <c r="AB135" s="22"/>
       <c r="AC135" s="22"/>
-    </row>
-    <row r="136" spans="2:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD135" s="22"/>
+    </row>
+    <row r="136" spans="2:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C136" s="20" t="s">
         <v>55</v>
       </c>
@@ -8023,6 +8531,7 @@
       <c r="L136" s="20"/>
       <c r="M136" s="20"/>
       <c r="N136" s="20"/>
+      <c r="O136" s="20"/>
       <c r="R136" s="24" t="s">
         <v>55</v>
       </c>
@@ -8037,8 +8546,9 @@
       <c r="AA136" s="24"/>
       <c r="AB136" s="24"/>
       <c r="AC136" s="24"/>
-    </row>
-    <row r="137" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AD136" s="24"/>
+    </row>
+    <row r="137" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B137" s="1" t="s">
         <v>24</v>
       </c>
@@ -8053,27 +8563,30 @@
         <v>3</v>
       </c>
       <c r="G137" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H137" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H137" s="1" t="s">
+      <c r="I137" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="I137" s="1" t="s">
+      <c r="J137" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J137" s="1" t="s">
+      <c r="K137" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K137" s="1" t="s">
+      <c r="L137" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="L137" s="1" t="s">
+      <c r="M137" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="M137" s="1" t="s">
+      <c r="N137" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="N137" s="1" t="s">
+      <c r="O137" s="1" t="s">
         <v>110</v>
       </c>
       <c r="Q137" s="22" t="s">
@@ -8090,31 +8603,34 @@
         <v>3</v>
       </c>
       <c r="V137" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="W137" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="W137" s="22" t="s">
+      <c r="X137" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="X137" s="22" t="s">
+      <c r="Y137" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="Y137" s="22" t="s">
+      <c r="Z137" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="Z137" s="22" t="s">
+      <c r="AA137" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="AA137" s="22" t="s">
+      <c r="AB137" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="AB137" s="22" t="s">
+      <c r="AC137" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="AC137" s="22" t="s">
+      <c r="AD137" s="22" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="138" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B138" s="16"/>
       <c r="C138" s="1"/>
       <c r="D138" s="3"/>
@@ -8128,6 +8644,7 @@
       <c r="L138" s="3"/>
       <c r="M138" s="3"/>
       <c r="N138" s="3"/>
+      <c r="O138" s="3"/>
       <c r="R138" s="22"/>
       <c r="S138" s="3"/>
       <c r="T138" s="3"/>
@@ -8140,8 +8657,9 @@
       <c r="AA138" s="3"/>
       <c r="AB138" s="3"/>
       <c r="AC138" s="3"/>
-    </row>
-    <row r="139" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AD138" s="3"/>
+    </row>
+    <row r="139" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B139" s="16"/>
       <c r="C139" s="1"/>
       <c r="D139" s="3"/>
@@ -8155,6 +8673,7 @@
       <c r="L139" s="3"/>
       <c r="M139" s="3"/>
       <c r="N139" s="3"/>
+      <c r="O139" s="3"/>
       <c r="R139" s="22"/>
       <c r="S139" s="3"/>
       <c r="T139" s="3"/>
@@ -8167,8 +8686,9 @@
       <c r="AA139" s="3"/>
       <c r="AB139" s="3"/>
       <c r="AC139" s="3"/>
-    </row>
-    <row r="140" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AD139" s="3"/>
+    </row>
+    <row r="140" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B140" s="16"/>
       <c r="C140" s="1"/>
       <c r="D140" s="3"/>
@@ -8182,6 +8702,7 @@
       <c r="L140" s="3"/>
       <c r="M140" s="3"/>
       <c r="N140" s="3"/>
+      <c r="O140" s="3"/>
       <c r="R140" s="22"/>
       <c r="S140" s="3"/>
       <c r="T140" s="3"/>
@@ -8194,8 +8715,9 @@
       <c r="AA140" s="3"/>
       <c r="AB140" s="3"/>
       <c r="AC140" s="3"/>
-    </row>
-    <row r="141" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AD140" s="3"/>
+    </row>
+    <row r="141" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B141" s="16"/>
       <c r="C141" s="1"/>
       <c r="D141" s="3"/>
@@ -8209,6 +8731,7 @@
       <c r="L141" s="3"/>
       <c r="M141" s="3"/>
       <c r="N141" s="3"/>
+      <c r="O141" s="3"/>
       <c r="R141" s="22"/>
       <c r="S141" s="3"/>
       <c r="T141" s="3"/>
@@ -8221,8 +8744,9 @@
       <c r="AA141" s="3"/>
       <c r="AB141" s="3"/>
       <c r="AC141" s="3"/>
-    </row>
-    <row r="142" spans="2:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD141" s="3"/>
+    </row>
+    <row r="142" spans="2:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C142" s="21" t="s">
         <v>43</v>
       </c>
@@ -8237,6 +8761,7 @@
       <c r="L142" s="1"/>
       <c r="M142" s="1"/>
       <c r="N142" s="1"/>
+      <c r="O142" s="1"/>
       <c r="R142" s="23" t="s">
         <v>43</v>
       </c>
@@ -8251,8 +8776,9 @@
       <c r="AA142" s="22"/>
       <c r="AB142" s="22"/>
       <c r="AC142" s="22"/>
-    </row>
-    <row r="143" spans="2:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD142" s="22"/>
+    </row>
+    <row r="143" spans="2:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C143" s="20" t="s">
         <v>55</v>
       </c>
@@ -8267,6 +8793,7 @@
       <c r="L143" s="20"/>
       <c r="M143" s="20"/>
       <c r="N143" s="20"/>
+      <c r="O143" s="20"/>
       <c r="R143" s="24" t="s">
         <v>55</v>
       </c>
@@ -8281,8 +8808,9 @@
       <c r="AA143" s="24"/>
       <c r="AB143" s="24"/>
       <c r="AC143" s="24"/>
-    </row>
-    <row r="144" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AD143" s="24"/>
+    </row>
+    <row r="144" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B144" s="1" t="s">
         <v>25</v>
       </c>
@@ -8297,27 +8825,30 @@
         <v>3</v>
       </c>
       <c r="G144" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H144" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H144" s="1" t="s">
+      <c r="I144" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="I144" s="1" t="s">
+      <c r="J144" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J144" s="1" t="s">
+      <c r="K144" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K144" s="1" t="s">
+      <c r="L144" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="L144" s="1" t="s">
+      <c r="M144" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="M144" s="1" t="s">
+      <c r="N144" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="N144" s="1" t="s">
+      <c r="O144" s="1" t="s">
         <v>110</v>
       </c>
       <c r="Q144" s="22" t="s">
@@ -8334,31 +8865,34 @@
         <v>3</v>
       </c>
       <c r="V144" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="W144" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="W144" s="22" t="s">
+      <c r="X144" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="X144" s="22" t="s">
+      <c r="Y144" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="Y144" s="22" t="s">
+      <c r="Z144" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="Z144" s="22" t="s">
+      <c r="AA144" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="AA144" s="22" t="s">
+      <c r="AB144" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="AB144" s="22" t="s">
+      <c r="AC144" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="AC144" s="22" t="s">
+      <c r="AD144" s="22" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="145" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B145" s="16"/>
       <c r="C145" s="1"/>
       <c r="D145" s="3"/>
@@ -8372,6 +8906,7 @@
       <c r="L145" s="3"/>
       <c r="M145" s="3"/>
       <c r="N145" s="3"/>
+      <c r="O145" s="3"/>
       <c r="Q145" s="16"/>
       <c r="R145" s="22"/>
       <c r="S145" s="3"/>
@@ -8385,8 +8920,9 @@
       <c r="AA145" s="3"/>
       <c r="AB145" s="3"/>
       <c r="AC145" s="3"/>
-    </row>
-    <row r="146" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AD145" s="3"/>
+    </row>
+    <row r="146" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B146" s="16"/>
       <c r="C146" s="1"/>
       <c r="D146" s="3"/>
@@ -8400,6 +8936,7 @@
       <c r="L146" s="3"/>
       <c r="M146" s="3"/>
       <c r="N146" s="3"/>
+      <c r="O146" s="3"/>
       <c r="Q146" s="16"/>
       <c r="R146" s="22"/>
       <c r="S146" s="3"/>
@@ -8413,8 +8950,9 @@
       <c r="AA146" s="3"/>
       <c r="AB146" s="3"/>
       <c r="AC146" s="3"/>
-    </row>
-    <row r="147" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AD146" s="3"/>
+    </row>
+    <row r="147" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B147" s="16"/>
       <c r="C147" s="1"/>
       <c r="D147" s="3"/>
@@ -8428,6 +8966,7 @@
       <c r="L147" s="3"/>
       <c r="M147" s="3"/>
       <c r="N147" s="3"/>
+      <c r="O147" s="3"/>
       <c r="Q147" s="16"/>
       <c r="R147" s="22"/>
       <c r="S147" s="3"/>
@@ -8441,8 +8980,9 @@
       <c r="AA147" s="3"/>
       <c r="AB147" s="3"/>
       <c r="AC147" s="3"/>
-    </row>
-    <row r="148" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AD147" s="3"/>
+    </row>
+    <row r="148" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B148" s="16"/>
       <c r="C148" s="1"/>
       <c r="D148" s="3"/>
@@ -8456,6 +8996,7 @@
       <c r="L148" s="3"/>
       <c r="M148" s="3"/>
       <c r="N148" s="3"/>
+      <c r="O148" s="3"/>
       <c r="Q148" s="16"/>
       <c r="R148" s="22"/>
       <c r="S148" s="3"/>
@@ -8469,8 +9010,9 @@
       <c r="AA148" s="3"/>
       <c r="AB148" s="3"/>
       <c r="AC148" s="3"/>
-    </row>
-    <row r="149" spans="2:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD148" s="3"/>
+    </row>
+    <row r="149" spans="2:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C149" s="21" t="s">
         <v>43</v>
       </c>
@@ -8485,6 +9027,7 @@
       <c r="L149" s="1"/>
       <c r="M149" s="1"/>
       <c r="N149" s="1"/>
+      <c r="O149" s="1"/>
       <c r="R149" s="23" t="s">
         <v>43</v>
       </c>
@@ -8499,8 +9042,9 @@
       <c r="AA149" s="22"/>
       <c r="AB149" s="22"/>
       <c r="AC149" s="22"/>
-    </row>
-    <row r="150" spans="2:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD149" s="22"/>
+    </row>
+    <row r="150" spans="2:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C150" s="20" t="s">
         <v>55</v>
       </c>
@@ -8515,6 +9059,7 @@
       <c r="L150" s="20"/>
       <c r="M150" s="20"/>
       <c r="N150" s="20"/>
+      <c r="O150" s="20"/>
       <c r="R150" s="24" t="s">
         <v>55</v>
       </c>
@@ -8529,8 +9074,9 @@
       <c r="AA150" s="24"/>
       <c r="AB150" s="24"/>
       <c r="AC150" s="24"/>
-    </row>
-    <row r="151" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AD150" s="24"/>
+    </row>
+    <row r="151" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B151" s="1" t="s">
         <v>26</v>
       </c>
@@ -8545,27 +9091,30 @@
         <v>3</v>
       </c>
       <c r="G151" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H151" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H151" s="1" t="s">
+      <c r="I151" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="I151" s="1" t="s">
+      <c r="J151" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J151" s="1" t="s">
+      <c r="K151" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K151" s="1" t="s">
+      <c r="L151" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="L151" s="1" t="s">
+      <c r="M151" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="M151" s="1" t="s">
+      <c r="N151" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="N151" s="1" t="s">
+      <c r="O151" s="1" t="s">
         <v>110</v>
       </c>
       <c r="Q151" s="22" t="s">
@@ -8582,31 +9131,34 @@
         <v>3</v>
       </c>
       <c r="V151" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="W151" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="W151" s="22" t="s">
+      <c r="X151" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="X151" s="22" t="s">
+      <c r="Y151" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="Y151" s="22" t="s">
+      <c r="Z151" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="Z151" s="22" t="s">
+      <c r="AA151" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="AA151" s="22" t="s">
+      <c r="AB151" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="AB151" s="22" t="s">
+      <c r="AC151" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="AC151" s="22" t="s">
+      <c r="AD151" s="22" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="152" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B152" s="16"/>
       <c r="C152" s="1"/>
       <c r="D152" s="3"/>
@@ -8620,6 +9172,7 @@
       <c r="L152" s="3"/>
       <c r="M152" s="3"/>
       <c r="N152" s="3"/>
+      <c r="O152" s="3"/>
       <c r="Q152" s="16"/>
       <c r="R152" s="22"/>
       <c r="S152" s="3"/>
@@ -8633,8 +9186,9 @@
       <c r="AA152" s="3"/>
       <c r="AB152" s="3"/>
       <c r="AC152" s="3"/>
-    </row>
-    <row r="153" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AD152" s="3"/>
+    </row>
+    <row r="153" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B153" s="16"/>
       <c r="C153" s="1"/>
       <c r="D153" s="3"/>
@@ -8648,6 +9202,7 @@
       <c r="L153" s="3"/>
       <c r="M153" s="3"/>
       <c r="N153" s="3"/>
+      <c r="O153" s="3"/>
       <c r="Q153" s="16"/>
       <c r="R153" s="22"/>
       <c r="S153" s="3"/>
@@ -8661,8 +9216,9 @@
       <c r="AA153" s="3"/>
       <c r="AB153" s="3"/>
       <c r="AC153" s="3"/>
-    </row>
-    <row r="154" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AD153" s="3"/>
+    </row>
+    <row r="154" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B154" s="16"/>
       <c r="C154" s="1"/>
       <c r="D154" s="3"/>
@@ -8676,6 +9232,7 @@
       <c r="L154" s="3"/>
       <c r="M154" s="3"/>
       <c r="N154" s="3"/>
+      <c r="O154" s="3"/>
       <c r="Q154" s="16"/>
       <c r="R154" s="22"/>
       <c r="S154" s="3"/>
@@ -8689,8 +9246,9 @@
       <c r="AA154" s="3"/>
       <c r="AB154" s="3"/>
       <c r="AC154" s="3"/>
-    </row>
-    <row r="155" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AD154" s="3"/>
+    </row>
+    <row r="155" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B155" s="16"/>
       <c r="C155" s="1"/>
       <c r="D155" s="3"/>
@@ -8704,6 +9262,7 @@
       <c r="L155" s="3"/>
       <c r="M155" s="3"/>
       <c r="N155" s="3"/>
+      <c r="O155" s="3"/>
       <c r="Q155" s="16"/>
       <c r="R155" s="22"/>
       <c r="S155" s="3"/>
@@ -8717,8 +9276,9 @@
       <c r="AA155" s="3"/>
       <c r="AB155" s="3"/>
       <c r="AC155" s="3"/>
-    </row>
-    <row r="156" spans="2:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD155" s="3"/>
+    </row>
+    <row r="156" spans="2:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C156" s="21" t="s">
         <v>43</v>
       </c>
@@ -8733,6 +9293,7 @@
       <c r="L156" s="1"/>
       <c r="M156" s="1"/>
       <c r="N156" s="1"/>
+      <c r="O156" s="1"/>
       <c r="R156" s="23" t="s">
         <v>43</v>
       </c>
@@ -8747,8 +9308,9 @@
       <c r="AA156" s="22"/>
       <c r="AB156" s="22"/>
       <c r="AC156" s="22"/>
-    </row>
-    <row r="157" spans="2:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD156" s="22"/>
+    </row>
+    <row r="157" spans="2:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C157" s="20" t="s">
         <v>55</v>
       </c>
@@ -8763,6 +9325,7 @@
       <c r="L157" s="20"/>
       <c r="M157" s="20"/>
       <c r="N157" s="20"/>
+      <c r="O157" s="20"/>
       <c r="R157" s="24" t="s">
         <v>55</v>
       </c>
@@ -8777,8 +9340,9 @@
       <c r="AA157" s="24"/>
       <c r="AB157" s="24"/>
       <c r="AC157" s="24"/>
-    </row>
-    <row r="158" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AD157" s="24"/>
+    </row>
+    <row r="158" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B158" s="1" t="s">
         <v>27</v>
       </c>
@@ -8793,27 +9357,30 @@
         <v>3</v>
       </c>
       <c r="G158" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H158" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H158" s="1" t="s">
+      <c r="I158" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="I158" s="1" t="s">
+      <c r="J158" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J158" s="1" t="s">
+      <c r="K158" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K158" s="1" t="s">
+      <c r="L158" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="L158" s="1" t="s">
+      <c r="M158" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="M158" s="1" t="s">
+      <c r="N158" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="N158" s="1" t="s">
+      <c r="O158" s="1" t="s">
         <v>110</v>
       </c>
       <c r="Q158" s="22" t="s">
@@ -8830,31 +9397,34 @@
         <v>3</v>
       </c>
       <c r="V158" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="W158" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="W158" s="22" t="s">
+      <c r="X158" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="X158" s="22" t="s">
+      <c r="Y158" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="Y158" s="22" t="s">
+      <c r="Z158" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="Z158" s="22" t="s">
+      <c r="AA158" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="AA158" s="22" t="s">
+      <c r="AB158" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="AB158" s="22" t="s">
+      <c r="AC158" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="AC158" s="22" t="s">
+      <c r="AD158" s="22" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="159" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B159" s="16"/>
       <c r="C159" s="1"/>
       <c r="D159" s="3"/>
@@ -8868,6 +9438,7 @@
       <c r="L159" s="3"/>
       <c r="M159" s="3"/>
       <c r="N159" s="3"/>
+      <c r="O159" s="3"/>
       <c r="Q159" s="16"/>
       <c r="R159" s="22"/>
       <c r="S159" s="3"/>
@@ -8881,8 +9452,9 @@
       <c r="AA159" s="3"/>
       <c r="AB159" s="3"/>
       <c r="AC159" s="3"/>
-    </row>
-    <row r="160" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AD159" s="3"/>
+    </row>
+    <row r="160" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B160" s="16"/>
       <c r="C160" s="1"/>
       <c r="D160" s="3"/>
@@ -8896,6 +9468,7 @@
       <c r="L160" s="3"/>
       <c r="M160" s="3"/>
       <c r="N160" s="3"/>
+      <c r="O160" s="3"/>
       <c r="Q160" s="16"/>
       <c r="R160" s="22"/>
       <c r="S160" s="3"/>
@@ -8909,8 +9482,9 @@
       <c r="AA160" s="3"/>
       <c r="AB160" s="3"/>
       <c r="AC160" s="3"/>
-    </row>
-    <row r="161" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AD160" s="3"/>
+    </row>
+    <row r="161" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B161" s="16"/>
       <c r="C161" s="1"/>
       <c r="D161" s="3"/>
@@ -8924,6 +9498,7 @@
       <c r="L161" s="3"/>
       <c r="M161" s="3"/>
       <c r="N161" s="3"/>
+      <c r="O161" s="3"/>
       <c r="Q161" s="16"/>
       <c r="R161" s="22"/>
       <c r="S161" s="3"/>
@@ -8937,8 +9512,9 @@
       <c r="AA161" s="3"/>
       <c r="AB161" s="3"/>
       <c r="AC161" s="3"/>
-    </row>
-    <row r="162" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AD161" s="3"/>
+    </row>
+    <row r="162" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B162" s="16"/>
       <c r="C162" s="1"/>
       <c r="D162" s="3"/>
@@ -8952,6 +9528,7 @@
       <c r="L162" s="3"/>
       <c r="M162" s="3"/>
       <c r="N162" s="3"/>
+      <c r="O162" s="3"/>
       <c r="Q162" s="16"/>
       <c r="R162" s="22"/>
       <c r="S162" s="3"/>
@@ -8965,8 +9542,9 @@
       <c r="AA162" s="3"/>
       <c r="AB162" s="3"/>
       <c r="AC162" s="3"/>
-    </row>
-    <row r="163" spans="2:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD162" s="3"/>
+    </row>
+    <row r="163" spans="2:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C163" s="21" t="s">
         <v>43</v>
       </c>
@@ -8981,6 +9559,7 @@
       <c r="L163" s="1"/>
       <c r="M163" s="1"/>
       <c r="N163" s="1"/>
+      <c r="O163" s="1"/>
       <c r="R163" s="23" t="s">
         <v>43</v>
       </c>
@@ -8995,8 +9574,9 @@
       <c r="AA163" s="22"/>
       <c r="AB163" s="22"/>
       <c r="AC163" s="22"/>
-    </row>
-    <row r="164" spans="2:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD163" s="22"/>
+    </row>
+    <row r="164" spans="2:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C164" s="20" t="s">
         <v>55</v>
       </c>
@@ -9011,6 +9591,7 @@
       <c r="L164" s="20"/>
       <c r="M164" s="20"/>
       <c r="N164" s="20"/>
+      <c r="O164" s="20"/>
       <c r="R164" s="24" t="s">
         <v>55</v>
       </c>
@@ -9025,8 +9606,9 @@
       <c r="AA164" s="24"/>
       <c r="AB164" s="24"/>
       <c r="AC164" s="24"/>
-    </row>
-    <row r="165" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AD164" s="24"/>
+    </row>
+    <row r="165" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B165" s="1" t="s">
         <v>28</v>
       </c>
@@ -9041,27 +9623,30 @@
         <v>3</v>
       </c>
       <c r="G165" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H165" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H165" s="1" t="s">
+      <c r="I165" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="I165" s="1" t="s">
+      <c r="J165" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J165" s="1" t="s">
+      <c r="K165" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K165" s="1" t="s">
+      <c r="L165" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="L165" s="1" t="s">
+      <c r="M165" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="M165" s="1" t="s">
+      <c r="N165" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="N165" s="1" t="s">
+      <c r="O165" s="1" t="s">
         <v>110</v>
       </c>
       <c r="Q165" s="22" t="s">
@@ -9078,31 +9663,34 @@
         <v>3</v>
       </c>
       <c r="V165" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="W165" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="W165" s="22" t="s">
+      <c r="X165" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="X165" s="22" t="s">
+      <c r="Y165" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="Y165" s="22" t="s">
+      <c r="Z165" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="Z165" s="22" t="s">
+      <c r="AA165" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="AA165" s="22" t="s">
+      <c r="AB165" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="AB165" s="22" t="s">
+      <c r="AC165" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="AC165" s="22" t="s">
+      <c r="AD165" s="22" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="166" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B166" s="16"/>
       <c r="C166" s="1"/>
       <c r="D166" s="3"/>
@@ -9116,6 +9704,7 @@
       <c r="L166" s="3"/>
       <c r="M166" s="3"/>
       <c r="N166" s="3"/>
+      <c r="O166" s="3"/>
       <c r="Q166" s="16"/>
       <c r="R166" s="22"/>
       <c r="S166" s="3"/>
@@ -9129,8 +9718,9 @@
       <c r="AA166" s="3"/>
       <c r="AB166" s="3"/>
       <c r="AC166" s="3"/>
-    </row>
-    <row r="167" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AD166" s="3"/>
+    </row>
+    <row r="167" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B167" s="16"/>
       <c r="C167" s="1"/>
       <c r="D167" s="3"/>
@@ -9144,6 +9734,7 @@
       <c r="L167" s="3"/>
       <c r="M167" s="3"/>
       <c r="N167" s="3"/>
+      <c r="O167" s="3"/>
       <c r="Q167" s="16"/>
       <c r="R167" s="22"/>
       <c r="S167" s="3"/>
@@ -9157,8 +9748,9 @@
       <c r="AA167" s="3"/>
       <c r="AB167" s="3"/>
       <c r="AC167" s="3"/>
-    </row>
-    <row r="168" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AD167" s="3"/>
+    </row>
+    <row r="168" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B168" s="16"/>
       <c r="C168" s="1"/>
       <c r="D168" s="3"/>
@@ -9172,6 +9764,7 @@
       <c r="L168" s="3"/>
       <c r="M168" s="3"/>
       <c r="N168" s="3"/>
+      <c r="O168" s="3"/>
       <c r="Q168" s="16"/>
       <c r="R168" s="22"/>
       <c r="S168" s="3"/>
@@ -9185,8 +9778,9 @@
       <c r="AA168" s="3"/>
       <c r="AB168" s="3"/>
       <c r="AC168" s="3"/>
-    </row>
-    <row r="169" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AD168" s="3"/>
+    </row>
+    <row r="169" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B169" s="16"/>
       <c r="C169" s="1"/>
       <c r="D169" s="3"/>
@@ -9200,6 +9794,7 @@
       <c r="L169" s="3"/>
       <c r="M169" s="3"/>
       <c r="N169" s="3"/>
+      <c r="O169" s="3"/>
       <c r="Q169" s="16"/>
       <c r="R169" s="22"/>
       <c r="S169" s="3"/>
@@ -9213,8 +9808,9 @@
       <c r="AA169" s="3"/>
       <c r="AB169" s="3"/>
       <c r="AC169" s="3"/>
-    </row>
-    <row r="170" spans="2:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD169" s="3"/>
+    </row>
+    <row r="170" spans="2:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C170" s="21" t="s">
         <v>43</v>
       </c>
@@ -9229,6 +9825,7 @@
       <c r="L170" s="1"/>
       <c r="M170" s="1"/>
       <c r="N170" s="1"/>
+      <c r="O170" s="1"/>
       <c r="R170" s="23" t="s">
         <v>43</v>
       </c>
@@ -9243,8 +9840,9 @@
       <c r="AA170" s="22"/>
       <c r="AB170" s="22"/>
       <c r="AC170" s="22"/>
-    </row>
-    <row r="171" spans="2:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD170" s="22"/>
+    </row>
+    <row r="171" spans="2:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C171" s="20" t="s">
         <v>55</v>
       </c>
@@ -9259,6 +9857,7 @@
       <c r="L171" s="20"/>
       <c r="M171" s="20"/>
       <c r="N171" s="20"/>
+      <c r="O171" s="20"/>
       <c r="R171" s="24" t="s">
         <v>55</v>
       </c>
@@ -9273,8 +9872,9 @@
       <c r="AA171" s="24"/>
       <c r="AB171" s="24"/>
       <c r="AC171" s="24"/>
-    </row>
-    <row r="172" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AD171" s="24"/>
+    </row>
+    <row r="172" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B172" s="1" t="s">
         <v>29</v>
       </c>
@@ -9289,27 +9889,30 @@
         <v>3</v>
       </c>
       <c r="G172" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H172" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H172" s="1" t="s">
+      <c r="I172" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="I172" s="1" t="s">
+      <c r="J172" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J172" s="1" t="s">
+      <c r="K172" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K172" s="1" t="s">
+      <c r="L172" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="L172" s="1" t="s">
+      <c r="M172" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="M172" s="1" t="s">
+      <c r="N172" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="N172" s="1" t="s">
+      <c r="O172" s="1" t="s">
         <v>110</v>
       </c>
       <c r="Q172" s="22" t="s">
@@ -9326,31 +9929,34 @@
         <v>3</v>
       </c>
       <c r="V172" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="W172" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="W172" s="22" t="s">
+      <c r="X172" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="X172" s="22" t="s">
+      <c r="Y172" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="Y172" s="22" t="s">
+      <c r="Z172" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="Z172" s="22" t="s">
+      <c r="AA172" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="AA172" s="22" t="s">
+      <c r="AB172" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="AB172" s="22" t="s">
+      <c r="AC172" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="AC172" s="22" t="s">
+      <c r="AD172" s="22" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="173" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B173" s="16"/>
       <c r="C173" s="1"/>
       <c r="D173" s="3"/>
@@ -9364,6 +9970,7 @@
       <c r="L173" s="3"/>
       <c r="M173" s="3"/>
       <c r="N173" s="3"/>
+      <c r="O173" s="3"/>
       <c r="Q173" s="16"/>
       <c r="R173" s="22"/>
       <c r="S173" s="3"/>
@@ -9377,8 +9984,9 @@
       <c r="AA173" s="3"/>
       <c r="AB173" s="3"/>
       <c r="AC173" s="3"/>
-    </row>
-    <row r="174" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AD173" s="3"/>
+    </row>
+    <row r="174" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B174" s="16"/>
       <c r="C174" s="1"/>
       <c r="D174" s="3"/>
@@ -9392,6 +10000,7 @@
       <c r="L174" s="3"/>
       <c r="M174" s="3"/>
       <c r="N174" s="3"/>
+      <c r="O174" s="3"/>
       <c r="Q174" s="16"/>
       <c r="R174" s="22"/>
       <c r="S174" s="3"/>
@@ -9405,8 +10014,9 @@
       <c r="AA174" s="3"/>
       <c r="AB174" s="3"/>
       <c r="AC174" s="3"/>
-    </row>
-    <row r="175" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AD174" s="3"/>
+    </row>
+    <row r="175" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B175" s="16"/>
       <c r="C175" s="1"/>
       <c r="D175" s="3"/>
@@ -9420,6 +10030,7 @@
       <c r="L175" s="3"/>
       <c r="M175" s="3"/>
       <c r="N175" s="3"/>
+      <c r="O175" s="3"/>
       <c r="Q175" s="16"/>
       <c r="R175" s="22"/>
       <c r="S175" s="3"/>
@@ -9433,8 +10044,9 @@
       <c r="AA175" s="3"/>
       <c r="AB175" s="3"/>
       <c r="AC175" s="3"/>
-    </row>
-    <row r="176" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AD175" s="3"/>
+    </row>
+    <row r="176" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B176" s="16"/>
       <c r="C176" s="1"/>
       <c r="D176" s="3"/>
@@ -9448,6 +10060,7 @@
       <c r="L176" s="3"/>
       <c r="M176" s="3"/>
       <c r="N176" s="3"/>
+      <c r="O176" s="3"/>
       <c r="Q176" s="16"/>
       <c r="R176" s="22"/>
       <c r="S176" s="3"/>
@@ -9461,8 +10074,9 @@
       <c r="AA176" s="3"/>
       <c r="AB176" s="3"/>
       <c r="AC176" s="3"/>
-    </row>
-    <row r="177" spans="2:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD176" s="3"/>
+    </row>
+    <row r="177" spans="2:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C177" s="21" t="s">
         <v>43</v>
       </c>
@@ -9477,6 +10091,7 @@
       <c r="L177" s="1"/>
       <c r="M177" s="1"/>
       <c r="N177" s="1"/>
+      <c r="O177" s="1"/>
       <c r="R177" s="23" t="s">
         <v>43</v>
       </c>
@@ -9491,8 +10106,9 @@
       <c r="AA177" s="22"/>
       <c r="AB177" s="22"/>
       <c r="AC177" s="22"/>
-    </row>
-    <row r="178" spans="2:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD177" s="22"/>
+    </row>
+    <row r="178" spans="2:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C178" s="20" t="s">
         <v>55</v>
       </c>
@@ -9507,6 +10123,7 @@
       <c r="L178" s="20"/>
       <c r="M178" s="20"/>
       <c r="N178" s="20"/>
+      <c r="O178" s="20"/>
       <c r="R178" s="24" t="s">
         <v>55</v>
       </c>
@@ -9521,8 +10138,9 @@
       <c r="AA178" s="24"/>
       <c r="AB178" s="24"/>
       <c r="AC178" s="24"/>
-    </row>
-    <row r="179" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AD178" s="24"/>
+    </row>
+    <row r="179" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B179" s="1" t="s">
         <v>30</v>
       </c>
@@ -9537,27 +10155,30 @@
         <v>3</v>
       </c>
       <c r="G179" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H179" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H179" s="1" t="s">
+      <c r="I179" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="I179" s="1" t="s">
+      <c r="J179" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J179" s="1" t="s">
+      <c r="K179" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K179" s="1" t="s">
+      <c r="L179" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="L179" s="1" t="s">
+      <c r="M179" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="M179" s="1" t="s">
+      <c r="N179" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="N179" s="1" t="s">
+      <c r="O179" s="1" t="s">
         <v>110</v>
       </c>
       <c r="Q179" s="22" t="s">
@@ -9574,31 +10195,34 @@
         <v>3</v>
       </c>
       <c r="V179" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="W179" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="W179" s="22" t="s">
+      <c r="X179" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="X179" s="22" t="s">
+      <c r="Y179" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="Y179" s="22" t="s">
+      <c r="Z179" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="Z179" s="22" t="s">
+      <c r="AA179" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="AA179" s="22" t="s">
+      <c r="AB179" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="AB179" s="22" t="s">
+      <c r="AC179" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="AC179" s="22" t="s">
+      <c r="AD179" s="22" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="180" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B180" s="16"/>
       <c r="C180" s="1"/>
       <c r="D180" s="3"/>
@@ -9612,6 +10236,7 @@
       <c r="L180" s="3"/>
       <c r="M180" s="3"/>
       <c r="N180" s="3"/>
+      <c r="O180" s="3"/>
       <c r="Q180" s="16"/>
       <c r="R180" s="22"/>
       <c r="S180" s="3"/>
@@ -9625,8 +10250,9 @@
       <c r="AA180" s="3"/>
       <c r="AB180" s="3"/>
       <c r="AC180" s="3"/>
-    </row>
-    <row r="181" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AD180" s="3"/>
+    </row>
+    <row r="181" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B181" s="16"/>
       <c r="C181" s="1"/>
       <c r="D181" s="3"/>
@@ -9640,6 +10266,7 @@
       <c r="L181" s="3"/>
       <c r="M181" s="3"/>
       <c r="N181" s="3"/>
+      <c r="O181" s="3"/>
       <c r="Q181" s="16"/>
       <c r="R181" s="22"/>
       <c r="S181" s="3"/>
@@ -9653,8 +10280,9 @@
       <c r="AA181" s="3"/>
       <c r="AB181" s="3"/>
       <c r="AC181" s="3"/>
-    </row>
-    <row r="182" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AD181" s="3"/>
+    </row>
+    <row r="182" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B182" s="16"/>
       <c r="C182" s="1"/>
       <c r="D182" s="3"/>
@@ -9668,6 +10296,7 @@
       <c r="L182" s="3"/>
       <c r="M182" s="3"/>
       <c r="N182" s="3"/>
+      <c r="O182" s="3"/>
       <c r="Q182" s="16"/>
       <c r="R182" s="22"/>
       <c r="S182" s="3"/>
@@ -9681,8 +10310,9 @@
       <c r="AA182" s="3"/>
       <c r="AB182" s="3"/>
       <c r="AC182" s="3"/>
-    </row>
-    <row r="183" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AD182" s="3"/>
+    </row>
+    <row r="183" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B183" s="16"/>
       <c r="C183" s="1"/>
       <c r="D183" s="3"/>
@@ -9696,6 +10326,7 @@
       <c r="L183" s="3"/>
       <c r="M183" s="3"/>
       <c r="N183" s="3"/>
+      <c r="O183" s="3"/>
       <c r="Q183" s="16"/>
       <c r="R183" s="22"/>
       <c r="S183" s="3"/>
@@ -9709,8 +10340,9 @@
       <c r="AA183" s="3"/>
       <c r="AB183" s="3"/>
       <c r="AC183" s="3"/>
-    </row>
-    <row r="184" spans="2:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD183" s="3"/>
+    </row>
+    <row r="184" spans="2:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C184" s="21" t="s">
         <v>43</v>
       </c>
@@ -9725,6 +10357,7 @@
       <c r="L184" s="1"/>
       <c r="M184" s="1"/>
       <c r="N184" s="1"/>
+      <c r="O184" s="1"/>
       <c r="R184" s="23" t="s">
         <v>43</v>
       </c>
@@ -9739,8 +10372,9 @@
       <c r="AA184" s="22"/>
       <c r="AB184" s="22"/>
       <c r="AC184" s="22"/>
-    </row>
-    <row r="185" spans="2:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD184" s="22"/>
+    </row>
+    <row r="185" spans="2:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C185" s="20" t="s">
         <v>55</v>
       </c>
@@ -9755,6 +10389,7 @@
       <c r="L185" s="20"/>
       <c r="M185" s="20"/>
       <c r="N185" s="20"/>
+      <c r="O185" s="20"/>
       <c r="R185" s="24" t="s">
         <v>55</v>
       </c>
@@ -9769,8 +10404,9 @@
       <c r="AA185" s="24"/>
       <c r="AB185" s="24"/>
       <c r="AC185" s="24"/>
-    </row>
-    <row r="186" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AD185" s="24"/>
+    </row>
+    <row r="186" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B186" s="1" t="s">
         <v>31</v>
       </c>
@@ -9785,27 +10421,30 @@
         <v>3</v>
       </c>
       <c r="G186" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H186" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H186" s="1" t="s">
+      <c r="I186" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="I186" s="1" t="s">
+      <c r="J186" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J186" s="1" t="s">
+      <c r="K186" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K186" s="1" t="s">
+      <c r="L186" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="L186" s="1" t="s">
+      <c r="M186" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="M186" s="1" t="s">
+      <c r="N186" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="N186" s="1" t="s">
+      <c r="O186" s="1" t="s">
         <v>110</v>
       </c>
       <c r="Q186" s="22" t="s">
@@ -9822,31 +10461,34 @@
         <v>3</v>
       </c>
       <c r="V186" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="W186" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="W186" s="22" t="s">
+      <c r="X186" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="X186" s="22" t="s">
+      <c r="Y186" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="Y186" s="22" t="s">
+      <c r="Z186" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="Z186" s="22" t="s">
+      <c r="AA186" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="AA186" s="22" t="s">
+      <c r="AB186" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="AB186" s="22" t="s">
+      <c r="AC186" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="AC186" s="22" t="s">
+      <c r="AD186" s="22" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="187" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B187" s="16"/>
       <c r="C187" s="1"/>
       <c r="D187" s="3"/>
@@ -9860,6 +10502,7 @@
       <c r="L187" s="3"/>
       <c r="M187" s="3"/>
       <c r="N187" s="3"/>
+      <c r="O187" s="3"/>
       <c r="Q187" s="16"/>
       <c r="R187" s="22"/>
       <c r="S187" s="3"/>
@@ -9873,8 +10516,9 @@
       <c r="AA187" s="3"/>
       <c r="AB187" s="3"/>
       <c r="AC187" s="3"/>
-    </row>
-    <row r="188" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AD187" s="3"/>
+    </row>
+    <row r="188" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B188" s="16"/>
       <c r="C188" s="1"/>
       <c r="D188" s="3"/>
@@ -9888,6 +10532,7 @@
       <c r="L188" s="3"/>
       <c r="M188" s="3"/>
       <c r="N188" s="3"/>
+      <c r="O188" s="3"/>
       <c r="Q188" s="16"/>
       <c r="R188" s="22"/>
       <c r="S188" s="3"/>
@@ -9901,8 +10546,9 @@
       <c r="AA188" s="3"/>
       <c r="AB188" s="3"/>
       <c r="AC188" s="3"/>
-    </row>
-    <row r="189" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AD188" s="3"/>
+    </row>
+    <row r="189" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B189" s="16"/>
       <c r="C189" s="1"/>
       <c r="D189" s="3"/>
@@ -9916,6 +10562,7 @@
       <c r="L189" s="3"/>
       <c r="M189" s="3"/>
       <c r="N189" s="3"/>
+      <c r="O189" s="3"/>
       <c r="Q189" s="16"/>
       <c r="R189" s="22"/>
       <c r="S189" s="3"/>
@@ -9929,8 +10576,9 @@
       <c r="AA189" s="3"/>
       <c r="AB189" s="3"/>
       <c r="AC189" s="3"/>
-    </row>
-    <row r="190" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AD189" s="3"/>
+    </row>
+    <row r="190" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B190" s="16"/>
       <c r="C190" s="1"/>
       <c r="D190" s="3"/>
@@ -9944,6 +10592,7 @@
       <c r="L190" s="3"/>
       <c r="M190" s="3"/>
       <c r="N190" s="3"/>
+      <c r="O190" s="3"/>
       <c r="Q190" s="16"/>
       <c r="R190" s="22"/>
       <c r="S190" s="3"/>
@@ -9957,8 +10606,9 @@
       <c r="AA190" s="3"/>
       <c r="AB190" s="3"/>
       <c r="AC190" s="3"/>
-    </row>
-    <row r="191" spans="2:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD190" s="3"/>
+    </row>
+    <row r="191" spans="2:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C191" s="21" t="s">
         <v>43</v>
       </c>
@@ -9973,6 +10623,7 @@
       <c r="L191" s="1"/>
       <c r="M191" s="1"/>
       <c r="N191" s="1"/>
+      <c r="O191" s="1"/>
       <c r="R191" s="23" t="s">
         <v>43</v>
       </c>
@@ -9987,8 +10638,9 @@
       <c r="AA191" s="22"/>
       <c r="AB191" s="22"/>
       <c r="AC191" s="22"/>
-    </row>
-    <row r="192" spans="2:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD191" s="22"/>
+    </row>
+    <row r="192" spans="2:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C192" s="20" t="s">
         <v>55</v>
       </c>
@@ -10003,6 +10655,7 @@
       <c r="L192" s="20"/>
       <c r="M192" s="20"/>
       <c r="N192" s="20"/>
+      <c r="O192" s="20"/>
       <c r="R192" s="24" t="s">
         <v>55</v>
       </c>
@@ -10017,8 +10670,9 @@
       <c r="AA192" s="24"/>
       <c r="AB192" s="24"/>
       <c r="AC192" s="24"/>
-    </row>
-    <row r="193" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AD192" s="24"/>
+    </row>
+    <row r="193" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B193" s="1" t="s">
         <v>32</v>
       </c>
@@ -10033,27 +10687,30 @@
         <v>3</v>
       </c>
       <c r="G193" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H193" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H193" s="1" t="s">
+      <c r="I193" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="I193" s="1" t="s">
+      <c r="J193" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J193" s="1" t="s">
+      <c r="K193" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K193" s="1" t="s">
+      <c r="L193" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="L193" s="1" t="s">
+      <c r="M193" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="M193" s="1" t="s">
+      <c r="N193" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="N193" s="1" t="s">
+      <c r="O193" s="1" t="s">
         <v>110</v>
       </c>
       <c r="Q193" s="22" t="s">
@@ -10070,31 +10727,34 @@
         <v>3</v>
       </c>
       <c r="V193" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="W193" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="W193" s="22" t="s">
+      <c r="X193" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="X193" s="22" t="s">
+      <c r="Y193" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="Y193" s="22" t="s">
+      <c r="Z193" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="Z193" s="22" t="s">
+      <c r="AA193" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="AA193" s="22" t="s">
+      <c r="AB193" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="AB193" s="22" t="s">
+      <c r="AC193" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="AC193" s="22" t="s">
+      <c r="AD193" s="22" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="194" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B194" s="16"/>
       <c r="C194" s="1"/>
       <c r="D194" s="3"/>
@@ -10108,6 +10768,7 @@
       <c r="L194" s="3"/>
       <c r="M194" s="3"/>
       <c r="N194" s="3"/>
+      <c r="O194" s="3"/>
       <c r="Q194" s="16"/>
       <c r="R194" s="22"/>
       <c r="S194" s="3"/>
@@ -10121,8 +10782,9 @@
       <c r="AA194" s="3"/>
       <c r="AB194" s="3"/>
       <c r="AC194" s="3"/>
-    </row>
-    <row r="195" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AD194" s="3"/>
+    </row>
+    <row r="195" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B195" s="16"/>
       <c r="C195" s="1"/>
       <c r="D195" s="3"/>
@@ -10136,6 +10798,7 @@
       <c r="L195" s="3"/>
       <c r="M195" s="3"/>
       <c r="N195" s="3"/>
+      <c r="O195" s="3"/>
       <c r="Q195" s="16"/>
       <c r="R195" s="22"/>
       <c r="S195" s="3"/>
@@ -10149,8 +10812,9 @@
       <c r="AA195" s="3"/>
       <c r="AB195" s="3"/>
       <c r="AC195" s="3"/>
-    </row>
-    <row r="196" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AD195" s="3"/>
+    </row>
+    <row r="196" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B196" s="16"/>
       <c r="C196" s="1"/>
       <c r="D196" s="3"/>
@@ -10164,6 +10828,7 @@
       <c r="L196" s="3"/>
       <c r="M196" s="3"/>
       <c r="N196" s="3"/>
+      <c r="O196" s="3"/>
       <c r="Q196" s="16"/>
       <c r="R196" s="22"/>
       <c r="S196" s="3"/>
@@ -10177,8 +10842,9 @@
       <c r="AA196" s="3"/>
       <c r="AB196" s="3"/>
       <c r="AC196" s="3"/>
-    </row>
-    <row r="197" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AD196" s="3"/>
+    </row>
+    <row r="197" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B197" s="16"/>
       <c r="C197" s="1"/>
       <c r="D197" s="3"/>
@@ -10192,6 +10858,7 @@
       <c r="L197" s="3"/>
       <c r="M197" s="3"/>
       <c r="N197" s="3"/>
+      <c r="O197" s="3"/>
       <c r="Q197" s="16"/>
       <c r="R197" s="22"/>
       <c r="S197" s="3"/>
@@ -10205,8 +10872,9 @@
       <c r="AA197" s="3"/>
       <c r="AB197" s="3"/>
       <c r="AC197" s="3"/>
-    </row>
-    <row r="198" spans="2:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD197" s="3"/>
+    </row>
+    <row r="198" spans="2:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C198" s="21" t="s">
         <v>43</v>
       </c>
@@ -10221,6 +10889,7 @@
       <c r="L198" s="1"/>
       <c r="M198" s="1"/>
       <c r="N198" s="1"/>
+      <c r="O198" s="1"/>
       <c r="R198" s="23" t="s">
         <v>43</v>
       </c>
@@ -10235,8 +10904,9 @@
       <c r="AA198" s="22"/>
       <c r="AB198" s="22"/>
       <c r="AC198" s="22"/>
-    </row>
-    <row r="199" spans="2:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD198" s="22"/>
+    </row>
+    <row r="199" spans="2:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C199" s="20" t="s">
         <v>55</v>
       </c>
@@ -10251,6 +10921,7 @@
       <c r="L199" s="20"/>
       <c r="M199" s="20"/>
       <c r="N199" s="20"/>
+      <c r="O199" s="20"/>
       <c r="R199" s="24" t="s">
         <v>55</v>
       </c>
@@ -10265,8 +10936,9 @@
       <c r="AA199" s="24"/>
       <c r="AB199" s="24"/>
       <c r="AC199" s="24"/>
-    </row>
-    <row r="200" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AD199" s="24"/>
+    </row>
+    <row r="200" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B200" s="1" t="s">
         <v>33</v>
       </c>
@@ -10281,27 +10953,30 @@
         <v>3</v>
       </c>
       <c r="G200" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H200" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H200" s="1" t="s">
+      <c r="I200" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="I200" s="1" t="s">
+      <c r="J200" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J200" s="1" t="s">
+      <c r="K200" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K200" s="1" t="s">
+      <c r="L200" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="L200" s="1" t="s">
+      <c r="M200" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="M200" s="1" t="s">
+      <c r="N200" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="N200" s="1" t="s">
+      <c r="O200" s="1" t="s">
         <v>110</v>
       </c>
       <c r="Q200" s="22" t="s">
@@ -10318,31 +10993,34 @@
         <v>3</v>
       </c>
       <c r="V200" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="W200" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="W200" s="22" t="s">
+      <c r="X200" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="X200" s="22" t="s">
+      <c r="Y200" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="Y200" s="22" t="s">
+      <c r="Z200" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="Z200" s="22" t="s">
+      <c r="AA200" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="AA200" s="22" t="s">
+      <c r="AB200" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="AB200" s="22" t="s">
+      <c r="AC200" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="AC200" s="22" t="s">
+      <c r="AD200" s="22" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="201" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B201" s="16"/>
       <c r="C201" s="1"/>
       <c r="D201" s="3"/>
@@ -10356,6 +11034,7 @@
       <c r="L201" s="3"/>
       <c r="M201" s="3"/>
       <c r="N201" s="3"/>
+      <c r="O201" s="3"/>
       <c r="Q201" s="16"/>
       <c r="R201" s="22"/>
       <c r="S201" s="3"/>
@@ -10369,8 +11048,9 @@
       <c r="AA201" s="3"/>
       <c r="AB201" s="3"/>
       <c r="AC201" s="3"/>
-    </row>
-    <row r="202" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AD201" s="3"/>
+    </row>
+    <row r="202" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B202" s="16"/>
       <c r="C202" s="1"/>
       <c r="D202" s="3"/>
@@ -10384,6 +11064,7 @@
       <c r="L202" s="3"/>
       <c r="M202" s="3"/>
       <c r="N202" s="3"/>
+      <c r="O202" s="3"/>
       <c r="Q202" s="16"/>
       <c r="R202" s="22"/>
       <c r="S202" s="3"/>
@@ -10397,8 +11078,9 @@
       <c r="AA202" s="3"/>
       <c r="AB202" s="3"/>
       <c r="AC202" s="3"/>
-    </row>
-    <row r="203" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AD202" s="3"/>
+    </row>
+    <row r="203" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B203" s="16"/>
       <c r="C203" s="1"/>
       <c r="D203" s="3"/>
@@ -10412,6 +11094,7 @@
       <c r="L203" s="3"/>
       <c r="M203" s="3"/>
       <c r="N203" s="3"/>
+      <c r="O203" s="3"/>
       <c r="Q203" s="16"/>
       <c r="R203" s="22"/>
       <c r="S203" s="3"/>
@@ -10425,8 +11108,9 @@
       <c r="AA203" s="3"/>
       <c r="AB203" s="3"/>
       <c r="AC203" s="3"/>
-    </row>
-    <row r="204" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AD203" s="3"/>
+    </row>
+    <row r="204" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B204" s="16"/>
       <c r="C204" s="1"/>
       <c r="D204" s="3"/>
@@ -10440,6 +11124,7 @@
       <c r="L204" s="3"/>
       <c r="M204" s="3"/>
       <c r="N204" s="3"/>
+      <c r="O204" s="3"/>
       <c r="Q204" s="16"/>
       <c r="R204" s="22"/>
       <c r="S204" s="3"/>
@@ -10453,8 +11138,9 @@
       <c r="AA204" s="3"/>
       <c r="AB204" s="3"/>
       <c r="AC204" s="3"/>
-    </row>
-    <row r="205" spans="2:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD204" s="3"/>
+    </row>
+    <row r="205" spans="2:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C205" s="21" t="s">
         <v>43</v>
       </c>
@@ -10469,6 +11155,7 @@
       <c r="L205" s="1"/>
       <c r="M205" s="1"/>
       <c r="N205" s="1"/>
+      <c r="O205" s="1"/>
       <c r="R205" s="23" t="s">
         <v>43</v>
       </c>
@@ -10483,8 +11170,9 @@
       <c r="AA205" s="22"/>
       <c r="AB205" s="22"/>
       <c r="AC205" s="22"/>
-    </row>
-    <row r="206" spans="2:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD205" s="22"/>
+    </row>
+    <row r="206" spans="2:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C206" s="20" t="s">
         <v>55</v>
       </c>
@@ -10499,6 +11187,7 @@
       <c r="L206" s="20"/>
       <c r="M206" s="20"/>
       <c r="N206" s="20"/>
+      <c r="O206" s="20"/>
       <c r="R206" s="24" t="s">
         <v>55</v>
       </c>
@@ -10513,8 +11202,9 @@
       <c r="AA206" s="24"/>
       <c r="AB206" s="24"/>
       <c r="AC206" s="24"/>
-    </row>
-    <row r="207" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AD206" s="24"/>
+    </row>
+    <row r="207" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B207" s="1" t="s">
         <v>34</v>
       </c>
@@ -10529,27 +11219,30 @@
         <v>3</v>
       </c>
       <c r="G207" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H207" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H207" s="1" t="s">
+      <c r="I207" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="I207" s="1" t="s">
+      <c r="J207" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J207" s="1" t="s">
+      <c r="K207" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K207" s="1" t="s">
+      <c r="L207" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="L207" s="1" t="s">
+      <c r="M207" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="M207" s="1" t="s">
+      <c r="N207" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="N207" s="1" t="s">
+      <c r="O207" s="1" t="s">
         <v>110</v>
       </c>
       <c r="Q207" s="22" t="s">
@@ -10566,31 +11259,34 @@
         <v>3</v>
       </c>
       <c r="V207" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="W207" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="W207" s="22" t="s">
+      <c r="X207" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="X207" s="22" t="s">
+      <c r="Y207" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="Y207" s="22" t="s">
+      <c r="Z207" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="Z207" s="22" t="s">
+      <c r="AA207" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="AA207" s="22" t="s">
+      <c r="AB207" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="AB207" s="22" t="s">
+      <c r="AC207" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="AC207" s="22" t="s">
+      <c r="AD207" s="22" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="208" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B208" s="16"/>
       <c r="C208" s="1"/>
       <c r="D208" s="3"/>
@@ -10604,6 +11300,7 @@
       <c r="L208" s="3"/>
       <c r="M208" s="3"/>
       <c r="N208" s="3"/>
+      <c r="O208" s="3"/>
       <c r="Q208" s="16"/>
       <c r="R208" s="22"/>
       <c r="S208" s="3"/>
@@ -10617,8 +11314,9 @@
       <c r="AA208" s="3"/>
       <c r="AB208" s="3"/>
       <c r="AC208" s="3"/>
-    </row>
-    <row r="209" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AD208" s="3"/>
+    </row>
+    <row r="209" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B209" s="16"/>
       <c r="C209" s="1"/>
       <c r="D209" s="3"/>
@@ -10632,6 +11330,7 @@
       <c r="L209" s="3"/>
       <c r="M209" s="3"/>
       <c r="N209" s="3"/>
+      <c r="O209" s="3"/>
       <c r="Q209" s="16"/>
       <c r="R209" s="22"/>
       <c r="S209" s="3"/>
@@ -10645,8 +11344,9 @@
       <c r="AA209" s="3"/>
       <c r="AB209" s="3"/>
       <c r="AC209" s="3"/>
-    </row>
-    <row r="210" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AD209" s="3"/>
+    </row>
+    <row r="210" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B210" s="16"/>
       <c r="C210" s="1"/>
       <c r="D210" s="3"/>
@@ -10660,6 +11360,7 @@
       <c r="L210" s="3"/>
       <c r="M210" s="3"/>
       <c r="N210" s="3"/>
+      <c r="O210" s="3"/>
       <c r="Q210" s="16"/>
       <c r="R210" s="22"/>
       <c r="S210" s="3"/>
@@ -10673,8 +11374,9 @@
       <c r="AA210" s="3"/>
       <c r="AB210" s="3"/>
       <c r="AC210" s="3"/>
-    </row>
-    <row r="211" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AD210" s="3"/>
+    </row>
+    <row r="211" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B211" s="16"/>
       <c r="C211" s="1"/>
       <c r="D211" s="3"/>
@@ -10688,6 +11390,7 @@
       <c r="L211" s="3"/>
       <c r="M211" s="3"/>
       <c r="N211" s="3"/>
+      <c r="O211" s="3"/>
       <c r="Q211" s="16"/>
       <c r="R211" s="22"/>
       <c r="S211" s="3"/>
@@ -10701,8 +11404,9 @@
       <c r="AA211" s="3"/>
       <c r="AB211" s="3"/>
       <c r="AC211" s="3"/>
-    </row>
-    <row r="212" spans="2:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD211" s="3"/>
+    </row>
+    <row r="212" spans="2:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C212" s="21" t="s">
         <v>43</v>
       </c>
@@ -10717,6 +11421,7 @@
       <c r="L212" s="1"/>
       <c r="M212" s="1"/>
       <c r="N212" s="1"/>
+      <c r="O212" s="1"/>
       <c r="R212" s="23" t="s">
         <v>43</v>
       </c>
@@ -10731,8 +11436,9 @@
       <c r="AA212" s="22"/>
       <c r="AB212" s="22"/>
       <c r="AC212" s="22"/>
-    </row>
-    <row r="213" spans="2:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD212" s="22"/>
+    </row>
+    <row r="213" spans="2:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C213" s="20" t="s">
         <v>55</v>
       </c>
@@ -10747,6 +11453,7 @@
       <c r="L213" s="20"/>
       <c r="M213" s="20"/>
       <c r="N213" s="20"/>
+      <c r="O213" s="20"/>
       <c r="R213" s="24" t="s">
         <v>55</v>
       </c>
@@ -10761,8 +11468,9 @@
       <c r="AA213" s="24"/>
       <c r="AB213" s="24"/>
       <c r="AC213" s="24"/>
-    </row>
-    <row r="214" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AD213" s="24"/>
+    </row>
+    <row r="214" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B214" s="1" t="s">
         <v>35</v>
       </c>
@@ -10777,27 +11485,30 @@
         <v>3</v>
       </c>
       <c r="G214" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H214" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H214" s="1" t="s">
+      <c r="I214" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="I214" s="1" t="s">
+      <c r="J214" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J214" s="1" t="s">
+      <c r="K214" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K214" s="1" t="s">
+      <c r="L214" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="L214" s="1" t="s">
+      <c r="M214" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="M214" s="1" t="s">
+      <c r="N214" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="N214" s="1" t="s">
+      <c r="O214" s="1" t="s">
         <v>110</v>
       </c>
       <c r="Q214" s="22" t="s">
@@ -10814,31 +11525,34 @@
         <v>3</v>
       </c>
       <c r="V214" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="W214" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="W214" s="22" t="s">
+      <c r="X214" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="X214" s="22" t="s">
+      <c r="Y214" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="Y214" s="22" t="s">
+      <c r="Z214" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="Z214" s="22" t="s">
+      <c r="AA214" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="AA214" s="22" t="s">
+      <c r="AB214" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="AB214" s="22" t="s">
+      <c r="AC214" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="AC214" s="22" t="s">
+      <c r="AD214" s="22" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="215" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B215" s="16"/>
       <c r="C215" s="1"/>
       <c r="D215" s="3"/>
@@ -10852,6 +11566,7 @@
       <c r="L215" s="3"/>
       <c r="M215" s="3"/>
       <c r="N215" s="3"/>
+      <c r="O215" s="3"/>
       <c r="Q215" s="16"/>
       <c r="R215" s="22"/>
       <c r="S215" s="3"/>
@@ -10865,8 +11580,9 @@
       <c r="AA215" s="3"/>
       <c r="AB215" s="3"/>
       <c r="AC215" s="3"/>
-    </row>
-    <row r="216" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AD215" s="3"/>
+    </row>
+    <row r="216" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B216" s="16"/>
       <c r="C216" s="1"/>
       <c r="D216" s="3"/>
@@ -10880,6 +11596,7 @@
       <c r="L216" s="3"/>
       <c r="M216" s="3"/>
       <c r="N216" s="3"/>
+      <c r="O216" s="3"/>
       <c r="Q216" s="16"/>
       <c r="R216" s="22"/>
       <c r="S216" s="3"/>
@@ -10893,8 +11610,9 @@
       <c r="AA216" s="3"/>
       <c r="AB216" s="3"/>
       <c r="AC216" s="3"/>
-    </row>
-    <row r="217" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AD216" s="3"/>
+    </row>
+    <row r="217" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B217" s="16"/>
       <c r="C217" s="1"/>
       <c r="D217" s="3"/>
@@ -10908,6 +11626,7 @@
       <c r="L217" s="3"/>
       <c r="M217" s="3"/>
       <c r="N217" s="3"/>
+      <c r="O217" s="3"/>
       <c r="Q217" s="16"/>
       <c r="R217" s="22"/>
       <c r="S217" s="3"/>
@@ -10921,8 +11640,9 @@
       <c r="AA217" s="3"/>
       <c r="AB217" s="3"/>
       <c r="AC217" s="3"/>
-    </row>
-    <row r="218" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AD217" s="3"/>
+    </row>
+    <row r="218" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B218" s="16"/>
       <c r="C218" s="1"/>
       <c r="D218" s="3"/>
@@ -10936,6 +11656,7 @@
       <c r="L218" s="3"/>
       <c r="M218" s="3"/>
       <c r="N218" s="3"/>
+      <c r="O218" s="3"/>
       <c r="Q218" s="16"/>
       <c r="R218" s="22"/>
       <c r="S218" s="3"/>
@@ -10949,8 +11670,9 @@
       <c r="AA218" s="3"/>
       <c r="AB218" s="3"/>
       <c r="AC218" s="3"/>
-    </row>
-    <row r="219" spans="2:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD218" s="3"/>
+    </row>
+    <row r="219" spans="2:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C219" s="21" t="s">
         <v>43</v>
       </c>
@@ -10965,6 +11687,7 @@
       <c r="L219" s="1"/>
       <c r="M219" s="1"/>
       <c r="N219" s="1"/>
+      <c r="O219" s="1"/>
       <c r="R219" s="23" t="s">
         <v>43</v>
       </c>
@@ -10979,8 +11702,9 @@
       <c r="AA219" s="22"/>
       <c r="AB219" s="22"/>
       <c r="AC219" s="22"/>
-    </row>
-    <row r="220" spans="2:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD219" s="22"/>
+    </row>
+    <row r="220" spans="2:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C220" s="20" t="s">
         <v>55</v>
       </c>
@@ -10995,6 +11719,7 @@
       <c r="L220" s="20"/>
       <c r="M220" s="20"/>
       <c r="N220" s="20"/>
+      <c r="O220" s="20"/>
       <c r="R220" s="24" t="s">
         <v>55</v>
       </c>
@@ -11009,8 +11734,9 @@
       <c r="AA220" s="24"/>
       <c r="AB220" s="24"/>
       <c r="AC220" s="24"/>
-    </row>
-    <row r="221" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AD220" s="24"/>
+    </row>
+    <row r="221" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B221" s="1" t="s">
         <v>36</v>
       </c>
@@ -11025,27 +11751,30 @@
         <v>3</v>
       </c>
       <c r="G221" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H221" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H221" s="1" t="s">
+      <c r="I221" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="I221" s="1" t="s">
+      <c r="J221" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J221" s="1" t="s">
+      <c r="K221" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K221" s="1" t="s">
+      <c r="L221" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="L221" s="1" t="s">
+      <c r="M221" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="M221" s="1" t="s">
+      <c r="N221" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="N221" s="1" t="s">
+      <c r="O221" s="1" t="s">
         <v>110</v>
       </c>
       <c r="Q221" s="22" t="s">
@@ -11062,31 +11791,34 @@
         <v>3</v>
       </c>
       <c r="V221" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="W221" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="W221" s="22" t="s">
+      <c r="X221" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="X221" s="22" t="s">
+      <c r="Y221" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="Y221" s="22" t="s">
+      <c r="Z221" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="Z221" s="22" t="s">
+      <c r="AA221" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="AA221" s="22" t="s">
+      <c r="AB221" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="AB221" s="22" t="s">
+      <c r="AC221" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="AC221" s="22" t="s">
+      <c r="AD221" s="22" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="222" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B222" s="16"/>
       <c r="C222" s="1"/>
       <c r="D222" s="3"/>
@@ -11100,6 +11832,7 @@
       <c r="L222" s="3"/>
       <c r="M222" s="3"/>
       <c r="N222" s="3"/>
+      <c r="O222" s="3"/>
       <c r="Q222" s="16"/>
       <c r="R222" s="22"/>
       <c r="S222" s="3"/>
@@ -11113,8 +11846,9 @@
       <c r="AA222" s="3"/>
       <c r="AB222" s="3"/>
       <c r="AC222" s="3"/>
-    </row>
-    <row r="223" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AD222" s="3"/>
+    </row>
+    <row r="223" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B223" s="16"/>
       <c r="C223" s="1"/>
       <c r="D223" s="3"/>
@@ -11128,6 +11862,7 @@
       <c r="L223" s="3"/>
       <c r="M223" s="3"/>
       <c r="N223" s="3"/>
+      <c r="O223" s="3"/>
       <c r="Q223" s="16"/>
       <c r="R223" s="22"/>
       <c r="S223" s="3"/>
@@ -11141,8 +11876,9 @@
       <c r="AA223" s="3"/>
       <c r="AB223" s="3"/>
       <c r="AC223" s="3"/>
-    </row>
-    <row r="224" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AD223" s="3"/>
+    </row>
+    <row r="224" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B224" s="16"/>
       <c r="C224" s="1"/>
       <c r="D224" s="3"/>
@@ -11156,6 +11892,7 @@
       <c r="L224" s="3"/>
       <c r="M224" s="3"/>
       <c r="N224" s="3"/>
+      <c r="O224" s="3"/>
       <c r="Q224" s="16"/>
       <c r="R224" s="22"/>
       <c r="S224" s="3"/>
@@ -11169,8 +11906,9 @@
       <c r="AA224" s="3"/>
       <c r="AB224" s="3"/>
       <c r="AC224" s="3"/>
-    </row>
-    <row r="225" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AD224" s="3"/>
+    </row>
+    <row r="225" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B225" s="16"/>
       <c r="C225" s="1"/>
       <c r="D225" s="3"/>
@@ -11184,6 +11922,7 @@
       <c r="L225" s="3"/>
       <c r="M225" s="3"/>
       <c r="N225" s="3"/>
+      <c r="O225" s="3"/>
       <c r="Q225" s="16"/>
       <c r="R225" s="22"/>
       <c r="S225" s="3"/>
@@ -11197,8 +11936,9 @@
       <c r="AA225" s="3"/>
       <c r="AB225" s="3"/>
       <c r="AC225" s="3"/>
-    </row>
-    <row r="226" spans="2:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD225" s="3"/>
+    </row>
+    <row r="226" spans="2:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C226" s="21" t="s">
         <v>43</v>
       </c>
@@ -11213,6 +11953,7 @@
       <c r="L226" s="1"/>
       <c r="M226" s="1"/>
       <c r="N226" s="1"/>
+      <c r="O226" s="1"/>
       <c r="R226" s="23" t="s">
         <v>43</v>
       </c>
@@ -11227,8 +11968,9 @@
       <c r="AA226" s="22"/>
       <c r="AB226" s="22"/>
       <c r="AC226" s="22"/>
-    </row>
-    <row r="227" spans="2:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD226" s="22"/>
+    </row>
+    <row r="227" spans="2:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C227" s="20" t="s">
         <v>55</v>
       </c>
@@ -11243,6 +11985,7 @@
       <c r="L227" s="20"/>
       <c r="M227" s="20"/>
       <c r="N227" s="20"/>
+      <c r="O227" s="20"/>
       <c r="R227" s="24" t="s">
         <v>55</v>
       </c>
@@ -11257,8 +12000,9 @@
       <c r="AA227" s="24"/>
       <c r="AB227" s="24"/>
       <c r="AC227" s="24"/>
-    </row>
-    <row r="228" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AD227" s="24"/>
+    </row>
+    <row r="228" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B228" s="1" t="s">
         <v>37</v>
       </c>
@@ -11273,27 +12017,30 @@
         <v>3</v>
       </c>
       <c r="G228" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H228" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H228" s="1" t="s">
+      <c r="I228" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="I228" s="1" t="s">
+      <c r="J228" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J228" s="1" t="s">
+      <c r="K228" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K228" s="1" t="s">
+      <c r="L228" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="L228" s="1" t="s">
+      <c r="M228" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="M228" s="1" t="s">
+      <c r="N228" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="N228" s="1" t="s">
+      <c r="O228" s="1" t="s">
         <v>110</v>
       </c>
       <c r="Q228" s="22" t="s">
@@ -11310,31 +12057,34 @@
         <v>3</v>
       </c>
       <c r="V228" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="W228" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="W228" s="22" t="s">
+      <c r="X228" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="X228" s="22" t="s">
+      <c r="Y228" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="Y228" s="22" t="s">
+      <c r="Z228" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="Z228" s="22" t="s">
+      <c r="AA228" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="AA228" s="22" t="s">
+      <c r="AB228" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="AB228" s="22" t="s">
+      <c r="AC228" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="AC228" s="22" t="s">
+      <c r="AD228" s="22" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="229" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B229" s="16"/>
       <c r="C229" s="1"/>
       <c r="D229" s="3"/>
@@ -11348,6 +12098,7 @@
       <c r="L229" s="3"/>
       <c r="M229" s="3"/>
       <c r="N229" s="3"/>
+      <c r="O229" s="3"/>
       <c r="Q229" s="16"/>
       <c r="R229" s="22"/>
       <c r="S229" s="3"/>
@@ -11361,8 +12112,9 @@
       <c r="AA229" s="3"/>
       <c r="AB229" s="3"/>
       <c r="AC229" s="3"/>
-    </row>
-    <row r="230" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AD229" s="3"/>
+    </row>
+    <row r="230" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B230" s="16"/>
       <c r="C230" s="1"/>
       <c r="D230" s="3"/>
@@ -11376,6 +12128,7 @@
       <c r="L230" s="3"/>
       <c r="M230" s="3"/>
       <c r="N230" s="3"/>
+      <c r="O230" s="3"/>
       <c r="Q230" s="16"/>
       <c r="R230" s="22"/>
       <c r="S230" s="3"/>
@@ -11389,8 +12142,9 @@
       <c r="AA230" s="3"/>
       <c r="AB230" s="3"/>
       <c r="AC230" s="3"/>
-    </row>
-    <row r="231" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AD230" s="3"/>
+    </row>
+    <row r="231" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B231" s="16"/>
       <c r="C231" s="1"/>
       <c r="D231" s="3"/>
@@ -11404,6 +12158,7 @@
       <c r="L231" s="3"/>
       <c r="M231" s="3"/>
       <c r="N231" s="3"/>
+      <c r="O231" s="3"/>
       <c r="Q231" s="16"/>
       <c r="R231" s="22"/>
       <c r="S231" s="3"/>
@@ -11417,8 +12172,9 @@
       <c r="AA231" s="3"/>
       <c r="AB231" s="3"/>
       <c r="AC231" s="3"/>
-    </row>
-    <row r="232" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AD231" s="3"/>
+    </row>
+    <row r="232" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B232" s="16"/>
       <c r="C232" s="1"/>
       <c r="D232" s="3"/>
@@ -11432,6 +12188,7 @@
       <c r="L232" s="3"/>
       <c r="M232" s="3"/>
       <c r="N232" s="3"/>
+      <c r="O232" s="3"/>
       <c r="Q232" s="16"/>
       <c r="R232" s="22"/>
       <c r="S232" s="3"/>
@@ -11445,8 +12202,9 @@
       <c r="AA232" s="3"/>
       <c r="AB232" s="3"/>
       <c r="AC232" s="3"/>
-    </row>
-    <row r="233" spans="2:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD232" s="3"/>
+    </row>
+    <row r="233" spans="2:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C233" s="21" t="s">
         <v>43</v>
       </c>
@@ -11461,6 +12219,7 @@
       <c r="L233" s="1"/>
       <c r="M233" s="1"/>
       <c r="N233" s="1"/>
+      <c r="O233" s="1"/>
       <c r="R233" s="23" t="s">
         <v>43</v>
       </c>
@@ -11475,8 +12234,9 @@
       <c r="AA233" s="22"/>
       <c r="AB233" s="22"/>
       <c r="AC233" s="22"/>
-    </row>
-    <row r="234" spans="2:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD233" s="22"/>
+    </row>
+    <row r="234" spans="2:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C234" s="20" t="s">
         <v>55</v>
       </c>
@@ -11491,6 +12251,7 @@
       <c r="L234" s="20"/>
       <c r="M234" s="20"/>
       <c r="N234" s="20"/>
+      <c r="O234" s="20"/>
       <c r="R234" s="24" t="s">
         <v>55</v>
       </c>
@@ -11505,8 +12266,9 @@
       <c r="AA234" s="24"/>
       <c r="AB234" s="24"/>
       <c r="AC234" s="24"/>
-    </row>
-    <row r="235" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AD234" s="24"/>
+    </row>
+    <row r="235" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B235" s="1" t="s">
         <v>38</v>
       </c>
@@ -11521,27 +12283,30 @@
         <v>3</v>
       </c>
       <c r="G235" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H235" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H235" s="1" t="s">
+      <c r="I235" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="I235" s="1" t="s">
+      <c r="J235" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J235" s="1" t="s">
+      <c r="K235" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K235" s="1" t="s">
+      <c r="L235" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="L235" s="1" t="s">
+      <c r="M235" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="M235" s="1" t="s">
+      <c r="N235" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="N235" s="1" t="s">
+      <c r="O235" s="1" t="s">
         <v>110</v>
       </c>
       <c r="Q235" s="22" t="s">
@@ -11558,31 +12323,34 @@
         <v>3</v>
       </c>
       <c r="V235" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="W235" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="W235" s="22" t="s">
+      <c r="X235" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="X235" s="22" t="s">
+      <c r="Y235" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="Y235" s="22" t="s">
+      <c r="Z235" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="Z235" s="22" t="s">
+      <c r="AA235" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="AA235" s="22" t="s">
+      <c r="AB235" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="AB235" s="22" t="s">
+      <c r="AC235" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="AC235" s="22" t="s">
+      <c r="AD235" s="22" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="236" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B236" s="16"/>
       <c r="C236" s="1"/>
       <c r="D236" s="3"/>
@@ -11596,6 +12364,7 @@
       <c r="L236" s="3"/>
       <c r="M236" s="3"/>
       <c r="N236" s="3"/>
+      <c r="O236" s="3"/>
       <c r="Q236" s="16"/>
       <c r="R236" s="22"/>
       <c r="S236" s="3"/>
@@ -11609,8 +12378,9 @@
       <c r="AA236" s="3"/>
       <c r="AB236" s="3"/>
       <c r="AC236" s="3"/>
-    </row>
-    <row r="237" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AD236" s="3"/>
+    </row>
+    <row r="237" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B237" s="16"/>
       <c r="C237" s="1"/>
       <c r="D237" s="3"/>
@@ -11624,6 +12394,7 @@
       <c r="L237" s="3"/>
       <c r="M237" s="3"/>
       <c r="N237" s="3"/>
+      <c r="O237" s="3"/>
       <c r="Q237" s="16"/>
       <c r="R237" s="22"/>
       <c r="S237" s="3"/>
@@ -11637,8 +12408,9 @@
       <c r="AA237" s="3"/>
       <c r="AB237" s="3"/>
       <c r="AC237" s="3"/>
-    </row>
-    <row r="238" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AD237" s="3"/>
+    </row>
+    <row r="238" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B238" s="16"/>
       <c r="C238" s="1"/>
       <c r="D238" s="3"/>
@@ -11652,6 +12424,7 @@
       <c r="L238" s="3"/>
       <c r="M238" s="3"/>
       <c r="N238" s="3"/>
+      <c r="O238" s="3"/>
       <c r="Q238" s="16"/>
       <c r="R238" s="22"/>
       <c r="S238" s="3"/>
@@ -11665,8 +12438,9 @@
       <c r="AA238" s="3"/>
       <c r="AB238" s="3"/>
       <c r="AC238" s="3"/>
-    </row>
-    <row r="239" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AD238" s="3"/>
+    </row>
+    <row r="239" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B239" s="16"/>
       <c r="C239" s="1"/>
       <c r="D239" s="3"/>
@@ -11680,6 +12454,7 @@
       <c r="L239" s="3"/>
       <c r="M239" s="3"/>
       <c r="N239" s="3"/>
+      <c r="O239" s="3"/>
       <c r="Q239" s="16"/>
       <c r="R239" s="22"/>
       <c r="S239" s="3"/>
@@ -11693,8 +12468,9 @@
       <c r="AA239" s="3"/>
       <c r="AB239" s="3"/>
       <c r="AC239" s="3"/>
-    </row>
-    <row r="240" spans="2:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD239" s="3"/>
+    </row>
+    <row r="240" spans="2:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C240" s="21" t="s">
         <v>43</v>
       </c>
@@ -11709,6 +12485,7 @@
       <c r="L240" s="1"/>
       <c r="M240" s="1"/>
       <c r="N240" s="1"/>
+      <c r="O240" s="1"/>
       <c r="R240" s="23" t="s">
         <v>43</v>
       </c>
@@ -11723,8 +12500,9 @@
       <c r="AA240" s="22"/>
       <c r="AB240" s="22"/>
       <c r="AC240" s="22"/>
-    </row>
-    <row r="241" spans="2:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD240" s="22"/>
+    </row>
+    <row r="241" spans="2:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C241" s="20" t="s">
         <v>55</v>
       </c>
@@ -11739,6 +12517,7 @@
       <c r="L241" s="20"/>
       <c r="M241" s="20"/>
       <c r="N241" s="20"/>
+      <c r="O241" s="20"/>
       <c r="R241" s="24" t="s">
         <v>55</v>
       </c>
@@ -11753,8 +12532,9 @@
       <c r="AA241" s="24"/>
       <c r="AB241" s="24"/>
       <c r="AC241" s="24"/>
-    </row>
-    <row r="242" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AD241" s="24"/>
+    </row>
+    <row r="242" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B242" s="1" t="s">
         <v>39</v>
       </c>
@@ -11769,27 +12549,30 @@
         <v>3</v>
       </c>
       <c r="G242" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H242" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H242" s="1" t="s">
+      <c r="I242" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="I242" s="1" t="s">
+      <c r="J242" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J242" s="1" t="s">
+      <c r="K242" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K242" s="1" t="s">
+      <c r="L242" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="L242" s="1" t="s">
+      <c r="M242" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="M242" s="1" t="s">
+      <c r="N242" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="N242" s="1" t="s">
+      <c r="O242" s="1" t="s">
         <v>110</v>
       </c>
       <c r="Q242" s="22" t="s">
@@ -11806,31 +12589,34 @@
         <v>3</v>
       </c>
       <c r="V242" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="W242" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="W242" s="22" t="s">
+      <c r="X242" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="X242" s="22" t="s">
+      <c r="Y242" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="Y242" s="22" t="s">
+      <c r="Z242" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="Z242" s="22" t="s">
+      <c r="AA242" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="AA242" s="22" t="s">
+      <c r="AB242" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="AB242" s="22" t="s">
+      <c r="AC242" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="AC242" s="22" t="s">
+      <c r="AD242" s="22" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="243" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B243" s="16"/>
       <c r="C243" s="1"/>
       <c r="D243" s="3"/>
@@ -11844,6 +12630,7 @@
       <c r="L243" s="3"/>
       <c r="M243" s="3"/>
       <c r="N243" s="3"/>
+      <c r="O243" s="3"/>
       <c r="Q243" s="16"/>
       <c r="R243" s="22"/>
       <c r="S243" s="3"/>
@@ -11857,8 +12644,9 @@
       <c r="AA243" s="3"/>
       <c r="AB243" s="3"/>
       <c r="AC243" s="3"/>
-    </row>
-    <row r="244" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AD243" s="3"/>
+    </row>
+    <row r="244" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B244" s="16"/>
       <c r="C244" s="1"/>
       <c r="D244" s="3"/>
@@ -11872,6 +12660,7 @@
       <c r="L244" s="3"/>
       <c r="M244" s="3"/>
       <c r="N244" s="3"/>
+      <c r="O244" s="3"/>
       <c r="Q244" s="16"/>
       <c r="R244" s="22"/>
       <c r="S244" s="3"/>
@@ -11885,8 +12674,9 @@
       <c r="AA244" s="3"/>
       <c r="AB244" s="3"/>
       <c r="AC244" s="3"/>
-    </row>
-    <row r="245" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AD244" s="3"/>
+    </row>
+    <row r="245" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B245" s="16"/>
       <c r="C245" s="1"/>
       <c r="D245" s="3"/>
@@ -11900,6 +12690,7 @@
       <c r="L245" s="3"/>
       <c r="M245" s="3"/>
       <c r="N245" s="3"/>
+      <c r="O245" s="3"/>
       <c r="Q245" s="16"/>
       <c r="R245" s="22"/>
       <c r="S245" s="3"/>
@@ -11913,8 +12704,9 @@
       <c r="AA245" s="3"/>
       <c r="AB245" s="3"/>
       <c r="AC245" s="3"/>
-    </row>
-    <row r="246" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AD245" s="3"/>
+    </row>
+    <row r="246" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B246" s="16"/>
       <c r="C246" s="1"/>
       <c r="D246" s="3"/>
@@ -11928,6 +12720,7 @@
       <c r="L246" s="3"/>
       <c r="M246" s="3"/>
       <c r="N246" s="3"/>
+      <c r="O246" s="3"/>
       <c r="Q246" s="16"/>
       <c r="R246" s="22"/>
       <c r="S246" s="3"/>
@@ -11941,8 +12734,9 @@
       <c r="AA246" s="3"/>
       <c r="AB246" s="3"/>
       <c r="AC246" s="3"/>
-    </row>
-    <row r="247" spans="2:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD246" s="3"/>
+    </row>
+    <row r="247" spans="2:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C247" s="21" t="s">
         <v>43</v>
       </c>
@@ -11957,6 +12751,7 @@
       <c r="L247" s="1"/>
       <c r="M247" s="1"/>
       <c r="N247" s="1"/>
+      <c r="O247" s="1"/>
       <c r="R247" s="23" t="s">
         <v>43</v>
       </c>
@@ -11971,8 +12766,9 @@
       <c r="AA247" s="22"/>
       <c r="AB247" s="22"/>
       <c r="AC247" s="22"/>
-    </row>
-    <row r="248" spans="2:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD247" s="22"/>
+    </row>
+    <row r="248" spans="2:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C248" s="20" t="s">
         <v>55</v>
       </c>
@@ -11987,6 +12783,7 @@
       <c r="L248" s="20"/>
       <c r="M248" s="20"/>
       <c r="N248" s="20"/>
+      <c r="O248" s="20"/>
       <c r="R248" s="24" t="s">
         <v>55</v>
       </c>
@@ -12001,8 +12798,9 @@
       <c r="AA248" s="24"/>
       <c r="AB248" s="24"/>
       <c r="AC248" s="24"/>
-    </row>
-    <row r="249" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AD248" s="24"/>
+    </row>
+    <row r="249" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B249" s="1" t="s">
         <v>40</v>
       </c>
@@ -12017,27 +12815,30 @@
         <v>3</v>
       </c>
       <c r="G249" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H249" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H249" s="1" t="s">
+      <c r="I249" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="I249" s="1" t="s">
+      <c r="J249" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J249" s="1" t="s">
+      <c r="K249" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K249" s="1" t="s">
+      <c r="L249" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="L249" s="1" t="s">
+      <c r="M249" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="M249" s="1" t="s">
+      <c r="N249" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="N249" s="1" t="s">
+      <c r="O249" s="1" t="s">
         <v>110</v>
       </c>
       <c r="Q249" s="22" t="s">
@@ -12054,31 +12855,34 @@
         <v>3</v>
       </c>
       <c r="V249" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="W249" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="W249" s="22" t="s">
+      <c r="X249" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="X249" s="22" t="s">
+      <c r="Y249" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="Y249" s="22" t="s">
+      <c r="Z249" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="Z249" s="22" t="s">
+      <c r="AA249" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="AA249" s="22" t="s">
+      <c r="AB249" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="AB249" s="22" t="s">
+      <c r="AC249" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="AC249" s="22" t="s">
+      <c r="AD249" s="22" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="250" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="250" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B250" s="16"/>
       <c r="C250" s="1"/>
       <c r="D250" s="3"/>
@@ -12092,6 +12896,7 @@
       <c r="L250" s="3"/>
       <c r="M250" s="3"/>
       <c r="N250" s="3"/>
+      <c r="O250" s="3"/>
       <c r="Q250" s="16"/>
       <c r="R250" s="22"/>
       <c r="S250" s="3"/>
@@ -12105,8 +12910,9 @@
       <c r="AA250" s="3"/>
       <c r="AB250" s="3"/>
       <c r="AC250" s="3"/>
-    </row>
-    <row r="251" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AD250" s="3"/>
+    </row>
+    <row r="251" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B251" s="16"/>
       <c r="C251" s="1"/>
       <c r="D251" s="3"/>
@@ -12120,6 +12926,7 @@
       <c r="L251" s="3"/>
       <c r="M251" s="3"/>
       <c r="N251" s="3"/>
+      <c r="O251" s="3"/>
       <c r="Q251" s="16"/>
       <c r="R251" s="22"/>
       <c r="S251" s="3"/>
@@ -12133,8 +12940,9 @@
       <c r="AA251" s="3"/>
       <c r="AB251" s="3"/>
       <c r="AC251" s="3"/>
-    </row>
-    <row r="252" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AD251" s="3"/>
+    </row>
+    <row r="252" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B252" s="16"/>
       <c r="C252" s="1"/>
       <c r="D252" s="3"/>
@@ -12148,6 +12956,7 @@
       <c r="L252" s="3"/>
       <c r="M252" s="3"/>
       <c r="N252" s="3"/>
+      <c r="O252" s="3"/>
       <c r="Q252" s="16"/>
       <c r="R252" s="22"/>
       <c r="S252" s="3"/>
@@ -12161,8 +12970,9 @@
       <c r="AA252" s="3"/>
       <c r="AB252" s="3"/>
       <c r="AC252" s="3"/>
-    </row>
-    <row r="253" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AD252" s="3"/>
+    </row>
+    <row r="253" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B253" s="16"/>
       <c r="C253" s="1"/>
       <c r="D253" s="3"/>
@@ -12176,6 +12986,7 @@
       <c r="L253" s="3"/>
       <c r="M253" s="3"/>
       <c r="N253" s="3"/>
+      <c r="O253" s="3"/>
       <c r="Q253" s="16"/>
       <c r="R253" s="22"/>
       <c r="S253" s="3"/>
@@ -12189,8 +13000,9 @@
       <c r="AA253" s="3"/>
       <c r="AB253" s="3"/>
       <c r="AC253" s="3"/>
-    </row>
-    <row r="254" spans="2:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD253" s="3"/>
+    </row>
+    <row r="254" spans="2:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C254" s="21" t="s">
         <v>43</v>
       </c>
@@ -12205,6 +13017,7 @@
       <c r="L254" s="1"/>
       <c r="M254" s="1"/>
       <c r="N254" s="1"/>
+      <c r="O254" s="1"/>
       <c r="R254" s="23" t="s">
         <v>43</v>
       </c>
@@ -12219,8 +13032,9 @@
       <c r="AA254" s="22"/>
       <c r="AB254" s="22"/>
       <c r="AC254" s="22"/>
-    </row>
-    <row r="255" spans="2:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD254" s="22"/>
+    </row>
+    <row r="255" spans="2:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C255" s="20" t="s">
         <v>55</v>
       </c>
@@ -12235,6 +13049,7 @@
       <c r="L255" s="20"/>
       <c r="M255" s="20"/>
       <c r="N255" s="20"/>
+      <c r="O255" s="20"/>
       <c r="R255" s="24" t="s">
         <v>55</v>
       </c>
@@ -12249,8 +13064,9 @@
       <c r="AA255" s="24"/>
       <c r="AB255" s="24"/>
       <c r="AC255" s="24"/>
-    </row>
-    <row r="256" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AD255" s="24"/>
+    </row>
+    <row r="256" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B256" s="1" t="s">
         <v>41</v>
       </c>
@@ -12265,27 +13081,30 @@
         <v>3</v>
       </c>
       <c r="G256" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H256" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H256" s="1" t="s">
+      <c r="I256" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="I256" s="1" t="s">
+      <c r="J256" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J256" s="1" t="s">
+      <c r="K256" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K256" s="1" t="s">
+      <c r="L256" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="L256" s="1" t="s">
+      <c r="M256" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="M256" s="1" t="s">
+      <c r="N256" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="N256" s="1" t="s">
+      <c r="O256" s="1" t="s">
         <v>110</v>
       </c>
       <c r="Q256" s="22" t="s">
@@ -12302,31 +13121,34 @@
         <v>3</v>
       </c>
       <c r="V256" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="W256" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="W256" s="22" t="s">
+      <c r="X256" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="X256" s="22" t="s">
+      <c r="Y256" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="Y256" s="22" t="s">
+      <c r="Z256" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="Z256" s="22" t="s">
+      <c r="AA256" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="AA256" s="22" t="s">
+      <c r="AB256" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="AB256" s="22" t="s">
+      <c r="AC256" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="AC256" s="22" t="s">
+      <c r="AD256" s="22" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="257" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="257" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B257" s="16"/>
       <c r="C257" s="1"/>
       <c r="D257" s="3"/>
@@ -12340,6 +13162,7 @@
       <c r="L257" s="3"/>
       <c r="M257" s="3"/>
       <c r="N257" s="3"/>
+      <c r="O257" s="3"/>
       <c r="Q257" s="16"/>
       <c r="R257" s="22"/>
       <c r="S257" s="3"/>
@@ -12353,8 +13176,9 @@
       <c r="AA257" s="3"/>
       <c r="AB257" s="3"/>
       <c r="AC257" s="3"/>
-    </row>
-    <row r="258" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AD257" s="3"/>
+    </row>
+    <row r="258" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B258" s="16"/>
       <c r="C258" s="1"/>
       <c r="D258" s="3"/>
@@ -12368,6 +13192,7 @@
       <c r="L258" s="3"/>
       <c r="M258" s="3"/>
       <c r="N258" s="3"/>
+      <c r="O258" s="3"/>
       <c r="Q258" s="16"/>
       <c r="R258" s="22"/>
       <c r="S258" s="3"/>
@@ -12381,8 +13206,9 @@
       <c r="AA258" s="3"/>
       <c r="AB258" s="3"/>
       <c r="AC258" s="3"/>
-    </row>
-    <row r="259" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AD258" s="3"/>
+    </row>
+    <row r="259" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B259" s="16"/>
       <c r="C259" s="1"/>
       <c r="D259" s="3"/>
@@ -12396,6 +13222,7 @@
       <c r="L259" s="3"/>
       <c r="M259" s="3"/>
       <c r="N259" s="3"/>
+      <c r="O259" s="3"/>
       <c r="Q259" s="16"/>
       <c r="R259" s="22"/>
       <c r="S259" s="3"/>
@@ -12409,8 +13236,9 @@
       <c r="AA259" s="3"/>
       <c r="AB259" s="3"/>
       <c r="AC259" s="3"/>
-    </row>
-    <row r="260" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AD259" s="3"/>
+    </row>
+    <row r="260" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B260" s="16"/>
       <c r="C260" s="1"/>
       <c r="D260" s="3"/>
@@ -12424,6 +13252,7 @@
       <c r="L260" s="3"/>
       <c r="M260" s="3"/>
       <c r="N260" s="3"/>
+      <c r="O260" s="3"/>
       <c r="Q260" s="16"/>
       <c r="R260" s="22"/>
       <c r="S260" s="3"/>
@@ -12437,8 +13266,9 @@
       <c r="AA260" s="3"/>
       <c r="AB260" s="3"/>
       <c r="AC260" s="3"/>
-    </row>
-    <row r="261" spans="2:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD260" s="3"/>
+    </row>
+    <row r="261" spans="2:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C261" s="21" t="s">
         <v>43</v>
       </c>
@@ -12453,6 +13283,7 @@
       <c r="L261" s="1"/>
       <c r="M261" s="1"/>
       <c r="N261" s="1"/>
+      <c r="O261" s="1"/>
       <c r="R261" s="23" t="s">
         <v>43</v>
       </c>
@@ -12467,8 +13298,9 @@
       <c r="AA261" s="22"/>
       <c r="AB261" s="22"/>
       <c r="AC261" s="22"/>
-    </row>
-    <row r="262" spans="2:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD261" s="22"/>
+    </row>
+    <row r="262" spans="2:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C262" s="20" t="s">
         <v>55</v>
       </c>
@@ -12483,6 +13315,7 @@
       <c r="L262" s="20"/>
       <c r="M262" s="20"/>
       <c r="N262" s="20"/>
+      <c r="O262" s="20"/>
       <c r="R262" s="24" t="s">
         <v>55</v>
       </c>
@@ -12497,8 +13330,9 @@
       <c r="AA262" s="24"/>
       <c r="AB262" s="24"/>
       <c r="AC262" s="24"/>
-    </row>
-    <row r="263" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AD262" s="24"/>
+    </row>
+    <row r="263" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B263" s="1" t="s">
         <v>42</v>
       </c>
@@ -12513,27 +13347,30 @@
         <v>3</v>
       </c>
       <c r="G263" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H263" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H263" s="1" t="s">
+      <c r="I263" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="I263" s="1" t="s">
+      <c r="J263" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J263" s="1" t="s">
+      <c r="K263" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K263" s="1" t="s">
+      <c r="L263" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="L263" s="1" t="s">
+      <c r="M263" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="M263" s="1" t="s">
+      <c r="N263" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="N263" s="1" t="s">
+      <c r="O263" s="1" t="s">
         <v>110</v>
       </c>
       <c r="Q263" s="22" t="s">
@@ -12550,31 +13387,34 @@
         <v>3</v>
       </c>
       <c r="V263" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="W263" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="W263" s="22" t="s">
+      <c r="X263" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="X263" s="22" t="s">
+      <c r="Y263" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="Y263" s="22" t="s">
+      <c r="Z263" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="Z263" s="22" t="s">
+      <c r="AA263" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="AA263" s="22" t="s">
+      <c r="AB263" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="AB263" s="22" t="s">
+      <c r="AC263" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="AC263" s="22" t="s">
+      <c r="AD263" s="22" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="264" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="264" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B264" s="16"/>
       <c r="C264" s="1"/>
       <c r="D264" s="3"/>
@@ -12588,6 +13428,7 @@
       <c r="L264" s="3"/>
       <c r="M264" s="3"/>
       <c r="N264" s="3"/>
+      <c r="O264" s="3"/>
       <c r="Q264" s="16"/>
       <c r="R264" s="22"/>
       <c r="S264" s="3"/>
@@ -12601,8 +13442,9 @@
       <c r="AA264" s="3"/>
       <c r="AB264" s="3"/>
       <c r="AC264" s="3"/>
-    </row>
-    <row r="265" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AD264" s="3"/>
+    </row>
+    <row r="265" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B265" s="16"/>
       <c r="C265" s="1"/>
       <c r="D265" s="3"/>
@@ -12616,6 +13458,7 @@
       <c r="L265" s="3"/>
       <c r="M265" s="3"/>
       <c r="N265" s="3"/>
+      <c r="O265" s="3"/>
       <c r="Q265" s="16"/>
       <c r="R265" s="22"/>
       <c r="S265" s="3"/>
@@ -12629,8 +13472,9 @@
       <c r="AA265" s="3"/>
       <c r="AB265" s="3"/>
       <c r="AC265" s="3"/>
-    </row>
-    <row r="266" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AD265" s="3"/>
+    </row>
+    <row r="266" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B266" s="16"/>
       <c r="C266" s="1"/>
       <c r="D266" s="3"/>
@@ -12644,6 +13488,7 @@
       <c r="L266" s="3"/>
       <c r="M266" s="3"/>
       <c r="N266" s="3"/>
+      <c r="O266" s="3"/>
       <c r="Q266" s="16"/>
       <c r="R266" s="22"/>
       <c r="S266" s="3"/>
@@ -12657,8 +13502,9 @@
       <c r="AA266" s="3"/>
       <c r="AB266" s="3"/>
       <c r="AC266" s="3"/>
-    </row>
-    <row r="267" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AD266" s="3"/>
+    </row>
+    <row r="267" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B267" s="16"/>
       <c r="C267" s="1"/>
       <c r="D267" s="3"/>
@@ -12672,6 +13518,7 @@
       <c r="L267" s="3"/>
       <c r="M267" s="3"/>
       <c r="N267" s="3"/>
+      <c r="O267" s="3"/>
       <c r="Q267" s="16"/>
       <c r="R267" s="22"/>
       <c r="S267" s="3"/>
@@ -12685,8 +13532,9 @@
       <c r="AA267" s="3"/>
       <c r="AB267" s="3"/>
       <c r="AC267" s="3"/>
-    </row>
-    <row r="268" spans="2:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD267" s="3"/>
+    </row>
+    <row r="268" spans="2:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C268" s="21" t="s">
         <v>43</v>
       </c>
@@ -12701,6 +13549,7 @@
       <c r="L268" s="1"/>
       <c r="M268" s="1"/>
       <c r="N268" s="1"/>
+      <c r="O268" s="1"/>
       <c r="R268" s="23" t="s">
         <v>43</v>
       </c>
@@ -12715,36 +13564,39 @@
       <c r="AA268" s="22"/>
       <c r="AB268" s="22"/>
       <c r="AC268" s="22"/>
-    </row>
-    <row r="269" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AD268" s="22"/>
+    </row>
+    <row r="269" spans="2:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C269" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D269" s="1"/>
-      <c r="E269" s="1"/>
-      <c r="F269" s="1"/>
-      <c r="G269" s="1"/>
-      <c r="H269" s="1"/>
-      <c r="I269" s="1"/>
-      <c r="J269" s="1"/>
-      <c r="K269" s="32"/>
-      <c r="L269" s="32"/>
-      <c r="M269" s="32"/>
-      <c r="N269" s="32"/>
-      <c r="R269" s="33" t="s">
+      <c r="D269" s="20"/>
+      <c r="E269" s="20"/>
+      <c r="F269" s="20"/>
+      <c r="G269" s="20"/>
+      <c r="H269" s="20"/>
+      <c r="I269" s="20"/>
+      <c r="J269" s="20"/>
+      <c r="K269" s="20"/>
+      <c r="L269" s="20"/>
+      <c r="M269" s="20"/>
+      <c r="N269" s="20"/>
+      <c r="O269" s="20"/>
+      <c r="R269" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="S269" s="33"/>
-      <c r="T269" s="33"/>
-      <c r="U269" s="33"/>
-      <c r="V269" s="33"/>
-      <c r="W269" s="33"/>
-      <c r="X269" s="33"/>
-      <c r="Y269" s="33"/>
-      <c r="Z269" s="33"/>
-      <c r="AA269" s="33"/>
-      <c r="AB269" s="33"/>
-      <c r="AC269" s="33"/>
+      <c r="S269" s="24"/>
+      <c r="T269" s="24"/>
+      <c r="U269" s="24"/>
+      <c r="V269" s="24"/>
+      <c r="W269" s="24"/>
+      <c r="X269" s="24"/>
+      <c r="Y269" s="24"/>
+      <c r="Z269" s="24"/>
+      <c r="AA269" s="24"/>
+      <c r="AB269" s="24"/>
+      <c r="AC269" s="24"/>
+      <c r="AD269" s="24"/>
     </row>
     <row r="283" spans="2:15" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B283" s="1" t="s">
@@ -13086,8 +13938,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B49D84BA-C58E-4845-8482-990335637919}">
   <dimension ref="A1:AY366"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13100,12 +13952,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
@@ -13155,10 +14007,10 @@
       <c r="AY1" s="4"/>
     </row>
     <row r="2" spans="1:51" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
       <c r="E2" s="11"/>
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
@@ -13328,7 +14180,7 @@
       </c>
       <c r="C5" s="16"/>
       <c r="D5" s="6" t="str" cm="1">
-        <f t="array" aca="1" ref="D5:F25" ca="1">_xlfn.SORTBY(_xlfn.HSTACK('Extra Results'!M174:M185, 'Extra Results'!N153:N173, 'Extra Results'!L153:L173),'Extra Results'!N153:N173, -1,'Extra Results'!L153:L173, -1)</f>
+        <f t="array" aca="1" ref="D5:F25" ca="1">_xlfn.SORTBY(_xlfn.HSTACK('Extra Results'!M174:M186, 'Extra Results'!N153:N173, 'Extra Results'!L153:L173),'Extra Results'!N153:N173, -1,'Extra Results'!L153:L173, -1)</f>
         <v>Callum</v>
       </c>
       <c r="E5" s="7">
@@ -13521,7 +14373,7 @@
       <c r="C8" s="17"/>
       <c r="D8" s="6" t="str">
         <f ca="1"/>
-        <v>Harry</v>
+        <v>George</v>
       </c>
       <c r="E8" s="7">
         <f ca="1"/>
@@ -13585,7 +14437,7 @@
       <c r="C9" s="16"/>
       <c r="D9" s="6" t="str">
         <f ca="1"/>
-        <v>Nicola</v>
+        <v>Harry</v>
       </c>
       <c r="E9" s="7">
         <f ca="1"/>
@@ -13649,7 +14501,7 @@
       <c r="C10" s="16"/>
       <c r="D10" s="6" t="str">
         <f ca="1"/>
-        <v>Reece</v>
+        <v>Nicola</v>
       </c>
       <c r="E10" s="7">
         <f ca="1"/>
@@ -13713,7 +14565,7 @@
       <c r="C11" s="16"/>
       <c r="D11" s="6" t="str">
         <f ca="1"/>
-        <v>Rory</v>
+        <v>Reece</v>
       </c>
       <c r="E11" s="7">
         <f ca="1"/>
@@ -13777,7 +14629,7 @@
       <c r="C12" s="16"/>
       <c r="D12" s="6" t="str">
         <f ca="1"/>
-        <v>Ruby</v>
+        <v>Rory</v>
       </c>
       <c r="E12" s="7">
         <f ca="1"/>
@@ -13841,7 +14693,7 @@
       <c r="C13" s="16"/>
       <c r="D13" s="6" t="str">
         <f ca="1"/>
-        <v>Sam A</v>
+        <v>Ruby</v>
       </c>
       <c r="E13" s="7">
         <f ca="1"/>
@@ -13905,7 +14757,7 @@
       <c r="C14" s="16"/>
       <c r="D14" s="6" t="str">
         <f ca="1"/>
-        <v>Sam L</v>
+        <v>Sam A</v>
       </c>
       <c r="E14" s="7">
         <f ca="1"/>
@@ -13969,7 +14821,7 @@
       <c r="C15" s="16"/>
       <c r="D15" s="6" t="str">
         <f ca="1"/>
-        <v>Will</v>
+        <v>Sam L</v>
       </c>
       <c r="E15" s="7">
         <f ca="1"/>
@@ -14025,19 +14877,21 @@
       <c r="AX15" s="5"/>
       <c r="AY15" s="5"/>
     </row>
-    <row r="16" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:51" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31">
+      <c r="B16" s="2">
+        <v>12</v>
+      </c>
+      <c r="C16" s="16"/>
+      <c r="D16" s="6" t="str">
         <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="E16" s="31">
+        <v>Will</v>
+      </c>
+      <c r="E16" s="7">
         <f ca="1"/>
         <v>0</v>
       </c>
-      <c r="F16" s="31">
+      <c r="F16" s="7">
         <f ca="1"/>
         <v>0</v>
       </c>
@@ -14091,9 +14945,9 @@
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="31"/>
-      <c r="D17" s="31" t="e">
+      <c r="D17" s="31">
         <f ca="1"/>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="E17" s="31">
         <f ca="1"/>
@@ -32727,18 +33581,15 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="D16:D25" evalError="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A197BE47-36F3-4BEB-B95F-A968F1FF956B}">
-  <dimension ref="B2:X184"/>
+  <dimension ref="B2:X185"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" topLeftCell="A156" workbookViewId="0">
+      <selection activeCell="Q177" sqref="Q177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32765,27 +33616,30 @@
         <v>3</v>
       </c>
       <c r="F3" t="s">
+        <v>115</v>
+      </c>
+      <c r="G3" t="s">
         <v>53</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>109</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>2</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>5</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>54</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>114</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>112</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>110</v>
       </c>
     </row>
@@ -34914,27 +35768,30 @@
         <v>3</v>
       </c>
       <c r="F50" t="s">
+        <v>115</v>
+      </c>
+      <c r="G50" t="s">
         <v>53</v>
       </c>
-      <c r="G50" t="s">
+      <c r="H50" t="s">
         <v>109</v>
       </c>
-      <c r="H50" t="s">
+      <c r="I50" t="s">
         <v>2</v>
       </c>
-      <c r="I50" t="s">
+      <c r="J50" t="s">
         <v>5</v>
       </c>
-      <c r="J50" t="s">
+      <c r="K50" t="s">
         <v>54</v>
       </c>
-      <c r="K50" t="s">
+      <c r="L50" t="s">
         <v>114</v>
       </c>
-      <c r="L50" t="s">
+      <c r="M50" t="s">
         <v>112</v>
       </c>
-      <c r="M50" t="s">
+      <c r="N50" t="s">
         <v>110</v>
       </c>
     </row>
@@ -37063,27 +37920,30 @@
         <v>3</v>
       </c>
       <c r="F94" t="s">
+        <v>115</v>
+      </c>
+      <c r="G94" t="s">
         <v>53</v>
       </c>
-      <c r="G94" t="s">
+      <c r="H94" t="s">
         <v>109</v>
       </c>
-      <c r="H94" t="s">
+      <c r="I94" t="s">
         <v>2</v>
       </c>
-      <c r="I94" t="s">
+      <c r="J94" t="s">
         <v>5</v>
       </c>
-      <c r="J94" t="s">
+      <c r="K94" t="s">
         <v>54</v>
       </c>
-      <c r="K94" t="s">
+      <c r="L94" t="s">
         <v>114</v>
       </c>
-      <c r="L94" t="s">
+      <c r="M94" t="s">
         <v>112</v>
       </c>
-      <c r="M94" t="s">
+      <c r="N94" t="s">
         <v>110</v>
       </c>
     </row>
@@ -38923,7 +39783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:18" x14ac:dyDescent="0.25">
       <c r="C129" cm="1">
         <f t="array" aca="1" ref="C129" ca="1">INDIRECT("Sheet2!S" &amp; 10 + (ROW(C38)-ROW($C$4))*7)</f>
         <v>0</v>
@@ -38977,7 +39837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:18" x14ac:dyDescent="0.25">
       <c r="C130" cm="1">
         <f t="array" aca="1" ref="C130" ca="1">INDIRECT("Sheet2!S" &amp; 10 + (ROW(C39)-ROW($C$4))*7)</f>
         <v>0</v>
@@ -39031,7 +39891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:18" x14ac:dyDescent="0.25">
       <c r="C131" cm="1">
         <f t="array" aca="1" ref="C131" ca="1">INDIRECT("Sheet2!S" &amp; 10 + (ROW(C40)-ROW($C$4))*7)</f>
         <v>0</v>
@@ -39085,7 +39945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:18" x14ac:dyDescent="0.25">
       <c r="C132" s="25" cm="1">
         <f t="array" aca="1" ref="C132" ca="1">INDIRECT("Sheet2!S" &amp; 10 + (ROW(C41)-ROW($C$4))*7)</f>
         <v>0</v>
@@ -39139,7 +39999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B133" t="s">
         <v>43</v>
       </c>
@@ -39196,7 +40056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B142" t="s">
         <v>99</v>
       </c>
@@ -39216,7 +40076,7 @@
       <c r="P142" s="25"/>
       <c r="Q142" s="25"/>
     </row>
-    <row r="143" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:18" x14ac:dyDescent="0.25">
       <c r="C143">
         <f ca="1">C89+C133</f>
         <v>0</v>
@@ -39275,6 +40135,10 @@
       </c>
       <c r="Q143">
         <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="R143">
+        <f>R89+R133</f>
         <v>0</v>
       </c>
     </row>
@@ -39297,6 +40161,7 @@
       <c r="O147" s="25"/>
       <c r="P147" s="25"/>
       <c r="Q147" s="25"/>
+      <c r="R147" s="25"/>
     </row>
     <row r="148" spans="2:24" x14ac:dyDescent="0.25">
       <c r="C148" cm="1">
@@ -39357,6 +40222,10 @@
       </c>
       <c r="Q148" cm="1">
         <f t="array" ref="Q148">INDEX(Sheet2!$D$300:$Z$300, COLUMN(O1))</f>
+        <v>0</v>
+      </c>
+      <c r="R148" cm="1">
+        <f t="array" ref="R148">INDEX(Sheet2!$D$300:$Z$300, COLUMN(P1))</f>
         <v>0</v>
       </c>
     </row>
@@ -39376,6 +40245,7 @@
       <c r="O150" s="25"/>
       <c r="P150" s="25"/>
       <c r="Q150" s="25"/>
+      <c r="R150" s="25"/>
     </row>
     <row r="151" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B151" t="s">
@@ -39441,6 +40311,10 @@
         <f t="array" ref="Q151">INDEX(Sheet2!$D$301:$Z$301, COLUMN(O1))</f>
         <v>0</v>
       </c>
+      <c r="R151" cm="1">
+        <f t="array" ref="R151">INDEX(Sheet2!$D$301:$Z$301, COLUMN(P1))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="152" spans="2:24" x14ac:dyDescent="0.25">
       <c r="L152" t="s">
@@ -39823,6 +40697,11 @@
         <v>0</v>
       </c>
     </row>
+    <row r="173" spans="12:24" x14ac:dyDescent="0.25">
+      <c r="M173" t="s">
+        <v>116</v>
+      </c>
+    </row>
     <row r="174" spans="12:24" x14ac:dyDescent="0.25">
       <c r="M174" t="s">
         <v>0</v>
@@ -39840,47 +40719,52 @@
     </row>
     <row r="177" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M177" t="s">
-        <v>53</v>
+        <v>115</v>
       </c>
     </row>
     <row r="178" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M178" t="s">
-        <v>109</v>
+        <v>53</v>
       </c>
     </row>
     <row r="179" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M179" t="s">
-        <v>2</v>
+        <v>109</v>
       </c>
     </row>
     <row r="180" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M180" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M181" t="s">
-        <v>54</v>
+        <v>5</v>
       </c>
     </row>
     <row r="182" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M182" t="s">
-        <v>113</v>
+        <v>54</v>
       </c>
     </row>
     <row r="183" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M183" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="184" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M184" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="185" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M185" t="s">
         <v>110</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="M174:M184">
-    <sortCondition ref="M174:M184"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="M174:M185">
+    <sortCondition ref="M174:M185"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/PL Predictions Blank.xlsx
+++ b/PL Predictions Blank.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\consu\Desktop\Local Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13A49E1D-D222-41F4-933D-CA19E2AE74EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D33B08E5-1B93-4D35-9898-29AC3B0A958D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{47412CFC-7E53-4F06-9F46-2618A72633B9}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1598" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1667" uniqueCount="117">
   <si>
     <t>Callum</t>
   </si>
@@ -1139,10 +1139,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{459A72B8-2A09-493D-AA11-9F1B72B384D5}">
-  <dimension ref="B3:AE61"/>
+  <dimension ref="B3:U61"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O27" sqref="O27"/>
+      <selection activeCell="AC11" sqref="AC11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1157,7 +1157,7 @@
     <col min="42" max="42" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:31" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>49</v>
       </c>
@@ -1197,8 +1197,11 @@
       <c r="N3" s="1" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="4" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="O3" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>52</v>
       </c>
@@ -1250,41 +1253,12 @@
         <f t="array" aca="1" ref="N4" ca="1">IF(INDIRECT("Sheet2!O" &amp; 9 + (ROW(O4)-ROW($C$4))*7)=0, "", INDIRECT("Sheet2!O" &amp; 9 + (ROW(O4)-ROW($C$4))*7))</f>
         <v/>
       </c>
-      <c r="U4" t="s">
-        <v>0</v>
-      </c>
-      <c r="V4" t="s">
-        <v>108</v>
-      </c>
-      <c r="W4" t="s">
-        <v>3</v>
-      </c>
-      <c r="X4" t="s">
-        <v>53</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>109</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>54</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>114</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>112</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="5" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="O4" s="19" t="str" cm="1">
+        <f t="array" aca="1" ref="O4" ca="1">IF(INDIRECT("Sheet2!P" &amp; 9 + (ROW(P4)-ROW($C$4))*7)=0, "", INDIRECT("Sheet2!P" &amp; 9 + (ROW(P4)-ROW($C$4))*7))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="2:15" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
@@ -1336,8 +1310,12 @@
         <f t="array" aca="1" ref="N5" ca="1">IF(INDIRECT("Sheet2!O" &amp; 9 + (ROW(O5)-ROW($C$4))*7)=0, "", INDIRECT("Sheet2!O" &amp; 9 + (ROW(O5)-ROW($C$4))*7))</f>
         <v/>
       </c>
-    </row>
-    <row r="6" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="O5" s="19" t="str" cm="1">
+        <f t="array" aca="1" ref="O5" ca="1">IF(INDIRECT("Sheet2!P" &amp; 9 + (ROW(P5)-ROW($C$4))*7)=0, "", INDIRECT("Sheet2!P" &amp; 9 + (ROW(P5)-ROW($C$4))*7))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="2:15" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
@@ -1389,8 +1367,12 @@
         <f t="array" aca="1" ref="N6" ca="1">IF(INDIRECT("Sheet2!O" &amp; 9 + (ROW(O6)-ROW($C$4))*7)=0, "", INDIRECT("Sheet2!O" &amp; 9 + (ROW(O6)-ROW($C$4))*7))</f>
         <v/>
       </c>
-    </row>
-    <row r="7" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="O6" s="19" t="str" cm="1">
+        <f t="array" aca="1" ref="O6" ca="1">IF(INDIRECT("Sheet2!P" &amp; 9 + (ROW(P6)-ROW($C$4))*7)=0, "", INDIRECT("Sheet2!P" &amp; 9 + (ROW(P6)-ROW($C$4))*7))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="2:15" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
@@ -1442,8 +1424,12 @@
         <f t="array" aca="1" ref="N7" ca="1">IF(INDIRECT("Sheet2!O" &amp; 9 + (ROW(O7)-ROW($C$4))*7)=0, "", INDIRECT("Sheet2!O" &amp; 9 + (ROW(O7)-ROW($C$4))*7))</f>
         <v/>
       </c>
-    </row>
-    <row r="8" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="O7" s="19" t="str" cm="1">
+        <f t="array" aca="1" ref="O7" ca="1">IF(INDIRECT("Sheet2!P" &amp; 9 + (ROW(P7)-ROW($C$4))*7)=0, "", INDIRECT("Sheet2!P" &amp; 9 + (ROW(P7)-ROW($C$4))*7))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="2:15" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>9</v>
       </c>
@@ -1495,8 +1481,12 @@
         <f t="array" aca="1" ref="N8" ca="1">IF(INDIRECT("Sheet2!O" &amp; 9 + (ROW(O8)-ROW($C$4))*7)=0, "", INDIRECT("Sheet2!O" &amp; 9 + (ROW(O8)-ROW($C$4))*7))</f>
         <v/>
       </c>
-    </row>
-    <row r="9" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="O8" s="19" t="str" cm="1">
+        <f t="array" aca="1" ref="O8" ca="1">IF(INDIRECT("Sheet2!P" &amp; 9 + (ROW(P8)-ROW($C$4))*7)=0, "", INDIRECT("Sheet2!P" &amp; 9 + (ROW(P8)-ROW($C$4))*7))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="2:15" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>10</v>
       </c>
@@ -1548,8 +1538,12 @@
         <f t="array" aca="1" ref="N9" ca="1">IF(INDIRECT("Sheet2!O" &amp; 9 + (ROW(O9)-ROW($C$4))*7)=0, "", INDIRECT("Sheet2!O" &amp; 9 + (ROW(O9)-ROW($C$4))*7))</f>
         <v/>
       </c>
-    </row>
-    <row r="10" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="O9" s="19" t="str" cm="1">
+        <f t="array" aca="1" ref="O9" ca="1">IF(INDIRECT("Sheet2!P" &amp; 9 + (ROW(P9)-ROW($C$4))*7)=0, "", INDIRECT("Sheet2!P" &amp; 9 + (ROW(P9)-ROW($C$4))*7))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="2:15" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>11</v>
       </c>
@@ -1601,8 +1595,12 @@
         <f t="array" aca="1" ref="N10" ca="1">IF(INDIRECT("Sheet2!O" &amp; 9 + (ROW(O10)-ROW($C$4))*7)=0, "", INDIRECT("Sheet2!O" &amp; 9 + (ROW(O10)-ROW($C$4))*7))</f>
         <v/>
       </c>
-    </row>
-    <row r="11" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="O10" s="19" t="str" cm="1">
+        <f t="array" aca="1" ref="O10" ca="1">IF(INDIRECT("Sheet2!P" &amp; 9 + (ROW(P10)-ROW($C$4))*7)=0, "", INDIRECT("Sheet2!P" &amp; 9 + (ROW(P10)-ROW($C$4))*7))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="2:15" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>12</v>
       </c>
@@ -1654,8 +1652,12 @@
         <f t="array" aca="1" ref="N11" ca="1">IF(INDIRECT("Sheet2!O" &amp; 9 + (ROW(O11)-ROW($C$4))*7)=0, "", INDIRECT("Sheet2!O" &amp; 9 + (ROW(O11)-ROW($C$4))*7))</f>
         <v/>
       </c>
-    </row>
-    <row r="12" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="O11" s="19" t="str" cm="1">
+        <f t="array" aca="1" ref="O11" ca="1">IF(INDIRECT("Sheet2!P" &amp; 9 + (ROW(P11)-ROW($C$4))*7)=0, "", INDIRECT("Sheet2!P" &amp; 9 + (ROW(P11)-ROW($C$4))*7))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="2:15" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>13</v>
       </c>
@@ -1707,8 +1709,12 @@
         <f t="array" aca="1" ref="N12" ca="1">IF(INDIRECT("Sheet2!O" &amp; 9 + (ROW(O12)-ROW($C$4))*7)=0, "", INDIRECT("Sheet2!O" &amp; 9 + (ROW(O12)-ROW($C$4))*7))</f>
         <v/>
       </c>
-    </row>
-    <row r="13" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="O12" s="19" t="str" cm="1">
+        <f t="array" aca="1" ref="O12" ca="1">IF(INDIRECT("Sheet2!P" &amp; 9 + (ROW(P12)-ROW($C$4))*7)=0, "", INDIRECT("Sheet2!P" &amp; 9 + (ROW(P12)-ROW($C$4))*7))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="2:15" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>14</v>
       </c>
@@ -1760,8 +1766,12 @@
         <f t="array" aca="1" ref="N13" ca="1">IF(INDIRECT("Sheet2!O" &amp; 9 + (ROW(O13)-ROW($C$4))*7)=0, "", INDIRECT("Sheet2!O" &amp; 9 + (ROW(O13)-ROW($C$4))*7))</f>
         <v/>
       </c>
-    </row>
-    <row r="14" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="O13" s="19" t="str" cm="1">
+        <f t="array" aca="1" ref="O13" ca="1">IF(INDIRECT("Sheet2!P" &amp; 9 + (ROW(P13)-ROW($C$4))*7)=0, "", INDIRECT("Sheet2!P" &amp; 9 + (ROW(P13)-ROW($C$4))*7))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="2:15" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>15</v>
       </c>
@@ -1813,8 +1823,12 @@
         <f t="array" aca="1" ref="N14" ca="1">IF(INDIRECT("Sheet2!O" &amp; 9 + (ROW(O14)-ROW($C$4))*7)=0, "", INDIRECT("Sheet2!O" &amp; 9 + (ROW(O14)-ROW($C$4))*7))</f>
         <v/>
       </c>
-    </row>
-    <row r="15" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="O14" s="19" t="str" cm="1">
+        <f t="array" aca="1" ref="O14" ca="1">IF(INDIRECT("Sheet2!P" &amp; 9 + (ROW(P14)-ROW($C$4))*7)=0, "", INDIRECT("Sheet2!P" &amp; 9 + (ROW(P14)-ROW($C$4))*7))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="2:15" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>16</v>
       </c>
@@ -1866,8 +1880,12 @@
         <f t="array" aca="1" ref="N15" ca="1">IF(INDIRECT("Sheet2!O" &amp; 9 + (ROW(O15)-ROW($C$4))*7)=0, "", INDIRECT("Sheet2!O" &amp; 9 + (ROW(O15)-ROW($C$4))*7))</f>
         <v/>
       </c>
-    </row>
-    <row r="16" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="O15" s="19" t="str" cm="1">
+        <f t="array" aca="1" ref="O15" ca="1">IF(INDIRECT("Sheet2!P" &amp; 9 + (ROW(P15)-ROW($C$4))*7)=0, "", INDIRECT("Sheet2!P" &amp; 9 + (ROW(P15)-ROW($C$4))*7))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="2:15" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>17</v>
       </c>
@@ -1919,8 +1937,12 @@
         <f t="array" aca="1" ref="N16" ca="1">IF(INDIRECT("Sheet2!O" &amp; 9 + (ROW(O16)-ROW($C$4))*7)=0, "", INDIRECT("Sheet2!O" &amp; 9 + (ROW(O16)-ROW($C$4))*7))</f>
         <v/>
       </c>
-    </row>
-    <row r="17" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="O16" s="19" t="str" cm="1">
+        <f t="array" aca="1" ref="O16" ca="1">IF(INDIRECT("Sheet2!P" &amp; 9 + (ROW(P16)-ROW($C$4))*7)=0, "", INDIRECT("Sheet2!P" &amp; 9 + (ROW(P16)-ROW($C$4))*7))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="2:15" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>18</v>
       </c>
@@ -1972,8 +1994,12 @@
         <f t="array" aca="1" ref="N17" ca="1">IF(INDIRECT("Sheet2!O" &amp; 9 + (ROW(O17)-ROW($C$4))*7)=0, "", INDIRECT("Sheet2!O" &amp; 9 + (ROW(O17)-ROW($C$4))*7))</f>
         <v/>
       </c>
-    </row>
-    <row r="18" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="O17" s="19" t="str" cm="1">
+        <f t="array" aca="1" ref="O17" ca="1">IF(INDIRECT("Sheet2!P" &amp; 9 + (ROW(P17)-ROW($C$4))*7)=0, "", INDIRECT("Sheet2!P" &amp; 9 + (ROW(P17)-ROW($C$4))*7))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="2:15" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>19</v>
       </c>
@@ -2025,8 +2051,12 @@
         <f t="array" aca="1" ref="N18" ca="1">IF(INDIRECT("Sheet2!O" &amp; 9 + (ROW(O18)-ROW($C$4))*7)=0, "", INDIRECT("Sheet2!O" &amp; 9 + (ROW(O18)-ROW($C$4))*7))</f>
         <v/>
       </c>
-    </row>
-    <row r="19" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="O18" s="19" t="str" cm="1">
+        <f t="array" aca="1" ref="O18" ca="1">IF(INDIRECT("Sheet2!P" &amp; 9 + (ROW(P18)-ROW($C$4))*7)=0, "", INDIRECT("Sheet2!P" &amp; 9 + (ROW(P18)-ROW($C$4))*7))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="2:15" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>20</v>
       </c>
@@ -2078,8 +2108,12 @@
         <f t="array" aca="1" ref="N19" ca="1">IF(INDIRECT("Sheet2!O" &amp; 9 + (ROW(O19)-ROW($C$4))*7)=0, "", INDIRECT("Sheet2!O" &amp; 9 + (ROW(O19)-ROW($C$4))*7))</f>
         <v/>
       </c>
-    </row>
-    <row r="20" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="O19" s="19" t="str" cm="1">
+        <f t="array" aca="1" ref="O19" ca="1">IF(INDIRECT("Sheet2!P" &amp; 9 + (ROW(P19)-ROW($C$4))*7)=0, "", INDIRECT("Sheet2!P" &amp; 9 + (ROW(P19)-ROW($C$4))*7))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="2:15" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>21</v>
       </c>
@@ -2131,8 +2165,12 @@
         <f t="array" aca="1" ref="N20" ca="1">IF(INDIRECT("Sheet2!O" &amp; 9 + (ROW(O20)-ROW($C$4))*7)=0, "", INDIRECT("Sheet2!O" &amp; 9 + (ROW(O20)-ROW($C$4))*7))</f>
         <v/>
       </c>
-    </row>
-    <row r="21" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="O20" s="19" t="str" cm="1">
+        <f t="array" aca="1" ref="O20" ca="1">IF(INDIRECT("Sheet2!P" &amp; 9 + (ROW(P20)-ROW($C$4))*7)=0, "", INDIRECT("Sheet2!P" &amp; 9 + (ROW(P20)-ROW($C$4))*7))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="2:15" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>22</v>
       </c>
@@ -2184,8 +2222,12 @@
         <f t="array" aca="1" ref="N21" ca="1">IF(INDIRECT("Sheet2!O" &amp; 9 + (ROW(O21)-ROW($C$4))*7)=0, "", INDIRECT("Sheet2!O" &amp; 9 + (ROW(O21)-ROW($C$4))*7))</f>
         <v/>
       </c>
-    </row>
-    <row r="22" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="O21" s="19" t="str" cm="1">
+        <f t="array" aca="1" ref="O21" ca="1">IF(INDIRECT("Sheet2!P" &amp; 9 + (ROW(P21)-ROW($C$4))*7)=0, "", INDIRECT("Sheet2!P" &amp; 9 + (ROW(P21)-ROW($C$4))*7))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="2:15" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>23</v>
       </c>
@@ -2237,8 +2279,12 @@
         <f t="array" aca="1" ref="N22" ca="1">IF(INDIRECT("Sheet2!O" &amp; 9 + (ROW(O22)-ROW($C$4))*7)=0, "", INDIRECT("Sheet2!O" &amp; 9 + (ROW(O22)-ROW($C$4))*7))</f>
         <v/>
       </c>
-    </row>
-    <row r="23" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="O22" s="19" t="str" cm="1">
+        <f t="array" aca="1" ref="O22" ca="1">IF(INDIRECT("Sheet2!P" &amp; 9 + (ROW(P22)-ROW($C$4))*7)=0, "", INDIRECT("Sheet2!P" &amp; 9 + (ROW(P22)-ROW($C$4))*7))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="2:15" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>24</v>
       </c>
@@ -2290,8 +2336,12 @@
         <f t="array" aca="1" ref="N23" ca="1">IF(INDIRECT("Sheet2!O" &amp; 9 + (ROW(O23)-ROW($C$4))*7)=0, "", INDIRECT("Sheet2!O" &amp; 9 + (ROW(O23)-ROW($C$4))*7))</f>
         <v/>
       </c>
-    </row>
-    <row r="24" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="O23" s="19" t="str" cm="1">
+        <f t="array" aca="1" ref="O23" ca="1">IF(INDIRECT("Sheet2!P" &amp; 9 + (ROW(P23)-ROW($C$4))*7)=0, "", INDIRECT("Sheet2!P" &amp; 9 + (ROW(P23)-ROW($C$4))*7))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="2:15" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>25</v>
       </c>
@@ -2343,8 +2393,12 @@
         <f t="array" aca="1" ref="N24" ca="1">IF(INDIRECT("Sheet2!O" &amp; 9 + (ROW(O24)-ROW($C$4))*7)=0, "", INDIRECT("Sheet2!O" &amp; 9 + (ROW(O24)-ROW($C$4))*7))</f>
         <v/>
       </c>
-    </row>
-    <row r="25" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="O24" s="19" t="str" cm="1">
+        <f t="array" aca="1" ref="O24" ca="1">IF(INDIRECT("Sheet2!P" &amp; 9 + (ROW(P24)-ROW($C$4))*7)=0, "", INDIRECT("Sheet2!P" &amp; 9 + (ROW(P24)-ROW($C$4))*7))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="2:15" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>26</v>
       </c>
@@ -2396,8 +2450,12 @@
         <f t="array" aca="1" ref="N25" ca="1">IF(INDIRECT("Sheet2!O" &amp; 9 + (ROW(O25)-ROW($C$4))*7)=0, "", INDIRECT("Sheet2!O" &amp; 9 + (ROW(O25)-ROW($C$4))*7))</f>
         <v/>
       </c>
-    </row>
-    <row r="26" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="O25" s="19" t="str" cm="1">
+        <f t="array" aca="1" ref="O25" ca="1">IF(INDIRECT("Sheet2!P" &amp; 9 + (ROW(P25)-ROW($C$4))*7)=0, "", INDIRECT("Sheet2!P" &amp; 9 + (ROW(P25)-ROW($C$4))*7))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="2:15" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>27</v>
       </c>
@@ -2449,8 +2507,12 @@
         <f t="array" aca="1" ref="N26" ca="1">IF(INDIRECT("Sheet2!O" &amp; 9 + (ROW(O26)-ROW($C$4))*7)=0, "", INDIRECT("Sheet2!O" &amp; 9 + (ROW(O26)-ROW($C$4))*7))</f>
         <v/>
       </c>
-    </row>
-    <row r="27" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="O26" s="19" t="str" cm="1">
+        <f t="array" aca="1" ref="O26" ca="1">IF(INDIRECT("Sheet2!P" &amp; 9 + (ROW(P26)-ROW($C$4))*7)=0, "", INDIRECT("Sheet2!P" &amp; 9 + (ROW(P26)-ROW($C$4))*7))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="2:15" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
         <v>28</v>
       </c>
@@ -2502,8 +2564,12 @@
         <f t="array" aca="1" ref="N27" ca="1">IF(INDIRECT("Sheet2!O" &amp; 9 + (ROW(O27)-ROW($C$4))*7)=0, "", INDIRECT("Sheet2!O" &amp; 9 + (ROW(O27)-ROW($C$4))*7))</f>
         <v/>
       </c>
-    </row>
-    <row r="28" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="O27" s="19" t="str" cm="1">
+        <f t="array" aca="1" ref="O27" ca="1">IF(INDIRECT("Sheet2!P" &amp; 9 + (ROW(P27)-ROW($C$4))*7)=0, "", INDIRECT("Sheet2!P" &amp; 9 + (ROW(P27)-ROW($C$4))*7))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="2:15" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>29</v>
       </c>
@@ -2555,8 +2621,12 @@
         <f t="array" aca="1" ref="N28" ca="1">IF(INDIRECT("Sheet2!O" &amp; 9 + (ROW(O28)-ROW($C$4))*7)=0, "", INDIRECT("Sheet2!O" &amp; 9 + (ROW(O28)-ROW($C$4))*7))</f>
         <v/>
       </c>
-    </row>
-    <row r="29" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="O28" s="19" t="str" cm="1">
+        <f t="array" aca="1" ref="O28" ca="1">IF(INDIRECT("Sheet2!P" &amp; 9 + (ROW(P28)-ROW($C$4))*7)=0, "", INDIRECT("Sheet2!P" &amp; 9 + (ROW(P28)-ROW($C$4))*7))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="2:15" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>30</v>
       </c>
@@ -2608,8 +2678,12 @@
         <f t="array" aca="1" ref="N29" ca="1">IF(INDIRECT("Sheet2!O" &amp; 9 + (ROW(O29)-ROW($C$4))*7)=0, "", INDIRECT("Sheet2!O" &amp; 9 + (ROW(O29)-ROW($C$4))*7))</f>
         <v/>
       </c>
-    </row>
-    <row r="30" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="O29" s="19" t="str" cm="1">
+        <f t="array" aca="1" ref="O29" ca="1">IF(INDIRECT("Sheet2!P" &amp; 9 + (ROW(P29)-ROW($C$4))*7)=0, "", INDIRECT("Sheet2!P" &amp; 9 + (ROW(P29)-ROW($C$4))*7))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="2:15" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
         <v>31</v>
       </c>
@@ -2661,8 +2735,12 @@
         <f t="array" aca="1" ref="N30" ca="1">IF(INDIRECT("Sheet2!O" &amp; 9 + (ROW(O30)-ROW($C$4))*7)=0, "", INDIRECT("Sheet2!O" &amp; 9 + (ROW(O30)-ROW($C$4))*7))</f>
         <v/>
       </c>
-    </row>
-    <row r="31" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="O30" s="19" t="str" cm="1">
+        <f t="array" aca="1" ref="O30" ca="1">IF(INDIRECT("Sheet2!P" &amp; 9 + (ROW(P30)-ROW($C$4))*7)=0, "", INDIRECT("Sheet2!P" &amp; 9 + (ROW(P30)-ROW($C$4))*7))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="2:15" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>32</v>
       </c>
@@ -2714,8 +2792,12 @@
         <f t="array" aca="1" ref="N31" ca="1">IF(INDIRECT("Sheet2!O" &amp; 9 + (ROW(O31)-ROW($C$4))*7)=0, "", INDIRECT("Sheet2!O" &amp; 9 + (ROW(O31)-ROW($C$4))*7))</f>
         <v/>
       </c>
-    </row>
-    <row r="32" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="O31" s="19" t="str" cm="1">
+        <f t="array" aca="1" ref="O31" ca="1">IF(INDIRECT("Sheet2!P" &amp; 9 + (ROW(P31)-ROW($C$4))*7)=0, "", INDIRECT("Sheet2!P" &amp; 9 + (ROW(P31)-ROW($C$4))*7))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="2:15" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>33</v>
       </c>
@@ -2767,8 +2849,12 @@
         <f t="array" aca="1" ref="N32" ca="1">IF(INDIRECT("Sheet2!O" &amp; 9 + (ROW(O32)-ROW($C$4))*7)=0, "", INDIRECT("Sheet2!O" &amp; 9 + (ROW(O32)-ROW($C$4))*7))</f>
         <v/>
       </c>
-    </row>
-    <row r="33" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="O32" s="19" t="str" cm="1">
+        <f t="array" aca="1" ref="O32" ca="1">IF(INDIRECT("Sheet2!P" &amp; 9 + (ROW(P32)-ROW($C$4))*7)=0, "", INDIRECT("Sheet2!P" &amp; 9 + (ROW(P32)-ROW($C$4))*7))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="2:15" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
         <v>34</v>
       </c>
@@ -2820,8 +2906,12 @@
         <f t="array" aca="1" ref="N33" ca="1">IF(INDIRECT("Sheet2!O" &amp; 9 + (ROW(O33)-ROW($C$4))*7)=0, "", INDIRECT("Sheet2!O" &amp; 9 + (ROW(O33)-ROW($C$4))*7))</f>
         <v/>
       </c>
-    </row>
-    <row r="34" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="O33" s="19" t="str" cm="1">
+        <f t="array" aca="1" ref="O33" ca="1">IF(INDIRECT("Sheet2!P" &amp; 9 + (ROW(P33)-ROW($C$4))*7)=0, "", INDIRECT("Sheet2!P" &amp; 9 + (ROW(P33)-ROW($C$4))*7))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="2:15" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>35</v>
       </c>
@@ -2873,8 +2963,12 @@
         <f t="array" aca="1" ref="N34" ca="1">IF(INDIRECT("Sheet2!O" &amp; 9 + (ROW(O34)-ROW($C$4))*7)=0, "", INDIRECT("Sheet2!O" &amp; 9 + (ROW(O34)-ROW($C$4))*7))</f>
         <v/>
       </c>
-    </row>
-    <row r="35" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="O34" s="19" t="str" cm="1">
+        <f t="array" aca="1" ref="O34" ca="1">IF(INDIRECT("Sheet2!P" &amp; 9 + (ROW(P34)-ROW($C$4))*7)=0, "", INDIRECT("Sheet2!P" &amp; 9 + (ROW(P34)-ROW($C$4))*7))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="2:15" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
         <v>36</v>
       </c>
@@ -2926,8 +3020,12 @@
         <f t="array" aca="1" ref="N35" ca="1">IF(INDIRECT("Sheet2!O" &amp; 9 + (ROW(O35)-ROW($C$4))*7)=0, "", INDIRECT("Sheet2!O" &amp; 9 + (ROW(O35)-ROW($C$4))*7))</f>
         <v/>
       </c>
-    </row>
-    <row r="36" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="O35" s="19" t="str" cm="1">
+        <f t="array" aca="1" ref="O35" ca="1">IF(INDIRECT("Sheet2!P" &amp; 9 + (ROW(P35)-ROW($C$4))*7)=0, "", INDIRECT("Sheet2!P" &amp; 9 + (ROW(P35)-ROW($C$4))*7))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="2:15" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
         <v>37</v>
       </c>
@@ -2979,8 +3077,12 @@
         <f t="array" aca="1" ref="N36" ca="1">IF(INDIRECT("Sheet2!O" &amp; 9 + (ROW(O36)-ROW($C$4))*7)=0, "", INDIRECT("Sheet2!O" &amp; 9 + (ROW(O36)-ROW($C$4))*7))</f>
         <v/>
       </c>
-    </row>
-    <row r="37" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="O36" s="19" t="str" cm="1">
+        <f t="array" aca="1" ref="O36" ca="1">IF(INDIRECT("Sheet2!P" &amp; 9 + (ROW(P36)-ROW($C$4))*7)=0, "", INDIRECT("Sheet2!P" &amp; 9 + (ROW(P36)-ROW($C$4))*7))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="2:15" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
         <v>38</v>
       </c>
@@ -3032,8 +3134,12 @@
         <f t="array" aca="1" ref="N37" ca="1">IF(INDIRECT("Sheet2!O" &amp; 9 + (ROW(O37)-ROW($C$4))*7)=0, "", INDIRECT("Sheet2!O" &amp; 9 + (ROW(O37)-ROW($C$4))*7))</f>
         <v/>
       </c>
-    </row>
-    <row r="38" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="O37" s="19" t="str" cm="1">
+        <f t="array" aca="1" ref="O37" ca="1">IF(INDIRECT("Sheet2!P" &amp; 9 + (ROW(P37)-ROW($C$4))*7)=0, "", INDIRECT("Sheet2!P" &amp; 9 + (ROW(P37)-ROW($C$4))*7))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="2:15" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
         <v>39</v>
       </c>
@@ -3085,8 +3191,12 @@
         <f t="array" aca="1" ref="N38" ca="1">IF(INDIRECT("Sheet2!O" &amp; 9 + (ROW(O38)-ROW($C$4))*7)=0, "", INDIRECT("Sheet2!O" &amp; 9 + (ROW(O38)-ROW($C$4))*7))</f>
         <v/>
       </c>
-    </row>
-    <row r="39" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="O38" s="19" t="str" cm="1">
+        <f t="array" aca="1" ref="O38" ca="1">IF(INDIRECT("Sheet2!P" &amp; 9 + (ROW(P38)-ROW($C$4))*7)=0, "", INDIRECT("Sheet2!P" &amp; 9 + (ROW(P38)-ROW($C$4))*7))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="2:15" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
         <v>40</v>
       </c>
@@ -3138,8 +3248,12 @@
         <f t="array" aca="1" ref="N39" ca="1">IF(INDIRECT("Sheet2!O" &amp; 9 + (ROW(O39)-ROW($C$4))*7)=0, "", INDIRECT("Sheet2!O" &amp; 9 + (ROW(O39)-ROW($C$4))*7))</f>
         <v/>
       </c>
-    </row>
-    <row r="40" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="O39" s="19" t="str" cm="1">
+        <f t="array" aca="1" ref="O39" ca="1">IF(INDIRECT("Sheet2!P" &amp; 9 + (ROW(P39)-ROW($C$4))*7)=0, "", INDIRECT("Sheet2!P" &amp; 9 + (ROW(P39)-ROW($C$4))*7))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="2:15" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
         <v>41</v>
       </c>
@@ -3191,8 +3305,12 @@
         <f t="array" aca="1" ref="N40" ca="1">IF(INDIRECT("Sheet2!O" &amp; 9 + (ROW(O40)-ROW($C$4))*7)=0, "", INDIRECT("Sheet2!O" &amp; 9 + (ROW(O40)-ROW($C$4))*7))</f>
         <v/>
       </c>
-    </row>
-    <row r="41" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="O40" s="19" t="str" cm="1">
+        <f t="array" aca="1" ref="O40" ca="1">IF(INDIRECT("Sheet2!P" &amp; 9 + (ROW(P40)-ROW($C$4))*7)=0, "", INDIRECT("Sheet2!P" &amp; 9 + (ROW(P40)-ROW($C$4))*7))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="2:15" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
         <v>42</v>
       </c>
@@ -3244,8 +3362,12 @@
         <f t="array" aca="1" ref="N41" ca="1">IF(INDIRECT("Sheet2!O" &amp; 9 + (ROW(O41)-ROW($C$4))*7)=0, "", INDIRECT("Sheet2!O" &amp; 9 + (ROW(O41)-ROW($C$4))*7))</f>
         <v/>
       </c>
-    </row>
-    <row r="42" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="O41" s="19" t="str" cm="1">
+        <f t="array" aca="1" ref="O41" ca="1">IF(INDIRECT("Sheet2!P" &amp; 9 + (ROW(P41)-ROW($C$4))*7)=0, "", INDIRECT("Sheet2!P" &amp; 9 + (ROW(P41)-ROW($C$4))*7))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="2:15" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
         <v>96</v>
       </c>
@@ -3294,11 +3416,15 @@
         <v>0</v>
       </c>
       <c r="N42" s="33">
-        <f t="shared" ref="N42" ca="1" si="1">SUM(N4:N41)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
+        <f t="shared" ref="N42:O42" ca="1" si="1">SUM(N4:N41)</f>
+        <v>0</v>
+      </c>
+      <c r="O42" s="33">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
         <v>55</v>
       </c>
@@ -3348,6 +3474,10 @@
       </c>
       <c r="N43" s="1">
         <f ca="1">'Extra Results'!N89</f>
+        <v>0</v>
+      </c>
+      <c r="O43" s="1">
+        <f ca="1">'Extra Results'!O89</f>
         <v>0</v>
       </c>
     </row>
@@ -3447,10 +3577,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F31CCA1-9181-4415-8A17-EAD3268B00A4}">
-  <dimension ref="B1:AD301"/>
+  <dimension ref="B1:AE301"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P28" sqref="P28"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AE32" sqref="AE32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3473,7 +3603,7 @@
     <col min="26" max="26" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C1" s="1" t="s">
         <v>44</v>
       </c>
@@ -3481,7 +3611,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C2" s="1" t="s">
         <v>45</v>
       </c>
@@ -3489,12 +3619,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="R3" s="22" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="4" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>52</v>
       </c>
@@ -3535,6 +3665,9 @@
       <c r="O4" s="1" t="s">
         <v>110</v>
       </c>
+      <c r="P4" s="1" t="s">
+        <v>116</v>
+      </c>
       <c r="Q4" s="22" t="s">
         <v>56</v>
       </c>
@@ -3575,8 +3708,11 @@
       <c r="AD4" s="22" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="5" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AE4" s="22" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B5" s="16"/>
       <c r="C5" s="1"/>
       <c r="D5" s="3"/>
@@ -3591,6 +3727,7 @@
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
       <c r="Q5" s="16"/>
       <c r="R5" s="22"/>
       <c r="S5" s="3"/>
@@ -3605,8 +3742,9 @@
       <c r="AB5" s="3"/>
       <c r="AC5" s="3"/>
       <c r="AD5" s="3"/>
-    </row>
-    <row r="6" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AE5" s="3"/>
+    </row>
+    <row r="6" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B6" s="16"/>
       <c r="C6" s="1"/>
       <c r="D6" s="3"/>
@@ -3621,6 +3759,7 @@
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
       <c r="Q6" s="16"/>
       <c r="R6" s="22"/>
       <c r="S6" s="3"/>
@@ -3635,8 +3774,9 @@
       <c r="AB6" s="3"/>
       <c r="AC6" s="3"/>
       <c r="AD6" s="3"/>
-    </row>
-    <row r="7" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AE6" s="3"/>
+    </row>
+    <row r="7" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B7" s="16"/>
       <c r="C7" s="1"/>
       <c r="D7" s="3"/>
@@ -3651,6 +3791,7 @@
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
       <c r="Q7" s="16"/>
       <c r="R7" s="22"/>
       <c r="S7" s="3"/>
@@ -3665,8 +3806,9 @@
       <c r="AB7" s="3"/>
       <c r="AC7" s="3"/>
       <c r="AD7" s="3"/>
-    </row>
-    <row r="8" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AE7" s="3"/>
+    </row>
+    <row r="8" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B8" s="16"/>
       <c r="C8" s="1"/>
       <c r="D8" s="3"/>
@@ -3681,6 +3823,7 @@
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
       <c r="Q8" s="16"/>
       <c r="R8" s="22"/>
       <c r="S8" s="3"/>
@@ -3695,8 +3838,9 @@
       <c r="AB8" s="3"/>
       <c r="AC8" s="3"/>
       <c r="AD8" s="3"/>
-    </row>
-    <row r="9" spans="2:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AE8" s="3"/>
+    </row>
+    <row r="9" spans="2:31" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C9" s="21" t="s">
         <v>43</v>
       </c>
@@ -3712,6 +3856,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
       <c r="R9" s="23" t="s">
         <v>43</v>
       </c>
@@ -3727,8 +3872,9 @@
       <c r="AB9" s="22"/>
       <c r="AC9" s="22"/>
       <c r="AD9" s="22"/>
-    </row>
-    <row r="10" spans="2:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AE9" s="22"/>
+    </row>
+    <row r="10" spans="2:31" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C10" s="20" t="s">
         <v>55</v>
       </c>
@@ -3744,6 +3890,7 @@
       <c r="M10" s="20"/>
       <c r="N10" s="20"/>
       <c r="O10" s="20"/>
+      <c r="P10" s="20"/>
       <c r="R10" s="24" t="s">
         <v>55</v>
       </c>
@@ -3759,8 +3906,9 @@
       <c r="AB10" s="24"/>
       <c r="AC10" s="24"/>
       <c r="AD10" s="24"/>
-    </row>
-    <row r="11" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AE10" s="24"/>
+    </row>
+    <row r="11" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>6</v>
       </c>
@@ -3801,6 +3949,9 @@
       <c r="O11" s="1" t="s">
         <v>110</v>
       </c>
+      <c r="P11" s="1" t="s">
+        <v>116</v>
+      </c>
       <c r="Q11" s="22" t="s">
         <v>57</v>
       </c>
@@ -3841,8 +3992,11 @@
       <c r="AD11" s="22" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="12" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AE11" s="22" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B12" s="16"/>
       <c r="C12" s="1"/>
       <c r="D12" s="3"/>
@@ -3857,6 +4011,7 @@
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
       <c r="Q12" s="16"/>
       <c r="R12" s="22"/>
       <c r="S12" s="3"/>
@@ -3871,8 +4026,9 @@
       <c r="AB12" s="3"/>
       <c r="AC12" s="3"/>
       <c r="AD12" s="3"/>
-    </row>
-    <row r="13" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AE12" s="3"/>
+    </row>
+    <row r="13" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B13" s="16"/>
       <c r="C13" s="1"/>
       <c r="D13" s="3"/>
@@ -3887,6 +4043,7 @@
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
       <c r="Q13" s="16"/>
       <c r="R13" s="22"/>
       <c r="S13" s="3"/>
@@ -3901,8 +4058,9 @@
       <c r="AB13" s="3"/>
       <c r="AC13" s="3"/>
       <c r="AD13" s="3"/>
-    </row>
-    <row r="14" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AE13" s="3"/>
+    </row>
+    <row r="14" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B14" s="16"/>
       <c r="C14" s="1"/>
       <c r="D14" s="3"/>
@@ -3917,6 +4075,7 @@
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
       <c r="Q14" s="16"/>
       <c r="R14" s="22"/>
       <c r="S14" s="3"/>
@@ -3931,8 +4090,9 @@
       <c r="AB14" s="3"/>
       <c r="AC14" s="3"/>
       <c r="AD14" s="3"/>
-    </row>
-    <row r="15" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AE14" s="3"/>
+    </row>
+    <row r="15" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B15" s="16"/>
       <c r="C15" s="1"/>
       <c r="D15" s="3"/>
@@ -3947,6 +4107,7 @@
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
       <c r="Q15" s="16"/>
       <c r="R15" s="22"/>
       <c r="S15" s="3"/>
@@ -3961,8 +4122,9 @@
       <c r="AB15" s="3"/>
       <c r="AC15" s="3"/>
       <c r="AD15" s="3"/>
-    </row>
-    <row r="16" spans="2:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AE15" s="3"/>
+    </row>
+    <row r="16" spans="2:31" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C16" s="21" t="s">
         <v>43</v>
       </c>
@@ -3978,6 +4140,7 @@
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
       <c r="R16" s="23" t="s">
         <v>43</v>
       </c>
@@ -3993,8 +4156,9 @@
       <c r="AB16" s="22"/>
       <c r="AC16" s="22"/>
       <c r="AD16" s="22"/>
-    </row>
-    <row r="17" spans="2:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AE16" s="22"/>
+    </row>
+    <row r="17" spans="2:31" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C17" s="20" t="s">
         <v>55</v>
       </c>
@@ -4010,6 +4174,7 @@
       <c r="M17" s="20"/>
       <c r="N17" s="20"/>
       <c r="O17" s="20"/>
+      <c r="P17" s="20"/>
       <c r="R17" s="24" t="s">
         <v>55</v>
       </c>
@@ -4025,8 +4190,9 @@
       <c r="AB17" s="24"/>
       <c r="AC17" s="24"/>
       <c r="AD17" s="24"/>
-    </row>
-    <row r="18" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AE17" s="24"/>
+    </row>
+    <row r="18" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>7</v>
       </c>
@@ -4067,6 +4233,9 @@
       <c r="O18" s="1" t="s">
         <v>110</v>
       </c>
+      <c r="P18" s="1" t="s">
+        <v>116</v>
+      </c>
       <c r="Q18" s="22" t="s">
         <v>58</v>
       </c>
@@ -4107,8 +4276,11 @@
       <c r="AD18" s="22" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="19" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AE18" s="22" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="19" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B19" s="16"/>
       <c r="C19" s="1"/>
       <c r="D19" s="3"/>
@@ -4123,6 +4295,7 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
       <c r="Q19" s="16"/>
       <c r="R19" s="22"/>
       <c r="S19" s="3"/>
@@ -4137,8 +4310,9 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B20" s="16"/>
       <c r="C20" s="1"/>
       <c r="D20" s="3"/>
@@ -4153,6 +4327,7 @@
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
       <c r="Q20" s="16"/>
       <c r="R20" s="22"/>
       <c r="S20" s="3"/>
@@ -4167,8 +4342,9 @@
       <c r="AB20" s="3"/>
       <c r="AC20" s="3"/>
       <c r="AD20" s="3"/>
-    </row>
-    <row r="21" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AE20" s="3"/>
+    </row>
+    <row r="21" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B21" s="16"/>
       <c r="C21" s="1"/>
       <c r="D21" s="3"/>
@@ -4183,6 +4359,7 @@
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
       <c r="Q21" s="16"/>
       <c r="R21" s="22"/>
       <c r="S21" s="3"/>
@@ -4197,8 +4374,9 @@
       <c r="AB21" s="3"/>
       <c r="AC21" s="3"/>
       <c r="AD21" s="3"/>
-    </row>
-    <row r="22" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AE21" s="3"/>
+    </row>
+    <row r="22" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B22" s="16"/>
       <c r="C22" s="1"/>
       <c r="D22" s="3"/>
@@ -4213,6 +4391,7 @@
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
       <c r="Q22" s="16"/>
       <c r="R22" s="22"/>
       <c r="S22" s="3"/>
@@ -4227,8 +4406,9 @@
       <c r="AB22" s="3"/>
       <c r="AC22" s="3"/>
       <c r="AD22" s="3"/>
-    </row>
-    <row r="23" spans="2:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AE22" s="3"/>
+    </row>
+    <row r="23" spans="2:31" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C23" s="21" t="s">
         <v>43</v>
       </c>
@@ -4244,6 +4424,7 @@
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
       <c r="R23" s="23" t="s">
         <v>43</v>
       </c>
@@ -4259,8 +4440,9 @@
       <c r="AB23" s="22"/>
       <c r="AC23" s="22"/>
       <c r="AD23" s="22"/>
-    </row>
-    <row r="24" spans="2:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AE23" s="22"/>
+    </row>
+    <row r="24" spans="2:31" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C24" s="20" t="s">
         <v>55</v>
       </c>
@@ -4276,6 +4458,7 @@
       <c r="M24" s="20"/>
       <c r="N24" s="20"/>
       <c r="O24" s="20"/>
+      <c r="P24" s="20"/>
       <c r="R24" s="24" t="s">
         <v>55</v>
       </c>
@@ -4291,8 +4474,9 @@
       <c r="AB24" s="24"/>
       <c r="AC24" s="24"/>
       <c r="AD24" s="24"/>
-    </row>
-    <row r="25" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AE24" s="24"/>
+    </row>
+    <row r="25" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>8</v>
       </c>
@@ -4333,6 +4517,9 @@
       <c r="O25" s="1" t="s">
         <v>110</v>
       </c>
+      <c r="P25" s="1" t="s">
+        <v>116</v>
+      </c>
       <c r="Q25" s="22" t="s">
         <v>59</v>
       </c>
@@ -4373,8 +4560,11 @@
       <c r="AD25" s="22" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="26" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AE25" s="22" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="26" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B26" s="16"/>
       <c r="C26" s="1"/>
       <c r="D26" s="3"/>
@@ -4389,6 +4579,7 @@
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
       <c r="Q26" s="16"/>
       <c r="R26" s="22"/>
       <c r="S26" s="3"/>
@@ -4403,8 +4594,9 @@
       <c r="AB26" s="3"/>
       <c r="AC26" s="3"/>
       <c r="AD26" s="3"/>
-    </row>
-    <row r="27" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AE26" s="3"/>
+    </row>
+    <row r="27" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B27" s="16"/>
       <c r="C27" s="1"/>
       <c r="D27" s="3"/>
@@ -4419,6 +4611,7 @@
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
       <c r="Q27" s="16"/>
       <c r="R27" s="22"/>
       <c r="S27" s="3"/>
@@ -4433,8 +4626,9 @@
       <c r="AB27" s="3"/>
       <c r="AC27" s="3"/>
       <c r="AD27" s="3"/>
-    </row>
-    <row r="28" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AE27" s="3"/>
+    </row>
+    <row r="28" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B28" s="16"/>
       <c r="C28" s="1"/>
       <c r="D28" s="3"/>
@@ -4449,6 +4643,7 @@
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
       <c r="Q28" s="16"/>
       <c r="R28" s="22"/>
       <c r="S28" s="3"/>
@@ -4463,8 +4658,9 @@
       <c r="AB28" s="3"/>
       <c r="AC28" s="3"/>
       <c r="AD28" s="3"/>
-    </row>
-    <row r="29" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AE28" s="3"/>
+    </row>
+    <row r="29" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B29" s="16"/>
       <c r="C29" s="1"/>
       <c r="D29" s="3"/>
@@ -4479,6 +4675,7 @@
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
       <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
       <c r="Q29" s="16"/>
       <c r="R29" s="22"/>
       <c r="S29" s="3"/>
@@ -4493,8 +4690,9 @@
       <c r="AB29" s="3"/>
       <c r="AC29" s="3"/>
       <c r="AD29" s="3"/>
-    </row>
-    <row r="30" spans="2:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AE29" s="3"/>
+    </row>
+    <row r="30" spans="2:31" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C30" s="21" t="s">
         <v>43</v>
       </c>
@@ -4510,6 +4708,7 @@
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
       <c r="R30" s="23" t="s">
         <v>43</v>
       </c>
@@ -4525,8 +4724,9 @@
       <c r="AB30" s="22"/>
       <c r="AC30" s="22"/>
       <c r="AD30" s="22"/>
-    </row>
-    <row r="31" spans="2:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AE30" s="22"/>
+    </row>
+    <row r="31" spans="2:31" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C31" s="20" t="s">
         <v>55</v>
       </c>
@@ -4542,6 +4742,7 @@
       <c r="M31" s="20"/>
       <c r="N31" s="20"/>
       <c r="O31" s="20"/>
+      <c r="P31" s="20"/>
       <c r="R31" s="24" t="s">
         <v>55</v>
       </c>
@@ -4557,8 +4758,9 @@
       <c r="AB31" s="24"/>
       <c r="AC31" s="24"/>
       <c r="AD31" s="24"/>
-    </row>
-    <row r="32" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AE31" s="24"/>
+    </row>
+    <row r="32" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>9</v>
       </c>
@@ -4599,6 +4801,9 @@
       <c r="O32" s="1" t="s">
         <v>110</v>
       </c>
+      <c r="P32" s="1" t="s">
+        <v>116</v>
+      </c>
       <c r="Q32" s="22" t="s">
         <v>60</v>
       </c>
@@ -4639,8 +4844,11 @@
       <c r="AD32" s="22" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="33" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AE32" s="22" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="33" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B33" s="16"/>
       <c r="C33" s="1"/>
       <c r="D33" s="3"/>
@@ -4655,6 +4863,7 @@
       <c r="M33" s="3"/>
       <c r="N33" s="3"/>
       <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
       <c r="Q33" s="16"/>
       <c r="R33" s="22"/>
       <c r="S33" s="3"/>
@@ -4669,8 +4878,9 @@
       <c r="AB33" s="3"/>
       <c r="AC33" s="3"/>
       <c r="AD33" s="3"/>
-    </row>
-    <row r="34" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AE33" s="3"/>
+    </row>
+    <row r="34" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B34" s="16"/>
       <c r="C34" s="1"/>
       <c r="D34" s="3"/>
@@ -4685,6 +4895,7 @@
       <c r="M34" s="3"/>
       <c r="N34" s="3"/>
       <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
       <c r="Q34" s="16"/>
       <c r="R34" s="22"/>
       <c r="S34" s="3"/>
@@ -4699,8 +4910,9 @@
       <c r="AB34" s="3"/>
       <c r="AC34" s="3"/>
       <c r="AD34" s="3"/>
-    </row>
-    <row r="35" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AE34" s="3"/>
+    </row>
+    <row r="35" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B35" s="16"/>
       <c r="C35" s="1"/>
       <c r="D35" s="3"/>
@@ -4715,6 +4927,7 @@
       <c r="M35" s="3"/>
       <c r="N35" s="3"/>
       <c r="O35" s="3"/>
+      <c r="P35" s="3"/>
       <c r="Q35" s="16"/>
       <c r="R35" s="22"/>
       <c r="S35" s="3"/>
@@ -4729,8 +4942,9 @@
       <c r="AB35" s="3"/>
       <c r="AC35" s="3"/>
       <c r="AD35" s="3"/>
-    </row>
-    <row r="36" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AE35" s="3"/>
+    </row>
+    <row r="36" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B36" s="16"/>
       <c r="C36" s="1"/>
       <c r="D36" s="3"/>
@@ -4745,6 +4959,7 @@
       <c r="M36" s="3"/>
       <c r="N36" s="3"/>
       <c r="O36" s="3"/>
+      <c r="P36" s="3"/>
       <c r="Q36" s="16"/>
       <c r="R36" s="22"/>
       <c r="S36" s="3"/>
@@ -4759,8 +4974,9 @@
       <c r="AB36" s="3"/>
       <c r="AC36" s="3"/>
       <c r="AD36" s="3"/>
-    </row>
-    <row r="37" spans="2:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AE36" s="3"/>
+    </row>
+    <row r="37" spans="2:31" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C37" s="21" t="s">
         <v>43</v>
       </c>
@@ -4776,6 +4992,7 @@
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
       <c r="R37" s="23" t="s">
         <v>43</v>
       </c>
@@ -4791,8 +5008,9 @@
       <c r="AB37" s="22"/>
       <c r="AC37" s="22"/>
       <c r="AD37" s="22"/>
-    </row>
-    <row r="38" spans="2:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AE37" s="22"/>
+    </row>
+    <row r="38" spans="2:31" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C38" s="20" t="s">
         <v>55</v>
       </c>
@@ -4808,6 +5026,7 @@
       <c r="M38" s="20"/>
       <c r="N38" s="20"/>
       <c r="O38" s="20"/>
+      <c r="P38" s="20"/>
       <c r="R38" s="24" t="s">
         <v>55</v>
       </c>
@@ -4823,8 +5042,9 @@
       <c r="AB38" s="24"/>
       <c r="AC38" s="24"/>
       <c r="AD38" s="24"/>
-    </row>
-    <row r="39" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AE38" s="24"/>
+    </row>
+    <row r="39" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
         <v>10</v>
       </c>
@@ -4865,6 +5085,9 @@
       <c r="O39" s="1" t="s">
         <v>110</v>
       </c>
+      <c r="P39" s="1" t="s">
+        <v>116</v>
+      </c>
       <c r="Q39" s="22" t="s">
         <v>61</v>
       </c>
@@ -4905,8 +5128,11 @@
       <c r="AD39" s="22" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="40" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AE39" s="22" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="40" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B40" s="16"/>
       <c r="C40" s="1"/>
       <c r="D40" s="3"/>
@@ -4921,6 +5147,7 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
       <c r="Q40" s="16"/>
       <c r="R40" s="22"/>
       <c r="S40" s="3"/>
@@ -4935,8 +5162,9 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B41" s="16"/>
       <c r="C41" s="1"/>
       <c r="D41" s="3"/>
@@ -4951,6 +5179,7 @@
       <c r="M41" s="3"/>
       <c r="N41" s="3"/>
       <c r="O41" s="3"/>
+      <c r="P41" s="3"/>
       <c r="Q41" s="16"/>
       <c r="R41" s="22"/>
       <c r="S41" s="3"/>
@@ -4965,8 +5194,9 @@
       <c r="AB41" s="3"/>
       <c r="AC41" s="3"/>
       <c r="AD41" s="3"/>
-    </row>
-    <row r="42" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AE41" s="3"/>
+    </row>
+    <row r="42" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B42" s="16"/>
       <c r="C42" s="1"/>
       <c r="D42" s="3"/>
@@ -4981,6 +5211,7 @@
       <c r="M42" s="3"/>
       <c r="N42" s="3"/>
       <c r="O42" s="3"/>
+      <c r="P42" s="3"/>
       <c r="Q42" s="16"/>
       <c r="R42" s="22"/>
       <c r="S42" s="3"/>
@@ -4995,8 +5226,9 @@
       <c r="AB42" s="3"/>
       <c r="AC42" s="3"/>
       <c r="AD42" s="3"/>
-    </row>
-    <row r="43" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AE42" s="3"/>
+    </row>
+    <row r="43" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B43" s="16"/>
       <c r="C43" s="1"/>
       <c r="D43" s="3"/>
@@ -5011,6 +5243,7 @@
       <c r="M43" s="3"/>
       <c r="N43" s="3"/>
       <c r="O43" s="3"/>
+      <c r="P43" s="3"/>
       <c r="Q43" s="16"/>
       <c r="R43" s="22"/>
       <c r="S43" s="3"/>
@@ -5025,8 +5258,9 @@
       <c r="AB43" s="3"/>
       <c r="AC43" s="3"/>
       <c r="AD43" s="3"/>
-    </row>
-    <row r="44" spans="2:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AE43" s="3"/>
+    </row>
+    <row r="44" spans="2:31" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C44" s="21" t="s">
         <v>43</v>
       </c>
@@ -5042,6 +5276,7 @@
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
       <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
       <c r="R44" s="23" t="s">
         <v>43</v>
       </c>
@@ -5057,8 +5292,9 @@
       <c r="AB44" s="22"/>
       <c r="AC44" s="22"/>
       <c r="AD44" s="22"/>
-    </row>
-    <row r="45" spans="2:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AE44" s="22"/>
+    </row>
+    <row r="45" spans="2:31" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C45" s="20" t="s">
         <v>55</v>
       </c>
@@ -5074,6 +5310,7 @@
       <c r="M45" s="20"/>
       <c r="N45" s="20"/>
       <c r="O45" s="20"/>
+      <c r="P45" s="20"/>
       <c r="R45" s="24" t="s">
         <v>55</v>
       </c>
@@ -5089,8 +5326,9 @@
       <c r="AB45" s="24"/>
       <c r="AC45" s="24"/>
       <c r="AD45" s="24"/>
-    </row>
-    <row r="46" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AE45" s="24"/>
+    </row>
+    <row r="46" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B46" s="1" t="s">
         <v>11</v>
       </c>
@@ -5131,6 +5369,9 @@
       <c r="O46" s="1" t="s">
         <v>110</v>
       </c>
+      <c r="P46" s="1" t="s">
+        <v>116</v>
+      </c>
       <c r="Q46" s="22" t="s">
         <v>62</v>
       </c>
@@ -5171,8 +5412,11 @@
       <c r="AD46" s="22" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="47" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AE46" s="22" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="47" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B47" s="16"/>
       <c r="C47" s="1"/>
       <c r="D47" s="3"/>
@@ -5187,6 +5431,7 @@
       <c r="M47" s="3"/>
       <c r="N47" s="3"/>
       <c r="O47" s="3"/>
+      <c r="P47" s="3"/>
       <c r="Q47" s="16"/>
       <c r="R47" s="22"/>
       <c r="S47" s="3"/>
@@ -5201,8 +5446,9 @@
       <c r="AB47" s="3"/>
       <c r="AC47" s="3"/>
       <c r="AD47" s="3"/>
-    </row>
-    <row r="48" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AE47" s="3"/>
+    </row>
+    <row r="48" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B48" s="16"/>
       <c r="C48" s="1"/>
       <c r="D48" s="3"/>
@@ -5217,6 +5463,7 @@
       <c r="M48" s="3"/>
       <c r="N48" s="3"/>
       <c r="O48" s="3"/>
+      <c r="P48" s="3"/>
       <c r="Q48" s="16"/>
       <c r="R48" s="22"/>
       <c r="S48" s="3"/>
@@ -5231,8 +5478,9 @@
       <c r="AB48" s="3"/>
       <c r="AC48" s="3"/>
       <c r="AD48" s="3"/>
-    </row>
-    <row r="49" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AE48" s="3"/>
+    </row>
+    <row r="49" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B49" s="16"/>
       <c r="C49" s="1"/>
       <c r="D49" s="3"/>
@@ -5247,6 +5495,7 @@
       <c r="M49" s="3"/>
       <c r="N49" s="3"/>
       <c r="O49" s="3"/>
+      <c r="P49" s="3"/>
       <c r="Q49" s="16"/>
       <c r="R49" s="22"/>
       <c r="S49" s="3"/>
@@ -5261,8 +5510,9 @@
       <c r="AB49" s="3"/>
       <c r="AC49" s="3"/>
       <c r="AD49" s="3"/>
-    </row>
-    <row r="50" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AE49" s="3"/>
+    </row>
+    <row r="50" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B50" s="16"/>
       <c r="C50" s="1"/>
       <c r="D50" s="3"/>
@@ -5277,6 +5527,7 @@
       <c r="M50" s="3"/>
       <c r="N50" s="3"/>
       <c r="O50" s="3"/>
+      <c r="P50" s="3"/>
       <c r="Q50" s="16"/>
       <c r="R50" s="22"/>
       <c r="S50" s="3"/>
@@ -5291,8 +5542,9 @@
       <c r="AB50" s="3"/>
       <c r="AC50" s="3"/>
       <c r="AD50" s="3"/>
-    </row>
-    <row r="51" spans="2:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AE50" s="3"/>
+    </row>
+    <row r="51" spans="2:31" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C51" s="21" t="s">
         <v>43</v>
       </c>
@@ -5308,6 +5560,7 @@
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
       <c r="O51" s="1"/>
+      <c r="P51" s="1"/>
       <c r="R51" s="23" t="s">
         <v>43</v>
       </c>
@@ -5323,8 +5576,9 @@
       <c r="AB51" s="22"/>
       <c r="AC51" s="22"/>
       <c r="AD51" s="22"/>
-    </row>
-    <row r="52" spans="2:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AE51" s="22"/>
+    </row>
+    <row r="52" spans="2:31" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C52" s="20" t="s">
         <v>55</v>
       </c>
@@ -5340,6 +5594,7 @@
       <c r="M52" s="20"/>
       <c r="N52" s="20"/>
       <c r="O52" s="20"/>
+      <c r="P52" s="20"/>
       <c r="R52" s="24" t="s">
         <v>55</v>
       </c>
@@ -5355,8 +5610,9 @@
       <c r="AB52" s="24"/>
       <c r="AC52" s="24"/>
       <c r="AD52" s="24"/>
-    </row>
-    <row r="53" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AE52" s="24"/>
+    </row>
+    <row r="53" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B53" s="1" t="s">
         <v>12</v>
       </c>
@@ -5397,6 +5653,9 @@
       <c r="O53" s="1" t="s">
         <v>110</v>
       </c>
+      <c r="P53" s="1" t="s">
+        <v>116</v>
+      </c>
       <c r="Q53" s="22" t="s">
         <v>63</v>
       </c>
@@ -5437,8 +5696,11 @@
       <c r="AD53" s="22" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="54" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AE53" s="22" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="54" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B54" s="16"/>
       <c r="C54" s="1"/>
       <c r="D54" s="3"/>
@@ -5453,6 +5715,7 @@
       <c r="M54" s="3"/>
       <c r="N54" s="3"/>
       <c r="O54" s="3"/>
+      <c r="P54" s="3"/>
       <c r="Q54" s="16"/>
       <c r="R54" s="22"/>
       <c r="S54" s="3"/>
@@ -5467,8 +5730,9 @@
       <c r="AB54" s="3"/>
       <c r="AC54" s="3"/>
       <c r="AD54" s="3"/>
-    </row>
-    <row r="55" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AE54" s="3"/>
+    </row>
+    <row r="55" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B55" s="16"/>
       <c r="C55" s="1"/>
       <c r="D55" s="3"/>
@@ -5483,6 +5747,7 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
       <c r="Q55" s="16"/>
       <c r="R55" s="22"/>
       <c r="S55" s="3"/>
@@ -5497,8 +5762,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B56" s="16"/>
       <c r="C56" s="1"/>
       <c r="D56" s="3"/>
@@ -5513,6 +5779,7 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
       <c r="Q56" s="16"/>
       <c r="R56" s="22"/>
       <c r="S56" s="3"/>
@@ -5527,8 +5794,9 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B57" s="16"/>
       <c r="C57" s="1"/>
       <c r="D57" s="3"/>
@@ -5543,6 +5811,7 @@
       <c r="M57" s="3"/>
       <c r="N57" s="3"/>
       <c r="O57" s="3"/>
+      <c r="P57" s="3"/>
       <c r="Q57" s="16"/>
       <c r="R57" s="22"/>
       <c r="S57" s="3"/>
@@ -5557,8 +5826,9 @@
       <c r="AB57" s="3"/>
       <c r="AC57" s="3"/>
       <c r="AD57" s="3"/>
-    </row>
-    <row r="58" spans="2:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AE57" s="3"/>
+    </row>
+    <row r="58" spans="2:31" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C58" s="21" t="s">
         <v>43</v>
       </c>
@@ -5574,6 +5844,7 @@
       <c r="M58" s="1"/>
       <c r="N58" s="1"/>
       <c r="O58" s="1"/>
+      <c r="P58" s="1"/>
       <c r="R58" s="23" t="s">
         <v>43</v>
       </c>
@@ -5589,8 +5860,9 @@
       <c r="AB58" s="22"/>
       <c r="AC58" s="22"/>
       <c r="AD58" s="22"/>
-    </row>
-    <row r="59" spans="2:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AE58" s="22"/>
+    </row>
+    <row r="59" spans="2:31" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C59" s="20" t="s">
         <v>55</v>
       </c>
@@ -5606,6 +5878,7 @@
       <c r="M59" s="20"/>
       <c r="N59" s="20"/>
       <c r="O59" s="20"/>
+      <c r="P59" s="20"/>
       <c r="R59" s="24" t="s">
         <v>55</v>
       </c>
@@ -5621,8 +5894,9 @@
       <c r="AB59" s="24"/>
       <c r="AC59" s="24"/>
       <c r="AD59" s="24"/>
-    </row>
-    <row r="60" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AE59" s="24"/>
+    </row>
+    <row r="60" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B60" s="1" t="s">
         <v>13</v>
       </c>
@@ -5663,6 +5937,9 @@
       <c r="O60" s="1" t="s">
         <v>110</v>
       </c>
+      <c r="P60" s="1" t="s">
+        <v>116</v>
+      </c>
       <c r="Q60" s="22" t="s">
         <v>64</v>
       </c>
@@ -5703,8 +5980,11 @@
       <c r="AD60" s="22" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="61" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AE60" s="22" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="61" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B61" s="16"/>
       <c r="C61" s="1"/>
       <c r="D61" s="3"/>
@@ -5719,6 +5999,7 @@
       <c r="M61" s="3"/>
       <c r="N61" s="3"/>
       <c r="O61" s="3"/>
+      <c r="P61" s="3"/>
       <c r="Q61" s="16"/>
       <c r="R61" s="22"/>
       <c r="S61" s="3"/>
@@ -5733,8 +6014,9 @@
       <c r="AB61" s="3"/>
       <c r="AC61" s="3"/>
       <c r="AD61" s="3"/>
-    </row>
-    <row r="62" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AE61" s="3"/>
+    </row>
+    <row r="62" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B62" s="16"/>
       <c r="C62" s="1"/>
       <c r="D62" s="3"/>
@@ -5749,6 +6031,7 @@
       <c r="M62" s="3"/>
       <c r="N62" s="3"/>
       <c r="O62" s="3"/>
+      <c r="P62" s="3"/>
       <c r="Q62" s="16"/>
       <c r="R62" s="22"/>
       <c r="S62" s="3"/>
@@ -5763,8 +6046,9 @@
       <c r="AB62" s="3"/>
       <c r="AC62" s="3"/>
       <c r="AD62" s="3"/>
-    </row>
-    <row r="63" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AE62" s="3"/>
+    </row>
+    <row r="63" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B63" s="16"/>
       <c r="C63" s="1"/>
       <c r="D63" s="3"/>
@@ -5779,6 +6063,7 @@
       <c r="M63" s="3"/>
       <c r="N63" s="3"/>
       <c r="O63" s="3"/>
+      <c r="P63" s="3"/>
       <c r="Q63" s="16"/>
       <c r="R63" s="22"/>
       <c r="S63" s="3"/>
@@ -5793,8 +6078,9 @@
       <c r="AB63" s="3"/>
       <c r="AC63" s="3"/>
       <c r="AD63" s="3"/>
-    </row>
-    <row r="64" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AE63" s="3"/>
+    </row>
+    <row r="64" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B64" s="16"/>
       <c r="C64" s="1"/>
       <c r="D64" s="3"/>
@@ -5809,6 +6095,7 @@
       <c r="M64" s="3"/>
       <c r="N64" s="3"/>
       <c r="O64" s="3"/>
+      <c r="P64" s="3"/>
       <c r="Q64" s="16"/>
       <c r="R64" s="22"/>
       <c r="S64" s="3"/>
@@ -5823,8 +6110,9 @@
       <c r="AB64" s="3"/>
       <c r="AC64" s="3"/>
       <c r="AD64" s="3"/>
-    </row>
-    <row r="65" spans="2:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AE64" s="3"/>
+    </row>
+    <row r="65" spans="2:31" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C65" s="21" t="s">
         <v>43</v>
       </c>
@@ -5840,6 +6128,7 @@
       <c r="M65" s="1"/>
       <c r="N65" s="1"/>
       <c r="O65" s="1"/>
+      <c r="P65" s="1"/>
       <c r="R65" s="23" t="s">
         <v>43</v>
       </c>
@@ -5855,8 +6144,9 @@
       <c r="AB65" s="22"/>
       <c r="AC65" s="22"/>
       <c r="AD65" s="22"/>
-    </row>
-    <row r="66" spans="2:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AE65" s="22"/>
+    </row>
+    <row r="66" spans="2:31" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C66" s="20" t="s">
         <v>55</v>
       </c>
@@ -5872,6 +6162,7 @@
       <c r="M66" s="20"/>
       <c r="N66" s="20"/>
       <c r="O66" s="20"/>
+      <c r="P66" s="20"/>
       <c r="R66" s="24" t="s">
         <v>55</v>
       </c>
@@ -5887,8 +6178,9 @@
       <c r="AB66" s="24"/>
       <c r="AC66" s="24"/>
       <c r="AD66" s="24"/>
-    </row>
-    <row r="67" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AE66" s="24"/>
+    </row>
+    <row r="67" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B67" s="1" t="s">
         <v>14</v>
       </c>
@@ -5929,6 +6221,9 @@
       <c r="O67" s="1" t="s">
         <v>110</v>
       </c>
+      <c r="P67" s="1" t="s">
+        <v>116</v>
+      </c>
       <c r="Q67" s="22" t="s">
         <v>65</v>
       </c>
@@ -5969,8 +6264,11 @@
       <c r="AD67" s="22" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="68" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AE67" s="22" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="68" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B68" s="16"/>
       <c r="C68" s="1"/>
       <c r="D68" s="3"/>
@@ -5985,6 +6283,7 @@
       <c r="M68" s="3"/>
       <c r="N68" s="3"/>
       <c r="O68" s="3"/>
+      <c r="P68" s="3"/>
       <c r="Q68" s="16"/>
       <c r="R68" s="22"/>
       <c r="S68" s="3"/>
@@ -5999,8 +6298,9 @@
       <c r="AB68" s="3"/>
       <c r="AC68" s="3"/>
       <c r="AD68" s="3"/>
-    </row>
-    <row r="69" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AE68" s="3"/>
+    </row>
+    <row r="69" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B69" s="16"/>
       <c r="C69" s="1"/>
       <c r="D69" s="3"/>
@@ -6015,6 +6315,7 @@
       <c r="M69" s="3"/>
       <c r="N69" s="3"/>
       <c r="O69" s="3"/>
+      <c r="P69" s="3"/>
       <c r="Q69" s="16"/>
       <c r="R69" s="22"/>
       <c r="S69" s="3"/>
@@ -6029,8 +6330,9 @@
       <c r="AB69" s="3"/>
       <c r="AC69" s="3"/>
       <c r="AD69" s="3"/>
-    </row>
-    <row r="70" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AE69" s="3"/>
+    </row>
+    <row r="70" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B70" s="16"/>
       <c r="C70" s="1"/>
       <c r="D70" s="3"/>
@@ -6045,6 +6347,7 @@
       <c r="M70" s="3"/>
       <c r="N70" s="3"/>
       <c r="O70" s="3"/>
+      <c r="P70" s="3"/>
       <c r="Q70" s="16"/>
       <c r="R70" s="22"/>
       <c r="S70" s="3"/>
@@ -6059,8 +6362,9 @@
       <c r="AB70" s="3"/>
       <c r="AC70" s="3"/>
       <c r="AD70" s="3"/>
-    </row>
-    <row r="71" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AE70" s="3"/>
+    </row>
+    <row r="71" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B71" s="16"/>
       <c r="C71" s="1"/>
       <c r="D71" s="3"/>
@@ -6075,6 +6379,7 @@
       <c r="M71" s="3"/>
       <c r="N71" s="3"/>
       <c r="O71" s="3"/>
+      <c r="P71" s="3"/>
       <c r="Q71" s="16"/>
       <c r="R71" s="22"/>
       <c r="S71" s="3"/>
@@ -6089,8 +6394,9 @@
       <c r="AB71" s="3"/>
       <c r="AC71" s="3"/>
       <c r="AD71" s="3"/>
-    </row>
-    <row r="72" spans="2:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AE71" s="3"/>
+    </row>
+    <row r="72" spans="2:31" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C72" s="21" t="s">
         <v>43</v>
       </c>
@@ -6106,6 +6412,7 @@
       <c r="M72" s="1"/>
       <c r="N72" s="1"/>
       <c r="O72" s="1"/>
+      <c r="P72" s="1"/>
       <c r="R72" s="23" t="s">
         <v>43</v>
       </c>
@@ -6121,8 +6428,9 @@
       <c r="AB72" s="22"/>
       <c r="AC72" s="22"/>
       <c r="AD72" s="22"/>
-    </row>
-    <row r="73" spans="2:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AE72" s="22"/>
+    </row>
+    <row r="73" spans="2:31" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C73" s="20" t="s">
         <v>55</v>
       </c>
@@ -6138,6 +6446,7 @@
       <c r="M73" s="20"/>
       <c r="N73" s="20"/>
       <c r="O73" s="20"/>
+      <c r="P73" s="20"/>
       <c r="R73" s="24" t="s">
         <v>55</v>
       </c>
@@ -6153,8 +6462,9 @@
       <c r="AB73" s="24"/>
       <c r="AC73" s="24"/>
       <c r="AD73" s="24"/>
-    </row>
-    <row r="74" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AE73" s="24"/>
+    </row>
+    <row r="74" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B74" s="1" t="s">
         <v>15</v>
       </c>
@@ -6195,6 +6505,9 @@
       <c r="O74" s="1" t="s">
         <v>110</v>
       </c>
+      <c r="P74" s="1" t="s">
+        <v>116</v>
+      </c>
       <c r="Q74" s="22" t="s">
         <v>66</v>
       </c>
@@ -6235,8 +6548,11 @@
       <c r="AD74" s="22" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AE74" s="22" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B75" s="16"/>
       <c r="C75" s="1"/>
       <c r="D75" s="3"/>
@@ -6251,6 +6567,7 @@
       <c r="M75" s="3"/>
       <c r="N75" s="3"/>
       <c r="O75" s="3"/>
+      <c r="P75" s="3"/>
       <c r="Q75" s="16"/>
       <c r="R75" s="22"/>
       <c r="S75" s="3"/>
@@ -6265,8 +6582,9 @@
       <c r="AB75" s="3"/>
       <c r="AC75" s="3"/>
       <c r="AD75" s="3"/>
-    </row>
-    <row r="76" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AE75" s="3"/>
+    </row>
+    <row r="76" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B76" s="16"/>
       <c r="C76" s="1"/>
       <c r="D76" s="3"/>
@@ -6281,6 +6599,7 @@
       <c r="M76" s="3"/>
       <c r="N76" s="3"/>
       <c r="O76" s="3"/>
+      <c r="P76" s="3"/>
       <c r="Q76" s="16"/>
       <c r="R76" s="22"/>
       <c r="S76" s="3"/>
@@ -6295,8 +6614,9 @@
       <c r="AB76" s="3"/>
       <c r="AC76" s="3"/>
       <c r="AD76" s="3"/>
-    </row>
-    <row r="77" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AE76" s="3"/>
+    </row>
+    <row r="77" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B77" s="16"/>
       <c r="C77" s="1"/>
       <c r="D77" s="3"/>
@@ -6311,6 +6631,7 @@
       <c r="M77" s="3"/>
       <c r="N77" s="3"/>
       <c r="O77" s="3"/>
+      <c r="P77" s="3"/>
       <c r="Q77" s="16"/>
       <c r="R77" s="22"/>
       <c r="S77" s="3"/>
@@ -6325,8 +6646,9 @@
       <c r="AB77" s="3"/>
       <c r="AC77" s="3"/>
       <c r="AD77" s="3"/>
-    </row>
-    <row r="78" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AE77" s="3"/>
+    </row>
+    <row r="78" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B78" s="16"/>
       <c r="C78" s="1"/>
       <c r="D78" s="3"/>
@@ -6341,6 +6663,7 @@
       <c r="M78" s="3"/>
       <c r="N78" s="3"/>
       <c r="O78" s="3"/>
+      <c r="P78" s="3"/>
       <c r="Q78" s="16"/>
       <c r="R78" s="22"/>
       <c r="S78" s="3"/>
@@ -6355,8 +6678,9 @@
       <c r="AB78" s="3"/>
       <c r="AC78" s="3"/>
       <c r="AD78" s="3"/>
-    </row>
-    <row r="79" spans="2:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AE78" s="3"/>
+    </row>
+    <row r="79" spans="2:31" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C79" s="21" t="s">
         <v>43</v>
       </c>
@@ -6372,6 +6696,7 @@
       <c r="M79" s="1"/>
       <c r="N79" s="1"/>
       <c r="O79" s="1"/>
+      <c r="P79" s="1"/>
       <c r="R79" s="23" t="s">
         <v>43</v>
       </c>
@@ -6387,8 +6712,9 @@
       <c r="AB79" s="22"/>
       <c r="AC79" s="22"/>
       <c r="AD79" s="22"/>
-    </row>
-    <row r="80" spans="2:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AE79" s="22"/>
+    </row>
+    <row r="80" spans="2:31" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C80" s="20" t="s">
         <v>55</v>
       </c>
@@ -6404,6 +6730,7 @@
       <c r="M80" s="20"/>
       <c r="N80" s="20"/>
       <c r="O80" s="20"/>
+      <c r="P80" s="20"/>
       <c r="R80" s="24" t="s">
         <v>55</v>
       </c>
@@ -6419,8 +6746,9 @@
       <c r="AB80" s="24"/>
       <c r="AC80" s="24"/>
       <c r="AD80" s="24"/>
-    </row>
-    <row r="81" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AE80" s="24"/>
+    </row>
+    <row r="81" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B81" s="1" t="s">
         <v>16</v>
       </c>
@@ -6461,6 +6789,9 @@
       <c r="O81" s="1" t="s">
         <v>110</v>
       </c>
+      <c r="P81" s="1" t="s">
+        <v>116</v>
+      </c>
       <c r="Q81" s="22" t="s">
         <v>67</v>
       </c>
@@ -6501,8 +6832,11 @@
       <c r="AD81" s="22" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="82" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AE81" s="22" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="82" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B82" s="16"/>
       <c r="C82" s="1"/>
       <c r="D82" s="3"/>
@@ -6517,6 +6851,7 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
       <c r="Q82" s="16"/>
       <c r="R82" s="22"/>
       <c r="S82" s="3"/>
@@ -6531,8 +6866,9 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B83" s="16"/>
       <c r="C83" s="1"/>
       <c r="D83" s="3"/>
@@ -6547,6 +6883,7 @@
       <c r="M83" s="3"/>
       <c r="N83" s="3"/>
       <c r="O83" s="3"/>
+      <c r="P83" s="3"/>
       <c r="Q83" s="16"/>
       <c r="R83" s="22"/>
       <c r="S83" s="3"/>
@@ -6561,8 +6898,9 @@
       <c r="AB83" s="3"/>
       <c r="AC83" s="3"/>
       <c r="AD83" s="3"/>
-    </row>
-    <row r="84" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AE83" s="3"/>
+    </row>
+    <row r="84" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B84" s="16"/>
       <c r="C84" s="1"/>
       <c r="D84" s="3"/>
@@ -6577,6 +6915,7 @@
       <c r="M84" s="3"/>
       <c r="N84" s="3"/>
       <c r="O84" s="3"/>
+      <c r="P84" s="3"/>
       <c r="Q84" s="16"/>
       <c r="R84" s="22"/>
       <c r="S84" s="3"/>
@@ -6591,8 +6930,9 @@
       <c r="AB84" s="3"/>
       <c r="AC84" s="3"/>
       <c r="AD84" s="3"/>
-    </row>
-    <row r="85" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AE84" s="3"/>
+    </row>
+    <row r="85" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B85" s="16"/>
       <c r="C85" s="1"/>
       <c r="D85" s="3"/>
@@ -6607,6 +6947,7 @@
       <c r="M85" s="3"/>
       <c r="N85" s="3"/>
       <c r="O85" s="3"/>
+      <c r="P85" s="3"/>
       <c r="Q85" s="16"/>
       <c r="R85" s="22"/>
       <c r="S85" s="3"/>
@@ -6621,8 +6962,9 @@
       <c r="AB85" s="3"/>
       <c r="AC85" s="3"/>
       <c r="AD85" s="3"/>
-    </row>
-    <row r="86" spans="2:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AE85" s="3"/>
+    </row>
+    <row r="86" spans="2:31" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C86" s="21" t="s">
         <v>43</v>
       </c>
@@ -6638,6 +6980,7 @@
       <c r="M86" s="1"/>
       <c r="N86" s="1"/>
       <c r="O86" s="1"/>
+      <c r="P86" s="1"/>
       <c r="R86" s="23" t="s">
         <v>43</v>
       </c>
@@ -6653,8 +6996,9 @@
       <c r="AB86" s="22"/>
       <c r="AC86" s="22"/>
       <c r="AD86" s="22"/>
-    </row>
-    <row r="87" spans="2:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AE86" s="22"/>
+    </row>
+    <row r="87" spans="2:31" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C87" s="20" t="s">
         <v>55</v>
       </c>
@@ -6670,6 +7014,7 @@
       <c r="M87" s="20"/>
       <c r="N87" s="20"/>
       <c r="O87" s="20"/>
+      <c r="P87" s="20"/>
       <c r="R87" s="24" t="s">
         <v>55</v>
       </c>
@@ -6685,8 +7030,9 @@
       <c r="AB87" s="24"/>
       <c r="AC87" s="24"/>
       <c r="AD87" s="24"/>
-    </row>
-    <row r="88" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AE87" s="24"/>
+    </row>
+    <row r="88" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B88" s="1" t="s">
         <v>17</v>
       </c>
@@ -6727,6 +7073,9 @@
       <c r="O88" s="1" t="s">
         <v>110</v>
       </c>
+      <c r="P88" s="1" t="s">
+        <v>116</v>
+      </c>
       <c r="Q88" s="22" t="s">
         <v>68</v>
       </c>
@@ -6767,8 +7116,11 @@
       <c r="AD88" s="22" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="89" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AE88" s="22" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="89" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B89" s="16"/>
       <c r="C89" s="1"/>
       <c r="D89" s="3"/>
@@ -6783,6 +7135,7 @@
       <c r="M89" s="3"/>
       <c r="N89" s="3"/>
       <c r="O89" s="3"/>
+      <c r="P89" s="3"/>
       <c r="Q89" s="16"/>
       <c r="R89" s="22"/>
       <c r="S89" s="3"/>
@@ -6797,8 +7150,9 @@
       <c r="AB89" s="3"/>
       <c r="AC89" s="3"/>
       <c r="AD89" s="3"/>
-    </row>
-    <row r="90" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AE89" s="3"/>
+    </row>
+    <row r="90" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B90" s="16"/>
       <c r="C90" s="1"/>
       <c r="D90" s="3"/>
@@ -6813,6 +7167,7 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
       <c r="Q90" s="16"/>
       <c r="R90" s="22"/>
       <c r="S90" s="3"/>
@@ -6827,8 +7182,9 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B91" s="16"/>
       <c r="C91" s="1"/>
       <c r="D91" s="3"/>
@@ -6843,6 +7199,7 @@
       <c r="M91" s="3"/>
       <c r="N91" s="3"/>
       <c r="O91" s="3"/>
+      <c r="P91" s="3"/>
       <c r="Q91" s="16"/>
       <c r="R91" s="22"/>
       <c r="S91" s="3"/>
@@ -6857,8 +7214,9 @@
       <c r="AB91" s="3"/>
       <c r="AC91" s="3"/>
       <c r="AD91" s="3"/>
-    </row>
-    <row r="92" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AE91" s="3"/>
+    </row>
+    <row r="92" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B92" s="16"/>
       <c r="C92" s="1"/>
       <c r="D92" s="3"/>
@@ -6873,6 +7231,7 @@
       <c r="M92" s="3"/>
       <c r="N92" s="3"/>
       <c r="O92" s="3"/>
+      <c r="P92" s="3"/>
       <c r="Q92" s="16"/>
       <c r="R92" s="22"/>
       <c r="S92" s="3"/>
@@ -6887,8 +7246,9 @@
       <c r="AB92" s="3"/>
       <c r="AC92" s="3"/>
       <c r="AD92" s="3"/>
-    </row>
-    <row r="93" spans="2:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AE92" s="3"/>
+    </row>
+    <row r="93" spans="2:31" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C93" s="21" t="s">
         <v>43</v>
       </c>
@@ -6904,6 +7264,7 @@
       <c r="M93" s="1"/>
       <c r="N93" s="1"/>
       <c r="O93" s="1"/>
+      <c r="P93" s="1"/>
       <c r="R93" s="23" t="s">
         <v>43</v>
       </c>
@@ -6919,8 +7280,9 @@
       <c r="AB93" s="22"/>
       <c r="AC93" s="22"/>
       <c r="AD93" s="22"/>
-    </row>
-    <row r="94" spans="2:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AE93" s="22"/>
+    </row>
+    <row r="94" spans="2:31" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C94" s="20" t="s">
         <v>55</v>
       </c>
@@ -6936,6 +7298,7 @@
       <c r="M94" s="20"/>
       <c r="N94" s="20"/>
       <c r="O94" s="20"/>
+      <c r="P94" s="20"/>
       <c r="R94" s="24" t="s">
         <v>55</v>
       </c>
@@ -6951,8 +7314,9 @@
       <c r="AB94" s="24"/>
       <c r="AC94" s="24"/>
       <c r="AD94" s="24"/>
-    </row>
-    <row r="95" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AE94" s="24"/>
+    </row>
+    <row r="95" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B95" s="1" t="s">
         <v>18</v>
       </c>
@@ -6993,6 +7357,9 @@
       <c r="O95" s="1" t="s">
         <v>110</v>
       </c>
+      <c r="P95" s="1" t="s">
+        <v>116</v>
+      </c>
       <c r="Q95" s="22" t="s">
         <v>69</v>
       </c>
@@ -7033,8 +7400,11 @@
       <c r="AD95" s="22" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="96" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AE95" s="22" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="96" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B96" s="16"/>
       <c r="C96" s="1"/>
       <c r="D96" s="3"/>
@@ -7049,6 +7419,7 @@
       <c r="M96" s="3"/>
       <c r="N96" s="3"/>
       <c r="O96" s="3"/>
+      <c r="P96" s="3"/>
       <c r="Q96" s="16"/>
       <c r="R96" s="22"/>
       <c r="S96" s="3"/>
@@ -7063,8 +7434,9 @@
       <c r="AB96" s="3"/>
       <c r="AC96" s="3"/>
       <c r="AD96" s="3"/>
-    </row>
-    <row r="97" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AE96" s="3"/>
+    </row>
+    <row r="97" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B97" s="16"/>
       <c r="C97" s="1"/>
       <c r="D97" s="3"/>
@@ -7079,6 +7451,7 @@
       <c r="M97" s="3"/>
       <c r="N97" s="3"/>
       <c r="O97" s="3"/>
+      <c r="P97" s="3"/>
       <c r="Q97" s="16"/>
       <c r="R97" s="22"/>
       <c r="S97" s="3"/>
@@ -7093,8 +7466,9 @@
       <c r="AB97" s="3"/>
       <c r="AC97" s="3"/>
       <c r="AD97" s="3"/>
-    </row>
-    <row r="98" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AE97" s="3"/>
+    </row>
+    <row r="98" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B98" s="16"/>
       <c r="C98" s="1"/>
       <c r="D98" s="3"/>
@@ -7109,6 +7483,7 @@
       <c r="M98" s="3"/>
       <c r="N98" s="3"/>
       <c r="O98" s="3"/>
+      <c r="P98" s="3"/>
       <c r="Q98" s="16"/>
       <c r="R98" s="22"/>
       <c r="S98" s="3"/>
@@ -7123,8 +7498,9 @@
       <c r="AB98" s="3"/>
       <c r="AC98" s="3"/>
       <c r="AD98" s="3"/>
-    </row>
-    <row r="99" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AE98" s="3"/>
+    </row>
+    <row r="99" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B99" s="16"/>
       <c r="C99" s="1"/>
       <c r="D99" s="3"/>
@@ -7139,6 +7515,7 @@
       <c r="M99" s="3"/>
       <c r="N99" s="3"/>
       <c r="O99" s="3"/>
+      <c r="P99" s="3"/>
       <c r="Q99" s="16"/>
       <c r="R99" s="22"/>
       <c r="S99" s="3"/>
@@ -7153,8 +7530,9 @@
       <c r="AB99" s="3"/>
       <c r="AC99" s="3"/>
       <c r="AD99" s="3"/>
-    </row>
-    <row r="100" spans="2:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AE99" s="3"/>
+    </row>
+    <row r="100" spans="2:31" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C100" s="21" t="s">
         <v>43</v>
       </c>
@@ -7170,6 +7548,7 @@
       <c r="M100" s="1"/>
       <c r="N100" s="1"/>
       <c r="O100" s="1"/>
+      <c r="P100" s="1"/>
       <c r="R100" s="23" t="s">
         <v>43</v>
       </c>
@@ -7185,8 +7564,9 @@
       <c r="AB100" s="22"/>
       <c r="AC100" s="22"/>
       <c r="AD100" s="22"/>
-    </row>
-    <row r="101" spans="2:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AE100" s="22"/>
+    </row>
+    <row r="101" spans="2:31" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C101" s="20" t="s">
         <v>55</v>
       </c>
@@ -7202,6 +7582,7 @@
       <c r="M101" s="20"/>
       <c r="N101" s="20"/>
       <c r="O101" s="20"/>
+      <c r="P101" s="20"/>
       <c r="R101" s="24" t="s">
         <v>55</v>
       </c>
@@ -7217,8 +7598,9 @@
       <c r="AB101" s="24"/>
       <c r="AC101" s="24"/>
       <c r="AD101" s="24"/>
-    </row>
-    <row r="102" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AE101" s="24"/>
+    </row>
+    <row r="102" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B102" s="1" t="s">
         <v>19</v>
       </c>
@@ -7259,6 +7641,9 @@
       <c r="O102" s="1" t="s">
         <v>110</v>
       </c>
+      <c r="P102" s="1" t="s">
+        <v>116</v>
+      </c>
       <c r="Q102" s="22" t="s">
         <v>70</v>
       </c>
@@ -7299,8 +7684,11 @@
       <c r="AD102" s="22" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="103" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AE102" s="22" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="103" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B103" s="16"/>
       <c r="C103" s="1"/>
       <c r="D103" s="3"/>
@@ -7315,6 +7703,7 @@
       <c r="M103" s="3"/>
       <c r="N103" s="3"/>
       <c r="O103" s="3"/>
+      <c r="P103" s="3"/>
       <c r="Q103" s="16"/>
       <c r="R103" s="22"/>
       <c r="S103" s="3"/>
@@ -7329,8 +7718,9 @@
       <c r="AB103" s="3"/>
       <c r="AC103" s="3"/>
       <c r="AD103" s="3"/>
-    </row>
-    <row r="104" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AE103" s="3"/>
+    </row>
+    <row r="104" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B104" s="16"/>
       <c r="C104" s="1"/>
       <c r="D104" s="3"/>
@@ -7345,6 +7735,7 @@
       <c r="M104" s="3"/>
       <c r="N104" s="3"/>
       <c r="O104" s="3"/>
+      <c r="P104" s="3"/>
       <c r="Q104" s="16"/>
       <c r="R104" s="22"/>
       <c r="S104" s="3"/>
@@ -7359,8 +7750,9 @@
       <c r="AB104" s="3"/>
       <c r="AC104" s="3"/>
       <c r="AD104" s="3"/>
-    </row>
-    <row r="105" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AE104" s="3"/>
+    </row>
+    <row r="105" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B105" s="16"/>
       <c r="C105" s="1"/>
       <c r="D105" s="3"/>
@@ -7375,6 +7767,7 @@
       <c r="M105" s="3"/>
       <c r="N105" s="3"/>
       <c r="O105" s="3"/>
+      <c r="P105" s="3"/>
       <c r="Q105" s="16"/>
       <c r="R105" s="22"/>
       <c r="S105" s="3"/>
@@ -7389,8 +7782,9 @@
       <c r="AB105" s="3"/>
       <c r="AC105" s="3"/>
       <c r="AD105" s="3"/>
-    </row>
-    <row r="106" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AE105" s="3"/>
+    </row>
+    <row r="106" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B106" s="16"/>
       <c r="C106" s="1"/>
       <c r="D106" s="3"/>
@@ -7405,6 +7799,7 @@
       <c r="M106" s="3"/>
       <c r="N106" s="3"/>
       <c r="O106" s="3"/>
+      <c r="P106" s="3"/>
       <c r="Q106" s="16"/>
       <c r="R106" s="22"/>
       <c r="S106" s="3"/>
@@ -7419,8 +7814,9 @@
       <c r="AB106" s="3"/>
       <c r="AC106" s="3"/>
       <c r="AD106" s="3"/>
-    </row>
-    <row r="107" spans="2:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AE106" s="3"/>
+    </row>
+    <row r="107" spans="2:31" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C107" s="21" t="s">
         <v>43</v>
       </c>
@@ -7436,6 +7832,7 @@
       <c r="M107" s="1"/>
       <c r="N107" s="1"/>
       <c r="O107" s="1"/>
+      <c r="P107" s="1"/>
       <c r="R107" s="23" t="s">
         <v>43</v>
       </c>
@@ -7451,8 +7848,9 @@
       <c r="AB107" s="22"/>
       <c r="AC107" s="22"/>
       <c r="AD107" s="22"/>
-    </row>
-    <row r="108" spans="2:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AE107" s="22"/>
+    </row>
+    <row r="108" spans="2:31" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C108" s="20" t="s">
         <v>55</v>
       </c>
@@ -7468,6 +7866,7 @@
       <c r="M108" s="20"/>
       <c r="N108" s="20"/>
       <c r="O108" s="20"/>
+      <c r="P108" s="20"/>
       <c r="R108" s="24" t="s">
         <v>55</v>
       </c>
@@ -7483,8 +7882,9 @@
       <c r="AB108" s="24"/>
       <c r="AC108" s="24"/>
       <c r="AD108" s="24"/>
-    </row>
-    <row r="109" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AE108" s="24"/>
+    </row>
+    <row r="109" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B109" s="1" t="s">
         <v>20</v>
       </c>
@@ -7525,6 +7925,9 @@
       <c r="O109" s="1" t="s">
         <v>110</v>
       </c>
+      <c r="P109" s="1" t="s">
+        <v>116</v>
+      </c>
       <c r="Q109" s="22" t="s">
         <v>71</v>
       </c>
@@ -7565,8 +7968,11 @@
       <c r="AD109" s="22" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="110" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AE109" s="22" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="110" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B110" s="16"/>
       <c r="C110" s="1"/>
       <c r="D110" s="3"/>
@@ -7581,6 +7987,7 @@
       <c r="M110" s="3"/>
       <c r="N110" s="3"/>
       <c r="O110" s="3"/>
+      <c r="P110" s="3"/>
       <c r="Q110" s="16"/>
       <c r="R110" s="22"/>
       <c r="S110" s="3"/>
@@ -7595,8 +8002,9 @@
       <c r="AB110" s="3"/>
       <c r="AC110" s="3"/>
       <c r="AD110" s="3"/>
-    </row>
-    <row r="111" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AE110" s="3"/>
+    </row>
+    <row r="111" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B111" s="16"/>
       <c r="C111" s="1"/>
       <c r="D111" s="3"/>
@@ -7611,6 +8019,7 @@
       <c r="M111" s="3"/>
       <c r="N111" s="3"/>
       <c r="O111" s="3"/>
+      <c r="P111" s="3"/>
       <c r="Q111" s="16"/>
       <c r="R111" s="22"/>
       <c r="S111" s="3"/>
@@ -7625,8 +8034,9 @@
       <c r="AB111" s="3"/>
       <c r="AC111" s="3"/>
       <c r="AD111" s="3"/>
-    </row>
-    <row r="112" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AE111" s="3"/>
+    </row>
+    <row r="112" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B112" s="16"/>
       <c r="C112" s="1"/>
       <c r="D112" s="3"/>
@@ -7641,6 +8051,7 @@
       <c r="M112" s="3"/>
       <c r="N112" s="3"/>
       <c r="O112" s="3"/>
+      <c r="P112" s="3"/>
       <c r="Q112" s="16"/>
       <c r="R112" s="22"/>
       <c r="S112" s="3"/>
@@ -7655,8 +8066,9 @@
       <c r="AB112" s="3"/>
       <c r="AC112" s="3"/>
       <c r="AD112" s="3"/>
-    </row>
-    <row r="113" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AE112" s="3"/>
+    </row>
+    <row r="113" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B113" s="16"/>
       <c r="C113" s="1"/>
       <c r="D113" s="3"/>
@@ -7671,6 +8083,7 @@
       <c r="M113" s="3"/>
       <c r="N113" s="3"/>
       <c r="O113" s="3"/>
+      <c r="P113" s="3"/>
       <c r="Q113" s="16"/>
       <c r="R113" s="22"/>
       <c r="S113" s="3"/>
@@ -7685,8 +8098,9 @@
       <c r="AB113" s="3"/>
       <c r="AC113" s="3"/>
       <c r="AD113" s="3"/>
-    </row>
-    <row r="114" spans="2:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AE113" s="3"/>
+    </row>
+    <row r="114" spans="2:31" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C114" s="21" t="s">
         <v>43</v>
       </c>
@@ -7702,6 +8116,7 @@
       <c r="M114" s="1"/>
       <c r="N114" s="1"/>
       <c r="O114" s="1"/>
+      <c r="P114" s="1"/>
       <c r="R114" s="23" t="s">
         <v>43</v>
       </c>
@@ -7717,8 +8132,9 @@
       <c r="AB114" s="22"/>
       <c r="AC114" s="22"/>
       <c r="AD114" s="22"/>
-    </row>
-    <row r="115" spans="2:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AE114" s="22"/>
+    </row>
+    <row r="115" spans="2:31" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C115" s="20" t="s">
         <v>55</v>
       </c>
@@ -7734,6 +8150,7 @@
       <c r="M115" s="20"/>
       <c r="N115" s="20"/>
       <c r="O115" s="20"/>
+      <c r="P115" s="20"/>
       <c r="R115" s="24" t="s">
         <v>55</v>
       </c>
@@ -7749,8 +8166,9 @@
       <c r="AB115" s="24"/>
       <c r="AC115" s="24"/>
       <c r="AD115" s="24"/>
-    </row>
-    <row r="116" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AE115" s="24"/>
+    </row>
+    <row r="116" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B116" s="1" t="s">
         <v>21</v>
       </c>
@@ -7791,6 +8209,9 @@
       <c r="O116" s="1" t="s">
         <v>110</v>
       </c>
+      <c r="P116" s="1" t="s">
+        <v>116</v>
+      </c>
       <c r="Q116" s="22" t="s">
         <v>72</v>
       </c>
@@ -7831,8 +8252,11 @@
       <c r="AD116" s="22" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="117" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AE116" s="22" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="117" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B117" s="16"/>
       <c r="C117" s="1"/>
       <c r="D117" s="3"/>
@@ -7847,6 +8271,7 @@
       <c r="M117" s="3"/>
       <c r="N117" s="3"/>
       <c r="O117" s="3"/>
+      <c r="P117" s="3"/>
       <c r="Q117" s="16"/>
       <c r="R117" s="22"/>
       <c r="S117" s="3"/>
@@ -7861,8 +8286,9 @@
       <c r="AB117" s="3"/>
       <c r="AC117" s="3"/>
       <c r="AD117" s="3"/>
-    </row>
-    <row r="118" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AE117" s="3"/>
+    </row>
+    <row r="118" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B118" s="16"/>
       <c r="C118" s="1"/>
       <c r="D118" s="3"/>
@@ -7877,6 +8303,7 @@
       <c r="M118" s="3"/>
       <c r="N118" s="3"/>
       <c r="O118" s="3"/>
+      <c r="P118" s="3"/>
       <c r="Q118" s="16"/>
       <c r="R118" s="22"/>
       <c r="S118" s="3"/>
@@ -7891,8 +8318,9 @@
       <c r="AB118" s="3"/>
       <c r="AC118" s="3"/>
       <c r="AD118" s="3"/>
-    </row>
-    <row r="119" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AE118" s="3"/>
+    </row>
+    <row r="119" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B119" s="16"/>
       <c r="C119" s="1"/>
       <c r="D119" s="3"/>
@@ -7907,6 +8335,7 @@
       <c r="M119" s="3"/>
       <c r="N119" s="3"/>
       <c r="O119" s="3"/>
+      <c r="P119" s="3"/>
       <c r="Q119" s="16"/>
       <c r="R119" s="22"/>
       <c r="S119" s="3"/>
@@ -7921,8 +8350,9 @@
       <c r="AB119" s="3"/>
       <c r="AC119" s="3"/>
       <c r="AD119" s="3"/>
-    </row>
-    <row r="120" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AE119" s="3"/>
+    </row>
+    <row r="120" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B120" s="16"/>
       <c r="C120" s="1"/>
       <c r="D120" s="3"/>
@@ -7937,6 +8367,7 @@
       <c r="M120" s="3"/>
       <c r="N120" s="3"/>
       <c r="O120" s="3"/>
+      <c r="P120" s="3"/>
       <c r="Q120" s="16"/>
       <c r="R120" s="22"/>
       <c r="S120" s="3"/>
@@ -7951,8 +8382,9 @@
       <c r="AB120" s="3"/>
       <c r="AC120" s="3"/>
       <c r="AD120" s="3"/>
-    </row>
-    <row r="121" spans="2:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AE120" s="3"/>
+    </row>
+    <row r="121" spans="2:31" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C121" s="21" t="s">
         <v>43</v>
       </c>
@@ -7968,6 +8400,7 @@
       <c r="M121" s="1"/>
       <c r="N121" s="1"/>
       <c r="O121" s="1"/>
+      <c r="P121" s="1"/>
       <c r="R121" s="23" t="s">
         <v>43</v>
       </c>
@@ -7983,8 +8416,9 @@
       <c r="AB121" s="22"/>
       <c r="AC121" s="22"/>
       <c r="AD121" s="22"/>
-    </row>
-    <row r="122" spans="2:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AE121" s="22"/>
+    </row>
+    <row r="122" spans="2:31" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C122" s="20" t="s">
         <v>55</v>
       </c>
@@ -8000,6 +8434,7 @@
       <c r="M122" s="20"/>
       <c r="N122" s="20"/>
       <c r="O122" s="20"/>
+      <c r="P122" s="20"/>
       <c r="R122" s="24" t="s">
         <v>55</v>
       </c>
@@ -8015,8 +8450,9 @@
       <c r="AB122" s="24"/>
       <c r="AC122" s="24"/>
       <c r="AD122" s="24"/>
-    </row>
-    <row r="123" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AE122" s="24"/>
+    </row>
+    <row r="123" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B123" s="1" t="s">
         <v>22</v>
       </c>
@@ -8057,6 +8493,9 @@
       <c r="O123" s="1" t="s">
         <v>110</v>
       </c>
+      <c r="P123" s="1" t="s">
+        <v>116</v>
+      </c>
       <c r="Q123" s="22" t="s">
         <v>73</v>
       </c>
@@ -8097,8 +8536,11 @@
       <c r="AD123" s="22" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="124" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AE123" s="22" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="124" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B124" s="16"/>
       <c r="C124" s="1"/>
       <c r="D124" s="3"/>
@@ -8113,6 +8555,7 @@
       <c r="M124" s="3"/>
       <c r="N124" s="3"/>
       <c r="O124" s="3"/>
+      <c r="P124" s="3"/>
       <c r="Q124" s="16"/>
       <c r="R124" s="22"/>
       <c r="S124" s="3"/>
@@ -8127,8 +8570,9 @@
       <c r="AB124" s="3"/>
       <c r="AC124" s="3"/>
       <c r="AD124" s="3"/>
-    </row>
-    <row r="125" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AE124" s="3"/>
+    </row>
+    <row r="125" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B125" s="16"/>
       <c r="C125" s="1"/>
       <c r="D125" s="3"/>
@@ -8143,6 +8587,7 @@
       <c r="M125" s="3"/>
       <c r="N125" s="3"/>
       <c r="O125" s="3"/>
+      <c r="P125" s="3"/>
       <c r="Q125" s="16"/>
       <c r="R125" s="22"/>
       <c r="S125" s="3"/>
@@ -8157,8 +8602,9 @@
       <c r="AB125" s="3"/>
       <c r="AC125" s="3"/>
       <c r="AD125" s="3"/>
-    </row>
-    <row r="126" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AE125" s="3"/>
+    </row>
+    <row r="126" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B126" s="16"/>
       <c r="C126" s="1"/>
       <c r="D126" s="3"/>
@@ -8173,6 +8619,7 @@
       <c r="M126" s="3"/>
       <c r="N126" s="3"/>
       <c r="O126" s="3"/>
+      <c r="P126" s="3"/>
       <c r="Q126" s="16"/>
       <c r="R126" s="22"/>
       <c r="S126" s="3"/>
@@ -8187,8 +8634,9 @@
       <c r="AB126" s="3"/>
       <c r="AC126" s="3"/>
       <c r="AD126" s="3"/>
-    </row>
-    <row r="127" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AE126" s="3"/>
+    </row>
+    <row r="127" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B127" s="16"/>
       <c r="C127" s="1"/>
       <c r="D127" s="3"/>
@@ -8203,6 +8651,7 @@
       <c r="M127" s="3"/>
       <c r="N127" s="3"/>
       <c r="O127" s="3"/>
+      <c r="P127" s="3"/>
       <c r="Q127" s="16"/>
       <c r="R127" s="22"/>
       <c r="S127" s="3"/>
@@ -8217,8 +8666,9 @@
       <c r="AB127" s="3"/>
       <c r="AC127" s="3"/>
       <c r="AD127" s="3"/>
-    </row>
-    <row r="128" spans="2:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AE127" s="3"/>
+    </row>
+    <row r="128" spans="2:31" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C128" s="21" t="s">
         <v>43</v>
       </c>
@@ -8234,6 +8684,7 @@
       <c r="M128" s="1"/>
       <c r="N128" s="1"/>
       <c r="O128" s="1"/>
+      <c r="P128" s="1"/>
       <c r="R128" s="23" t="s">
         <v>43</v>
       </c>
@@ -8249,8 +8700,9 @@
       <c r="AB128" s="22"/>
       <c r="AC128" s="22"/>
       <c r="AD128" s="22"/>
-    </row>
-    <row r="129" spans="2:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AE128" s="22"/>
+    </row>
+    <row r="129" spans="2:31" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C129" s="20" t="s">
         <v>55</v>
       </c>
@@ -8266,6 +8718,7 @@
       <c r="M129" s="20"/>
       <c r="N129" s="20"/>
       <c r="O129" s="20"/>
+      <c r="P129" s="20"/>
       <c r="R129" s="24" t="s">
         <v>55</v>
       </c>
@@ -8281,8 +8734,9 @@
       <c r="AB129" s="24"/>
       <c r="AC129" s="24"/>
       <c r="AD129" s="24"/>
-    </row>
-    <row r="130" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AE129" s="24"/>
+    </row>
+    <row r="130" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B130" s="1" t="s">
         <v>23</v>
       </c>
@@ -8323,6 +8777,9 @@
       <c r="O130" s="1" t="s">
         <v>110</v>
       </c>
+      <c r="P130" s="1" t="s">
+        <v>116</v>
+      </c>
       <c r="Q130" s="22" t="s">
         <v>74</v>
       </c>
@@ -8363,8 +8820,11 @@
       <c r="AD130" s="22" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="131" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AE130" s="22" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="131" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B131" s="16"/>
       <c r="C131" s="1"/>
       <c r="D131" s="3"/>
@@ -8379,6 +8839,7 @@
       <c r="M131" s="3"/>
       <c r="N131" s="3"/>
       <c r="O131" s="3"/>
+      <c r="P131" s="3"/>
       <c r="Q131" s="16"/>
       <c r="R131" s="22"/>
       <c r="S131" s="3"/>
@@ -8393,8 +8854,9 @@
       <c r="AB131" s="3"/>
       <c r="AC131" s="3"/>
       <c r="AD131" s="3"/>
-    </row>
-    <row r="132" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AE131" s="3"/>
+    </row>
+    <row r="132" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B132" s="16"/>
       <c r="C132" s="1"/>
       <c r="D132" s="3"/>
@@ -8409,6 +8871,7 @@
       <c r="M132" s="3"/>
       <c r="N132" s="3"/>
       <c r="O132" s="3"/>
+      <c r="P132" s="3"/>
       <c r="Q132" s="16"/>
       <c r="R132" s="22"/>
       <c r="S132" s="3"/>
@@ -8423,8 +8886,9 @@
       <c r="AB132" s="3"/>
       <c r="AC132" s="3"/>
       <c r="AD132" s="3"/>
-    </row>
-    <row r="133" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AE132" s="3"/>
+    </row>
+    <row r="133" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B133" s="16"/>
       <c r="C133" s="1"/>
       <c r="D133" s="3"/>
@@ -8439,6 +8903,7 @@
       <c r="M133" s="3"/>
       <c r="N133" s="3"/>
       <c r="O133" s="3"/>
+      <c r="P133" s="3"/>
       <c r="Q133" s="16"/>
       <c r="R133" s="22"/>
       <c r="S133" s="3"/>
@@ -8453,8 +8918,9 @@
       <c r="AB133" s="3"/>
       <c r="AC133" s="3"/>
       <c r="AD133" s="3"/>
-    </row>
-    <row r="134" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AE133" s="3"/>
+    </row>
+    <row r="134" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B134" s="16"/>
       <c r="C134" s="1"/>
       <c r="D134" s="3"/>
@@ -8469,6 +8935,7 @@
       <c r="M134" s="3"/>
       <c r="N134" s="3"/>
       <c r="O134" s="3"/>
+      <c r="P134" s="3"/>
       <c r="Q134" s="16"/>
       <c r="R134" s="22"/>
       <c r="S134" s="3"/>
@@ -8483,8 +8950,9 @@
       <c r="AB134" s="3"/>
       <c r="AC134" s="3"/>
       <c r="AD134" s="3"/>
-    </row>
-    <row r="135" spans="2:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AE134" s="3"/>
+    </row>
+    <row r="135" spans="2:31" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C135" s="21" t="s">
         <v>43</v>
       </c>
@@ -8500,6 +8968,7 @@
       <c r="M135" s="1"/>
       <c r="N135" s="1"/>
       <c r="O135" s="1"/>
+      <c r="P135" s="1"/>
       <c r="R135" s="23" t="s">
         <v>43</v>
       </c>
@@ -8515,8 +8984,9 @@
       <c r="AB135" s="22"/>
       <c r="AC135" s="22"/>
       <c r="AD135" s="22"/>
-    </row>
-    <row r="136" spans="2:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AE135" s="22"/>
+    </row>
+    <row r="136" spans="2:31" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C136" s="20" t="s">
         <v>55</v>
       </c>
@@ -8532,6 +9002,7 @@
       <c r="M136" s="20"/>
       <c r="N136" s="20"/>
       <c r="O136" s="20"/>
+      <c r="P136" s="20"/>
       <c r="R136" s="24" t="s">
         <v>55</v>
       </c>
@@ -8547,8 +9018,9 @@
       <c r="AB136" s="24"/>
       <c r="AC136" s="24"/>
       <c r="AD136" s="24"/>
-    </row>
-    <row r="137" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AE136" s="24"/>
+    </row>
+    <row r="137" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B137" s="1" t="s">
         <v>24</v>
       </c>
@@ -8589,6 +9061,9 @@
       <c r="O137" s="1" t="s">
         <v>110</v>
       </c>
+      <c r="P137" s="1" t="s">
+        <v>116</v>
+      </c>
       <c r="Q137" s="22" t="s">
         <v>75</v>
       </c>
@@ -8629,8 +9104,11 @@
       <c r="AD137" s="22" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="138" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AE137" s="22" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="138" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B138" s="16"/>
       <c r="C138" s="1"/>
       <c r="D138" s="3"/>
@@ -8645,6 +9123,7 @@
       <c r="M138" s="3"/>
       <c r="N138" s="3"/>
       <c r="O138" s="3"/>
+      <c r="P138" s="3"/>
       <c r="R138" s="22"/>
       <c r="S138" s="3"/>
       <c r="T138" s="3"/>
@@ -8658,8 +9137,9 @@
       <c r="AB138" s="3"/>
       <c r="AC138" s="3"/>
       <c r="AD138" s="3"/>
-    </row>
-    <row r="139" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AE138" s="3"/>
+    </row>
+    <row r="139" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B139" s="16"/>
       <c r="C139" s="1"/>
       <c r="D139" s="3"/>
@@ -8674,6 +9154,7 @@
       <c r="M139" s="3"/>
       <c r="N139" s="3"/>
       <c r="O139" s="3"/>
+      <c r="P139" s="3"/>
       <c r="R139" s="22"/>
       <c r="S139" s="3"/>
       <c r="T139" s="3"/>
@@ -8687,8 +9168,9 @@
       <c r="AB139" s="3"/>
       <c r="AC139" s="3"/>
       <c r="AD139" s="3"/>
-    </row>
-    <row r="140" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AE139" s="3"/>
+    </row>
+    <row r="140" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B140" s="16"/>
       <c r="C140" s="1"/>
       <c r="D140" s="3"/>
@@ -8703,6 +9185,7 @@
       <c r="M140" s="3"/>
       <c r="N140" s="3"/>
       <c r="O140" s="3"/>
+      <c r="P140" s="3"/>
       <c r="R140" s="22"/>
       <c r="S140" s="3"/>
       <c r="T140" s="3"/>
@@ -8716,8 +9199,9 @@
       <c r="AB140" s="3"/>
       <c r="AC140" s="3"/>
       <c r="AD140" s="3"/>
-    </row>
-    <row r="141" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AE140" s="3"/>
+    </row>
+    <row r="141" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B141" s="16"/>
       <c r="C141" s="1"/>
       <c r="D141" s="3"/>
@@ -8732,6 +9216,7 @@
       <c r="M141" s="3"/>
       <c r="N141" s="3"/>
       <c r="O141" s="3"/>
+      <c r="P141" s="3"/>
       <c r="R141" s="22"/>
       <c r="S141" s="3"/>
       <c r="T141" s="3"/>
@@ -8745,8 +9230,9 @@
       <c r="AB141" s="3"/>
       <c r="AC141" s="3"/>
       <c r="AD141" s="3"/>
-    </row>
-    <row r="142" spans="2:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AE141" s="3"/>
+    </row>
+    <row r="142" spans="2:31" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C142" s="21" t="s">
         <v>43</v>
       </c>
@@ -8762,6 +9248,7 @@
       <c r="M142" s="1"/>
       <c r="N142" s="1"/>
       <c r="O142" s="1"/>
+      <c r="P142" s="1"/>
       <c r="R142" s="23" t="s">
         <v>43</v>
       </c>
@@ -8777,8 +9264,9 @@
       <c r="AB142" s="22"/>
       <c r="AC142" s="22"/>
       <c r="AD142" s="22"/>
-    </row>
-    <row r="143" spans="2:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AE142" s="22"/>
+    </row>
+    <row r="143" spans="2:31" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C143" s="20" t="s">
         <v>55</v>
       </c>
@@ -8794,6 +9282,7 @@
       <c r="M143" s="20"/>
       <c r="N143" s="20"/>
       <c r="O143" s="20"/>
+      <c r="P143" s="20"/>
       <c r="R143" s="24" t="s">
         <v>55</v>
       </c>
@@ -8809,8 +9298,9 @@
       <c r="AB143" s="24"/>
       <c r="AC143" s="24"/>
       <c r="AD143" s="24"/>
-    </row>
-    <row r="144" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AE143" s="24"/>
+    </row>
+    <row r="144" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B144" s="1" t="s">
         <v>25</v>
       </c>
@@ -8851,6 +9341,9 @@
       <c r="O144" s="1" t="s">
         <v>110</v>
       </c>
+      <c r="P144" s="1" t="s">
+        <v>116</v>
+      </c>
       <c r="Q144" s="22" t="s">
         <v>76</v>
       </c>
@@ -8891,8 +9384,11 @@
       <c r="AD144" s="22" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="145" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AE144" s="22" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="145" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B145" s="16"/>
       <c r="C145" s="1"/>
       <c r="D145" s="3"/>
@@ -8907,6 +9403,7 @@
       <c r="M145" s="3"/>
       <c r="N145" s="3"/>
       <c r="O145" s="3"/>
+      <c r="P145" s="3"/>
       <c r="Q145" s="16"/>
       <c r="R145" s="22"/>
       <c r="S145" s="3"/>
@@ -8921,8 +9418,9 @@
       <c r="AB145" s="3"/>
       <c r="AC145" s="3"/>
       <c r="AD145" s="3"/>
-    </row>
-    <row r="146" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AE145" s="3"/>
+    </row>
+    <row r="146" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B146" s="16"/>
       <c r="C146" s="1"/>
       <c r="D146" s="3"/>
@@ -8937,6 +9435,7 @@
       <c r="M146" s="3"/>
       <c r="N146" s="3"/>
       <c r="O146" s="3"/>
+      <c r="P146" s="3"/>
       <c r="Q146" s="16"/>
       <c r="R146" s="22"/>
       <c r="S146" s="3"/>
@@ -8951,8 +9450,9 @@
       <c r="AB146" s="3"/>
       <c r="AC146" s="3"/>
       <c r="AD146" s="3"/>
-    </row>
-    <row r="147" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AE146" s="3"/>
+    </row>
+    <row r="147" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B147" s="16"/>
       <c r="C147" s="1"/>
       <c r="D147" s="3"/>
@@ -8967,6 +9467,7 @@
       <c r="M147" s="3"/>
       <c r="N147" s="3"/>
       <c r="O147" s="3"/>
+      <c r="P147" s="3"/>
       <c r="Q147" s="16"/>
       <c r="R147" s="22"/>
       <c r="S147" s="3"/>
@@ -8981,8 +9482,9 @@
       <c r="AB147" s="3"/>
       <c r="AC147" s="3"/>
       <c r="AD147" s="3"/>
-    </row>
-    <row r="148" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AE147" s="3"/>
+    </row>
+    <row r="148" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B148" s="16"/>
       <c r="C148" s="1"/>
       <c r="D148" s="3"/>
@@ -8997,6 +9499,7 @@
       <c r="M148" s="3"/>
       <c r="N148" s="3"/>
       <c r="O148" s="3"/>
+      <c r="P148" s="3"/>
       <c r="Q148" s="16"/>
       <c r="R148" s="22"/>
       <c r="S148" s="3"/>
@@ -9011,8 +9514,9 @@
       <c r="AB148" s="3"/>
       <c r="AC148" s="3"/>
       <c r="AD148" s="3"/>
-    </row>
-    <row r="149" spans="2:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AE148" s="3"/>
+    </row>
+    <row r="149" spans="2:31" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C149" s="21" t="s">
         <v>43</v>
       </c>
@@ -9028,6 +9532,7 @@
       <c r="M149" s="1"/>
       <c r="N149" s="1"/>
       <c r="O149" s="1"/>
+      <c r="P149" s="1"/>
       <c r="R149" s="23" t="s">
         <v>43</v>
       </c>
@@ -9043,8 +9548,9 @@
       <c r="AB149" s="22"/>
       <c r="AC149" s="22"/>
       <c r="AD149" s="22"/>
-    </row>
-    <row r="150" spans="2:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AE149" s="22"/>
+    </row>
+    <row r="150" spans="2:31" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C150" s="20" t="s">
         <v>55</v>
       </c>
@@ -9060,6 +9566,7 @@
       <c r="M150" s="20"/>
       <c r="N150" s="20"/>
       <c r="O150" s="20"/>
+      <c r="P150" s="20"/>
       <c r="R150" s="24" t="s">
         <v>55</v>
       </c>
@@ -9075,8 +9582,9 @@
       <c r="AB150" s="24"/>
       <c r="AC150" s="24"/>
       <c r="AD150" s="24"/>
-    </row>
-    <row r="151" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AE150" s="24"/>
+    </row>
+    <row r="151" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B151" s="1" t="s">
         <v>26</v>
       </c>
@@ -9117,6 +9625,9 @@
       <c r="O151" s="1" t="s">
         <v>110</v>
       </c>
+      <c r="P151" s="1" t="s">
+        <v>116</v>
+      </c>
       <c r="Q151" s="22" t="s">
         <v>77</v>
       </c>
@@ -9157,8 +9668,11 @@
       <c r="AD151" s="22" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="152" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AE151" s="22" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="152" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B152" s="16"/>
       <c r="C152" s="1"/>
       <c r="D152" s="3"/>
@@ -9173,6 +9687,7 @@
       <c r="M152" s="3"/>
       <c r="N152" s="3"/>
       <c r="O152" s="3"/>
+      <c r="P152" s="3"/>
       <c r="Q152" s="16"/>
       <c r="R152" s="22"/>
       <c r="S152" s="3"/>
@@ -9187,8 +9702,9 @@
       <c r="AB152" s="3"/>
       <c r="AC152" s="3"/>
       <c r="AD152" s="3"/>
-    </row>
-    <row r="153" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AE152" s="3"/>
+    </row>
+    <row r="153" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B153" s="16"/>
       <c r="C153" s="1"/>
       <c r="D153" s="3"/>
@@ -9203,6 +9719,7 @@
       <c r="M153" s="3"/>
       <c r="N153" s="3"/>
       <c r="O153" s="3"/>
+      <c r="P153" s="3"/>
       <c r="Q153" s="16"/>
       <c r="R153" s="22"/>
       <c r="S153" s="3"/>
@@ -9217,8 +9734,9 @@
       <c r="AB153" s="3"/>
       <c r="AC153" s="3"/>
       <c r="AD153" s="3"/>
-    </row>
-    <row r="154" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AE153" s="3"/>
+    </row>
+    <row r="154" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B154" s="16"/>
       <c r="C154" s="1"/>
       <c r="D154" s="3"/>
@@ -9233,6 +9751,7 @@
       <c r="M154" s="3"/>
       <c r="N154" s="3"/>
       <c r="O154" s="3"/>
+      <c r="P154" s="3"/>
       <c r="Q154" s="16"/>
       <c r="R154" s="22"/>
       <c r="S154" s="3"/>
@@ -9247,8 +9766,9 @@
       <c r="AB154" s="3"/>
       <c r="AC154" s="3"/>
       <c r="AD154" s="3"/>
-    </row>
-    <row r="155" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AE154" s="3"/>
+    </row>
+    <row r="155" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B155" s="16"/>
       <c r="C155" s="1"/>
       <c r="D155" s="3"/>
@@ -9263,6 +9783,7 @@
       <c r="M155" s="3"/>
       <c r="N155" s="3"/>
       <c r="O155" s="3"/>
+      <c r="P155" s="3"/>
       <c r="Q155" s="16"/>
       <c r="R155" s="22"/>
       <c r="S155" s="3"/>
@@ -9277,8 +9798,9 @@
       <c r="AB155" s="3"/>
       <c r="AC155" s="3"/>
       <c r="AD155" s="3"/>
-    </row>
-    <row r="156" spans="2:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AE155" s="3"/>
+    </row>
+    <row r="156" spans="2:31" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C156" s="21" t="s">
         <v>43</v>
       </c>
@@ -9294,6 +9816,7 @@
       <c r="M156" s="1"/>
       <c r="N156" s="1"/>
       <c r="O156" s="1"/>
+      <c r="P156" s="1"/>
       <c r="R156" s="23" t="s">
         <v>43</v>
       </c>
@@ -9309,8 +9832,9 @@
       <c r="AB156" s="22"/>
       <c r="AC156" s="22"/>
       <c r="AD156" s="22"/>
-    </row>
-    <row r="157" spans="2:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AE156" s="22"/>
+    </row>
+    <row r="157" spans="2:31" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C157" s="20" t="s">
         <v>55</v>
       </c>
@@ -9326,6 +9850,7 @@
       <c r="M157" s="20"/>
       <c r="N157" s="20"/>
       <c r="O157" s="20"/>
+      <c r="P157" s="20"/>
       <c r="R157" s="24" t="s">
         <v>55</v>
       </c>
@@ -9341,8 +9866,9 @@
       <c r="AB157" s="24"/>
       <c r="AC157" s="24"/>
       <c r="AD157" s="24"/>
-    </row>
-    <row r="158" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AE157" s="24"/>
+    </row>
+    <row r="158" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B158" s="1" t="s">
         <v>27</v>
       </c>
@@ -9383,6 +9909,9 @@
       <c r="O158" s="1" t="s">
         <v>110</v>
       </c>
+      <c r="P158" s="1" t="s">
+        <v>116</v>
+      </c>
       <c r="Q158" s="22" t="s">
         <v>78</v>
       </c>
@@ -9423,8 +9952,11 @@
       <c r="AD158" s="22" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="159" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AE158" s="22" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="159" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B159" s="16"/>
       <c r="C159" s="1"/>
       <c r="D159" s="3"/>
@@ -9439,6 +9971,7 @@
       <c r="M159" s="3"/>
       <c r="N159" s="3"/>
       <c r="O159" s="3"/>
+      <c r="P159" s="3"/>
       <c r="Q159" s="16"/>
       <c r="R159" s="22"/>
       <c r="S159" s="3"/>
@@ -9453,8 +9986,9 @@
       <c r="AB159" s="3"/>
       <c r="AC159" s="3"/>
       <c r="AD159" s="3"/>
-    </row>
-    <row r="160" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AE159" s="3"/>
+    </row>
+    <row r="160" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B160" s="16"/>
       <c r="C160" s="1"/>
       <c r="D160" s="3"/>
@@ -9469,6 +10003,7 @@
       <c r="M160" s="3"/>
       <c r="N160" s="3"/>
       <c r="O160" s="3"/>
+      <c r="P160" s="3"/>
       <c r="Q160" s="16"/>
       <c r="R160" s="22"/>
       <c r="S160" s="3"/>
@@ -9483,8 +10018,9 @@
       <c r="AB160" s="3"/>
       <c r="AC160" s="3"/>
       <c r="AD160" s="3"/>
-    </row>
-    <row r="161" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AE160" s="3"/>
+    </row>
+    <row r="161" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B161" s="16"/>
       <c r="C161" s="1"/>
       <c r="D161" s="3"/>
@@ -9499,6 +10035,7 @@
       <c r="M161" s="3"/>
       <c r="N161" s="3"/>
       <c r="O161" s="3"/>
+      <c r="P161" s="3"/>
       <c r="Q161" s="16"/>
       <c r="R161" s="22"/>
       <c r="S161" s="3"/>
@@ -9513,8 +10050,9 @@
       <c r="AB161" s="3"/>
       <c r="AC161" s="3"/>
       <c r="AD161" s="3"/>
-    </row>
-    <row r="162" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AE161" s="3"/>
+    </row>
+    <row r="162" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B162" s="16"/>
       <c r="C162" s="1"/>
       <c r="D162" s="3"/>
@@ -9529,6 +10067,7 @@
       <c r="M162" s="3"/>
       <c r="N162" s="3"/>
       <c r="O162" s="3"/>
+      <c r="P162" s="3"/>
       <c r="Q162" s="16"/>
       <c r="R162" s="22"/>
       <c r="S162" s="3"/>
@@ -9543,8 +10082,9 @@
       <c r="AB162" s="3"/>
       <c r="AC162" s="3"/>
       <c r="AD162" s="3"/>
-    </row>
-    <row r="163" spans="2:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AE162" s="3"/>
+    </row>
+    <row r="163" spans="2:31" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C163" s="21" t="s">
         <v>43</v>
       </c>
@@ -9560,6 +10100,7 @@
       <c r="M163" s="1"/>
       <c r="N163" s="1"/>
       <c r="O163" s="1"/>
+      <c r="P163" s="1"/>
       <c r="R163" s="23" t="s">
         <v>43</v>
       </c>
@@ -9575,8 +10116,9 @@
       <c r="AB163" s="22"/>
       <c r="AC163" s="22"/>
       <c r="AD163" s="22"/>
-    </row>
-    <row r="164" spans="2:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AE163" s="22"/>
+    </row>
+    <row r="164" spans="2:31" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C164" s="20" t="s">
         <v>55</v>
       </c>
@@ -9592,6 +10134,7 @@
       <c r="M164" s="20"/>
       <c r="N164" s="20"/>
       <c r="O164" s="20"/>
+      <c r="P164" s="20"/>
       <c r="R164" s="24" t="s">
         <v>55</v>
       </c>
@@ -9607,8 +10150,9 @@
       <c r="AB164" s="24"/>
       <c r="AC164" s="24"/>
       <c r="AD164" s="24"/>
-    </row>
-    <row r="165" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AE164" s="24"/>
+    </row>
+    <row r="165" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B165" s="1" t="s">
         <v>28</v>
       </c>
@@ -9649,6 +10193,9 @@
       <c r="O165" s="1" t="s">
         <v>110</v>
       </c>
+      <c r="P165" s="1" t="s">
+        <v>116</v>
+      </c>
       <c r="Q165" s="22" t="s">
         <v>79</v>
       </c>
@@ -9689,8 +10236,11 @@
       <c r="AD165" s="22" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="166" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AE165" s="22" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="166" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B166" s="16"/>
       <c r="C166" s="1"/>
       <c r="D166" s="3"/>
@@ -9705,6 +10255,7 @@
       <c r="M166" s="3"/>
       <c r="N166" s="3"/>
       <c r="O166" s="3"/>
+      <c r="P166" s="3"/>
       <c r="Q166" s="16"/>
       <c r="R166" s="22"/>
       <c r="S166" s="3"/>
@@ -9719,8 +10270,9 @@
       <c r="AB166" s="3"/>
       <c r="AC166" s="3"/>
       <c r="AD166" s="3"/>
-    </row>
-    <row r="167" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AE166" s="3"/>
+    </row>
+    <row r="167" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B167" s="16"/>
       <c r="C167" s="1"/>
       <c r="D167" s="3"/>
@@ -9735,6 +10287,7 @@
       <c r="M167" s="3"/>
       <c r="N167" s="3"/>
       <c r="O167" s="3"/>
+      <c r="P167" s="3"/>
       <c r="Q167" s="16"/>
       <c r="R167" s="22"/>
       <c r="S167" s="3"/>
@@ -9749,8 +10302,9 @@
       <c r="AB167" s="3"/>
       <c r="AC167" s="3"/>
       <c r="AD167" s="3"/>
-    </row>
-    <row r="168" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AE167" s="3"/>
+    </row>
+    <row r="168" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B168" s="16"/>
       <c r="C168" s="1"/>
       <c r="D168" s="3"/>
@@ -9765,6 +10319,7 @@
       <c r="M168" s="3"/>
       <c r="N168" s="3"/>
       <c r="O168" s="3"/>
+      <c r="P168" s="3"/>
       <c r="Q168" s="16"/>
       <c r="R168" s="22"/>
       <c r="S168" s="3"/>
@@ -9779,8 +10334,9 @@
       <c r="AB168" s="3"/>
       <c r="AC168" s="3"/>
       <c r="AD168" s="3"/>
-    </row>
-    <row r="169" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AE168" s="3"/>
+    </row>
+    <row r="169" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B169" s="16"/>
       <c r="C169" s="1"/>
       <c r="D169" s="3"/>
@@ -9795,6 +10351,7 @@
       <c r="M169" s="3"/>
       <c r="N169" s="3"/>
       <c r="O169" s="3"/>
+      <c r="P169" s="3"/>
       <c r="Q169" s="16"/>
       <c r="R169" s="22"/>
       <c r="S169" s="3"/>
@@ -9809,8 +10366,9 @@
       <c r="AB169" s="3"/>
       <c r="AC169" s="3"/>
       <c r="AD169" s="3"/>
-    </row>
-    <row r="170" spans="2:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AE169" s="3"/>
+    </row>
+    <row r="170" spans="2:31" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C170" s="21" t="s">
         <v>43</v>
       </c>
@@ -9826,6 +10384,7 @@
       <c r="M170" s="1"/>
       <c r="N170" s="1"/>
       <c r="O170" s="1"/>
+      <c r="P170" s="1"/>
       <c r="R170" s="23" t="s">
         <v>43</v>
       </c>
@@ -9841,8 +10400,9 @@
       <c r="AB170" s="22"/>
       <c r="AC170" s="22"/>
       <c r="AD170" s="22"/>
-    </row>
-    <row r="171" spans="2:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AE170" s="22"/>
+    </row>
+    <row r="171" spans="2:31" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C171" s="20" t="s">
         <v>55</v>
       </c>
@@ -9858,6 +10418,7 @@
       <c r="M171" s="20"/>
       <c r="N171" s="20"/>
       <c r="O171" s="20"/>
+      <c r="P171" s="20"/>
       <c r="R171" s="24" t="s">
         <v>55</v>
       </c>
@@ -9873,8 +10434,9 @@
       <c r="AB171" s="24"/>
       <c r="AC171" s="24"/>
       <c r="AD171" s="24"/>
-    </row>
-    <row r="172" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AE171" s="24"/>
+    </row>
+    <row r="172" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B172" s="1" t="s">
         <v>29</v>
       </c>
@@ -9915,6 +10477,9 @@
       <c r="O172" s="1" t="s">
         <v>110</v>
       </c>
+      <c r="P172" s="1" t="s">
+        <v>116</v>
+      </c>
       <c r="Q172" s="22" t="s">
         <v>80</v>
       </c>
@@ -9955,8 +10520,11 @@
       <c r="AD172" s="22" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="173" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AE172" s="22" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="173" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B173" s="16"/>
       <c r="C173" s="1"/>
       <c r="D173" s="3"/>
@@ -9971,6 +10539,7 @@
       <c r="M173" s="3"/>
       <c r="N173" s="3"/>
       <c r="O173" s="3"/>
+      <c r="P173" s="3"/>
       <c r="Q173" s="16"/>
       <c r="R173" s="22"/>
       <c r="S173" s="3"/>
@@ -9985,8 +10554,9 @@
       <c r="AB173" s="3"/>
       <c r="AC173" s="3"/>
       <c r="AD173" s="3"/>
-    </row>
-    <row r="174" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AE173" s="3"/>
+    </row>
+    <row r="174" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B174" s="16"/>
       <c r="C174" s="1"/>
       <c r="D174" s="3"/>
@@ -10001,6 +10571,7 @@
       <c r="M174" s="3"/>
       <c r="N174" s="3"/>
       <c r="O174" s="3"/>
+      <c r="P174" s="3"/>
       <c r="Q174" s="16"/>
       <c r="R174" s="22"/>
       <c r="S174" s="3"/>
@@ -10015,8 +10586,9 @@
       <c r="AB174" s="3"/>
       <c r="AC174" s="3"/>
       <c r="AD174" s="3"/>
-    </row>
-    <row r="175" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AE174" s="3"/>
+    </row>
+    <row r="175" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B175" s="16"/>
       <c r="C175" s="1"/>
       <c r="D175" s="3"/>
@@ -10031,6 +10603,7 @@
       <c r="M175" s="3"/>
       <c r="N175" s="3"/>
       <c r="O175" s="3"/>
+      <c r="P175" s="3"/>
       <c r="Q175" s="16"/>
       <c r="R175" s="22"/>
       <c r="S175" s="3"/>
@@ -10045,8 +10618,9 @@
       <c r="AB175" s="3"/>
       <c r="AC175" s="3"/>
       <c r="AD175" s="3"/>
-    </row>
-    <row r="176" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AE175" s="3"/>
+    </row>
+    <row r="176" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B176" s="16"/>
       <c r="C176" s="1"/>
       <c r="D176" s="3"/>
@@ -10061,6 +10635,7 @@
       <c r="M176" s="3"/>
       <c r="N176" s="3"/>
       <c r="O176" s="3"/>
+      <c r="P176" s="3"/>
       <c r="Q176" s="16"/>
       <c r="R176" s="22"/>
       <c r="S176" s="3"/>
@@ -10075,8 +10650,9 @@
       <c r="AB176" s="3"/>
       <c r="AC176" s="3"/>
       <c r="AD176" s="3"/>
-    </row>
-    <row r="177" spans="2:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AE176" s="3"/>
+    </row>
+    <row r="177" spans="2:31" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C177" s="21" t="s">
         <v>43</v>
       </c>
@@ -10092,6 +10668,7 @@
       <c r="M177" s="1"/>
       <c r="N177" s="1"/>
       <c r="O177" s="1"/>
+      <c r="P177" s="1"/>
       <c r="R177" s="23" t="s">
         <v>43</v>
       </c>
@@ -10107,8 +10684,9 @@
       <c r="AB177" s="22"/>
       <c r="AC177" s="22"/>
       <c r="AD177" s="22"/>
-    </row>
-    <row r="178" spans="2:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AE177" s="22"/>
+    </row>
+    <row r="178" spans="2:31" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C178" s="20" t="s">
         <v>55</v>
       </c>
@@ -10124,6 +10702,7 @@
       <c r="M178" s="20"/>
       <c r="N178" s="20"/>
       <c r="O178" s="20"/>
+      <c r="P178" s="20"/>
       <c r="R178" s="24" t="s">
         <v>55</v>
       </c>
@@ -10139,8 +10718,9 @@
       <c r="AB178" s="24"/>
       <c r="AC178" s="24"/>
       <c r="AD178" s="24"/>
-    </row>
-    <row r="179" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AE178" s="24"/>
+    </row>
+    <row r="179" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B179" s="1" t="s">
         <v>30</v>
       </c>
@@ -10181,6 +10761,9 @@
       <c r="O179" s="1" t="s">
         <v>110</v>
       </c>
+      <c r="P179" s="1" t="s">
+        <v>116</v>
+      </c>
       <c r="Q179" s="22" t="s">
         <v>81</v>
       </c>
@@ -10221,8 +10804,11 @@
       <c r="AD179" s="22" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="180" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AE179" s="22" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="180" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B180" s="16"/>
       <c r="C180" s="1"/>
       <c r="D180" s="3"/>
@@ -10237,6 +10823,7 @@
       <c r="M180" s="3"/>
       <c r="N180" s="3"/>
       <c r="O180" s="3"/>
+      <c r="P180" s="3"/>
       <c r="Q180" s="16"/>
       <c r="R180" s="22"/>
       <c r="S180" s="3"/>
@@ -10251,8 +10838,9 @@
       <c r="AB180" s="3"/>
       <c r="AC180" s="3"/>
       <c r="AD180" s="3"/>
-    </row>
-    <row r="181" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AE180" s="3"/>
+    </row>
+    <row r="181" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B181" s="16"/>
       <c r="C181" s="1"/>
       <c r="D181" s="3"/>
@@ -10267,6 +10855,7 @@
       <c r="M181" s="3"/>
       <c r="N181" s="3"/>
       <c r="O181" s="3"/>
+      <c r="P181" s="3"/>
       <c r="Q181" s="16"/>
       <c r="R181" s="22"/>
       <c r="S181" s="3"/>
@@ -10281,8 +10870,9 @@
       <c r="AB181" s="3"/>
       <c r="AC181" s="3"/>
       <c r="AD181" s="3"/>
-    </row>
-    <row r="182" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AE181" s="3"/>
+    </row>
+    <row r="182" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B182" s="16"/>
       <c r="C182" s="1"/>
       <c r="D182" s="3"/>
@@ -10297,6 +10887,7 @@
       <c r="M182" s="3"/>
       <c r="N182" s="3"/>
       <c r="O182" s="3"/>
+      <c r="P182" s="3"/>
       <c r="Q182" s="16"/>
       <c r="R182" s="22"/>
       <c r="S182" s="3"/>
@@ -10311,8 +10902,9 @@
       <c r="AB182" s="3"/>
       <c r="AC182" s="3"/>
       <c r="AD182" s="3"/>
-    </row>
-    <row r="183" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AE182" s="3"/>
+    </row>
+    <row r="183" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B183" s="16"/>
       <c r="C183" s="1"/>
       <c r="D183" s="3"/>
@@ -10327,6 +10919,7 @@
       <c r="M183" s="3"/>
       <c r="N183" s="3"/>
       <c r="O183" s="3"/>
+      <c r="P183" s="3"/>
       <c r="Q183" s="16"/>
       <c r="R183" s="22"/>
       <c r="S183" s="3"/>
@@ -10341,8 +10934,9 @@
       <c r="AB183" s="3"/>
       <c r="AC183" s="3"/>
       <c r="AD183" s="3"/>
-    </row>
-    <row r="184" spans="2:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AE183" s="3"/>
+    </row>
+    <row r="184" spans="2:31" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C184" s="21" t="s">
         <v>43</v>
       </c>
@@ -10358,6 +10952,7 @@
       <c r="M184" s="1"/>
       <c r="N184" s="1"/>
       <c r="O184" s="1"/>
+      <c r="P184" s="1"/>
       <c r="R184" s="23" t="s">
         <v>43</v>
       </c>
@@ -10373,8 +10968,9 @@
       <c r="AB184" s="22"/>
       <c r="AC184" s="22"/>
       <c r="AD184" s="22"/>
-    </row>
-    <row r="185" spans="2:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AE184" s="22"/>
+    </row>
+    <row r="185" spans="2:31" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C185" s="20" t="s">
         <v>55</v>
       </c>
@@ -10390,6 +10986,7 @@
       <c r="M185" s="20"/>
       <c r="N185" s="20"/>
       <c r="O185" s="20"/>
+      <c r="P185" s="20"/>
       <c r="R185" s="24" t="s">
         <v>55</v>
       </c>
@@ -10405,8 +11002,9 @@
       <c r="AB185" s="24"/>
       <c r="AC185" s="24"/>
       <c r="AD185" s="24"/>
-    </row>
-    <row r="186" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AE185" s="24"/>
+    </row>
+    <row r="186" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B186" s="1" t="s">
         <v>31</v>
       </c>
@@ -10447,6 +11045,9 @@
       <c r="O186" s="1" t="s">
         <v>110</v>
       </c>
+      <c r="P186" s="1" t="s">
+        <v>116</v>
+      </c>
       <c r="Q186" s="22" t="s">
         <v>82</v>
       </c>
@@ -10487,8 +11088,11 @@
       <c r="AD186" s="22" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="187" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AE186" s="22" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="187" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B187" s="16"/>
       <c r="C187" s="1"/>
       <c r="D187" s="3"/>
@@ -10503,6 +11107,7 @@
       <c r="M187" s="3"/>
       <c r="N187" s="3"/>
       <c r="O187" s="3"/>
+      <c r="P187" s="3"/>
       <c r="Q187" s="16"/>
       <c r="R187" s="22"/>
       <c r="S187" s="3"/>
@@ -10517,8 +11122,9 @@
       <c r="AB187" s="3"/>
       <c r="AC187" s="3"/>
       <c r="AD187" s="3"/>
-    </row>
-    <row r="188" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AE187" s="3"/>
+    </row>
+    <row r="188" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B188" s="16"/>
       <c r="C188" s="1"/>
       <c r="D188" s="3"/>
@@ -10533,6 +11139,7 @@
       <c r="M188" s="3"/>
       <c r="N188" s="3"/>
       <c r="O188" s="3"/>
+      <c r="P188" s="3"/>
       <c r="Q188" s="16"/>
       <c r="R188" s="22"/>
       <c r="S188" s="3"/>
@@ -10547,8 +11154,9 @@
       <c r="AB188" s="3"/>
       <c r="AC188" s="3"/>
       <c r="AD188" s="3"/>
-    </row>
-    <row r="189" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AE188" s="3"/>
+    </row>
+    <row r="189" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B189" s="16"/>
       <c r="C189" s="1"/>
       <c r="D189" s="3"/>
@@ -10563,6 +11171,7 @@
       <c r="M189" s="3"/>
       <c r="N189" s="3"/>
       <c r="O189" s="3"/>
+      <c r="P189" s="3"/>
       <c r="Q189" s="16"/>
       <c r="R189" s="22"/>
       <c r="S189" s="3"/>
@@ -10577,8 +11186,9 @@
       <c r="AB189" s="3"/>
       <c r="AC189" s="3"/>
       <c r="AD189" s="3"/>
-    </row>
-    <row r="190" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AE189" s="3"/>
+    </row>
+    <row r="190" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B190" s="16"/>
       <c r="C190" s="1"/>
       <c r="D190" s="3"/>
@@ -10593,6 +11203,7 @@
       <c r="M190" s="3"/>
       <c r="N190" s="3"/>
       <c r="O190" s="3"/>
+      <c r="P190" s="3"/>
       <c r="Q190" s="16"/>
       <c r="R190" s="22"/>
       <c r="S190" s="3"/>
@@ -10607,8 +11218,9 @@
       <c r="AB190" s="3"/>
       <c r="AC190" s="3"/>
       <c r="AD190" s="3"/>
-    </row>
-    <row r="191" spans="2:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AE190" s="3"/>
+    </row>
+    <row r="191" spans="2:31" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C191" s="21" t="s">
         <v>43</v>
       </c>
@@ -10624,6 +11236,7 @@
       <c r="M191" s="1"/>
       <c r="N191" s="1"/>
       <c r="O191" s="1"/>
+      <c r="P191" s="1"/>
       <c r="R191" s="23" t="s">
         <v>43</v>
       </c>
@@ -10639,8 +11252,9 @@
       <c r="AB191" s="22"/>
       <c r="AC191" s="22"/>
       <c r="AD191" s="22"/>
-    </row>
-    <row r="192" spans="2:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AE191" s="22"/>
+    </row>
+    <row r="192" spans="2:31" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C192" s="20" t="s">
         <v>55</v>
       </c>
@@ -10656,6 +11270,7 @@
       <c r="M192" s="20"/>
       <c r="N192" s="20"/>
       <c r="O192" s="20"/>
+      <c r="P192" s="20"/>
       <c r="R192" s="24" t="s">
         <v>55</v>
       </c>
@@ -10671,8 +11286,9 @@
       <c r="AB192" s="24"/>
       <c r="AC192" s="24"/>
       <c r="AD192" s="24"/>
-    </row>
-    <row r="193" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AE192" s="24"/>
+    </row>
+    <row r="193" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B193" s="1" t="s">
         <v>32</v>
       </c>
@@ -10713,6 +11329,9 @@
       <c r="O193" s="1" t="s">
         <v>110</v>
       </c>
+      <c r="P193" s="1" t="s">
+        <v>116</v>
+      </c>
       <c r="Q193" s="22" t="s">
         <v>83</v>
       </c>
@@ -10753,8 +11372,11 @@
       <c r="AD193" s="22" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="194" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AE193" s="22" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="194" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B194" s="16"/>
       <c r="C194" s="1"/>
       <c r="D194" s="3"/>
@@ -10769,6 +11391,7 @@
       <c r="M194" s="3"/>
       <c r="N194" s="3"/>
       <c r="O194" s="3"/>
+      <c r="P194" s="3"/>
       <c r="Q194" s="16"/>
       <c r="R194" s="22"/>
       <c r="S194" s="3"/>
@@ -10783,8 +11406,9 @@
       <c r="AB194" s="3"/>
       <c r="AC194" s="3"/>
       <c r="AD194" s="3"/>
-    </row>
-    <row r="195" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AE194" s="3"/>
+    </row>
+    <row r="195" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B195" s="16"/>
       <c r="C195" s="1"/>
       <c r="D195" s="3"/>
@@ -10799,6 +11423,7 @@
       <c r="M195" s="3"/>
       <c r="N195" s="3"/>
       <c r="O195" s="3"/>
+      <c r="P195" s="3"/>
       <c r="Q195" s="16"/>
       <c r="R195" s="22"/>
       <c r="S195" s="3"/>
@@ -10813,8 +11438,9 @@
       <c r="AB195" s="3"/>
       <c r="AC195" s="3"/>
       <c r="AD195" s="3"/>
-    </row>
-    <row r="196" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AE195" s="3"/>
+    </row>
+    <row r="196" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B196" s="16"/>
       <c r="C196" s="1"/>
       <c r="D196" s="3"/>
@@ -10829,6 +11455,7 @@
       <c r="M196" s="3"/>
       <c r="N196" s="3"/>
       <c r="O196" s="3"/>
+      <c r="P196" s="3"/>
       <c r="Q196" s="16"/>
       <c r="R196" s="22"/>
       <c r="S196" s="3"/>
@@ -10843,8 +11470,9 @@
       <c r="AB196" s="3"/>
       <c r="AC196" s="3"/>
       <c r="AD196" s="3"/>
-    </row>
-    <row r="197" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AE196" s="3"/>
+    </row>
+    <row r="197" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B197" s="16"/>
       <c r="C197" s="1"/>
       <c r="D197" s="3"/>
@@ -10859,6 +11487,7 @@
       <c r="M197" s="3"/>
       <c r="N197" s="3"/>
       <c r="O197" s="3"/>
+      <c r="P197" s="3"/>
       <c r="Q197" s="16"/>
       <c r="R197" s="22"/>
       <c r="S197" s="3"/>
@@ -10873,8 +11502,9 @@
       <c r="AB197" s="3"/>
       <c r="AC197" s="3"/>
       <c r="AD197" s="3"/>
-    </row>
-    <row r="198" spans="2:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AE197" s="3"/>
+    </row>
+    <row r="198" spans="2:31" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C198" s="21" t="s">
         <v>43</v>
       </c>
@@ -10890,6 +11520,7 @@
       <c r="M198" s="1"/>
       <c r="N198" s="1"/>
       <c r="O198" s="1"/>
+      <c r="P198" s="1"/>
       <c r="R198" s="23" t="s">
         <v>43</v>
       </c>
@@ -10905,8 +11536,9 @@
       <c r="AB198" s="22"/>
       <c r="AC198" s="22"/>
       <c r="AD198" s="22"/>
-    </row>
-    <row r="199" spans="2:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AE198" s="22"/>
+    </row>
+    <row r="199" spans="2:31" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C199" s="20" t="s">
         <v>55</v>
       </c>
@@ -10922,6 +11554,7 @@
       <c r="M199" s="20"/>
       <c r="N199" s="20"/>
       <c r="O199" s="20"/>
+      <c r="P199" s="20"/>
       <c r="R199" s="24" t="s">
         <v>55</v>
       </c>
@@ -10937,8 +11570,9 @@
       <c r="AB199" s="24"/>
       <c r="AC199" s="24"/>
       <c r="AD199" s="24"/>
-    </row>
-    <row r="200" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AE199" s="24"/>
+    </row>
+    <row r="200" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B200" s="1" t="s">
         <v>33</v>
       </c>
@@ -10979,6 +11613,9 @@
       <c r="O200" s="1" t="s">
         <v>110</v>
       </c>
+      <c r="P200" s="1" t="s">
+        <v>116</v>
+      </c>
       <c r="Q200" s="22" t="s">
         <v>84</v>
       </c>
@@ -11019,8 +11656,11 @@
       <c r="AD200" s="22" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="201" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AE200" s="22" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="201" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B201" s="16"/>
       <c r="C201" s="1"/>
       <c r="D201" s="3"/>
@@ -11035,6 +11675,7 @@
       <c r="M201" s="3"/>
       <c r="N201" s="3"/>
       <c r="O201" s="3"/>
+      <c r="P201" s="3"/>
       <c r="Q201" s="16"/>
       <c r="R201" s="22"/>
       <c r="S201" s="3"/>
@@ -11049,8 +11690,9 @@
       <c r="AB201" s="3"/>
       <c r="AC201" s="3"/>
       <c r="AD201" s="3"/>
-    </row>
-    <row r="202" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AE201" s="3"/>
+    </row>
+    <row r="202" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B202" s="16"/>
       <c r="C202" s="1"/>
       <c r="D202" s="3"/>
@@ -11065,6 +11707,7 @@
       <c r="M202" s="3"/>
       <c r="N202" s="3"/>
       <c r="O202" s="3"/>
+      <c r="P202" s="3"/>
       <c r="Q202" s="16"/>
       <c r="R202" s="22"/>
       <c r="S202" s="3"/>
@@ -11079,8 +11722,9 @@
       <c r="AB202" s="3"/>
       <c r="AC202" s="3"/>
       <c r="AD202" s="3"/>
-    </row>
-    <row r="203" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AE202" s="3"/>
+    </row>
+    <row r="203" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B203" s="16"/>
       <c r="C203" s="1"/>
       <c r="D203" s="3"/>
@@ -11095,6 +11739,7 @@
       <c r="M203" s="3"/>
       <c r="N203" s="3"/>
       <c r="O203" s="3"/>
+      <c r="P203" s="3"/>
       <c r="Q203" s="16"/>
       <c r="R203" s="22"/>
       <c r="S203" s="3"/>
@@ -11109,8 +11754,9 @@
       <c r="AB203" s="3"/>
       <c r="AC203" s="3"/>
       <c r="AD203" s="3"/>
-    </row>
-    <row r="204" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AE203" s="3"/>
+    </row>
+    <row r="204" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B204" s="16"/>
       <c r="C204" s="1"/>
       <c r="D204" s="3"/>
@@ -11125,6 +11771,7 @@
       <c r="M204" s="3"/>
       <c r="N204" s="3"/>
       <c r="O204" s="3"/>
+      <c r="P204" s="3"/>
       <c r="Q204" s="16"/>
       <c r="R204" s="22"/>
       <c r="S204" s="3"/>
@@ -11139,8 +11786,9 @@
       <c r="AB204" s="3"/>
       <c r="AC204" s="3"/>
       <c r="AD204" s="3"/>
-    </row>
-    <row r="205" spans="2:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AE204" s="3"/>
+    </row>
+    <row r="205" spans="2:31" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C205" s="21" t="s">
         <v>43</v>
       </c>
@@ -11156,6 +11804,7 @@
       <c r="M205" s="1"/>
       <c r="N205" s="1"/>
       <c r="O205" s="1"/>
+      <c r="P205" s="1"/>
       <c r="R205" s="23" t="s">
         <v>43</v>
       </c>
@@ -11171,8 +11820,9 @@
       <c r="AB205" s="22"/>
       <c r="AC205" s="22"/>
       <c r="AD205" s="22"/>
-    </row>
-    <row r="206" spans="2:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AE205" s="22"/>
+    </row>
+    <row r="206" spans="2:31" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C206" s="20" t="s">
         <v>55</v>
       </c>
@@ -11188,6 +11838,7 @@
       <c r="M206" s="20"/>
       <c r="N206" s="20"/>
       <c r="O206" s="20"/>
+      <c r="P206" s="20"/>
       <c r="R206" s="24" t="s">
         <v>55</v>
       </c>
@@ -11203,8 +11854,9 @@
       <c r="AB206" s="24"/>
       <c r="AC206" s="24"/>
       <c r="AD206" s="24"/>
-    </row>
-    <row r="207" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AE206" s="24"/>
+    </row>
+    <row r="207" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B207" s="1" t="s">
         <v>34</v>
       </c>
@@ -11245,6 +11897,9 @@
       <c r="O207" s="1" t="s">
         <v>110</v>
       </c>
+      <c r="P207" s="1" t="s">
+        <v>116</v>
+      </c>
       <c r="Q207" s="22" t="s">
         <v>85</v>
       </c>
@@ -11285,8 +11940,11 @@
       <c r="AD207" s="22" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="208" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AE207" s="22" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="208" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B208" s="16"/>
       <c r="C208" s="1"/>
       <c r="D208" s="3"/>
@@ -11301,6 +11959,7 @@
       <c r="M208" s="3"/>
       <c r="N208" s="3"/>
       <c r="O208" s="3"/>
+      <c r="P208" s="3"/>
       <c r="Q208" s="16"/>
       <c r="R208" s="22"/>
       <c r="S208" s="3"/>
@@ -11315,8 +11974,9 @@
       <c r="AB208" s="3"/>
       <c r="AC208" s="3"/>
       <c r="AD208" s="3"/>
-    </row>
-    <row r="209" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AE208" s="3"/>
+    </row>
+    <row r="209" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B209" s="16"/>
       <c r="C209" s="1"/>
       <c r="D209" s="3"/>
@@ -11331,6 +11991,7 @@
       <c r="M209" s="3"/>
       <c r="N209" s="3"/>
       <c r="O209" s="3"/>
+      <c r="P209" s="3"/>
       <c r="Q209" s="16"/>
       <c r="R209" s="22"/>
       <c r="S209" s="3"/>
@@ -11345,8 +12006,9 @@
       <c r="AB209" s="3"/>
       <c r="AC209" s="3"/>
       <c r="AD209" s="3"/>
-    </row>
-    <row r="210" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AE209" s="3"/>
+    </row>
+    <row r="210" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B210" s="16"/>
       <c r="C210" s="1"/>
       <c r="D210" s="3"/>
@@ -11361,6 +12023,7 @@
       <c r="M210" s="3"/>
       <c r="N210" s="3"/>
       <c r="O210" s="3"/>
+      <c r="P210" s="3"/>
       <c r="Q210" s="16"/>
       <c r="R210" s="22"/>
       <c r="S210" s="3"/>
@@ -11375,8 +12038,9 @@
       <c r="AB210" s="3"/>
       <c r="AC210" s="3"/>
       <c r="AD210" s="3"/>
-    </row>
-    <row r="211" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AE210" s="3"/>
+    </row>
+    <row r="211" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B211" s="16"/>
       <c r="C211" s="1"/>
       <c r="D211" s="3"/>
@@ -11391,6 +12055,7 @@
       <c r="M211" s="3"/>
       <c r="N211" s="3"/>
       <c r="O211" s="3"/>
+      <c r="P211" s="3"/>
       <c r="Q211" s="16"/>
       <c r="R211" s="22"/>
       <c r="S211" s="3"/>
@@ -11405,8 +12070,9 @@
       <c r="AB211" s="3"/>
       <c r="AC211" s="3"/>
       <c r="AD211" s="3"/>
-    </row>
-    <row r="212" spans="2:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AE211" s="3"/>
+    </row>
+    <row r="212" spans="2:31" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C212" s="21" t="s">
         <v>43</v>
       </c>
@@ -11422,6 +12088,7 @@
       <c r="M212" s="1"/>
       <c r="N212" s="1"/>
       <c r="O212" s="1"/>
+      <c r="P212" s="1"/>
       <c r="R212" s="23" t="s">
         <v>43</v>
       </c>
@@ -11437,8 +12104,9 @@
       <c r="AB212" s="22"/>
       <c r="AC212" s="22"/>
       <c r="AD212" s="22"/>
-    </row>
-    <row r="213" spans="2:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AE212" s="22"/>
+    </row>
+    <row r="213" spans="2:31" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C213" s="20" t="s">
         <v>55</v>
       </c>
@@ -11454,6 +12122,7 @@
       <c r="M213" s="20"/>
       <c r="N213" s="20"/>
       <c r="O213" s="20"/>
+      <c r="P213" s="20"/>
       <c r="R213" s="24" t="s">
         <v>55</v>
       </c>
@@ -11469,8 +12138,9 @@
       <c r="AB213" s="24"/>
       <c r="AC213" s="24"/>
       <c r="AD213" s="24"/>
-    </row>
-    <row r="214" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AE213" s="24"/>
+    </row>
+    <row r="214" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B214" s="1" t="s">
         <v>35</v>
       </c>
@@ -11511,6 +12181,9 @@
       <c r="O214" s="1" t="s">
         <v>110</v>
       </c>
+      <c r="P214" s="1" t="s">
+        <v>116</v>
+      </c>
       <c r="Q214" s="22" t="s">
         <v>86</v>
       </c>
@@ -11551,8 +12224,11 @@
       <c r="AD214" s="22" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="215" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AE214" s="22" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="215" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B215" s="16"/>
       <c r="C215" s="1"/>
       <c r="D215" s="3"/>
@@ -11567,6 +12243,7 @@
       <c r="M215" s="3"/>
       <c r="N215" s="3"/>
       <c r="O215" s="3"/>
+      <c r="P215" s="3"/>
       <c r="Q215" s="16"/>
       <c r="R215" s="22"/>
       <c r="S215" s="3"/>
@@ -11581,8 +12258,9 @@
       <c r="AB215" s="3"/>
       <c r="AC215" s="3"/>
       <c r="AD215" s="3"/>
-    </row>
-    <row r="216" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AE215" s="3"/>
+    </row>
+    <row r="216" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B216" s="16"/>
       <c r="C216" s="1"/>
       <c r="D216" s="3"/>
@@ -11597,6 +12275,7 @@
       <c r="M216" s="3"/>
       <c r="N216" s="3"/>
       <c r="O216" s="3"/>
+      <c r="P216" s="3"/>
       <c r="Q216" s="16"/>
       <c r="R216" s="22"/>
       <c r="S216" s="3"/>
@@ -11611,8 +12290,9 @@
       <c r="AB216" s="3"/>
       <c r="AC216" s="3"/>
       <c r="AD216" s="3"/>
-    </row>
-    <row r="217" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AE216" s="3"/>
+    </row>
+    <row r="217" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B217" s="16"/>
       <c r="C217" s="1"/>
       <c r="D217" s="3"/>
@@ -11627,6 +12307,7 @@
       <c r="M217" s="3"/>
       <c r="N217" s="3"/>
       <c r="O217" s="3"/>
+      <c r="P217" s="3"/>
       <c r="Q217" s="16"/>
       <c r="R217" s="22"/>
       <c r="S217" s="3"/>
@@ -11641,8 +12322,9 @@
       <c r="AB217" s="3"/>
       <c r="AC217" s="3"/>
       <c r="AD217" s="3"/>
-    </row>
-    <row r="218" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AE217" s="3"/>
+    </row>
+    <row r="218" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B218" s="16"/>
       <c r="C218" s="1"/>
       <c r="D218" s="3"/>
@@ -11657,6 +12339,7 @@
       <c r="M218" s="3"/>
       <c r="N218" s="3"/>
       <c r="O218" s="3"/>
+      <c r="P218" s="3"/>
       <c r="Q218" s="16"/>
       <c r="R218" s="22"/>
       <c r="S218" s="3"/>
@@ -11671,8 +12354,9 @@
       <c r="AB218" s="3"/>
       <c r="AC218" s="3"/>
       <c r="AD218" s="3"/>
-    </row>
-    <row r="219" spans="2:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AE218" s="3"/>
+    </row>
+    <row r="219" spans="2:31" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C219" s="21" t="s">
         <v>43</v>
       </c>
@@ -11688,6 +12372,7 @@
       <c r="M219" s="1"/>
       <c r="N219" s="1"/>
       <c r="O219" s="1"/>
+      <c r="P219" s="1"/>
       <c r="R219" s="23" t="s">
         <v>43</v>
       </c>
@@ -11703,8 +12388,9 @@
       <c r="AB219" s="22"/>
       <c r="AC219" s="22"/>
       <c r="AD219" s="22"/>
-    </row>
-    <row r="220" spans="2:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AE219" s="22"/>
+    </row>
+    <row r="220" spans="2:31" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C220" s="20" t="s">
         <v>55</v>
       </c>
@@ -11720,6 +12406,7 @@
       <c r="M220" s="20"/>
       <c r="N220" s="20"/>
       <c r="O220" s="20"/>
+      <c r="P220" s="20"/>
       <c r="R220" s="24" t="s">
         <v>55</v>
       </c>
@@ -11735,8 +12422,9 @@
       <c r="AB220" s="24"/>
       <c r="AC220" s="24"/>
       <c r="AD220" s="24"/>
-    </row>
-    <row r="221" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AE220" s="24"/>
+    </row>
+    <row r="221" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B221" s="1" t="s">
         <v>36</v>
       </c>
@@ -11777,6 +12465,9 @@
       <c r="O221" s="1" t="s">
         <v>110</v>
       </c>
+      <c r="P221" s="1" t="s">
+        <v>116</v>
+      </c>
       <c r="Q221" s="22" t="s">
         <v>87</v>
       </c>
@@ -11817,8 +12508,11 @@
       <c r="AD221" s="22" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="222" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AE221" s="22" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="222" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B222" s="16"/>
       <c r="C222" s="1"/>
       <c r="D222" s="3"/>
@@ -11833,6 +12527,7 @@
       <c r="M222" s="3"/>
       <c r="N222" s="3"/>
       <c r="O222" s="3"/>
+      <c r="P222" s="3"/>
       <c r="Q222" s="16"/>
       <c r="R222" s="22"/>
       <c r="S222" s="3"/>
@@ -11847,8 +12542,9 @@
       <c r="AB222" s="3"/>
       <c r="AC222" s="3"/>
       <c r="AD222" s="3"/>
-    </row>
-    <row r="223" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AE222" s="3"/>
+    </row>
+    <row r="223" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B223" s="16"/>
       <c r="C223" s="1"/>
       <c r="D223" s="3"/>
@@ -11863,6 +12559,7 @@
       <c r="M223" s="3"/>
       <c r="N223" s="3"/>
       <c r="O223" s="3"/>
+      <c r="P223" s="3"/>
       <c r="Q223" s="16"/>
       <c r="R223" s="22"/>
       <c r="S223" s="3"/>
@@ -11877,8 +12574,9 @@
       <c r="AB223" s="3"/>
       <c r="AC223" s="3"/>
       <c r="AD223" s="3"/>
-    </row>
-    <row r="224" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AE223" s="3"/>
+    </row>
+    <row r="224" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B224" s="16"/>
       <c r="C224" s="1"/>
       <c r="D224" s="3"/>
@@ -11893,6 +12591,7 @@
       <c r="M224" s="3"/>
       <c r="N224" s="3"/>
       <c r="O224" s="3"/>
+      <c r="P224" s="3"/>
       <c r="Q224" s="16"/>
       <c r="R224" s="22"/>
       <c r="S224" s="3"/>
@@ -11907,8 +12606,9 @@
       <c r="AB224" s="3"/>
       <c r="AC224" s="3"/>
       <c r="AD224" s="3"/>
-    </row>
-    <row r="225" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AE224" s="3"/>
+    </row>
+    <row r="225" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B225" s="16"/>
       <c r="C225" s="1"/>
       <c r="D225" s="3"/>
@@ -11923,6 +12623,7 @@
       <c r="M225" s="3"/>
       <c r="N225" s="3"/>
       <c r="O225" s="3"/>
+      <c r="P225" s="3"/>
       <c r="Q225" s="16"/>
       <c r="R225" s="22"/>
       <c r="S225" s="3"/>
@@ -11937,8 +12638,9 @@
       <c r="AB225" s="3"/>
       <c r="AC225" s="3"/>
       <c r="AD225" s="3"/>
-    </row>
-    <row r="226" spans="2:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AE225" s="3"/>
+    </row>
+    <row r="226" spans="2:31" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C226" s="21" t="s">
         <v>43</v>
       </c>
@@ -11954,6 +12656,7 @@
       <c r="M226" s="1"/>
       <c r="N226" s="1"/>
       <c r="O226" s="1"/>
+      <c r="P226" s="1"/>
       <c r="R226" s="23" t="s">
         <v>43</v>
       </c>
@@ -11969,8 +12672,9 @@
       <c r="AB226" s="22"/>
       <c r="AC226" s="22"/>
       <c r="AD226" s="22"/>
-    </row>
-    <row r="227" spans="2:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AE226" s="22"/>
+    </row>
+    <row r="227" spans="2:31" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C227" s="20" t="s">
         <v>55</v>
       </c>
@@ -11986,6 +12690,7 @@
       <c r="M227" s="20"/>
       <c r="N227" s="20"/>
       <c r="O227" s="20"/>
+      <c r="P227" s="20"/>
       <c r="R227" s="24" t="s">
         <v>55</v>
       </c>
@@ -12001,8 +12706,9 @@
       <c r="AB227" s="24"/>
       <c r="AC227" s="24"/>
       <c r="AD227" s="24"/>
-    </row>
-    <row r="228" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AE227" s="24"/>
+    </row>
+    <row r="228" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B228" s="1" t="s">
         <v>37</v>
       </c>
@@ -12043,6 +12749,9 @@
       <c r="O228" s="1" t="s">
         <v>110</v>
       </c>
+      <c r="P228" s="1" t="s">
+        <v>116</v>
+      </c>
       <c r="Q228" s="22" t="s">
         <v>88</v>
       </c>
@@ -12083,8 +12792,11 @@
       <c r="AD228" s="22" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="229" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AE228" s="22" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="229" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B229" s="16"/>
       <c r="C229" s="1"/>
       <c r="D229" s="3"/>
@@ -12099,6 +12811,7 @@
       <c r="M229" s="3"/>
       <c r="N229" s="3"/>
       <c r="O229" s="3"/>
+      <c r="P229" s="3"/>
       <c r="Q229" s="16"/>
       <c r="R229" s="22"/>
       <c r="S229" s="3"/>
@@ -12113,8 +12826,9 @@
       <c r="AB229" s="3"/>
       <c r="AC229" s="3"/>
       <c r="AD229" s="3"/>
-    </row>
-    <row r="230" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AE229" s="3"/>
+    </row>
+    <row r="230" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B230" s="16"/>
       <c r="C230" s="1"/>
       <c r="D230" s="3"/>
@@ -12129,6 +12843,7 @@
       <c r="M230" s="3"/>
       <c r="N230" s="3"/>
       <c r="O230" s="3"/>
+      <c r="P230" s="3"/>
       <c r="Q230" s="16"/>
       <c r="R230" s="22"/>
       <c r="S230" s="3"/>
@@ -12143,8 +12858,9 @@
       <c r="AB230" s="3"/>
       <c r="AC230" s="3"/>
       <c r="AD230" s="3"/>
-    </row>
-    <row r="231" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AE230" s="3"/>
+    </row>
+    <row r="231" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B231" s="16"/>
       <c r="C231" s="1"/>
       <c r="D231" s="3"/>
@@ -12159,6 +12875,7 @@
       <c r="M231" s="3"/>
       <c r="N231" s="3"/>
       <c r="O231" s="3"/>
+      <c r="P231" s="3"/>
       <c r="Q231" s="16"/>
       <c r="R231" s="22"/>
       <c r="S231" s="3"/>
@@ -12173,8 +12890,9 @@
       <c r="AB231" s="3"/>
       <c r="AC231" s="3"/>
       <c r="AD231" s="3"/>
-    </row>
-    <row r="232" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AE231" s="3"/>
+    </row>
+    <row r="232" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B232" s="16"/>
       <c r="C232" s="1"/>
       <c r="D232" s="3"/>
@@ -12189,6 +12907,7 @@
       <c r="M232" s="3"/>
       <c r="N232" s="3"/>
       <c r="O232" s="3"/>
+      <c r="P232" s="3"/>
       <c r="Q232" s="16"/>
       <c r="R232" s="22"/>
       <c r="S232" s="3"/>
@@ -12203,8 +12922,9 @@
       <c r="AB232" s="3"/>
       <c r="AC232" s="3"/>
       <c r="AD232" s="3"/>
-    </row>
-    <row r="233" spans="2:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AE232" s="3"/>
+    </row>
+    <row r="233" spans="2:31" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C233" s="21" t="s">
         <v>43</v>
       </c>
@@ -12220,6 +12940,7 @@
       <c r="M233" s="1"/>
       <c r="N233" s="1"/>
       <c r="O233" s="1"/>
+      <c r="P233" s="1"/>
       <c r="R233" s="23" t="s">
         <v>43</v>
       </c>
@@ -12235,8 +12956,9 @@
       <c r="AB233" s="22"/>
       <c r="AC233" s="22"/>
       <c r="AD233" s="22"/>
-    </row>
-    <row r="234" spans="2:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AE233" s="22"/>
+    </row>
+    <row r="234" spans="2:31" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C234" s="20" t="s">
         <v>55</v>
       </c>
@@ -12252,6 +12974,7 @@
       <c r="M234" s="20"/>
       <c r="N234" s="20"/>
       <c r="O234" s="20"/>
+      <c r="P234" s="20"/>
       <c r="R234" s="24" t="s">
         <v>55</v>
       </c>
@@ -12267,8 +12990,9 @@
       <c r="AB234" s="24"/>
       <c r="AC234" s="24"/>
       <c r="AD234" s="24"/>
-    </row>
-    <row r="235" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AE234" s="24"/>
+    </row>
+    <row r="235" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B235" s="1" t="s">
         <v>38</v>
       </c>
@@ -12309,6 +13033,9 @@
       <c r="O235" s="1" t="s">
         <v>110</v>
       </c>
+      <c r="P235" s="1" t="s">
+        <v>116</v>
+      </c>
       <c r="Q235" s="22" t="s">
         <v>89</v>
       </c>
@@ -12349,8 +13076,11 @@
       <c r="AD235" s="22" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="236" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AE235" s="22" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="236" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B236" s="16"/>
       <c r="C236" s="1"/>
       <c r="D236" s="3"/>
@@ -12365,6 +13095,7 @@
       <c r="M236" s="3"/>
       <c r="N236" s="3"/>
       <c r="O236" s="3"/>
+      <c r="P236" s="3"/>
       <c r="Q236" s="16"/>
       <c r="R236" s="22"/>
       <c r="S236" s="3"/>
@@ -12379,8 +13110,9 @@
       <c r="AB236" s="3"/>
       <c r="AC236" s="3"/>
       <c r="AD236" s="3"/>
-    </row>
-    <row r="237" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AE236" s="3"/>
+    </row>
+    <row r="237" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B237" s="16"/>
       <c r="C237" s="1"/>
       <c r="D237" s="3"/>
@@ -12395,6 +13127,7 @@
       <c r="M237" s="3"/>
       <c r="N237" s="3"/>
       <c r="O237" s="3"/>
+      <c r="P237" s="3"/>
       <c r="Q237" s="16"/>
       <c r="R237" s="22"/>
       <c r="S237" s="3"/>
@@ -12409,8 +13142,9 @@
       <c r="AB237" s="3"/>
       <c r="AC237" s="3"/>
       <c r="AD237" s="3"/>
-    </row>
-    <row r="238" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AE237" s="3"/>
+    </row>
+    <row r="238" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B238" s="16"/>
       <c r="C238" s="1"/>
       <c r="D238" s="3"/>
@@ -12425,6 +13159,7 @@
       <c r="M238" s="3"/>
       <c r="N238" s="3"/>
       <c r="O238" s="3"/>
+      <c r="P238" s="3"/>
       <c r="Q238" s="16"/>
       <c r="R238" s="22"/>
       <c r="S238" s="3"/>
@@ -12439,8 +13174,9 @@
       <c r="AB238" s="3"/>
       <c r="AC238" s="3"/>
       <c r="AD238" s="3"/>
-    </row>
-    <row r="239" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AE238" s="3"/>
+    </row>
+    <row r="239" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B239" s="16"/>
       <c r="C239" s="1"/>
       <c r="D239" s="3"/>
@@ -12455,6 +13191,7 @@
       <c r="M239" s="3"/>
       <c r="N239" s="3"/>
       <c r="O239" s="3"/>
+      <c r="P239" s="3"/>
       <c r="Q239" s="16"/>
       <c r="R239" s="22"/>
       <c r="S239" s="3"/>
@@ -12469,8 +13206,9 @@
       <c r="AB239" s="3"/>
       <c r="AC239" s="3"/>
       <c r="AD239" s="3"/>
-    </row>
-    <row r="240" spans="2:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AE239" s="3"/>
+    </row>
+    <row r="240" spans="2:31" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C240" s="21" t="s">
         <v>43</v>
       </c>
@@ -12486,6 +13224,7 @@
       <c r="M240" s="1"/>
       <c r="N240" s="1"/>
       <c r="O240" s="1"/>
+      <c r="P240" s="1"/>
       <c r="R240" s="23" t="s">
         <v>43</v>
       </c>
@@ -12501,8 +13240,9 @@
       <c r="AB240" s="22"/>
       <c r="AC240" s="22"/>
       <c r="AD240" s="22"/>
-    </row>
-    <row r="241" spans="2:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AE240" s="22"/>
+    </row>
+    <row r="241" spans="2:31" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C241" s="20" t="s">
         <v>55</v>
       </c>
@@ -12518,6 +13258,7 @@
       <c r="M241" s="20"/>
       <c r="N241" s="20"/>
       <c r="O241" s="20"/>
+      <c r="P241" s="20"/>
       <c r="R241" s="24" t="s">
         <v>55</v>
       </c>
@@ -12533,8 +13274,9 @@
       <c r="AB241" s="24"/>
       <c r="AC241" s="24"/>
       <c r="AD241" s="24"/>
-    </row>
-    <row r="242" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AE241" s="24"/>
+    </row>
+    <row r="242" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B242" s="1" t="s">
         <v>39</v>
       </c>
@@ -12575,6 +13317,9 @@
       <c r="O242" s="1" t="s">
         <v>110</v>
       </c>
+      <c r="P242" s="1" t="s">
+        <v>116</v>
+      </c>
       <c r="Q242" s="22" t="s">
         <v>90</v>
       </c>
@@ -12615,8 +13360,11 @@
       <c r="AD242" s="22" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="243" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AE242" s="22" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="243" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B243" s="16"/>
       <c r="C243" s="1"/>
       <c r="D243" s="3"/>
@@ -12631,6 +13379,7 @@
       <c r="M243" s="3"/>
       <c r="N243" s="3"/>
       <c r="O243" s="3"/>
+      <c r="P243" s="3"/>
       <c r="Q243" s="16"/>
       <c r="R243" s="22"/>
       <c r="S243" s="3"/>
@@ -12645,8 +13394,9 @@
       <c r="AB243" s="3"/>
       <c r="AC243" s="3"/>
       <c r="AD243" s="3"/>
-    </row>
-    <row r="244" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AE243" s="3"/>
+    </row>
+    <row r="244" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B244" s="16"/>
       <c r="C244" s="1"/>
       <c r="D244" s="3"/>
@@ -12661,6 +13411,7 @@
       <c r="M244" s="3"/>
       <c r="N244" s="3"/>
       <c r="O244" s="3"/>
+      <c r="P244" s="3"/>
       <c r="Q244" s="16"/>
       <c r="R244" s="22"/>
       <c r="S244" s="3"/>
@@ -12675,8 +13426,9 @@
       <c r="AB244" s="3"/>
       <c r="AC244" s="3"/>
       <c r="AD244" s="3"/>
-    </row>
-    <row r="245" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AE244" s="3"/>
+    </row>
+    <row r="245" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B245" s="16"/>
       <c r="C245" s="1"/>
       <c r="D245" s="3"/>
@@ -12691,6 +13443,7 @@
       <c r="M245" s="3"/>
       <c r="N245" s="3"/>
       <c r="O245" s="3"/>
+      <c r="P245" s="3"/>
       <c r="Q245" s="16"/>
       <c r="R245" s="22"/>
       <c r="S245" s="3"/>
@@ -12705,8 +13458,9 @@
       <c r="AB245" s="3"/>
       <c r="AC245" s="3"/>
       <c r="AD245" s="3"/>
-    </row>
-    <row r="246" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AE245" s="3"/>
+    </row>
+    <row r="246" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B246" s="16"/>
       <c r="C246" s="1"/>
       <c r="D246" s="3"/>
@@ -12721,6 +13475,7 @@
       <c r="M246" s="3"/>
       <c r="N246" s="3"/>
       <c r="O246" s="3"/>
+      <c r="P246" s="3"/>
       <c r="Q246" s="16"/>
       <c r="R246" s="22"/>
       <c r="S246" s="3"/>
@@ -12735,8 +13490,9 @@
       <c r="AB246" s="3"/>
       <c r="AC246" s="3"/>
       <c r="AD246" s="3"/>
-    </row>
-    <row r="247" spans="2:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AE246" s="3"/>
+    </row>
+    <row r="247" spans="2:31" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C247" s="21" t="s">
         <v>43</v>
       </c>
@@ -12752,6 +13508,7 @@
       <c r="M247" s="1"/>
       <c r="N247" s="1"/>
       <c r="O247" s="1"/>
+      <c r="P247" s="1"/>
       <c r="R247" s="23" t="s">
         <v>43</v>
       </c>
@@ -12767,8 +13524,9 @@
       <c r="AB247" s="22"/>
       <c r="AC247" s="22"/>
       <c r="AD247" s="22"/>
-    </row>
-    <row r="248" spans="2:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AE247" s="22"/>
+    </row>
+    <row r="248" spans="2:31" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C248" s="20" t="s">
         <v>55</v>
       </c>
@@ -12784,6 +13542,7 @@
       <c r="M248" s="20"/>
       <c r="N248" s="20"/>
       <c r="O248" s="20"/>
+      <c r="P248" s="20"/>
       <c r="R248" s="24" t="s">
         <v>55</v>
       </c>
@@ -12799,8 +13558,9 @@
       <c r="AB248" s="24"/>
       <c r="AC248" s="24"/>
       <c r="AD248" s="24"/>
-    </row>
-    <row r="249" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AE248" s="24"/>
+    </row>
+    <row r="249" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B249" s="1" t="s">
         <v>40</v>
       </c>
@@ -12841,6 +13601,9 @@
       <c r="O249" s="1" t="s">
         <v>110</v>
       </c>
+      <c r="P249" s="1" t="s">
+        <v>116</v>
+      </c>
       <c r="Q249" s="22" t="s">
         <v>91</v>
       </c>
@@ -12881,8 +13644,11 @@
       <c r="AD249" s="22" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="250" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AE249" s="22" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="250" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B250" s="16"/>
       <c r="C250" s="1"/>
       <c r="D250" s="3"/>
@@ -12897,6 +13663,7 @@
       <c r="M250" s="3"/>
       <c r="N250" s="3"/>
       <c r="O250" s="3"/>
+      <c r="P250" s="3"/>
       <c r="Q250" s="16"/>
       <c r="R250" s="22"/>
       <c r="S250" s="3"/>
@@ -12911,8 +13678,9 @@
       <c r="AB250" s="3"/>
       <c r="AC250" s="3"/>
       <c r="AD250" s="3"/>
-    </row>
-    <row r="251" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AE250" s="3"/>
+    </row>
+    <row r="251" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B251" s="16"/>
       <c r="C251" s="1"/>
       <c r="D251" s="3"/>
@@ -12927,6 +13695,7 @@
       <c r="M251" s="3"/>
       <c r="N251" s="3"/>
       <c r="O251" s="3"/>
+      <c r="P251" s="3"/>
       <c r="Q251" s="16"/>
       <c r="R251" s="22"/>
       <c r="S251" s="3"/>
@@ -12941,8 +13710,9 @@
       <c r="AB251" s="3"/>
       <c r="AC251" s="3"/>
       <c r="AD251" s="3"/>
-    </row>
-    <row r="252" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AE251" s="3"/>
+    </row>
+    <row r="252" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B252" s="16"/>
       <c r="C252" s="1"/>
       <c r="D252" s="3"/>
@@ -12957,6 +13727,7 @@
       <c r="M252" s="3"/>
       <c r="N252" s="3"/>
       <c r="O252" s="3"/>
+      <c r="P252" s="3"/>
       <c r="Q252" s="16"/>
       <c r="R252" s="22"/>
       <c r="S252" s="3"/>
@@ -12971,8 +13742,9 @@
       <c r="AB252" s="3"/>
       <c r="AC252" s="3"/>
       <c r="AD252" s="3"/>
-    </row>
-    <row r="253" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AE252" s="3"/>
+    </row>
+    <row r="253" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B253" s="16"/>
       <c r="C253" s="1"/>
       <c r="D253" s="3"/>
@@ -12987,6 +13759,7 @@
       <c r="M253" s="3"/>
       <c r="N253" s="3"/>
       <c r="O253" s="3"/>
+      <c r="P253" s="3"/>
       <c r="Q253" s="16"/>
       <c r="R253" s="22"/>
       <c r="S253" s="3"/>
@@ -13001,8 +13774,9 @@
       <c r="AB253" s="3"/>
       <c r="AC253" s="3"/>
       <c r="AD253" s="3"/>
-    </row>
-    <row r="254" spans="2:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AE253" s="3"/>
+    </row>
+    <row r="254" spans="2:31" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C254" s="21" t="s">
         <v>43</v>
       </c>
@@ -13018,6 +13792,7 @@
       <c r="M254" s="1"/>
       <c r="N254" s="1"/>
       <c r="O254" s="1"/>
+      <c r="P254" s="1"/>
       <c r="R254" s="23" t="s">
         <v>43</v>
       </c>
@@ -13033,8 +13808,9 @@
       <c r="AB254" s="22"/>
       <c r="AC254" s="22"/>
       <c r="AD254" s="22"/>
-    </row>
-    <row r="255" spans="2:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AE254" s="22"/>
+    </row>
+    <row r="255" spans="2:31" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C255" s="20" t="s">
         <v>55</v>
       </c>
@@ -13050,6 +13826,7 @@
       <c r="M255" s="20"/>
       <c r="N255" s="20"/>
       <c r="O255" s="20"/>
+      <c r="P255" s="20"/>
       <c r="R255" s="24" t="s">
         <v>55</v>
       </c>
@@ -13065,8 +13842,9 @@
       <c r="AB255" s="24"/>
       <c r="AC255" s="24"/>
       <c r="AD255" s="24"/>
-    </row>
-    <row r="256" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AE255" s="24"/>
+    </row>
+    <row r="256" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B256" s="1" t="s">
         <v>41</v>
       </c>
@@ -13107,6 +13885,9 @@
       <c r="O256" s="1" t="s">
         <v>110</v>
       </c>
+      <c r="P256" s="1" t="s">
+        <v>116</v>
+      </c>
       <c r="Q256" s="22" t="s">
         <v>92</v>
       </c>
@@ -13147,8 +13928,11 @@
       <c r="AD256" s="22" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="257" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AE256" s="22" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="257" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B257" s="16"/>
       <c r="C257" s="1"/>
       <c r="D257" s="3"/>
@@ -13163,6 +13947,7 @@
       <c r="M257" s="3"/>
       <c r="N257" s="3"/>
       <c r="O257" s="3"/>
+      <c r="P257" s="3"/>
       <c r="Q257" s="16"/>
       <c r="R257" s="22"/>
       <c r="S257" s="3"/>
@@ -13177,8 +13962,9 @@
       <c r="AB257" s="3"/>
       <c r="AC257" s="3"/>
       <c r="AD257" s="3"/>
-    </row>
-    <row r="258" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AE257" s="3"/>
+    </row>
+    <row r="258" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B258" s="16"/>
       <c r="C258" s="1"/>
       <c r="D258" s="3"/>
@@ -13193,6 +13979,7 @@
       <c r="M258" s="3"/>
       <c r="N258" s="3"/>
       <c r="O258" s="3"/>
+      <c r="P258" s="3"/>
       <c r="Q258" s="16"/>
       <c r="R258" s="22"/>
       <c r="S258" s="3"/>
@@ -13207,8 +13994,9 @@
       <c r="AB258" s="3"/>
       <c r="AC258" s="3"/>
       <c r="AD258" s="3"/>
-    </row>
-    <row r="259" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AE258" s="3"/>
+    </row>
+    <row r="259" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B259" s="16"/>
       <c r="C259" s="1"/>
       <c r="D259" s="3"/>
@@ -13223,6 +14011,7 @@
       <c r="M259" s="3"/>
       <c r="N259" s="3"/>
       <c r="O259" s="3"/>
+      <c r="P259" s="3"/>
       <c r="Q259" s="16"/>
       <c r="R259" s="22"/>
       <c r="S259" s="3"/>
@@ -13237,8 +14026,9 @@
       <c r="AB259" s="3"/>
       <c r="AC259" s="3"/>
       <c r="AD259" s="3"/>
-    </row>
-    <row r="260" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AE259" s="3"/>
+    </row>
+    <row r="260" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B260" s="16"/>
       <c r="C260" s="1"/>
       <c r="D260" s="3"/>
@@ -13253,6 +14043,7 @@
       <c r="M260" s="3"/>
       <c r="N260" s="3"/>
       <c r="O260" s="3"/>
+      <c r="P260" s="3"/>
       <c r="Q260" s="16"/>
       <c r="R260" s="22"/>
       <c r="S260" s="3"/>
@@ -13267,8 +14058,9 @@
       <c r="AB260" s="3"/>
       <c r="AC260" s="3"/>
       <c r="AD260" s="3"/>
-    </row>
-    <row r="261" spans="2:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AE260" s="3"/>
+    </row>
+    <row r="261" spans="2:31" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C261" s="21" t="s">
         <v>43</v>
       </c>
@@ -13284,6 +14076,7 @@
       <c r="M261" s="1"/>
       <c r="N261" s="1"/>
       <c r="O261" s="1"/>
+      <c r="P261" s="1"/>
       <c r="R261" s="23" t="s">
         <v>43</v>
       </c>
@@ -13299,8 +14092,9 @@
       <c r="AB261" s="22"/>
       <c r="AC261" s="22"/>
       <c r="AD261" s="22"/>
-    </row>
-    <row r="262" spans="2:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AE261" s="22"/>
+    </row>
+    <row r="262" spans="2:31" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C262" s="20" t="s">
         <v>55</v>
       </c>
@@ -13316,6 +14110,7 @@
       <c r="M262" s="20"/>
       <c r="N262" s="20"/>
       <c r="O262" s="20"/>
+      <c r="P262" s="20"/>
       <c r="R262" s="24" t="s">
         <v>55</v>
       </c>
@@ -13331,8 +14126,9 @@
       <c r="AB262" s="24"/>
       <c r="AC262" s="24"/>
       <c r="AD262" s="24"/>
-    </row>
-    <row r="263" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AE262" s="24"/>
+    </row>
+    <row r="263" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B263" s="1" t="s">
         <v>42</v>
       </c>
@@ -13373,6 +14169,9 @@
       <c r="O263" s="1" t="s">
         <v>110</v>
       </c>
+      <c r="P263" s="1" t="s">
+        <v>116</v>
+      </c>
       <c r="Q263" s="22" t="s">
         <v>93</v>
       </c>
@@ -13413,8 +14212,11 @@
       <c r="AD263" s="22" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="264" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AE263" s="22" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="264" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B264" s="16"/>
       <c r="C264" s="1"/>
       <c r="D264" s="3"/>
@@ -13429,6 +14231,7 @@
       <c r="M264" s="3"/>
       <c r="N264" s="3"/>
       <c r="O264" s="3"/>
+      <c r="P264" s="3"/>
       <c r="Q264" s="16"/>
       <c r="R264" s="22"/>
       <c r="S264" s="3"/>
@@ -13443,8 +14246,9 @@
       <c r="AB264" s="3"/>
       <c r="AC264" s="3"/>
       <c r="AD264" s="3"/>
-    </row>
-    <row r="265" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AE264" s="3"/>
+    </row>
+    <row r="265" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B265" s="16"/>
       <c r="C265" s="1"/>
       <c r="D265" s="3"/>
@@ -13459,6 +14263,7 @@
       <c r="M265" s="3"/>
       <c r="N265" s="3"/>
       <c r="O265" s="3"/>
+      <c r="P265" s="3"/>
       <c r="Q265" s="16"/>
       <c r="R265" s="22"/>
       <c r="S265" s="3"/>
@@ -13473,8 +14278,9 @@
       <c r="AB265" s="3"/>
       <c r="AC265" s="3"/>
       <c r="AD265" s="3"/>
-    </row>
-    <row r="266" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AE265" s="3"/>
+    </row>
+    <row r="266" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B266" s="16"/>
       <c r="C266" s="1"/>
       <c r="D266" s="3"/>
@@ -13489,6 +14295,7 @@
       <c r="M266" s="3"/>
       <c r="N266" s="3"/>
       <c r="O266" s="3"/>
+      <c r="P266" s="3"/>
       <c r="Q266" s="16"/>
       <c r="R266" s="22"/>
       <c r="S266" s="3"/>
@@ -13503,8 +14310,9 @@
       <c r="AB266" s="3"/>
       <c r="AC266" s="3"/>
       <c r="AD266" s="3"/>
-    </row>
-    <row r="267" spans="2:30" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="AE266" s="3"/>
+    </row>
+    <row r="267" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B267" s="16"/>
       <c r="C267" s="1"/>
       <c r="D267" s="3"/>
@@ -13519,6 +14327,7 @@
       <c r="M267" s="3"/>
       <c r="N267" s="3"/>
       <c r="O267" s="3"/>
+      <c r="P267" s="3"/>
       <c r="Q267" s="16"/>
       <c r="R267" s="22"/>
       <c r="S267" s="3"/>
@@ -13533,8 +14342,9 @@
       <c r="AB267" s="3"/>
       <c r="AC267" s="3"/>
       <c r="AD267" s="3"/>
-    </row>
-    <row r="268" spans="2:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AE267" s="3"/>
+    </row>
+    <row r="268" spans="2:31" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C268" s="21" t="s">
         <v>43</v>
       </c>
@@ -13550,6 +14360,7 @@
       <c r="M268" s="1"/>
       <c r="N268" s="1"/>
       <c r="O268" s="1"/>
+      <c r="P268" s="1"/>
       <c r="R268" s="23" t="s">
         <v>43</v>
       </c>
@@ -13565,8 +14376,9 @@
       <c r="AB268" s="22"/>
       <c r="AC268" s="22"/>
       <c r="AD268" s="22"/>
-    </row>
-    <row r="269" spans="2:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AE268" s="22"/>
+    </row>
+    <row r="269" spans="2:31" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C269" s="1" t="s">
         <v>55</v>
       </c>
@@ -13582,6 +14394,7 @@
       <c r="M269" s="20"/>
       <c r="N269" s="20"/>
       <c r="O269" s="20"/>
+      <c r="P269" s="20"/>
       <c r="R269" s="32" t="s">
         <v>55</v>
       </c>
@@ -13597,6 +14410,7 @@
       <c r="AB269" s="24"/>
       <c r="AC269" s="24"/>
       <c r="AD269" s="24"/>
+      <c r="AE269" s="24"/>
     </row>
     <row r="283" spans="2:15" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B283" s="1" t="s">
@@ -13939,7 +14753,7 @@
   <dimension ref="A1:AY366"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14943,17 +15757,19 @@
     </row>
     <row r="17" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31">
+      <c r="B17" s="2">
+        <v>13</v>
+      </c>
+      <c r="C17" s="16"/>
+      <c r="D17" s="6" t="str">
         <f ca="1"/>
-        <v>0</v>
-      </c>
-      <c r="E17" s="31">
+        <v>Caius</v>
+      </c>
+      <c r="E17" s="7">
         <f ca="1"/>
         <v>0</v>
       </c>
-      <c r="F17" s="31">
+      <c r="F17" s="7">
         <f ca="1"/>
         <v>0</v>
       </c>
@@ -33586,10 +34402,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A197BE47-36F3-4BEB-B95F-A968F1FF956B}">
-  <dimension ref="B2:X185"/>
+  <dimension ref="B2:X186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A156" workbookViewId="0">
-      <selection activeCell="Q177" sqref="Q177"/>
+    <sheetView tabSelected="1" topLeftCell="A161" workbookViewId="0">
+      <selection activeCell="M187" sqref="M187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33642,6 +34458,9 @@
       <c r="N3" t="s">
         <v>110</v>
       </c>
+      <c r="O3" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C4" s="26" t="str" cm="1">
@@ -35794,6 +36613,9 @@
       <c r="N50" t="s">
         <v>110</v>
       </c>
+      <c r="O50" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="51" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C51" cm="1">
@@ -37946,6 +38768,9 @@
       <c r="N94" t="s">
         <v>110</v>
       </c>
+      <c r="O94" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="95" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C95" cm="1">
@@ -39783,7 +40608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C129" cm="1">
         <f t="array" aca="1" ref="C129" ca="1">INDIRECT("Sheet2!S" &amp; 10 + (ROW(C38)-ROW($C$4))*7)</f>
         <v>0</v>
@@ -39837,7 +40662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C130" cm="1">
         <f t="array" aca="1" ref="C130" ca="1">INDIRECT("Sheet2!S" &amp; 10 + (ROW(C39)-ROW($C$4))*7)</f>
         <v>0</v>
@@ -39891,7 +40716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C131" cm="1">
         <f t="array" aca="1" ref="C131" ca="1">INDIRECT("Sheet2!S" &amp; 10 + (ROW(C40)-ROW($C$4))*7)</f>
         <v>0</v>
@@ -39945,7 +40770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C132" s="25" cm="1">
         <f t="array" aca="1" ref="C132" ca="1">INDIRECT("Sheet2!S" &amp; 10 + (ROW(C41)-ROW($C$4))*7)</f>
         <v>0</v>
@@ -39999,7 +40824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B133" t="s">
         <v>43</v>
       </c>
@@ -40056,7 +40881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B142" t="s">
         <v>99</v>
       </c>
@@ -40076,7 +40901,7 @@
       <c r="P142" s="25"/>
       <c r="Q142" s="25"/>
     </row>
-    <row r="143" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C143">
         <f ca="1">C89+C133</f>
         <v>0</v>
@@ -40139,6 +40964,10 @@
       </c>
       <c r="R143">
         <f>R89+R133</f>
+        <v>0</v>
+      </c>
+      <c r="S143">
+        <f>S89+S133</f>
         <v>0</v>
       </c>
     </row>
@@ -40162,6 +40991,7 @@
       <c r="P147" s="25"/>
       <c r="Q147" s="25"/>
       <c r="R147" s="25"/>
+      <c r="S147" s="25"/>
     </row>
     <row r="148" spans="2:24" x14ac:dyDescent="0.25">
       <c r="C148" cm="1">
@@ -40226,6 +41056,10 @@
       </c>
       <c r="R148" cm="1">
         <f t="array" ref="R148">INDEX(Sheet2!$D$300:$Z$300, COLUMN(P1))</f>
+        <v>0</v>
+      </c>
+      <c r="S148" cm="1">
+        <f t="array" ref="S148">INDEX(Sheet2!$D$300:$Z$300, COLUMN(Q1))</f>
         <v>0</v>
       </c>
     </row>
@@ -40246,6 +41080,7 @@
       <c r="P150" s="25"/>
       <c r="Q150" s="25"/>
       <c r="R150" s="25"/>
+      <c r="S150" s="25"/>
     </row>
     <row r="151" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B151" t="s">
@@ -40315,6 +41150,10 @@
         <f t="array" ref="R151">INDEX(Sheet2!$D$301:$Z$301, COLUMN(P1))</f>
         <v>0</v>
       </c>
+      <c r="S151" cm="1">
+        <f t="array" ref="S151">INDEX(Sheet2!$D$301:$Z$301, COLUMN(Q1))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="152" spans="2:24" x14ac:dyDescent="0.25">
       <c r="L152" t="s">
@@ -40357,7 +41196,7 @@
         <v>0</v>
       </c>
       <c r="T153" cm="1">
-        <f t="array" aca="1" ref="T153:T163" ca="1">TRANSPOSE('Score Board'!C42:M42)</f>
+        <f t="array" aca="1" ref="T153:T165" ca="1">TRANSPOSE('Score Board'!C42:O42)</f>
         <v>0</v>
       </c>
       <c r="U153" t="str" cm="1">
@@ -40579,7 +41418,7 @@
     </row>
     <row r="160" spans="2:24" x14ac:dyDescent="0.25">
       <c r="L160">
-        <f t="shared" ref="L160:L163" ca="1" si="17">R160+X160</f>
+        <f t="shared" ref="L160:L165" ca="1" si="17">R160+X160</f>
         <v>0</v>
       </c>
       <c r="N160">
@@ -40697,9 +41536,64 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="12:24" x14ac:dyDescent="0.25">
-      <c r="M173" t="s">
-        <v>116</v>
+    <row r="164" spans="12:24" x14ac:dyDescent="0.25">
+      <c r="L164">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="N164">
+        <f t="shared" ref="N164:N165" ca="1" si="18">P164+T164+V164</f>
+        <v>0</v>
+      </c>
+      <c r="P164" cm="1">
+        <f t="array" aca="1" ref="P164" ca="1">INDEX($C$42:$X$42, ROW(A12))</f>
+        <v>0</v>
+      </c>
+      <c r="R164" cm="1">
+        <f t="array" aca="1" ref="R164" ca="1">INDEX($C$143:$X$143, ROW(A12))</f>
+        <v>0</v>
+      </c>
+      <c r="T164">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="V164" cm="1">
+        <f t="array" ref="V164">INDEX($C$148:$X148, ROW(A12))</f>
+        <v>0</v>
+      </c>
+      <c r="X164" cm="1">
+        <f t="array" ref="X164">INDEX($C$151:$X151, ROW(A12))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="12:24" x14ac:dyDescent="0.25">
+      <c r="L165">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="N165">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="P165" cm="1">
+        <f t="array" aca="1" ref="P165" ca="1">INDEX($C$42:$X$42, ROW(A13))</f>
+        <v>0</v>
+      </c>
+      <c r="R165" cm="1">
+        <f t="array" aca="1" ref="R165" ca="1">INDEX($C$143:$X$143, ROW(A13))</f>
+        <v>0</v>
+      </c>
+      <c r="T165">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="V165" cm="1">
+        <f t="array" ref="V165">INDEX($C$148:$X148, ROW(A13))</f>
+        <v>0</v>
+      </c>
+      <c r="X165" cm="1">
+        <f t="array" ref="X165">INDEX($C$151:$X151, ROW(A13))</f>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="12:24" x14ac:dyDescent="0.25">
@@ -40762,9 +41656,14 @@
         <v>110</v>
       </c>
     </row>
+    <row r="186" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M186" t="s">
+        <v>116</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="M174:M185">
-    <sortCondition ref="M174:M185"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="M174:M186">
+    <sortCondition ref="M174:M186"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/PL Predictions Blank.xlsx
+++ b/PL Predictions Blank.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\consu\Desktop\Local Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D33B08E5-1B93-4D35-9898-29AC3B0A958D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BAA4ADD-79BF-4F66-A4CB-C8EEB3419374}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{47412CFC-7E53-4F06-9F46-2618A72633B9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{47412CFC-7E53-4F06-9F46-2618A72633B9}"/>
   </bookViews>
   <sheets>
     <sheet name="Score Board" sheetId="1" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1667" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1668" uniqueCount="118">
   <si>
     <t>Callum</t>
   </si>
@@ -416,6 +416,9 @@
   </si>
   <si>
     <t>Caius</t>
+  </si>
+  <si>
+    <t>.</t>
   </si>
 </sst>
 </file>
@@ -1141,16 +1144,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{459A72B8-2A09-493D-AA11-9F1B72B384D5}">
   <dimension ref="B3:U61"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AC11" sqref="AC11"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="13.140625" customWidth="1"/>
     <col min="3" max="3" width="9.7109375" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" customWidth="1"/>
-    <col min="5" max="13" width="9.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="13" width="9.7109375" customWidth="1"/>
     <col min="28" max="29" width="9.42578125" customWidth="1"/>
     <col min="30" max="30" width="17.5703125" customWidth="1"/>
     <col min="31" max="31" width="11.140625" customWidth="1"/>
@@ -1162,43 +1166,43 @@
         <v>49</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="4" spans="2:15" ht="18.75" x14ac:dyDescent="0.25">
@@ -3577,10 +3581,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F31CCA1-9181-4415-8A17-EAD3268B00A4}">
-  <dimension ref="B1:AE301"/>
+  <dimension ref="B1:AH301"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AE32" sqref="AE32"/>
+      <selection activeCell="R23" sqref="R23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3590,7 +3594,8 @@
     <col min="3" max="3" width="20.140625" customWidth="1"/>
     <col min="4" max="4" width="9.7109375" customWidth="1"/>
     <col min="5" max="5" width="12.85546875" customWidth="1"/>
-    <col min="6" max="10" width="9.7109375" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="9.7109375" customWidth="1"/>
     <col min="11" max="11" width="11.140625" customWidth="1"/>
     <col min="12" max="14" width="9.7109375" customWidth="1"/>
     <col min="15" max="15" width="9.28515625" customWidth="1"/>
@@ -3599,7 +3604,8 @@
     <col min="18" max="18" width="20.140625" customWidth="1"/>
     <col min="19" max="19" width="9.7109375" customWidth="1"/>
     <col min="20" max="20" width="11.7109375" customWidth="1"/>
-    <col min="21" max="25" width="9.7109375" customWidth="1"/>
+    <col min="21" max="21" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="25" width="9.7109375" customWidth="1"/>
     <col min="26" max="26" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3630,86 +3636,86 @@
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="N4" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="O4" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="P4" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>116</v>
       </c>
       <c r="Q4" s="22" t="s">
         <v>56</v>
       </c>
       <c r="R4" s="22"/>
       <c r="S4" s="22" t="s">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="T4" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="U4" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="U4" s="22" t="s">
+      <c r="V4" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="V4" s="22" t="s">
+      <c r="W4" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="W4" s="22" t="s">
+      <c r="X4" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="X4" s="22" t="s">
+      <c r="Y4" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="Y4" s="22" t="s">
+      <c r="Z4" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="Z4" s="22" t="s">
+      <c r="AA4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="AA4" s="22" t="s">
+      <c r="AB4" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="AB4" s="22" t="s">
+      <c r="AC4" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="AC4" s="22" t="s">
+      <c r="AD4" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="AD4" s="22" t="s">
+      <c r="AE4" s="22" t="s">
         <v>110</v>
-      </c>
-      <c r="AE4" s="22" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="5" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
@@ -3914,86 +3920,86 @@
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="E11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="I11" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="J11" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="K11" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K11" s="1" t="s">
+      <c r="L11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L11" s="1" t="s">
+      <c r="M11" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="M11" s="1" t="s">
+      <c r="N11" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="N11" s="1" t="s">
+      <c r="O11" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="O11" s="1" t="s">
+      <c r="P11" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="P11" s="1" t="s">
-        <v>116</v>
       </c>
       <c r="Q11" s="22" t="s">
         <v>57</v>
       </c>
       <c r="R11" s="22"/>
       <c r="S11" s="22" t="s">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="T11" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="U11" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="U11" s="22" t="s">
+      <c r="V11" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="V11" s="22" t="s">
+      <c r="W11" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="W11" s="22" t="s">
+      <c r="X11" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="X11" s="22" t="s">
+      <c r="Y11" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="Y11" s="22" t="s">
+      <c r="Z11" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="Z11" s="22" t="s">
+      <c r="AA11" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="AA11" s="22" t="s">
+      <c r="AB11" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="AB11" s="22" t="s">
+      <c r="AC11" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="AC11" s="22" t="s">
+      <c r="AD11" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="AD11" s="22" t="s">
+      <c r="AE11" s="22" t="s">
         <v>110</v>
-      </c>
-      <c r="AE11" s="22" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="12" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
@@ -4198,86 +4204,86 @@
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="E18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="G18" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="H18" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="I18" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="J18" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="J18" s="1" t="s">
+      <c r="K18" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K18" s="1" t="s">
+      <c r="L18" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L18" s="1" t="s">
+      <c r="M18" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="M18" s="1" t="s">
+      <c r="N18" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="N18" s="1" t="s">
+      <c r="O18" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="O18" s="1" t="s">
+      <c r="P18" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="P18" s="1" t="s">
-        <v>116</v>
       </c>
       <c r="Q18" s="22" t="s">
         <v>58</v>
       </c>
       <c r="R18" s="22"/>
       <c r="S18" s="22" t="s">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="T18" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="U18" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="U18" s="22" t="s">
+      <c r="V18" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="V18" s="22" t="s">
+      <c r="W18" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="W18" s="22" t="s">
+      <c r="X18" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="X18" s="22" t="s">
+      <c r="Y18" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="Y18" s="22" t="s">
+      <c r="Z18" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="Z18" s="22" t="s">
+      <c r="AA18" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="AA18" s="22" t="s">
+      <c r="AB18" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="AB18" s="22" t="s">
+      <c r="AC18" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="AC18" s="22" t="s">
+      <c r="AD18" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="AD18" s="22" t="s">
+      <c r="AE18" s="22" t="s">
         <v>110</v>
-      </c>
-      <c r="AE18" s="22" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="19" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
@@ -4482,86 +4488,86 @@
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1" t="s">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="E25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="G25" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="H25" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="H25" s="1" t="s">
+      <c r="I25" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="I25" s="1" t="s">
+      <c r="J25" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="J25" s="1" t="s">
+      <c r="K25" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K25" s="1" t="s">
+      <c r="L25" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L25" s="1" t="s">
+      <c r="M25" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="M25" s="1" t="s">
+      <c r="N25" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="N25" s="1" t="s">
+      <c r="O25" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="O25" s="1" t="s">
+      <c r="P25" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="P25" s="1" t="s">
-        <v>116</v>
       </c>
       <c r="Q25" s="22" t="s">
         <v>59</v>
       </c>
       <c r="R25" s="22"/>
       <c r="S25" s="22" t="s">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="T25" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="U25" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="U25" s="22" t="s">
+      <c r="V25" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="V25" s="22" t="s">
+      <c r="W25" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="W25" s="22" t="s">
+      <c r="X25" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="X25" s="22" t="s">
+      <c r="Y25" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="Y25" s="22" t="s">
+      <c r="Z25" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="Z25" s="22" t="s">
+      <c r="AA25" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="AA25" s="22" t="s">
+      <c r="AB25" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="AB25" s="22" t="s">
+      <c r="AC25" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="AC25" s="22" t="s">
+      <c r="AD25" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="AD25" s="22" t="s">
+      <c r="AE25" s="22" t="s">
         <v>110</v>
-      </c>
-      <c r="AE25" s="22" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="26" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
@@ -4766,86 +4772,86 @@
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1" t="s">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="E32" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F32" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="G32" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G32" s="1" t="s">
+      <c r="H32" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="H32" s="1" t="s">
+      <c r="I32" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="I32" s="1" t="s">
+      <c r="J32" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="J32" s="1" t="s">
+      <c r="K32" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K32" s="1" t="s">
+      <c r="L32" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L32" s="1" t="s">
+      <c r="M32" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="M32" s="1" t="s">
+      <c r="N32" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="N32" s="1" t="s">
+      <c r="O32" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="O32" s="1" t="s">
+      <c r="P32" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="P32" s="1" t="s">
-        <v>116</v>
       </c>
       <c r="Q32" s="22" t="s">
         <v>60</v>
       </c>
       <c r="R32" s="22"/>
       <c r="S32" s="22" t="s">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="T32" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="U32" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="U32" s="22" t="s">
+      <c r="V32" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="V32" s="22" t="s">
+      <c r="W32" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="W32" s="22" t="s">
+      <c r="X32" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="X32" s="22" t="s">
+      <c r="Y32" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="Y32" s="22" t="s">
+      <c r="Z32" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="Z32" s="22" t="s">
+      <c r="AA32" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="AA32" s="22" t="s">
+      <c r="AB32" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="AB32" s="22" t="s">
+      <c r="AC32" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="AC32" s="22" t="s">
+      <c r="AD32" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="AD32" s="22" t="s">
+      <c r="AE32" s="22" t="s">
         <v>110</v>
-      </c>
-      <c r="AE32" s="22" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="33" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
@@ -5050,86 +5056,86 @@
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1" t="s">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="E39" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F39" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="F39" s="1" t="s">
+      <c r="G39" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G39" s="1" t="s">
+      <c r="H39" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="H39" s="1" t="s">
+      <c r="I39" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="I39" s="1" t="s">
+      <c r="J39" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="J39" s="1" t="s">
+      <c r="K39" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K39" s="1" t="s">
+      <c r="L39" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L39" s="1" t="s">
+      <c r="M39" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="M39" s="1" t="s">
+      <c r="N39" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="N39" s="1" t="s">
+      <c r="O39" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="O39" s="1" t="s">
+      <c r="P39" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="P39" s="1" t="s">
-        <v>116</v>
       </c>
       <c r="Q39" s="22" t="s">
         <v>61</v>
       </c>
       <c r="R39" s="22"/>
       <c r="S39" s="22" t="s">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="T39" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="U39" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="U39" s="22" t="s">
+      <c r="V39" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="V39" s="22" t="s">
+      <c r="W39" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="W39" s="22" t="s">
+      <c r="X39" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="X39" s="22" t="s">
+      <c r="Y39" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="Y39" s="22" t="s">
+      <c r="Z39" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="Z39" s="22" t="s">
+      <c r="AA39" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="AA39" s="22" t="s">
+      <c r="AB39" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="AB39" s="22" t="s">
+      <c r="AC39" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="AC39" s="22" t="s">
+      <c r="AD39" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="AD39" s="22" t="s">
+      <c r="AE39" s="22" t="s">
         <v>110</v>
-      </c>
-      <c r="AE39" s="22" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="40" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
@@ -5334,86 +5340,86 @@
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1" t="s">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="E46" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F46" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="F46" s="1" t="s">
+      <c r="G46" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G46" s="1" t="s">
+      <c r="H46" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="H46" s="1" t="s">
+      <c r="I46" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="I46" s="1" t="s">
+      <c r="J46" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="J46" s="1" t="s">
+      <c r="K46" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K46" s="1" t="s">
+      <c r="L46" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L46" s="1" t="s">
+      <c r="M46" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="M46" s="1" t="s">
+      <c r="N46" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="N46" s="1" t="s">
+      <c r="O46" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="O46" s="1" t="s">
+      <c r="P46" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="P46" s="1" t="s">
-        <v>116</v>
       </c>
       <c r="Q46" s="22" t="s">
         <v>62</v>
       </c>
       <c r="R46" s="22"/>
       <c r="S46" s="22" t="s">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="T46" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="U46" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="U46" s="22" t="s">
+      <c r="V46" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="V46" s="22" t="s">
+      <c r="W46" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="W46" s="22" t="s">
+      <c r="X46" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="X46" s="22" t="s">
+      <c r="Y46" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="Y46" s="22" t="s">
+      <c r="Z46" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="Z46" s="22" t="s">
+      <c r="AA46" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="AA46" s="22" t="s">
+      <c r="AB46" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="AB46" s="22" t="s">
+      <c r="AC46" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="AC46" s="22" t="s">
+      <c r="AD46" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="AD46" s="22" t="s">
+      <c r="AE46" s="22" t="s">
         <v>110</v>
-      </c>
-      <c r="AE46" s="22" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="47" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
@@ -5618,86 +5624,86 @@
       </c>
       <c r="C53" s="1"/>
       <c r="D53" s="1" t="s">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="E53" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F53" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="F53" s="1" t="s">
+      <c r="G53" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G53" s="1" t="s">
+      <c r="H53" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="H53" s="1" t="s">
+      <c r="I53" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="I53" s="1" t="s">
+      <c r="J53" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="J53" s="1" t="s">
+      <c r="K53" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K53" s="1" t="s">
+      <c r="L53" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L53" s="1" t="s">
+      <c r="M53" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="M53" s="1" t="s">
+      <c r="N53" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="N53" s="1" t="s">
+      <c r="O53" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="O53" s="1" t="s">
+      <c r="P53" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="P53" s="1" t="s">
-        <v>116</v>
       </c>
       <c r="Q53" s="22" t="s">
         <v>63</v>
       </c>
       <c r="R53" s="22"/>
       <c r="S53" s="22" t="s">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="T53" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="U53" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="U53" s="22" t="s">
+      <c r="V53" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="V53" s="22" t="s">
+      <c r="W53" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="W53" s="22" t="s">
+      <c r="X53" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="X53" s="22" t="s">
+      <c r="Y53" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="Y53" s="22" t="s">
+      <c r="Z53" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="Z53" s="22" t="s">
+      <c r="AA53" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="AA53" s="22" t="s">
+      <c r="AB53" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="AB53" s="22" t="s">
+      <c r="AC53" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="AC53" s="22" t="s">
+      <c r="AD53" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="AD53" s="22" t="s">
+      <c r="AE53" s="22" t="s">
         <v>110</v>
-      </c>
-      <c r="AE53" s="22" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="54" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
@@ -5902,86 +5908,86 @@
       </c>
       <c r="C60" s="1"/>
       <c r="D60" s="1" t="s">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="E60" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F60" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="F60" s="1" t="s">
+      <c r="G60" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G60" s="1" t="s">
+      <c r="H60" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="H60" s="1" t="s">
+      <c r="I60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="I60" s="1" t="s">
+      <c r="J60" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="J60" s="1" t="s">
+      <c r="K60" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K60" s="1" t="s">
+      <c r="L60" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L60" s="1" t="s">
+      <c r="M60" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="M60" s="1" t="s">
+      <c r="N60" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="N60" s="1" t="s">
+      <c r="O60" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="O60" s="1" t="s">
+      <c r="P60" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="P60" s="1" t="s">
-        <v>116</v>
       </c>
       <c r="Q60" s="22" t="s">
         <v>64</v>
       </c>
       <c r="R60" s="22"/>
       <c r="S60" s="22" t="s">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="T60" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="U60" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="U60" s="22" t="s">
+      <c r="V60" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="V60" s="22" t="s">
+      <c r="W60" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="W60" s="22" t="s">
+      <c r="X60" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="X60" s="22" t="s">
+      <c r="Y60" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="Y60" s="22" t="s">
+      <c r="Z60" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="Z60" s="22" t="s">
+      <c r="AA60" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="AA60" s="22" t="s">
+      <c r="AB60" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="AB60" s="22" t="s">
+      <c r="AC60" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="AC60" s="22" t="s">
+      <c r="AD60" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="AD60" s="22" t="s">
+      <c r="AE60" s="22" t="s">
         <v>110</v>
-      </c>
-      <c r="AE60" s="22" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="61" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
@@ -6186,86 +6192,86 @@
       </c>
       <c r="C67" s="1"/>
       <c r="D67" s="1" t="s">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="E67" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F67" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="F67" s="1" t="s">
+      <c r="G67" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G67" s="1" t="s">
+      <c r="H67" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="H67" s="1" t="s">
+      <c r="I67" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="I67" s="1" t="s">
+      <c r="J67" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="J67" s="1" t="s">
+      <c r="K67" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K67" s="1" t="s">
+      <c r="L67" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L67" s="1" t="s">
+      <c r="M67" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="M67" s="1" t="s">
+      <c r="N67" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="N67" s="1" t="s">
+      <c r="O67" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="O67" s="1" t="s">
+      <c r="P67" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="P67" s="1" t="s">
-        <v>116</v>
       </c>
       <c r="Q67" s="22" t="s">
         <v>65</v>
       </c>
       <c r="R67" s="22"/>
       <c r="S67" s="22" t="s">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="T67" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="U67" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="U67" s="22" t="s">
+      <c r="V67" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="V67" s="22" t="s">
+      <c r="W67" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="W67" s="22" t="s">
+      <c r="X67" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="X67" s="22" t="s">
+      <c r="Y67" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="Y67" s="22" t="s">
+      <c r="Z67" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="Z67" s="22" t="s">
+      <c r="AA67" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="AA67" s="22" t="s">
+      <c r="AB67" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="AB67" s="22" t="s">
+      <c r="AC67" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="AC67" s="22" t="s">
+      <c r="AD67" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="AD67" s="22" t="s">
+      <c r="AE67" s="22" t="s">
         <v>110</v>
-      </c>
-      <c r="AE67" s="22" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="68" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
@@ -6470,86 +6476,86 @@
       </c>
       <c r="C74" s="1"/>
       <c r="D74" s="1" t="s">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="E74" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F74" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="F74" s="1" t="s">
+      <c r="G74" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G74" s="1" t="s">
+      <c r="H74" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="H74" s="1" t="s">
+      <c r="I74" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="I74" s="1" t="s">
+      <c r="J74" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="J74" s="1" t="s">
+      <c r="K74" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K74" s="1" t="s">
+      <c r="L74" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L74" s="1" t="s">
+      <c r="M74" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="M74" s="1" t="s">
+      <c r="N74" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="N74" s="1" t="s">
+      <c r="O74" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="O74" s="1" t="s">
+      <c r="P74" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="P74" s="1" t="s">
-        <v>116</v>
       </c>
       <c r="Q74" s="22" t="s">
         <v>66</v>
       </c>
       <c r="R74" s="22"/>
       <c r="S74" s="22" t="s">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="T74" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="U74" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="U74" s="22" t="s">
+      <c r="V74" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="V74" s="22" t="s">
+      <c r="W74" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="W74" s="22" t="s">
+      <c r="X74" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="X74" s="22" t="s">
+      <c r="Y74" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="Y74" s="22" t="s">
+      <c r="Z74" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="Z74" s="22" t="s">
+      <c r="AA74" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="AA74" s="22" t="s">
+      <c r="AB74" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="AB74" s="22" t="s">
+      <c r="AC74" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="AC74" s="22" t="s">
+      <c r="AD74" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="AD74" s="22" t="s">
+      <c r="AE74" s="22" t="s">
         <v>110</v>
-      </c>
-      <c r="AE74" s="22" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="75" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
@@ -6754,86 +6760,86 @@
       </c>
       <c r="C81" s="1"/>
       <c r="D81" s="1" t="s">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="E81" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F81" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="F81" s="1" t="s">
+      <c r="G81" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G81" s="1" t="s">
+      <c r="H81" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="H81" s="1" t="s">
+      <c r="I81" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="I81" s="1" t="s">
+      <c r="J81" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="J81" s="1" t="s">
+      <c r="K81" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K81" s="1" t="s">
+      <c r="L81" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L81" s="1" t="s">
+      <c r="M81" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="M81" s="1" t="s">
+      <c r="N81" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="N81" s="1" t="s">
+      <c r="O81" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="O81" s="1" t="s">
+      <c r="P81" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="P81" s="1" t="s">
-        <v>116</v>
       </c>
       <c r="Q81" s="22" t="s">
         <v>67</v>
       </c>
       <c r="R81" s="22"/>
       <c r="S81" s="22" t="s">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="T81" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="U81" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="U81" s="22" t="s">
+      <c r="V81" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="V81" s="22" t="s">
+      <c r="W81" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="W81" s="22" t="s">
+      <c r="X81" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="X81" s="22" t="s">
+      <c r="Y81" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="Y81" s="22" t="s">
+      <c r="Z81" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="Z81" s="22" t="s">
+      <c r="AA81" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="AA81" s="22" t="s">
+      <c r="AB81" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="AB81" s="22" t="s">
+      <c r="AC81" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="AC81" s="22" t="s">
+      <c r="AD81" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="AD81" s="22" t="s">
+      <c r="AE81" s="22" t="s">
         <v>110</v>
-      </c>
-      <c r="AE81" s="22" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="82" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
@@ -7038,86 +7044,86 @@
       </c>
       <c r="C88" s="1"/>
       <c r="D88" s="1" t="s">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="E88" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F88" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="F88" s="1" t="s">
+      <c r="G88" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G88" s="1" t="s">
+      <c r="H88" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="H88" s="1" t="s">
+      <c r="I88" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="I88" s="1" t="s">
+      <c r="J88" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="J88" s="1" t="s">
+      <c r="K88" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K88" s="1" t="s">
+      <c r="L88" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L88" s="1" t="s">
+      <c r="M88" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="M88" s="1" t="s">
+      <c r="N88" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="N88" s="1" t="s">
+      <c r="O88" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="O88" s="1" t="s">
+      <c r="P88" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="P88" s="1" t="s">
-        <v>116</v>
       </c>
       <c r="Q88" s="22" t="s">
         <v>68</v>
       </c>
       <c r="R88" s="22"/>
       <c r="S88" s="22" t="s">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="T88" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="U88" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="U88" s="22" t="s">
+      <c r="V88" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="V88" s="22" t="s">
+      <c r="W88" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="W88" s="22" t="s">
+      <c r="X88" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="X88" s="22" t="s">
+      <c r="Y88" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="Y88" s="22" t="s">
+      <c r="Z88" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="Z88" s="22" t="s">
+      <c r="AA88" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="AA88" s="22" t="s">
+      <c r="AB88" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="AB88" s="22" t="s">
+      <c r="AC88" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="AC88" s="22" t="s">
+      <c r="AD88" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="AD88" s="22" t="s">
+      <c r="AE88" s="22" t="s">
         <v>110</v>
-      </c>
-      <c r="AE88" s="22" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="89" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
@@ -7322,86 +7328,86 @@
       </c>
       <c r="C95" s="1"/>
       <c r="D95" s="1" t="s">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="E95" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F95" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="F95" s="1" t="s">
+      <c r="G95" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G95" s="1" t="s">
+      <c r="H95" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="H95" s="1" t="s">
+      <c r="I95" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="I95" s="1" t="s">
+      <c r="J95" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="J95" s="1" t="s">
+      <c r="K95" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K95" s="1" t="s">
+      <c r="L95" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L95" s="1" t="s">
+      <c r="M95" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="M95" s="1" t="s">
+      <c r="N95" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="N95" s="1" t="s">
+      <c r="O95" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="O95" s="1" t="s">
+      <c r="P95" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="P95" s="1" t="s">
-        <v>116</v>
       </c>
       <c r="Q95" s="22" t="s">
         <v>69</v>
       </c>
       <c r="R95" s="22"/>
       <c r="S95" s="22" t="s">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="T95" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="U95" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="U95" s="22" t="s">
+      <c r="V95" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="V95" s="22" t="s">
+      <c r="W95" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="W95" s="22" t="s">
+      <c r="X95" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="X95" s="22" t="s">
+      <c r="Y95" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="Y95" s="22" t="s">
+      <c r="Z95" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="Z95" s="22" t="s">
+      <c r="AA95" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="AA95" s="22" t="s">
+      <c r="AB95" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="AB95" s="22" t="s">
+      <c r="AC95" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="AC95" s="22" t="s">
+      <c r="AD95" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="AD95" s="22" t="s">
+      <c r="AE95" s="22" t="s">
         <v>110</v>
-      </c>
-      <c r="AE95" s="22" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="96" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
@@ -7606,86 +7612,86 @@
       </c>
       <c r="C102" s="1"/>
       <c r="D102" s="1" t="s">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="E102" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F102" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="F102" s="1" t="s">
+      <c r="G102" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G102" s="1" t="s">
+      <c r="H102" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="H102" s="1" t="s">
+      <c r="I102" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="I102" s="1" t="s">
+      <c r="J102" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="J102" s="1" t="s">
+      <c r="K102" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K102" s="1" t="s">
+      <c r="L102" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L102" s="1" t="s">
+      <c r="M102" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="M102" s="1" t="s">
+      <c r="N102" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="N102" s="1" t="s">
+      <c r="O102" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="O102" s="1" t="s">
+      <c r="P102" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="P102" s="1" t="s">
-        <v>116</v>
       </c>
       <c r="Q102" s="22" t="s">
         <v>70</v>
       </c>
       <c r="R102" s="22"/>
       <c r="S102" s="22" t="s">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="T102" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="U102" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="U102" s="22" t="s">
+      <c r="V102" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="V102" s="22" t="s">
+      <c r="W102" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="W102" s="22" t="s">
+      <c r="X102" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="X102" s="22" t="s">
+      <c r="Y102" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="Y102" s="22" t="s">
+      <c r="Z102" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="Z102" s="22" t="s">
+      <c r="AA102" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="AA102" s="22" t="s">
+      <c r="AB102" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="AB102" s="22" t="s">
+      <c r="AC102" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="AC102" s="22" t="s">
+      <c r="AD102" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="AD102" s="22" t="s">
+      <c r="AE102" s="22" t="s">
         <v>110</v>
-      </c>
-      <c r="AE102" s="22" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="103" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
@@ -7890,86 +7896,86 @@
       </c>
       <c r="C109" s="1"/>
       <c r="D109" s="1" t="s">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="E109" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F109" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="F109" s="1" t="s">
+      <c r="G109" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G109" s="1" t="s">
+      <c r="H109" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="H109" s="1" t="s">
+      <c r="I109" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="I109" s="1" t="s">
+      <c r="J109" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="J109" s="1" t="s">
+      <c r="K109" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K109" s="1" t="s">
+      <c r="L109" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L109" s="1" t="s">
+      <c r="M109" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="M109" s="1" t="s">
+      <c r="N109" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="N109" s="1" t="s">
+      <c r="O109" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="O109" s="1" t="s">
+      <c r="P109" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="P109" s="1" t="s">
-        <v>116</v>
       </c>
       <c r="Q109" s="22" t="s">
         <v>71</v>
       </c>
       <c r="R109" s="22"/>
       <c r="S109" s="22" t="s">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="T109" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="U109" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="U109" s="22" t="s">
+      <c r="V109" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="V109" s="22" t="s">
+      <c r="W109" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="W109" s="22" t="s">
+      <c r="X109" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="X109" s="22" t="s">
+      <c r="Y109" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="Y109" s="22" t="s">
+      <c r="Z109" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="Z109" s="22" t="s">
+      <c r="AA109" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="AA109" s="22" t="s">
+      <c r="AB109" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="AB109" s="22" t="s">
+      <c r="AC109" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="AC109" s="22" t="s">
+      <c r="AD109" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="AD109" s="22" t="s">
+      <c r="AE109" s="22" t="s">
         <v>110</v>
-      </c>
-      <c r="AE109" s="22" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="110" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
@@ -8174,86 +8180,86 @@
       </c>
       <c r="C116" s="1"/>
       <c r="D116" s="1" t="s">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="E116" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F116" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="F116" s="1" t="s">
+      <c r="G116" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G116" s="1" t="s">
+      <c r="H116" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="H116" s="1" t="s">
+      <c r="I116" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="I116" s="1" t="s">
+      <c r="J116" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="J116" s="1" t="s">
+      <c r="K116" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K116" s="1" t="s">
+      <c r="L116" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L116" s="1" t="s">
+      <c r="M116" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="M116" s="1" t="s">
+      <c r="N116" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="N116" s="1" t="s">
+      <c r="O116" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="O116" s="1" t="s">
+      <c r="P116" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="P116" s="1" t="s">
-        <v>116</v>
       </c>
       <c r="Q116" s="22" t="s">
         <v>72</v>
       </c>
       <c r="R116" s="22"/>
       <c r="S116" s="22" t="s">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="T116" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="U116" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="U116" s="22" t="s">
+      <c r="V116" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="V116" s="22" t="s">
+      <c r="W116" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="W116" s="22" t="s">
+      <c r="X116" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="X116" s="22" t="s">
+      <c r="Y116" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="Y116" s="22" t="s">
+      <c r="Z116" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="Z116" s="22" t="s">
+      <c r="AA116" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="AA116" s="22" t="s">
+      <c r="AB116" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="AB116" s="22" t="s">
+      <c r="AC116" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="AC116" s="22" t="s">
+      <c r="AD116" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="AD116" s="22" t="s">
+      <c r="AE116" s="22" t="s">
         <v>110</v>
-      </c>
-      <c r="AE116" s="22" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="117" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
@@ -8458,86 +8464,86 @@
       </c>
       <c r="C123" s="1"/>
       <c r="D123" s="1" t="s">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="E123" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F123" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="F123" s="1" t="s">
+      <c r="G123" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G123" s="1" t="s">
+      <c r="H123" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="H123" s="1" t="s">
+      <c r="I123" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="I123" s="1" t="s">
+      <c r="J123" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="J123" s="1" t="s">
+      <c r="K123" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K123" s="1" t="s">
+      <c r="L123" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L123" s="1" t="s">
+      <c r="M123" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="M123" s="1" t="s">
+      <c r="N123" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="N123" s="1" t="s">
+      <c r="O123" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="O123" s="1" t="s">
+      <c r="P123" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="P123" s="1" t="s">
-        <v>116</v>
       </c>
       <c r="Q123" s="22" t="s">
         <v>73</v>
       </c>
       <c r="R123" s="22"/>
       <c r="S123" s="22" t="s">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="T123" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="U123" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="U123" s="22" t="s">
+      <c r="V123" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="V123" s="22" t="s">
+      <c r="W123" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="W123" s="22" t="s">
+      <c r="X123" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="X123" s="22" t="s">
+      <c r="Y123" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="Y123" s="22" t="s">
+      <c r="Z123" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="Z123" s="22" t="s">
+      <c r="AA123" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="AA123" s="22" t="s">
+      <c r="AB123" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="AB123" s="22" t="s">
+      <c r="AC123" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="AC123" s="22" t="s">
+      <c r="AD123" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="AD123" s="22" t="s">
+      <c r="AE123" s="22" t="s">
         <v>110</v>
-      </c>
-      <c r="AE123" s="22" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="124" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
@@ -8742,86 +8748,86 @@
       </c>
       <c r="C130" s="1"/>
       <c r="D130" s="1" t="s">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="E130" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F130" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="F130" s="1" t="s">
+      <c r="G130" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G130" s="1" t="s">
+      <c r="H130" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="H130" s="1" t="s">
+      <c r="I130" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="I130" s="1" t="s">
+      <c r="J130" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="J130" s="1" t="s">
+      <c r="K130" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K130" s="1" t="s">
+      <c r="L130" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L130" s="1" t="s">
+      <c r="M130" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="M130" s="1" t="s">
+      <c r="N130" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="N130" s="1" t="s">
+      <c r="O130" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="O130" s="1" t="s">
+      <c r="P130" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="P130" s="1" t="s">
-        <v>116</v>
       </c>
       <c r="Q130" s="22" t="s">
         <v>74</v>
       </c>
       <c r="R130" s="22"/>
       <c r="S130" s="22" t="s">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="T130" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="U130" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="U130" s="22" t="s">
+      <c r="V130" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="V130" s="22" t="s">
+      <c r="W130" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="W130" s="22" t="s">
+      <c r="X130" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="X130" s="22" t="s">
+      <c r="Y130" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="Y130" s="22" t="s">
+      <c r="Z130" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="Z130" s="22" t="s">
+      <c r="AA130" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="AA130" s="22" t="s">
+      <c r="AB130" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="AB130" s="22" t="s">
+      <c r="AC130" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="AC130" s="22" t="s">
+      <c r="AD130" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="AD130" s="22" t="s">
+      <c r="AE130" s="22" t="s">
         <v>110</v>
-      </c>
-      <c r="AE130" s="22" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="131" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
@@ -9026,86 +9032,86 @@
       </c>
       <c r="C137" s="1"/>
       <c r="D137" s="1" t="s">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="E137" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F137" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="F137" s="1" t="s">
+      <c r="G137" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G137" s="1" t="s">
+      <c r="H137" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="H137" s="1" t="s">
+      <c r="I137" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="I137" s="1" t="s">
+      <c r="J137" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="J137" s="1" t="s">
+      <c r="K137" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K137" s="1" t="s">
+      <c r="L137" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L137" s="1" t="s">
+      <c r="M137" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="M137" s="1" t="s">
+      <c r="N137" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="N137" s="1" t="s">
+      <c r="O137" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="O137" s="1" t="s">
+      <c r="P137" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="P137" s="1" t="s">
-        <v>116</v>
       </c>
       <c r="Q137" s="22" t="s">
         <v>75</v>
       </c>
       <c r="R137" s="22"/>
       <c r="S137" s="22" t="s">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="T137" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="U137" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="U137" s="22" t="s">
+      <c r="V137" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="V137" s="22" t="s">
+      <c r="W137" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="W137" s="22" t="s">
+      <c r="X137" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="X137" s="22" t="s">
+      <c r="Y137" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="Y137" s="22" t="s">
+      <c r="Z137" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="Z137" s="22" t="s">
+      <c r="AA137" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="AA137" s="22" t="s">
+      <c r="AB137" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="AB137" s="22" t="s">
+      <c r="AC137" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="AC137" s="22" t="s">
+      <c r="AD137" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="AD137" s="22" t="s">
+      <c r="AE137" s="22" t="s">
         <v>110</v>
-      </c>
-      <c r="AE137" s="22" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="138" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
@@ -9306,86 +9312,86 @@
       </c>
       <c r="C144" s="1"/>
       <c r="D144" s="1" t="s">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="E144" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F144" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="F144" s="1" t="s">
+      <c r="G144" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G144" s="1" t="s">
+      <c r="H144" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="H144" s="1" t="s">
+      <c r="I144" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="I144" s="1" t="s">
+      <c r="J144" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="J144" s="1" t="s">
+      <c r="K144" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K144" s="1" t="s">
+      <c r="L144" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L144" s="1" t="s">
+      <c r="M144" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="M144" s="1" t="s">
+      <c r="N144" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="N144" s="1" t="s">
+      <c r="O144" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="O144" s="1" t="s">
+      <c r="P144" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="P144" s="1" t="s">
-        <v>116</v>
       </c>
       <c r="Q144" s="22" t="s">
         <v>76</v>
       </c>
       <c r="R144" s="22"/>
       <c r="S144" s="22" t="s">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="T144" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="U144" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="U144" s="22" t="s">
+      <c r="V144" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="V144" s="22" t="s">
+      <c r="W144" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="W144" s="22" t="s">
+      <c r="X144" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="X144" s="22" t="s">
+      <c r="Y144" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="Y144" s="22" t="s">
+      <c r="Z144" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="Z144" s="22" t="s">
+      <c r="AA144" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="AA144" s="22" t="s">
+      <c r="AB144" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="AB144" s="22" t="s">
+      <c r="AC144" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="AC144" s="22" t="s">
+      <c r="AD144" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="AD144" s="22" t="s">
+      <c r="AE144" s="22" t="s">
         <v>110</v>
-      </c>
-      <c r="AE144" s="22" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="145" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
@@ -9590,86 +9596,86 @@
       </c>
       <c r="C151" s="1"/>
       <c r="D151" s="1" t="s">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="E151" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F151" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="F151" s="1" t="s">
+      <c r="G151" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G151" s="1" t="s">
+      <c r="H151" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="H151" s="1" t="s">
+      <c r="I151" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="I151" s="1" t="s">
+      <c r="J151" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="J151" s="1" t="s">
+      <c r="K151" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K151" s="1" t="s">
+      <c r="L151" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L151" s="1" t="s">
+      <c r="M151" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="M151" s="1" t="s">
+      <c r="N151" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="N151" s="1" t="s">
+      <c r="O151" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="O151" s="1" t="s">
+      <c r="P151" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="P151" s="1" t="s">
-        <v>116</v>
       </c>
       <c r="Q151" s="22" t="s">
         <v>77</v>
       </c>
       <c r="R151" s="22"/>
       <c r="S151" s="22" t="s">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="T151" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="U151" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="U151" s="22" t="s">
+      <c r="V151" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="V151" s="22" t="s">
+      <c r="W151" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="W151" s="22" t="s">
+      <c r="X151" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="X151" s="22" t="s">
+      <c r="Y151" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="Y151" s="22" t="s">
+      <c r="Z151" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="Z151" s="22" t="s">
+      <c r="AA151" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="AA151" s="22" t="s">
+      <c r="AB151" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="AB151" s="22" t="s">
+      <c r="AC151" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="AC151" s="22" t="s">
+      <c r="AD151" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="AD151" s="22" t="s">
+      <c r="AE151" s="22" t="s">
         <v>110</v>
-      </c>
-      <c r="AE151" s="22" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="152" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
@@ -9874,86 +9880,86 @@
       </c>
       <c r="C158" s="1"/>
       <c r="D158" s="1" t="s">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="E158" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F158" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="F158" s="1" t="s">
+      <c r="G158" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G158" s="1" t="s">
+      <c r="H158" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="H158" s="1" t="s">
+      <c r="I158" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="I158" s="1" t="s">
+      <c r="J158" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="J158" s="1" t="s">
+      <c r="K158" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K158" s="1" t="s">
+      <c r="L158" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L158" s="1" t="s">
+      <c r="M158" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="M158" s="1" t="s">
+      <c r="N158" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="N158" s="1" t="s">
+      <c r="O158" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="O158" s="1" t="s">
+      <c r="P158" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="P158" s="1" t="s">
-        <v>116</v>
       </c>
       <c r="Q158" s="22" t="s">
         <v>78</v>
       </c>
       <c r="R158" s="22"/>
       <c r="S158" s="22" t="s">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="T158" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="U158" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="U158" s="22" t="s">
+      <c r="V158" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="V158" s="22" t="s">
+      <c r="W158" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="W158" s="22" t="s">
+      <c r="X158" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="X158" s="22" t="s">
+      <c r="Y158" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="Y158" s="22" t="s">
+      <c r="Z158" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="Z158" s="22" t="s">
+      <c r="AA158" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="AA158" s="22" t="s">
+      <c r="AB158" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="AB158" s="22" t="s">
+      <c r="AC158" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="AC158" s="22" t="s">
+      <c r="AD158" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="AD158" s="22" t="s">
+      <c r="AE158" s="22" t="s">
         <v>110</v>
-      </c>
-      <c r="AE158" s="22" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="159" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
@@ -10158,86 +10164,86 @@
       </c>
       <c r="C165" s="1"/>
       <c r="D165" s="1" t="s">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="E165" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F165" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="F165" s="1" t="s">
+      <c r="G165" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G165" s="1" t="s">
+      <c r="H165" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="H165" s="1" t="s">
+      <c r="I165" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="I165" s="1" t="s">
+      <c r="J165" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="J165" s="1" t="s">
+      <c r="K165" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K165" s="1" t="s">
+      <c r="L165" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L165" s="1" t="s">
+      <c r="M165" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="M165" s="1" t="s">
+      <c r="N165" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="N165" s="1" t="s">
+      <c r="O165" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="O165" s="1" t="s">
+      <c r="P165" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="P165" s="1" t="s">
-        <v>116</v>
       </c>
       <c r="Q165" s="22" t="s">
         <v>79</v>
       </c>
       <c r="R165" s="22"/>
       <c r="S165" s="22" t="s">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="T165" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="U165" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="U165" s="22" t="s">
+      <c r="V165" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="V165" s="22" t="s">
+      <c r="W165" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="W165" s="22" t="s">
+      <c r="X165" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="X165" s="22" t="s">
+      <c r="Y165" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="Y165" s="22" t="s">
+      <c r="Z165" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="Z165" s="22" t="s">
+      <c r="AA165" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="AA165" s="22" t="s">
+      <c r="AB165" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="AB165" s="22" t="s">
+      <c r="AC165" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="AC165" s="22" t="s">
+      <c r="AD165" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="AD165" s="22" t="s">
+      <c r="AE165" s="22" t="s">
         <v>110</v>
-      </c>
-      <c r="AE165" s="22" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="166" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
@@ -10442,86 +10448,86 @@
       </c>
       <c r="C172" s="1"/>
       <c r="D172" s="1" t="s">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="E172" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F172" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="F172" s="1" t="s">
+      <c r="G172" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G172" s="1" t="s">
+      <c r="H172" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="H172" s="1" t="s">
+      <c r="I172" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="I172" s="1" t="s">
+      <c r="J172" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="J172" s="1" t="s">
+      <c r="K172" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K172" s="1" t="s">
+      <c r="L172" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L172" s="1" t="s">
+      <c r="M172" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="M172" s="1" t="s">
+      <c r="N172" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="N172" s="1" t="s">
+      <c r="O172" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="O172" s="1" t="s">
+      <c r="P172" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="P172" s="1" t="s">
-        <v>116</v>
       </c>
       <c r="Q172" s="22" t="s">
         <v>80</v>
       </c>
       <c r="R172" s="22"/>
       <c r="S172" s="22" t="s">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="T172" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="U172" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="U172" s="22" t="s">
+      <c r="V172" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="V172" s="22" t="s">
+      <c r="W172" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="W172" s="22" t="s">
+      <c r="X172" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="X172" s="22" t="s">
+      <c r="Y172" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="Y172" s="22" t="s">
+      <c r="Z172" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="Z172" s="22" t="s">
+      <c r="AA172" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="AA172" s="22" t="s">
+      <c r="AB172" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="AB172" s="22" t="s">
+      <c r="AC172" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="AC172" s="22" t="s">
+      <c r="AD172" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="AD172" s="22" t="s">
+      <c r="AE172" s="22" t="s">
         <v>110</v>
-      </c>
-      <c r="AE172" s="22" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="173" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
@@ -10726,86 +10732,86 @@
       </c>
       <c r="C179" s="1"/>
       <c r="D179" s="1" t="s">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="E179" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F179" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="F179" s="1" t="s">
+      <c r="G179" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G179" s="1" t="s">
+      <c r="H179" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="H179" s="1" t="s">
+      <c r="I179" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="I179" s="1" t="s">
+      <c r="J179" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="J179" s="1" t="s">
+      <c r="K179" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K179" s="1" t="s">
+      <c r="L179" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L179" s="1" t="s">
+      <c r="M179" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="M179" s="1" t="s">
+      <c r="N179" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="N179" s="1" t="s">
+      <c r="O179" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="O179" s="1" t="s">
+      <c r="P179" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="P179" s="1" t="s">
-        <v>116</v>
       </c>
       <c r="Q179" s="22" t="s">
         <v>81</v>
       </c>
       <c r="R179" s="22"/>
       <c r="S179" s="22" t="s">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="T179" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="U179" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="U179" s="22" t="s">
+      <c r="V179" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="V179" s="22" t="s">
+      <c r="W179" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="W179" s="22" t="s">
+      <c r="X179" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="X179" s="22" t="s">
+      <c r="Y179" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="Y179" s="22" t="s">
+      <c r="Z179" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="Z179" s="22" t="s">
+      <c r="AA179" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="AA179" s="22" t="s">
+      <c r="AB179" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="AB179" s="22" t="s">
+      <c r="AC179" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="AC179" s="22" t="s">
+      <c r="AD179" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="AD179" s="22" t="s">
+      <c r="AE179" s="22" t="s">
         <v>110</v>
-      </c>
-      <c r="AE179" s="22" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="180" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
@@ -11010,86 +11016,86 @@
       </c>
       <c r="C186" s="1"/>
       <c r="D186" s="1" t="s">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="E186" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F186" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="F186" s="1" t="s">
+      <c r="G186" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G186" s="1" t="s">
+      <c r="H186" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="H186" s="1" t="s">
+      <c r="I186" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="I186" s="1" t="s">
+      <c r="J186" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="J186" s="1" t="s">
+      <c r="K186" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K186" s="1" t="s">
+      <c r="L186" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L186" s="1" t="s">
+      <c r="M186" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="M186" s="1" t="s">
+      <c r="N186" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="N186" s="1" t="s">
+      <c r="O186" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="O186" s="1" t="s">
+      <c r="P186" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="P186" s="1" t="s">
-        <v>116</v>
       </c>
       <c r="Q186" s="22" t="s">
         <v>82</v>
       </c>
       <c r="R186" s="22"/>
       <c r="S186" s="22" t="s">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="T186" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="U186" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="U186" s="22" t="s">
+      <c r="V186" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="V186" s="22" t="s">
+      <c r="W186" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="W186" s="22" t="s">
+      <c r="X186" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="X186" s="22" t="s">
+      <c r="Y186" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="Y186" s="22" t="s">
+      <c r="Z186" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="Z186" s="22" t="s">
+      <c r="AA186" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="AA186" s="22" t="s">
+      <c r="AB186" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="AB186" s="22" t="s">
+      <c r="AC186" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="AC186" s="22" t="s">
+      <c r="AD186" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="AD186" s="22" t="s">
+      <c r="AE186" s="22" t="s">
         <v>110</v>
-      </c>
-      <c r="AE186" s="22" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="187" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
@@ -11294,86 +11300,86 @@
       </c>
       <c r="C193" s="1"/>
       <c r="D193" s="1" t="s">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="E193" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F193" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="F193" s="1" t="s">
+      <c r="G193" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G193" s="1" t="s">
+      <c r="H193" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="H193" s="1" t="s">
+      <c r="I193" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="I193" s="1" t="s">
+      <c r="J193" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="J193" s="1" t="s">
+      <c r="K193" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K193" s="1" t="s">
+      <c r="L193" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L193" s="1" t="s">
+      <c r="M193" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="M193" s="1" t="s">
+      <c r="N193" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="N193" s="1" t="s">
+      <c r="O193" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="O193" s="1" t="s">
+      <c r="P193" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="P193" s="1" t="s">
-        <v>116</v>
       </c>
       <c r="Q193" s="22" t="s">
         <v>83</v>
       </c>
       <c r="R193" s="22"/>
       <c r="S193" s="22" t="s">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="T193" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="U193" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="U193" s="22" t="s">
+      <c r="V193" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="V193" s="22" t="s">
+      <c r="W193" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="W193" s="22" t="s">
+      <c r="X193" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="X193" s="22" t="s">
+      <c r="Y193" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="Y193" s="22" t="s">
+      <c r="Z193" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="Z193" s="22" t="s">
+      <c r="AA193" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="AA193" s="22" t="s">
+      <c r="AB193" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="AB193" s="22" t="s">
+      <c r="AC193" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="AC193" s="22" t="s">
+      <c r="AD193" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="AD193" s="22" t="s">
+      <c r="AE193" s="22" t="s">
         <v>110</v>
-      </c>
-      <c r="AE193" s="22" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="194" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
@@ -11578,86 +11584,86 @@
       </c>
       <c r="C200" s="1"/>
       <c r="D200" s="1" t="s">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="E200" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F200" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="F200" s="1" t="s">
+      <c r="G200" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G200" s="1" t="s">
+      <c r="H200" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="H200" s="1" t="s">
+      <c r="I200" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="I200" s="1" t="s">
+      <c r="J200" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="J200" s="1" t="s">
+      <c r="K200" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K200" s="1" t="s">
+      <c r="L200" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L200" s="1" t="s">
+      <c r="M200" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="M200" s="1" t="s">
+      <c r="N200" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="N200" s="1" t="s">
+      <c r="O200" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="O200" s="1" t="s">
+      <c r="P200" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="P200" s="1" t="s">
-        <v>116</v>
       </c>
       <c r="Q200" s="22" t="s">
         <v>84</v>
       </c>
       <c r="R200" s="22"/>
       <c r="S200" s="22" t="s">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="T200" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="U200" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="U200" s="22" t="s">
+      <c r="V200" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="V200" s="22" t="s">
+      <c r="W200" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="W200" s="22" t="s">
+      <c r="X200" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="X200" s="22" t="s">
+      <c r="Y200" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="Y200" s="22" t="s">
+      <c r="Z200" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="Z200" s="22" t="s">
+      <c r="AA200" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="AA200" s="22" t="s">
+      <c r="AB200" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="AB200" s="22" t="s">
+      <c r="AC200" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="AC200" s="22" t="s">
+      <c r="AD200" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="AD200" s="22" t="s">
+      <c r="AE200" s="22" t="s">
         <v>110</v>
-      </c>
-      <c r="AE200" s="22" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="201" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
@@ -11862,86 +11868,86 @@
       </c>
       <c r="C207" s="1"/>
       <c r="D207" s="1" t="s">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="E207" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F207" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="F207" s="1" t="s">
+      <c r="G207" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G207" s="1" t="s">
+      <c r="H207" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="H207" s="1" t="s">
+      <c r="I207" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="I207" s="1" t="s">
+      <c r="J207" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="J207" s="1" t="s">
+      <c r="K207" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K207" s="1" t="s">
+      <c r="L207" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L207" s="1" t="s">
+      <c r="M207" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="M207" s="1" t="s">
+      <c r="N207" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="N207" s="1" t="s">
+      <c r="O207" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="O207" s="1" t="s">
+      <c r="P207" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="P207" s="1" t="s">
-        <v>116</v>
       </c>
       <c r="Q207" s="22" t="s">
         <v>85</v>
       </c>
       <c r="R207" s="22"/>
       <c r="S207" s="22" t="s">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="T207" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="U207" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="U207" s="22" t="s">
+      <c r="V207" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="V207" s="22" t="s">
+      <c r="W207" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="W207" s="22" t="s">
+      <c r="X207" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="X207" s="22" t="s">
+      <c r="Y207" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="Y207" s="22" t="s">
+      <c r="Z207" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="Z207" s="22" t="s">
+      <c r="AA207" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="AA207" s="22" t="s">
+      <c r="AB207" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="AB207" s="22" t="s">
+      <c r="AC207" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="AC207" s="22" t="s">
+      <c r="AD207" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="AD207" s="22" t="s">
+      <c r="AE207" s="22" t="s">
         <v>110</v>
-      </c>
-      <c r="AE207" s="22" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="208" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
@@ -12146,86 +12152,86 @@
       </c>
       <c r="C214" s="1"/>
       <c r="D214" s="1" t="s">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="E214" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F214" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="F214" s="1" t="s">
+      <c r="G214" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G214" s="1" t="s">
+      <c r="H214" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="H214" s="1" t="s">
+      <c r="I214" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="I214" s="1" t="s">
+      <c r="J214" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="J214" s="1" t="s">
+      <c r="K214" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K214" s="1" t="s">
+      <c r="L214" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L214" s="1" t="s">
+      <c r="M214" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="M214" s="1" t="s">
+      <c r="N214" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="N214" s="1" t="s">
+      <c r="O214" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="O214" s="1" t="s">
+      <c r="P214" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="P214" s="1" t="s">
-        <v>116</v>
       </c>
       <c r="Q214" s="22" t="s">
         <v>86</v>
       </c>
       <c r="R214" s="22"/>
       <c r="S214" s="22" t="s">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="T214" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="U214" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="U214" s="22" t="s">
+      <c r="V214" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="V214" s="22" t="s">
+      <c r="W214" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="W214" s="22" t="s">
+      <c r="X214" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="X214" s="22" t="s">
+      <c r="Y214" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="Y214" s="22" t="s">
+      <c r="Z214" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="Z214" s="22" t="s">
+      <c r="AA214" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="AA214" s="22" t="s">
+      <c r="AB214" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="AB214" s="22" t="s">
+      <c r="AC214" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="AC214" s="22" t="s">
+      <c r="AD214" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="AD214" s="22" t="s">
+      <c r="AE214" s="22" t="s">
         <v>110</v>
-      </c>
-      <c r="AE214" s="22" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="215" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
@@ -12430,86 +12436,86 @@
       </c>
       <c r="C221" s="1"/>
       <c r="D221" s="1" t="s">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="E221" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F221" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="F221" s="1" t="s">
+      <c r="G221" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G221" s="1" t="s">
+      <c r="H221" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="H221" s="1" t="s">
+      <c r="I221" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="I221" s="1" t="s">
+      <c r="J221" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="J221" s="1" t="s">
+      <c r="K221" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K221" s="1" t="s">
+      <c r="L221" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L221" s="1" t="s">
+      <c r="M221" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="M221" s="1" t="s">
+      <c r="N221" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="N221" s="1" t="s">
+      <c r="O221" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="O221" s="1" t="s">
+      <c r="P221" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="P221" s="1" t="s">
-        <v>116</v>
       </c>
       <c r="Q221" s="22" t="s">
         <v>87</v>
       </c>
       <c r="R221" s="22"/>
       <c r="S221" s="22" t="s">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="T221" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="U221" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="U221" s="22" t="s">
+      <c r="V221" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="V221" s="22" t="s">
+      <c r="W221" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="W221" s="22" t="s">
+      <c r="X221" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="X221" s="22" t="s">
+      <c r="Y221" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="Y221" s="22" t="s">
+      <c r="Z221" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="Z221" s="22" t="s">
+      <c r="AA221" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="AA221" s="22" t="s">
+      <c r="AB221" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="AB221" s="22" t="s">
+      <c r="AC221" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="AC221" s="22" t="s">
+      <c r="AD221" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="AD221" s="22" t="s">
+      <c r="AE221" s="22" t="s">
         <v>110</v>
-      </c>
-      <c r="AE221" s="22" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="222" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
@@ -12714,86 +12720,86 @@
       </c>
       <c r="C228" s="1"/>
       <c r="D228" s="1" t="s">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="E228" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F228" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="F228" s="1" t="s">
+      <c r="G228" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G228" s="1" t="s">
+      <c r="H228" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="H228" s="1" t="s">
+      <c r="I228" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="I228" s="1" t="s">
+      <c r="J228" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="J228" s="1" t="s">
+      <c r="K228" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K228" s="1" t="s">
+      <c r="L228" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L228" s="1" t="s">
+      <c r="M228" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="M228" s="1" t="s">
+      <c r="N228" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="N228" s="1" t="s">
+      <c r="O228" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="O228" s="1" t="s">
+      <c r="P228" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="P228" s="1" t="s">
-        <v>116</v>
       </c>
       <c r="Q228" s="22" t="s">
         <v>88</v>
       </c>
       <c r="R228" s="22"/>
       <c r="S228" s="22" t="s">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="T228" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="U228" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="U228" s="22" t="s">
+      <c r="V228" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="V228" s="22" t="s">
+      <c r="W228" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="W228" s="22" t="s">
+      <c r="X228" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="X228" s="22" t="s">
+      <c r="Y228" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="Y228" s="22" t="s">
+      <c r="Z228" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="Z228" s="22" t="s">
+      <c r="AA228" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="AA228" s="22" t="s">
+      <c r="AB228" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="AB228" s="22" t="s">
+      <c r="AC228" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="AC228" s="22" t="s">
+      <c r="AD228" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="AD228" s="22" t="s">
+      <c r="AE228" s="22" t="s">
         <v>110</v>
-      </c>
-      <c r="AE228" s="22" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="229" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
@@ -12998,86 +13004,86 @@
       </c>
       <c r="C235" s="1"/>
       <c r="D235" s="1" t="s">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="E235" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F235" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="F235" s="1" t="s">
+      <c r="G235" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G235" s="1" t="s">
+      <c r="H235" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="H235" s="1" t="s">
+      <c r="I235" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="I235" s="1" t="s">
+      <c r="J235" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="J235" s="1" t="s">
+      <c r="K235" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K235" s="1" t="s">
+      <c r="L235" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L235" s="1" t="s">
+      <c r="M235" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="M235" s="1" t="s">
+      <c r="N235" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="N235" s="1" t="s">
+      <c r="O235" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="O235" s="1" t="s">
+      <c r="P235" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="P235" s="1" t="s">
-        <v>116</v>
       </c>
       <c r="Q235" s="22" t="s">
         <v>89</v>
       </c>
       <c r="R235" s="22"/>
       <c r="S235" s="22" t="s">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="T235" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="U235" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="U235" s="22" t="s">
+      <c r="V235" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="V235" s="22" t="s">
+      <c r="W235" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="W235" s="22" t="s">
+      <c r="X235" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="X235" s="22" t="s">
+      <c r="Y235" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="Y235" s="22" t="s">
+      <c r="Z235" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="Z235" s="22" t="s">
+      <c r="AA235" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="AA235" s="22" t="s">
+      <c r="AB235" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="AB235" s="22" t="s">
+      <c r="AC235" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="AC235" s="22" t="s">
+      <c r="AD235" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="AD235" s="22" t="s">
+      <c r="AE235" s="22" t="s">
         <v>110</v>
-      </c>
-      <c r="AE235" s="22" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="236" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
@@ -13282,86 +13288,86 @@
       </c>
       <c r="C242" s="1"/>
       <c r="D242" s="1" t="s">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="E242" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F242" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="F242" s="1" t="s">
+      <c r="G242" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G242" s="1" t="s">
+      <c r="H242" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="H242" s="1" t="s">
+      <c r="I242" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="I242" s="1" t="s">
+      <c r="J242" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="J242" s="1" t="s">
+      <c r="K242" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K242" s="1" t="s">
+      <c r="L242" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L242" s="1" t="s">
+      <c r="M242" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="M242" s="1" t="s">
+      <c r="N242" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="N242" s="1" t="s">
+      <c r="O242" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="O242" s="1" t="s">
+      <c r="P242" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="P242" s="1" t="s">
-        <v>116</v>
       </c>
       <c r="Q242" s="22" t="s">
         <v>90</v>
       </c>
       <c r="R242" s="22"/>
       <c r="S242" s="22" t="s">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="T242" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="U242" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="U242" s="22" t="s">
+      <c r="V242" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="V242" s="22" t="s">
+      <c r="W242" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="W242" s="22" t="s">
+      <c r="X242" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="X242" s="22" t="s">
+      <c r="Y242" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="Y242" s="22" t="s">
+      <c r="Z242" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="Z242" s="22" t="s">
+      <c r="AA242" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="AA242" s="22" t="s">
+      <c r="AB242" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="AB242" s="22" t="s">
+      <c r="AC242" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="AC242" s="22" t="s">
+      <c r="AD242" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="AD242" s="22" t="s">
+      <c r="AE242" s="22" t="s">
         <v>110</v>
-      </c>
-      <c r="AE242" s="22" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="243" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
@@ -13566,86 +13572,86 @@
       </c>
       <c r="C249" s="1"/>
       <c r="D249" s="1" t="s">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="E249" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F249" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="F249" s="1" t="s">
+      <c r="G249" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G249" s="1" t="s">
+      <c r="H249" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="H249" s="1" t="s">
+      <c r="I249" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="I249" s="1" t="s">
+      <c r="J249" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="J249" s="1" t="s">
+      <c r="K249" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K249" s="1" t="s">
+      <c r="L249" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L249" s="1" t="s">
+      <c r="M249" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="M249" s="1" t="s">
+      <c r="N249" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="N249" s="1" t="s">
+      <c r="O249" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="O249" s="1" t="s">
+      <c r="P249" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="P249" s="1" t="s">
-        <v>116</v>
       </c>
       <c r="Q249" s="22" t="s">
         <v>91</v>
       </c>
       <c r="R249" s="22"/>
       <c r="S249" s="22" t="s">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="T249" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="U249" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="U249" s="22" t="s">
+      <c r="V249" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="V249" s="22" t="s">
+      <c r="W249" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="W249" s="22" t="s">
+      <c r="X249" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="X249" s="22" t="s">
+      <c r="Y249" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="Y249" s="22" t="s">
+      <c r="Z249" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="Z249" s="22" t="s">
+      <c r="AA249" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="AA249" s="22" t="s">
+      <c r="AB249" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="AB249" s="22" t="s">
+      <c r="AC249" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="AC249" s="22" t="s">
+      <c r="AD249" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="AD249" s="22" t="s">
+      <c r="AE249" s="22" t="s">
         <v>110</v>
-      </c>
-      <c r="AE249" s="22" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="250" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
@@ -13850,89 +13856,89 @@
       </c>
       <c r="C256" s="1"/>
       <c r="D256" s="1" t="s">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="E256" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F256" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="F256" s="1" t="s">
+      <c r="G256" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G256" s="1" t="s">
+      <c r="H256" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="H256" s="1" t="s">
+      <c r="I256" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="I256" s="1" t="s">
+      <c r="J256" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="J256" s="1" t="s">
+      <c r="K256" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K256" s="1" t="s">
+      <c r="L256" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L256" s="1" t="s">
+      <c r="M256" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="M256" s="1" t="s">
+      <c r="N256" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="N256" s="1" t="s">
+      <c r="O256" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="O256" s="1" t="s">
+      <c r="P256" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="P256" s="1" t="s">
-        <v>116</v>
       </c>
       <c r="Q256" s="22" t="s">
         <v>92</v>
       </c>
       <c r="R256" s="22"/>
       <c r="S256" s="22" t="s">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="T256" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="U256" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="U256" s="22" t="s">
+      <c r="V256" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="V256" s="22" t="s">
+      <c r="W256" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="W256" s="22" t="s">
+      <c r="X256" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="X256" s="22" t="s">
+      <c r="Y256" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="Y256" s="22" t="s">
+      <c r="Z256" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="Z256" s="22" t="s">
+      <c r="AA256" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="AA256" s="22" t="s">
+      <c r="AB256" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="AB256" s="22" t="s">
+      <c r="AC256" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="AC256" s="22" t="s">
+      <c r="AD256" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="AD256" s="22" t="s">
+      <c r="AE256" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="AE256" s="22" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="257" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="257" spans="2:34" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B257" s="16"/>
       <c r="C257" s="1"/>
       <c r="D257" s="3"/>
@@ -13964,7 +13970,7 @@
       <c r="AD257" s="3"/>
       <c r="AE257" s="3"/>
     </row>
-    <row r="258" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="258" spans="2:34" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B258" s="16"/>
       <c r="C258" s="1"/>
       <c r="D258" s="3"/>
@@ -13996,7 +14002,7 @@
       <c r="AD258" s="3"/>
       <c r="AE258" s="3"/>
     </row>
-    <row r="259" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="259" spans="2:34" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B259" s="16"/>
       <c r="C259" s="1"/>
       <c r="D259" s="3"/>
@@ -14028,7 +14034,7 @@
       <c r="AD259" s="3"/>
       <c r="AE259" s="3"/>
     </row>
-    <row r="260" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="260" spans="2:34" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B260" s="16"/>
       <c r="C260" s="1"/>
       <c r="D260" s="3"/>
@@ -14059,8 +14065,11 @@
       <c r="AC260" s="3"/>
       <c r="AD260" s="3"/>
       <c r="AE260" s="3"/>
-    </row>
-    <row r="261" spans="2:31" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AH260" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="261" spans="2:34" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C261" s="21" t="s">
         <v>43</v>
       </c>
@@ -14094,7 +14103,7 @@
       <c r="AD261" s="22"/>
       <c r="AE261" s="22"/>
     </row>
-    <row r="262" spans="2:31" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="2:34" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C262" s="20" t="s">
         <v>55</v>
       </c>
@@ -14128,95 +14137,95 @@
       <c r="AD262" s="24"/>
       <c r="AE262" s="24"/>
     </row>
-    <row r="263" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="263" spans="2:34" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B263" s="1" t="s">
         <v>42</v>
       </c>
       <c r="C263" s="1"/>
       <c r="D263" s="1" t="s">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="E263" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F263" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="F263" s="1" t="s">
+      <c r="G263" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G263" s="1" t="s">
+      <c r="H263" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="H263" s="1" t="s">
+      <c r="I263" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="I263" s="1" t="s">
+      <c r="J263" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="J263" s="1" t="s">
+      <c r="K263" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K263" s="1" t="s">
+      <c r="L263" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L263" s="1" t="s">
+      <c r="M263" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="M263" s="1" t="s">
+      <c r="N263" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="N263" s="1" t="s">
+      <c r="O263" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="O263" s="1" t="s">
+      <c r="P263" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="P263" s="1" t="s">
-        <v>116</v>
       </c>
       <c r="Q263" s="22" t="s">
         <v>93</v>
       </c>
       <c r="R263" s="22"/>
       <c r="S263" s="22" t="s">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="T263" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="U263" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="U263" s="22" t="s">
+      <c r="V263" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="V263" s="22" t="s">
+      <c r="W263" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="W263" s="22" t="s">
+      <c r="X263" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="X263" s="22" t="s">
+      <c r="Y263" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="Y263" s="22" t="s">
+      <c r="Z263" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="Z263" s="22" t="s">
+      <c r="AA263" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="AA263" s="22" t="s">
+      <c r="AB263" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="AB263" s="22" t="s">
+      <c r="AC263" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="AC263" s="22" t="s">
+      <c r="AD263" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="AD263" s="22" t="s">
+      <c r="AE263" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="AE263" s="22" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="264" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="264" spans="2:34" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B264" s="16"/>
       <c r="C264" s="1"/>
       <c r="D264" s="3"/>
@@ -14248,7 +14257,7 @@
       <c r="AD264" s="3"/>
       <c r="AE264" s="3"/>
     </row>
-    <row r="265" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="265" spans="2:34" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B265" s="16"/>
       <c r="C265" s="1"/>
       <c r="D265" s="3"/>
@@ -14280,7 +14289,7 @@
       <c r="AD265" s="3"/>
       <c r="AE265" s="3"/>
     </row>
-    <row r="266" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="266" spans="2:34" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B266" s="16"/>
       <c r="C266" s="1"/>
       <c r="D266" s="3"/>
@@ -14312,7 +14321,7 @@
       <c r="AD266" s="3"/>
       <c r="AE266" s="3"/>
     </row>
-    <row r="267" spans="2:31" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="267" spans="2:34" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B267" s="16"/>
       <c r="C267" s="1"/>
       <c r="D267" s="3"/>
@@ -14344,7 +14353,7 @@
       <c r="AD267" s="3"/>
       <c r="AE267" s="3"/>
     </row>
-    <row r="268" spans="2:31" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="2:34" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C268" s="21" t="s">
         <v>43</v>
       </c>
@@ -14378,7 +14387,7 @@
       <c r="AD268" s="22"/>
       <c r="AE268" s="22"/>
     </row>
-    <row r="269" spans="2:31" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="2:34" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C269" s="1" t="s">
         <v>55</v>
       </c>
@@ -14995,7 +15004,7 @@
       <c r="C5" s="16"/>
       <c r="D5" s="6" t="str" cm="1">
         <f t="array" aca="1" ref="D5:F25" ca="1">_xlfn.SORTBY(_xlfn.HSTACK('Extra Results'!M174:M186, 'Extra Results'!N153:N173, 'Extra Results'!L153:L173),'Extra Results'!N153:N173, -1,'Extra Results'!L153:L173, -1)</f>
-        <v>Callum</v>
+        <v>Caius</v>
       </c>
       <c r="E5" s="7">
         <f ca="1"/>
@@ -15059,7 +15068,7 @@
       <c r="C6" s="16"/>
       <c r="D6" s="6" t="str">
         <f ca="1"/>
-        <v>Charlotte</v>
+        <v>Callum</v>
       </c>
       <c r="E6" s="7">
         <f ca="1"/>
@@ -15123,7 +15132,7 @@
       <c r="C7" s="18"/>
       <c r="D7" s="13" t="str">
         <f ca="1"/>
-        <v>Ellena</v>
+        <v>Charlotte</v>
       </c>
       <c r="E7" s="14">
         <f ca="1"/>
@@ -15187,7 +15196,7 @@
       <c r="C8" s="17"/>
       <c r="D8" s="6" t="str">
         <f ca="1"/>
-        <v>George</v>
+        <v>Ellena</v>
       </c>
       <c r="E8" s="7">
         <f ca="1"/>
@@ -15251,7 +15260,7 @@
       <c r="C9" s="16"/>
       <c r="D9" s="6" t="str">
         <f ca="1"/>
-        <v>Harry</v>
+        <v>George</v>
       </c>
       <c r="E9" s="7">
         <f ca="1"/>
@@ -15315,7 +15324,7 @@
       <c r="C10" s="16"/>
       <c r="D10" s="6" t="str">
         <f ca="1"/>
-        <v>Nicola</v>
+        <v>Harry</v>
       </c>
       <c r="E10" s="7">
         <f ca="1"/>
@@ -15379,7 +15388,7 @@
       <c r="C11" s="16"/>
       <c r="D11" s="6" t="str">
         <f ca="1"/>
-        <v>Reece</v>
+        <v>Nicola</v>
       </c>
       <c r="E11" s="7">
         <f ca="1"/>
@@ -15443,7 +15452,7 @@
       <c r="C12" s="16"/>
       <c r="D12" s="6" t="str">
         <f ca="1"/>
-        <v>Rory</v>
+        <v>Reece</v>
       </c>
       <c r="E12" s="7">
         <f ca="1"/>
@@ -15507,7 +15516,7 @@
       <c r="C13" s="16"/>
       <c r="D13" s="6" t="str">
         <f ca="1"/>
-        <v>Ruby</v>
+        <v>Rory</v>
       </c>
       <c r="E13" s="7">
         <f ca="1"/>
@@ -15571,7 +15580,7 @@
       <c r="C14" s="16"/>
       <c r="D14" s="6" t="str">
         <f ca="1"/>
-        <v>Sam A</v>
+        <v>Ruby</v>
       </c>
       <c r="E14" s="7">
         <f ca="1"/>
@@ -15635,7 +15644,7 @@
       <c r="C15" s="16"/>
       <c r="D15" s="6" t="str">
         <f ca="1"/>
-        <v>Sam L</v>
+        <v>Sam A</v>
       </c>
       <c r="E15" s="7">
         <f ca="1"/>
@@ -15699,7 +15708,7 @@
       <c r="C16" s="16"/>
       <c r="D16" s="6" t="str">
         <f ca="1"/>
-        <v>Will</v>
+        <v>Sam L</v>
       </c>
       <c r="E16" s="7">
         <f ca="1"/>
@@ -15763,7 +15772,7 @@
       <c r="C17" s="16"/>
       <c r="D17" s="6" t="str">
         <f ca="1"/>
-        <v>Caius</v>
+        <v>Will</v>
       </c>
       <c r="E17" s="7">
         <f ca="1"/>
@@ -34404,8 +34413,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A197BE47-36F3-4BEB-B95F-A968F1FF956B}">
   <dimension ref="B2:X186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A161" workbookViewId="0">
-      <selection activeCell="M187" sqref="M187"/>
+    <sheetView topLeftCell="A156" workbookViewId="0">
+      <selection activeCell="U176" sqref="U176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34423,43 +34432,43 @@
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="D3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
         <v>108</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>3</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>115</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>53</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>109</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>2</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>5</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>54</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>114</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>112</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>110</v>
-      </c>
-      <c r="O3" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
@@ -36578,43 +36587,43 @@
     </row>
     <row r="50" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="D50" t="s">
+        <v>0</v>
+      </c>
+      <c r="E50" t="s">
         <v>108</v>
       </c>
-      <c r="E50" t="s">
+      <c r="F50" t="s">
         <v>3</v>
       </c>
-      <c r="F50" t="s">
+      <c r="G50" t="s">
         <v>115</v>
       </c>
-      <c r="G50" t="s">
+      <c r="H50" t="s">
         <v>53</v>
       </c>
-      <c r="H50" t="s">
+      <c r="I50" t="s">
         <v>109</v>
       </c>
-      <c r="I50" t="s">
+      <c r="J50" t="s">
         <v>2</v>
       </c>
-      <c r="J50" t="s">
+      <c r="K50" t="s">
         <v>5</v>
       </c>
-      <c r="K50" t="s">
+      <c r="L50" t="s">
         <v>54</v>
       </c>
-      <c r="L50" t="s">
+      <c r="M50" t="s">
         <v>114</v>
       </c>
-      <c r="M50" t="s">
+      <c r="N50" t="s">
         <v>112</v>
       </c>
-      <c r="N50" t="s">
+      <c r="O50" t="s">
         <v>110</v>
-      </c>
-      <c r="O50" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="51" spans="2:15" x14ac:dyDescent="0.25">
@@ -38733,43 +38742,43 @@
     </row>
     <row r="94" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C94" t="s">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="D94" t="s">
+        <v>0</v>
+      </c>
+      <c r="E94" t="s">
         <v>108</v>
       </c>
-      <c r="E94" t="s">
+      <c r="F94" t="s">
         <v>3</v>
       </c>
-      <c r="F94" t="s">
+      <c r="G94" t="s">
         <v>115</v>
       </c>
-      <c r="G94" t="s">
+      <c r="H94" t="s">
         <v>53</v>
       </c>
-      <c r="H94" t="s">
+      <c r="I94" t="s">
         <v>109</v>
       </c>
-      <c r="I94" t="s">
+      <c r="J94" t="s">
         <v>2</v>
       </c>
-      <c r="J94" t="s">
+      <c r="K94" t="s">
         <v>5</v>
       </c>
-      <c r="K94" t="s">
+      <c r="L94" t="s">
         <v>54</v>
       </c>
-      <c r="L94" t="s">
+      <c r="M94" t="s">
         <v>114</v>
       </c>
-      <c r="M94" t="s">
+      <c r="N94" t="s">
         <v>112</v>
       </c>
-      <c r="N94" t="s">
+      <c r="O94" t="s">
         <v>110</v>
-      </c>
-      <c r="O94" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="95" spans="2:15" x14ac:dyDescent="0.25">
@@ -41598,67 +41607,67 @@
     </row>
     <row r="174" spans="12:24" x14ac:dyDescent="0.25">
       <c r="M174" t="s">
-        <v>0</v>
+        <v>116</v>
       </c>
     </row>
     <row r="175" spans="12:24" x14ac:dyDescent="0.25">
       <c r="M175" t="s">
-        <v>108</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="12:24" x14ac:dyDescent="0.25">
       <c r="M176" t="s">
-        <v>3</v>
+        <v>108</v>
       </c>
     </row>
     <row r="177" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M177" t="s">
-        <v>115</v>
+        <v>3</v>
       </c>
     </row>
     <row r="178" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M178" t="s">
-        <v>53</v>
+        <v>115</v>
       </c>
     </row>
     <row r="179" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M179" t="s">
-        <v>109</v>
+        <v>53</v>
       </c>
     </row>
     <row r="180" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M180" t="s">
-        <v>2</v>
+        <v>109</v>
       </c>
     </row>
     <row r="181" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M181" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M182" t="s">
-        <v>54</v>
+        <v>5</v>
       </c>
     </row>
     <row r="183" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M183" t="s">
-        <v>113</v>
+        <v>54</v>
       </c>
     </row>
     <row r="184" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M184" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="185" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M185" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="186" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M186" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
